--- a/legendre_out/DATA/a1/a4/a1_a4Fit.xlsx
+++ b/legendre_out/DATA/a1/a4/a1_a4Fit.xlsx
@@ -415,7106 +415,7106 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.996021</v>
       </c>
       <c r="B2" t="n">
-        <v>2.473895672926275e-05</v>
+        <v>26266158381009.4</v>
       </c>
       <c r="C2" t="n">
-        <v>9.683860200761917e-06</v>
+        <v>15594924777457.83</v>
       </c>
       <c r="D2" t="n">
-        <v>6.551740686085787e-06</v>
+        <v>-9168078963010.844</v>
       </c>
       <c r="E2" t="n">
-        <v>6.043389961600601e-07</v>
+        <v>637845187870.8157</v>
       </c>
       <c r="F2" t="n">
-        <v>1.269744278182688e-06</v>
+        <v>1030664048146.343</v>
       </c>
       <c r="G2" t="n">
-        <v>1.574982686580122e-06</v>
+        <v>1491907914830.28</v>
       </c>
       <c r="H2" t="n">
-        <v>106.1239895553901</v>
+        <v>4.68919308709349</v>
       </c>
       <c r="I2" t="n">
-        <v>4.879333865956587e-22</v>
+        <v>0.3206995831729136</v>
       </c>
       <c r="J2" t="n">
-        <v>26.53099738884752</v>
+        <v>1.172298271773373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.000967</v>
       </c>
       <c r="B3" t="n">
-        <v>2.248752179696807e-05</v>
+        <v>24191172664421.75</v>
       </c>
       <c r="C3" t="n">
-        <v>9.015889994126179e-06</v>
+        <v>16110506705175.2</v>
       </c>
       <c r="D3" t="n">
-        <v>7.743572727800671e-06</v>
+        <v>-8471586214131.953</v>
       </c>
       <c r="E3" t="n">
-        <v>6.073297084848897e-07</v>
+        <v>636577961255.866</v>
       </c>
       <c r="F3" t="n">
-        <v>1.257094657329822e-06</v>
+        <v>1071473479671.144</v>
       </c>
       <c r="G3" t="n">
-        <v>1.567347564615954e-06</v>
+        <v>1508354519865.22</v>
       </c>
       <c r="H3" t="n">
-        <v>101.7914680616142</v>
+        <v>6.109067804797503</v>
       </c>
       <c r="I3" t="n">
-        <v>4.086911347151559e-21</v>
+        <v>0.1911497426129495</v>
       </c>
       <c r="J3" t="n">
-        <v>25.44786701540355</v>
+        <v>1.527266951199376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>2.236677593425376e-05</v>
+        <v>22563455968366.57</v>
       </c>
       <c r="C4" t="n">
-        <v>8.553443870568775e-06</v>
+        <v>14012679512173.02</v>
       </c>
       <c r="D4" t="n">
-        <v>4.201761653650227e-06</v>
+        <v>-7643117535586.535</v>
       </c>
       <c r="E4" t="n">
-        <v>6.182423933191606e-07</v>
+        <v>610174425947.78</v>
       </c>
       <c r="F4" t="n">
-        <v>1.201434391831762e-06</v>
+        <v>1050359320366.619</v>
       </c>
       <c r="G4" t="n">
-        <v>1.543192344772118e-06</v>
+        <v>1445387021906.955</v>
       </c>
       <c r="H4" t="n">
-        <v>69.30875277494393</v>
+        <v>5.944169915522403</v>
       </c>
       <c r="I4" t="n">
-        <v>3.176204128723109e-14</v>
+        <v>0.2033566748671685</v>
       </c>
       <c r="J4" t="n">
-        <v>17.32718819373598</v>
+        <v>1.486042478880601</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.006972</v>
       </c>
       <c r="B5" t="n">
-        <v>2.019055416350365e-05</v>
+        <v>21265323787939.45</v>
       </c>
       <c r="C5" t="n">
-        <v>7.258476625239429e-06</v>
+        <v>12959288478393.42</v>
       </c>
       <c r="D5" t="n">
-        <v>6.528388313553244e-06</v>
+        <v>-6651287915793.867</v>
       </c>
       <c r="E5" t="n">
-        <v>5.911153839766762e-07</v>
+        <v>597132438357.9393</v>
       </c>
       <c r="F5" t="n">
-        <v>1.181933278190966e-06</v>
+        <v>1023949379774.198</v>
       </c>
       <c r="G5" t="n">
-        <v>1.484321376548739e-06</v>
+        <v>1409415742633.515</v>
       </c>
       <c r="H5" t="n">
-        <v>81.34650699501761</v>
+        <v>14.11455287031637</v>
       </c>
       <c r="I5" t="n">
-        <v>9.030002131455271e-17</v>
+        <v>0.006938283654961844</v>
       </c>
       <c r="J5" t="n">
-        <v>20.3366267487544</v>
+        <v>3.528638217579093</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.009086</v>
       </c>
       <c r="B6" t="n">
-        <v>2.053894706788864e-05</v>
+        <v>20766728344636.64</v>
       </c>
       <c r="C6" t="n">
-        <v>7.820875884810352e-06</v>
+        <v>13304966312198.48</v>
       </c>
       <c r="D6" t="n">
-        <v>4.859854917400201e-06</v>
+        <v>-6107842098096.953</v>
       </c>
       <c r="E6" t="n">
-        <v>6.580175860829168e-07</v>
+        <v>628656392761.6399</v>
       </c>
       <c r="F6" t="n">
-        <v>1.240583040250388e-06</v>
+        <v>1111476570816.989</v>
       </c>
       <c r="G6" t="n">
-        <v>1.59742110063053e-06</v>
+        <v>1496632750472.272</v>
       </c>
       <c r="H6" t="n">
-        <v>62.60143656644809</v>
+        <v>7.374103833566413</v>
       </c>
       <c r="I6" t="n">
-        <v>8.231575198756334e-13</v>
+        <v>0.1173906377756931</v>
       </c>
       <c r="J6" t="n">
-        <v>15.65035914161202</v>
+        <v>1.843525958391603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.010032</v>
       </c>
       <c r="B7" t="n">
-        <v>2.060649838071788e-05</v>
+        <v>20248107039059.88</v>
       </c>
       <c r="C7" t="n">
-        <v>8.281290905251022e-06</v>
+        <v>14097910291527.68</v>
       </c>
       <c r="D7" t="n">
-        <v>4.237821821181623e-06</v>
+        <v>-6222025515879.984</v>
       </c>
       <c r="E7" t="n">
-        <v>6.590897271861392e-07</v>
+        <v>622604260845.1572</v>
       </c>
       <c r="F7" t="n">
-        <v>1.239341014497153e-06</v>
+        <v>1078974014155.541</v>
       </c>
       <c r="G7" t="n">
-        <v>1.592190582579708e-06</v>
+        <v>1459452247224.175</v>
       </c>
       <c r="H7" t="n">
-        <v>52.16165315775456</v>
+        <v>8.513596899654106</v>
       </c>
       <c r="I7" t="n">
-        <v>1.27615330441749e-10</v>
+        <v>0.07447615528512951</v>
       </c>
       <c r="J7" t="n">
-        <v>13.04041328943864</v>
+        <v>2.128399224913526</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
-        <v>1.927857352037267e-05</v>
+        <v>19774266087286.65</v>
       </c>
       <c r="C8" t="n">
-        <v>7.728192927522891e-06</v>
+        <v>11968509689989.92</v>
       </c>
       <c r="D8" t="n">
-        <v>5.067130707102159e-06</v>
+        <v>-5434246945247.848</v>
       </c>
       <c r="E8" t="n">
-        <v>5.741116267953084e-07</v>
+        <v>560460551829.4518</v>
       </c>
       <c r="F8" t="n">
-        <v>1.104469450877036e-06</v>
+        <v>986388441219.6117</v>
       </c>
       <c r="G8" t="n">
-        <v>1.42637151363954e-06</v>
+        <v>1341034945297.068</v>
       </c>
       <c r="H8" t="n">
-        <v>71.22476555575557</v>
+        <v>7.110241325508381</v>
       </c>
       <c r="I8" t="n">
-        <v>1.251315045223581e-14</v>
+        <v>0.130175903120391</v>
       </c>
       <c r="J8" t="n">
-        <v>17.80619138893889</v>
+        <v>1.777560331377095</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.019108</v>
       </c>
       <c r="B9" t="n">
-        <v>1.685028143057033e-05</v>
+        <v>16976557644514.62</v>
       </c>
       <c r="C9" t="n">
-        <v>7.518299211674372e-06</v>
+        <v>11580340630552.58</v>
       </c>
       <c r="D9" t="n">
-        <v>4.38797891399685e-06</v>
+        <v>-4247863896601.461</v>
       </c>
       <c r="E9" t="n">
-        <v>5.057190855558233e-07</v>
+        <v>489091337904.1931</v>
       </c>
       <c r="F9" t="n">
-        <v>9.736389433640823e-07</v>
+        <v>865331912362.9106</v>
       </c>
       <c r="G9" t="n">
-        <v>1.252093792321104e-06</v>
+        <v>1176617622412.692</v>
       </c>
       <c r="H9" t="n">
-        <v>57.37740725454678</v>
+        <v>6.383803013977818</v>
       </c>
       <c r="I9" t="n">
-        <v>1.030968879563302e-11</v>
+        <v>0.1722605615521016</v>
       </c>
       <c r="J9" t="n">
-        <v>14.3443518136367</v>
+        <v>1.595950753494455</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.019916</v>
       </c>
       <c r="B10" t="n">
-        <v>1.509971713178459e-05</v>
+        <v>14464705429302.04</v>
       </c>
       <c r="C10" t="n">
-        <v>4.671482734344675e-06</v>
+        <v>8291920648991.481</v>
       </c>
       <c r="D10" t="n">
-        <v>3.962091773566537e-06</v>
+        <v>-3189010971048.762</v>
       </c>
       <c r="E10" t="n">
-        <v>5.305293877824206e-07</v>
+        <v>495285844229.1041</v>
       </c>
       <c r="F10" t="n">
-        <v>9.74691601557748e-07</v>
+        <v>902029053927.4066</v>
       </c>
       <c r="G10" t="n">
-        <v>1.223177580611195e-06</v>
+        <v>1129042424266.938</v>
       </c>
       <c r="H10" t="n">
-        <v>22.60026049554487</v>
+        <v>9.317651560624114</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001521687590331324</v>
+        <v>0.05363200027856841</v>
       </c>
       <c r="J10" t="n">
-        <v>5.650065123886217</v>
+        <v>2.329412890156028</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.025044</v>
       </c>
       <c r="B11" t="n">
-        <v>9.894555631360898e-06</v>
+        <v>10044051791058.37</v>
       </c>
       <c r="C11" t="n">
-        <v>4.036887858171782e-06</v>
+        <v>5858077651133.119</v>
       </c>
       <c r="D11" t="n">
-        <v>3.220260952972135e-06</v>
+        <v>-2055674346808.689</v>
       </c>
       <c r="E11" t="n">
-        <v>4.177306670139043e-07</v>
+        <v>394101267492.1676</v>
       </c>
       <c r="F11" t="n">
-        <v>7.586055040870068e-07</v>
+        <v>728016271335.1106</v>
       </c>
       <c r="G11" t="n">
-        <v>9.849654002666707e-07</v>
+        <v>939800920687.5803</v>
       </c>
       <c r="H11" t="n">
-        <v>32.74223340868058</v>
+        <v>15.28754901870252</v>
       </c>
       <c r="I11" t="n">
-        <v>1.348783022490118e-06</v>
+        <v>0.004140514773603434</v>
       </c>
       <c r="J11" t="n">
-        <v>8.185558352170144</v>
+        <v>3.821887254675631</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.029979</v>
       </c>
       <c r="B12" t="n">
-        <v>5.879090940746742e-06</v>
+        <v>6109011034641.726</v>
       </c>
       <c r="C12" t="n">
-        <v>2.750222356464181e-06</v>
+        <v>3680462616341.899</v>
       </c>
       <c r="D12" t="n">
-        <v>3.297618220973782e-06</v>
+        <v>541940986497.4551</v>
       </c>
       <c r="E12" t="n">
-        <v>2.867533575292962e-07</v>
+        <v>270024972504.8442</v>
       </c>
       <c r="F12" t="n">
-        <v>5.298566819848971e-07</v>
+        <v>521008272185.4868</v>
       </c>
       <c r="G12" t="n">
-        <v>6.725290945199414e-07</v>
+        <v>643146813079.704</v>
       </c>
       <c r="H12" t="n">
-        <v>19.44810684589656</v>
+        <v>16.38632841066874</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0006415879896492361</v>
+        <v>0.002542254435409761</v>
       </c>
       <c r="J12" t="n">
-        <v>4.862026711474141</v>
+        <v>4.096582102667186</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.035141</v>
       </c>
       <c r="B13" t="n">
-        <v>4.876545024423077e-06</v>
+        <v>4647027295333.852</v>
       </c>
       <c r="C13" t="n">
-        <v>1.321839817379674e-06</v>
+        <v>2321558885710.988</v>
       </c>
       <c r="D13" t="n">
-        <v>1.43247938133113e-06</v>
+        <v>-299828521708.5703</v>
       </c>
       <c r="E13" t="n">
-        <v>2.651462062637484e-07</v>
+        <v>240611430780.837</v>
       </c>
       <c r="F13" t="n">
-        <v>4.623570647972253e-07</v>
+        <v>447417756956.9604</v>
       </c>
       <c r="G13" t="n">
-        <v>5.971785768600462e-07</v>
+        <v>559399992427.9794</v>
       </c>
       <c r="H13" t="n">
-        <v>19.81912870419291</v>
+        <v>10.90955817271948</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0005421735070133975</v>
+        <v>0.02759948167591292</v>
       </c>
       <c r="J13" t="n">
-        <v>4.954782176048228</v>
+        <v>2.727389543179871</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.269958</v>
       </c>
       <c r="B14" t="n">
-        <v>1.992492008487131e-05</v>
+        <v>21618795169740.84</v>
       </c>
       <c r="C14" t="n">
-        <v>1.756463593620027e-06</v>
+        <v>8620788649343.453</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.019485807649063e-07</v>
+        <v>-13658228164136.73</v>
       </c>
       <c r="E14" t="n">
-        <v>5.597705164251361e-07</v>
+        <v>586174728185.1631</v>
       </c>
       <c r="F14" t="n">
-        <v>1.112089741472006e-06</v>
+        <v>874082380942.0231</v>
       </c>
       <c r="G14" t="n">
-        <v>1.36152289101849e-06</v>
+        <v>1271940202590.235</v>
       </c>
       <c r="H14" t="n">
-        <v>133.5346751694149</v>
+        <v>8.41479908372018</v>
       </c>
       <c r="I14" t="n">
-        <v>6.828638765546577e-28</v>
+        <v>0.07751227725757361</v>
       </c>
       <c r="J14" t="n">
-        <v>33.38366879235373</v>
+        <v>2.103699770930045</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.290051</v>
       </c>
       <c r="B15" t="n">
-        <v>3.13369355246289e-05</v>
+        <v>33918736766032.9</v>
       </c>
       <c r="C15" t="n">
-        <v>5.611698678317039e-06</v>
+        <v>15569400117675.21</v>
       </c>
       <c r="D15" t="n">
-        <v>5.34349395309546e-06</v>
+        <v>-15399407590277.81</v>
       </c>
       <c r="E15" t="n">
-        <v>8.001088726512448e-07</v>
+        <v>850306465309.0576</v>
       </c>
       <c r="F15" t="n">
-        <v>1.652500094466331e-06</v>
+        <v>1312760223463.371</v>
       </c>
       <c r="G15" t="n">
-        <v>2.006028902765136e-06</v>
+        <v>1905383903243.669</v>
       </c>
       <c r="H15" t="n">
-        <v>108.462970947064</v>
+        <v>7.477845928605587</v>
       </c>
       <c r="I15" t="n">
-        <v>1.547931853672813e-22</v>
+        <v>0.1126901708248887</v>
       </c>
       <c r="J15" t="n">
-        <v>27.11574273676599</v>
+        <v>1.869461482151397</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>4.307956435772949e-05</v>
+        <v>45990738410900.34</v>
       </c>
       <c r="C16" t="n">
-        <v>9.920040439802094e-06</v>
+        <v>22862817583456.45</v>
       </c>
       <c r="D16" t="n">
-        <v>8.966978729910006e-06</v>
+        <v>-19015073008778.16</v>
       </c>
       <c r="E16" t="n">
-        <v>1.088062045055942e-06</v>
+        <v>1149837587182.299</v>
       </c>
       <c r="F16" t="n">
-        <v>2.256752699771061e-06</v>
+        <v>1793705274542.299</v>
       </c>
       <c r="G16" t="n">
-        <v>2.77450311790095e-06</v>
+        <v>2612057339859.323</v>
       </c>
       <c r="H16" t="n">
-        <v>111.358582534533</v>
+        <v>8.279150399389405</v>
       </c>
       <c r="I16" t="n">
-        <v>3.734353765145423e-23</v>
+        <v>0.08187146433803183</v>
       </c>
       <c r="J16" t="n">
-        <v>27.83964563363324</v>
+        <v>2.069787599847351</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.293189</v>
       </c>
       <c r="B17" t="n">
-        <v>4.03028388964728e-05</v>
+        <v>43399166553208.2</v>
       </c>
       <c r="C17" t="n">
-        <v>7.7176217029162e-06</v>
+        <v>20144864623615.75</v>
       </c>
       <c r="D17" t="n">
-        <v>9.074157052234216e-06</v>
+        <v>-17954691764380.46</v>
       </c>
       <c r="E17" t="n">
-        <v>1.040374054886785e-06</v>
+        <v>1096887715874.037</v>
       </c>
       <c r="F17" t="n">
-        <v>2.137963570551203e-06</v>
+        <v>1737301873207.769</v>
       </c>
       <c r="G17" t="n">
-        <v>2.609919822410518e-06</v>
+        <v>2479904720419.318</v>
       </c>
       <c r="H17" t="n">
-        <v>103.2975281921812</v>
+        <v>9.049663143703246</v>
       </c>
       <c r="I17" t="n">
-        <v>1.95260742637873e-21</v>
+        <v>0.05987005534383341</v>
       </c>
       <c r="J17" t="n">
-        <v>25.82438204804529</v>
+        <v>2.262415785925811</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.294196</v>
       </c>
       <c r="B18" t="n">
-        <v>3.931819481920858e-05</v>
+        <v>44016603835201.71</v>
       </c>
       <c r="C18" t="n">
-        <v>7.626323650112188e-06</v>
+        <v>23369649217685.86</v>
       </c>
       <c r="D18" t="n">
-        <v>1.011700965936047e-05</v>
+        <v>-22325596261964.89</v>
       </c>
       <c r="E18" t="n">
-        <v>1.05519000183089e-06</v>
+        <v>1146617295114.933</v>
       </c>
       <c r="F18" t="n">
-        <v>2.223734723282475e-06</v>
+        <v>1804124633249.708</v>
       </c>
       <c r="G18" t="n">
-        <v>2.684957899075208e-06</v>
+        <v>2586549981946.945</v>
       </c>
       <c r="H18" t="n">
-        <v>141.9896825983391</v>
+        <v>11.05360881555966</v>
       </c>
       <c r="I18" t="n">
-        <v>1.058360344257876e-29</v>
+        <v>0.02596808603212999</v>
       </c>
       <c r="J18" t="n">
-        <v>35.49742064958478</v>
+        <v>2.763402203889916</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.295147</v>
       </c>
       <c r="B19" t="n">
-        <v>3.986207705582775e-05</v>
+        <v>43650346301356.97</v>
       </c>
       <c r="C19" t="n">
-        <v>8.300160126645767e-06</v>
+        <v>23163259055114.54</v>
       </c>
       <c r="D19" t="n">
-        <v>7.135286329647402e-06</v>
+        <v>-22682269132490.56</v>
       </c>
       <c r="E19" t="n">
-        <v>1.101035724123574e-06</v>
+        <v>1157102585533.487</v>
       </c>
       <c r="F19" t="n">
-        <v>2.238769392817455e-06</v>
+        <v>1796378428864.461</v>
       </c>
       <c r="G19" t="n">
-        <v>2.751719946234209e-06</v>
+        <v>2595151754503.676</v>
       </c>
       <c r="H19" t="n">
-        <v>134.544333366332</v>
+        <v>9.014027303814263</v>
       </c>
       <c r="I19" t="n">
-        <v>4.152531252089444e-28</v>
+        <v>0.06074981982436022</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63608334158299</v>
+        <v>2.253506825953566</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>3.911551594782208e-05</v>
+        <v>43953372091471.19</v>
       </c>
       <c r="C20" t="n">
-        <v>8.058249325016223e-06</v>
+        <v>22840582926123.03</v>
       </c>
       <c r="D20" t="n">
-        <v>9.698860502505339e-06</v>
+        <v>-22780804677415.56</v>
       </c>
       <c r="E20" t="n">
-        <v>1.121350114848373e-06</v>
+        <v>1202402508469.496</v>
       </c>
       <c r="F20" t="n">
-        <v>2.321559632177339e-06</v>
+        <v>1892904604666.797</v>
       </c>
       <c r="G20" t="n">
-        <v>2.831260759365811e-06</v>
+        <v>2709083084947.945</v>
       </c>
       <c r="H20" t="n">
-        <v>143.2408116206822</v>
+        <v>9.759389804169865</v>
       </c>
       <c r="I20" t="n">
-        <v>5.710993111983017e-30</v>
+        <v>0.0446817548798877</v>
       </c>
       <c r="J20" t="n">
-        <v>35.81020290517056</v>
+        <v>2.439847451042466</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>4.298881398335835e-05</v>
+        <v>47664665835574.34</v>
       </c>
       <c r="C21" t="n">
-        <v>7.196498874076343e-06</v>
+        <v>25311680163019.71</v>
       </c>
       <c r="D21" t="n">
-        <v>4.92726210543473e-06</v>
+        <v>-29488813240716.88</v>
       </c>
       <c r="E21" t="n">
-        <v>1.313797634584368e-06</v>
+        <v>1352328062816.611</v>
       </c>
       <c r="F21" t="n">
-        <v>2.57603103762847e-06</v>
+        <v>2136905047431.337</v>
       </c>
       <c r="G21" t="n">
-        <v>3.167317557163599e-06</v>
+        <v>2995936788842.995</v>
       </c>
       <c r="H21" t="n">
-        <v>147.6410616365271</v>
+        <v>6.822894120893398</v>
       </c>
       <c r="I21" t="n">
-        <v>6.518859178788319e-31</v>
+        <v>0.1455487359910279</v>
       </c>
       <c r="J21" t="n">
-        <v>36.91026540913177</v>
+        <v>1.70572353022335</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>4.410685461101892e-05</v>
+        <v>64880414477411.14</v>
       </c>
       <c r="C22" t="n">
-        <v>4.521597611766191e-06</v>
+        <v>46762105666769.2</v>
       </c>
       <c r="D22" t="n">
-        <v>1.168981396470241e-05</v>
+        <v>-70225134943585.39</v>
       </c>
       <c r="E22" t="n">
-        <v>1.86013422744288e-06</v>
+        <v>2196692339016.195</v>
       </c>
       <c r="F22" t="n">
-        <v>4.038236537593523e-06</v>
+        <v>2993869847696.782</v>
       </c>
       <c r="G22" t="n">
-        <v>4.751919853470793e-06</v>
+        <v>4613680155273.851</v>
       </c>
       <c r="H22" t="n">
-        <v>277.0131392227362</v>
+        <v>5.16525423767044</v>
       </c>
       <c r="I22" t="n">
-        <v>9.816479641235521e-59</v>
+        <v>0.2707577537499413</v>
       </c>
       <c r="J22" t="n">
-        <v>69.25328480568406</v>
+        <v>1.29131355941761</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299093</v>
       </c>
       <c r="B23" t="n">
-        <v>5.934056984673998e-05</v>
+        <v>79425655008073.33</v>
       </c>
       <c r="C23" t="n">
-        <v>7.537889335119659e-06</v>
+        <v>56480211276860.06</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.458013589823311e-05</v>
+        <v>-96434058756043.11</v>
       </c>
       <c r="E23" t="n">
-        <v>2.681597701946426e-06</v>
+        <v>2869361501441.252</v>
       </c>
       <c r="F23" t="n">
-        <v>5.206990285356264e-06</v>
+        <v>4201348054056.709</v>
       </c>
       <c r="G23" t="n">
-        <v>6.354093809632449e-06</v>
+        <v>6097763511235.007</v>
       </c>
       <c r="H23" t="n">
-        <v>250.6265868832508</v>
+        <v>3.275383528293586</v>
       </c>
       <c r="I23" t="n">
-        <v>4.770646182618997e-53</v>
+        <v>0.5128419549987994</v>
       </c>
       <c r="J23" t="n">
-        <v>62.6566467208127</v>
+        <v>0.8188458820733966</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>6.801203927219698e-05</v>
+        <v>97751461857009.98</v>
       </c>
       <c r="C24" t="n">
-        <v>9.000487556925715e-06</v>
+        <v>73517829093810.69</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.870367180513869e-05</v>
+        <v>-132822800239895.4</v>
       </c>
       <c r="E24" t="n">
-        <v>3.494374235307526e-06</v>
+        <v>3682868857642.334</v>
       </c>
       <c r="F24" t="n">
-        <v>6.796917634416997e-06</v>
+        <v>4706615685477.576</v>
       </c>
       <c r="G24" t="n">
-        <v>8.294097366298958e-06</v>
+        <v>7458471664946.481</v>
       </c>
       <c r="H24" t="n">
-        <v>284.3692121416831</v>
+        <v>5.409395650582366</v>
       </c>
       <c r="I24" t="n">
-        <v>2.546282005252554e-60</v>
+        <v>0.2478092136954488</v>
       </c>
       <c r="J24" t="n">
-        <v>71.09230303542077</v>
+        <v>1.352348912645591</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.303098</v>
       </c>
       <c r="B25" t="n">
-        <v>6.000122498946862e-05</v>
+        <v>103753901501705.4</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.091220634816608e-06</v>
+        <v>71129010322963.78</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.924999225473944e-06</v>
+        <v>-141423644295398.4</v>
       </c>
       <c r="E25" t="n">
-        <v>2.983065420243913e-06</v>
+        <v>3596591685085.876</v>
       </c>
       <c r="F25" t="n">
-        <v>6.531006768811001e-06</v>
+        <v>4599656729369.942</v>
       </c>
       <c r="G25" t="n">
-        <v>7.434821880494256e-06</v>
+        <v>7197438402893.672</v>
       </c>
       <c r="H25" t="n">
-        <v>380.8138151190121</v>
+        <v>0.7030075801171893</v>
       </c>
       <c r="I25" t="n">
-        <v>3.884081528357035e-81</v>
+        <v>0.9509575078380748</v>
       </c>
       <c r="J25" t="n">
-        <v>95.20345377975302</v>
+        <v>0.1757518950292973</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.305231</v>
       </c>
       <c r="B26" t="n">
-        <v>6.70760857786738e-05</v>
+        <v>94896562590158.25</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.191795362161054e-06</v>
+        <v>63319987880243.48</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.352766344075646e-05</v>
+        <v>-126365408205432</v>
       </c>
       <c r="E26" t="n">
-        <v>3.284101877125947e-06</v>
+        <v>3550030885574.061</v>
       </c>
       <c r="F26" t="n">
-        <v>6.445307313176599e-06</v>
+        <v>5153548637040.102</v>
       </c>
       <c r="G26" t="n">
-        <v>7.695881441838936e-06</v>
+        <v>7337197751805.972</v>
       </c>
       <c r="H26" t="n">
-        <v>283.3825763359662</v>
+        <v>5.10885976699647</v>
       </c>
       <c r="I26" t="n">
-        <v>4.155783108436442e-60</v>
+        <v>0.2763090748426273</v>
       </c>
       <c r="J26" t="n">
-        <v>70.84564408399154</v>
+        <v>1.277214941749117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
-        <v>4.263879289178112e-05</v>
+        <v>89120385087623.81</v>
       </c>
       <c r="C27" t="n">
-        <v>-8.865154719437583e-06</v>
+        <v>67798336875846.62</v>
       </c>
       <c r="D27" t="n">
-        <v>1.96987683978294e-05</v>
+        <v>-122747926082904.3</v>
       </c>
       <c r="E27" t="n">
-        <v>2.550629025562623e-06</v>
+        <v>3453253147039.514</v>
       </c>
       <c r="F27" t="n">
-        <v>6.343615821518391e-06</v>
+        <v>4306640237201.403</v>
       </c>
       <c r="G27" t="n">
-        <v>6.913001215264012e-06</v>
+        <v>6999387679764.408</v>
       </c>
       <c r="H27" t="n">
-        <v>373.176059689577</v>
+        <v>6.4308024006554</v>
       </c>
       <c r="I27" t="n">
-        <v>1.734017081929096e-79</v>
+        <v>0.1692029445034632</v>
       </c>
       <c r="J27" t="n">
-        <v>93.29401492239424</v>
+        <v>1.60770060016385</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.309297</v>
       </c>
       <c r="B28" t="n">
-        <v>7.244314774825769e-05</v>
+        <v>90785489416900.84</v>
       </c>
       <c r="C28" t="n">
-        <v>4.440353235984006e-06</v>
+        <v>65455495723080.95</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.114836411999684e-05</v>
+        <v>-126816709154293</v>
       </c>
       <c r="E28" t="n">
-        <v>3.531144779036452e-06</v>
+        <v>3511832622073.659</v>
       </c>
       <c r="F28" t="n">
-        <v>6.356005320262797e-06</v>
+        <v>4833864737196.134</v>
       </c>
       <c r="G28" t="n">
-        <v>8.055759913821883e-06</v>
+        <v>7179526112820.394</v>
       </c>
       <c r="H28" t="n">
-        <v>241.6799218600333</v>
+        <v>2.275159305398003</v>
       </c>
       <c r="I28" t="n">
-        <v>4.033309281289705e-51</v>
+        <v>0.6852952805240224</v>
       </c>
       <c r="J28" t="n">
-        <v>60.41998046500834</v>
+        <v>0.5687898263495008</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.309961</v>
       </c>
       <c r="B29" t="n">
-        <v>5.746665122007901e-05</v>
+        <v>91915085337109.23</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.677904121500934e-07</v>
+        <v>66877558792299.98</v>
       </c>
       <c r="D29" t="n">
-        <v>2.14934660924926e-06</v>
+        <v>-121536845016994.2</v>
       </c>
       <c r="E29" t="n">
-        <v>2.860636410901379e-06</v>
+        <v>3374118892826.108</v>
       </c>
       <c r="F29" t="n">
-        <v>6.133917396426534e-06</v>
+        <v>4579276669600.724</v>
       </c>
       <c r="G29" t="n">
-        <v>7.175677515344352e-06</v>
+        <v>6974735913405.22</v>
       </c>
       <c r="H29" t="n">
-        <v>317.9544917118807</v>
+        <v>4.95595019667503</v>
       </c>
       <c r="I29" t="n">
-        <v>1.4491641854095e-67</v>
+        <v>0.291847217263306</v>
       </c>
       <c r="J29" t="n">
-        <v>79.48862292797018</v>
+        <v>1.238987549168757</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.311172</v>
       </c>
       <c r="B30" t="n">
-        <v>4.958116254673383e-05</v>
+        <v>88475128631953.34</v>
       </c>
       <c r="C30" t="n">
-        <v>-6.017110560822169e-06</v>
+        <v>63479587614937.45</v>
       </c>
       <c r="D30" t="n">
-        <v>2.042226618504512e-07</v>
+        <v>-122856174328895.7</v>
       </c>
       <c r="E30" t="n">
-        <v>2.675883700862877e-06</v>
+        <v>3261090635643.677</v>
       </c>
       <c r="F30" t="n">
-        <v>5.885666038683044e-06</v>
+        <v>4140442304569.833</v>
       </c>
       <c r="G30" t="n">
-        <v>6.666671660541055e-06</v>
+        <v>6471446409813.293</v>
       </c>
       <c r="H30" t="n">
-        <v>351.2734993381299</v>
+        <v>2.369238052690471</v>
       </c>
       <c r="I30" t="n">
-        <v>9.311290234206956e-75</v>
+        <v>0.6681934365759237</v>
       </c>
       <c r="J30" t="n">
-        <v>87.81837483453248</v>
+        <v>0.5923095131726177</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>3.845191538307322e-05</v>
+        <v>83904885399193.59</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.27290376694558e-05</v>
+        <v>57681442040683.72</v>
       </c>
       <c r="D31" t="n">
-        <v>7.24098976397761e-06</v>
+        <v>-122055020051951</v>
       </c>
       <c r="E31" t="n">
-        <v>2.399681293967633e-06</v>
+        <v>3224449562428.536</v>
       </c>
       <c r="F31" t="n">
-        <v>5.965815322302025e-06</v>
+        <v>4112479373063.152</v>
       </c>
       <c r="G31" t="n">
-        <v>6.335686550540842e-06</v>
+        <v>6286132474139.461</v>
       </c>
       <c r="H31" t="n">
-        <v>399.8706921972939</v>
+        <v>2.164394656899612</v>
       </c>
       <c r="I31" t="n">
-        <v>2.966462011969968e-85</v>
+        <v>0.7055528603366732</v>
       </c>
       <c r="J31" t="n">
-        <v>99.96767304932347</v>
+        <v>0.5410986642249029</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.315126</v>
       </c>
       <c r="B32" t="n">
-        <v>3.410116729581019e-05</v>
+        <v>78389682250745.12</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.053633503274458e-05</v>
+        <v>58640716182653.99</v>
       </c>
       <c r="D32" t="n">
-        <v>9.953541353933704e-06</v>
+        <v>-117574003377667.8</v>
       </c>
       <c r="E32" t="n">
-        <v>2.231196432024744e-06</v>
+        <v>3153792885841.242</v>
       </c>
       <c r="F32" t="n">
-        <v>5.760302320203512e-06</v>
+        <v>4192441125741.218</v>
       </c>
       <c r="G32" t="n">
-        <v>6.08340074910983e-06</v>
+        <v>6319315834149.208</v>
       </c>
       <c r="H32" t="n">
-        <v>386.2275367570249</v>
+        <v>1.155970141804732</v>
       </c>
       <c r="I32" t="n">
-        <v>2.629131777642023e-82</v>
+        <v>0.8852932709223027</v>
       </c>
       <c r="J32" t="n">
-        <v>96.55688418925622</v>
+        <v>0.288992535451183</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.317204</v>
       </c>
       <c r="B33" t="n">
-        <v>3.252968192417878e-05</v>
+        <v>74714289456584.91</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.130319117297461e-05</v>
+        <v>53195413329217.84</v>
       </c>
       <c r="D33" t="n">
-        <v>1.14212205120058e-05</v>
+        <v>-110533148684955.1</v>
       </c>
       <c r="E33" t="n">
-        <v>2.062744095286103e-06</v>
+        <v>2936681814094.513</v>
       </c>
       <c r="F33" t="n">
-        <v>5.544335203609938e-06</v>
+        <v>3552938737513.569</v>
       </c>
       <c r="G33" t="n">
-        <v>5.789327330219278e-06</v>
+        <v>5839264356690.542</v>
       </c>
       <c r="H33" t="n">
-        <v>401.404165967035</v>
+        <v>3.108381545095877</v>
       </c>
       <c r="I33" t="n">
-        <v>1.383258147676449e-85</v>
+        <v>0.539854660899397</v>
       </c>
       <c r="J33" t="n">
-        <v>100.3510414917587</v>
+        <v>0.7770953862739692</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.319168</v>
       </c>
       <c r="B34" t="n">
-        <v>3.93629253386049e-05</v>
+        <v>69681436702301.15</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.892554482456864e-06</v>
+        <v>49938208873351.53</v>
       </c>
       <c r="D34" t="n">
-        <v>-6.581238533301967e-06</v>
+        <v>-103300701907322.8</v>
       </c>
       <c r="E34" t="n">
-        <v>2.519369263393508e-06</v>
+        <v>2994845443063.104</v>
       </c>
       <c r="F34" t="n">
-        <v>5.430249318994371e-06</v>
+        <v>3783706302068.638</v>
       </c>
       <c r="G34" t="n">
-        <v>6.199515826067238e-06</v>
+        <v>5857234747573.271</v>
       </c>
       <c r="H34" t="n">
-        <v>298.86720104959</v>
+        <v>3.942028115190016</v>
       </c>
       <c r="I34" t="n">
-        <v>1.901764478540399e-63</v>
+        <v>0.4139083404610636</v>
       </c>
       <c r="J34" t="n">
-        <v>74.7168002623975</v>
+        <v>0.9855070287975041</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
-        <v>3.332676811182457e-05</v>
+        <v>68258209672294.24</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.71997514481135e-06</v>
+        <v>49644617899945.33</v>
       </c>
       <c r="D35" t="n">
-        <v>5.67538625611096e-06</v>
+        <v>-100660840379886.8</v>
       </c>
       <c r="E35" t="n">
-        <v>2.077274385313383e-06</v>
+        <v>2716774641999.327</v>
       </c>
       <c r="F35" t="n">
-        <v>5.053092478296327e-06</v>
+        <v>3579069508813.841</v>
       </c>
       <c r="G35" t="n">
-        <v>5.489584062798119e-06</v>
+        <v>5443419192398.716</v>
       </c>
       <c r="H35" t="n">
-        <v>354.3576193925502</v>
+        <v>1.666355671222297</v>
       </c>
       <c r="I35" t="n">
-        <v>2.00944762969066e-75</v>
+        <v>0.7968196972465339</v>
       </c>
       <c r="J35" t="n">
-        <v>88.58940484813756</v>
+        <v>0.4165889178055742</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
-        <v>4.926496463163261e-05</v>
+        <v>61231806871199.2</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.518767037152471e-06</v>
+        <v>39057285406879.66</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.708768373863032e-05</v>
+        <v>-85684649576152.36</v>
       </c>
       <c r="E36" t="n">
-        <v>2.518147923896324e-06</v>
+        <v>2471970215010.792</v>
       </c>
       <c r="F36" t="n">
-        <v>4.502085009395385e-06</v>
+        <v>3631932828527.752</v>
       </c>
       <c r="G36" t="n">
-        <v>5.551657105205528e-06</v>
+        <v>5061832633088.405</v>
       </c>
       <c r="H36" t="n">
-        <v>227.8593925979441</v>
+        <v>4.571146162658472</v>
       </c>
       <c r="I36" t="n">
-        <v>3.814115422746567e-48</v>
+        <v>0.3341945432919025</v>
       </c>
       <c r="J36" t="n">
-        <v>56.96484814948602</v>
+        <v>1.142786540664618</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.325205</v>
       </c>
       <c r="B37" t="n">
-        <v>2.845510069953076e-05</v>
+        <v>52532944398878.36</v>
       </c>
       <c r="C37" t="n">
-        <v>-5.13317942740614e-06</v>
+        <v>38979777226057.29</v>
       </c>
       <c r="D37" t="n">
-        <v>2.831414117855798e-06</v>
+        <v>-73337229604779.42</v>
       </c>
       <c r="E37" t="n">
-        <v>1.663306802526275e-06</v>
+        <v>2054427650298.18</v>
       </c>
       <c r="F37" t="n">
-        <v>3.863422451754835e-06</v>
+        <v>2609391024216.336</v>
       </c>
       <c r="G37" t="n">
-        <v>4.181330260142268e-06</v>
+        <v>4092319687666.155</v>
       </c>
       <c r="H37" t="n">
-        <v>349.9769915075781</v>
+        <v>7.837532132340263</v>
       </c>
       <c r="I37" t="n">
-        <v>1.773969614743652e-74</v>
+        <v>0.09771420204495959</v>
       </c>
       <c r="J37" t="n">
-        <v>87.49424787689453</v>
+        <v>1.959383033085066</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>3.273637304012923e-05</v>
+        <v>44586813628827.88</v>
       </c>
       <c r="C38" t="n">
-        <v>8.367196958513934e-07</v>
+        <v>33302475654197.03</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.747412028697216e-06</v>
+        <v>-58167869810567.36</v>
       </c>
       <c r="E38" t="n">
-        <v>1.587496519828387e-06</v>
+        <v>1674680198352.057</v>
       </c>
       <c r="F38" t="n">
-        <v>3.153126106719137e-06</v>
+        <v>1995451402406.111</v>
       </c>
       <c r="G38" t="n">
-        <v>3.735727236168361e-06</v>
+        <v>3296841617590.327</v>
       </c>
       <c r="H38" t="n">
-        <v>260.8888423688453</v>
+        <v>8.81614391877638</v>
       </c>
       <c r="I38" t="n">
-        <v>2.933930641688189e-55</v>
+        <v>0.06586294317777706</v>
       </c>
       <c r="J38" t="n">
-        <v>65.22221059221133</v>
+        <v>2.204035979694095</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.329078</v>
       </c>
       <c r="B39" t="n">
-        <v>2.718531066128369e-05</v>
+        <v>37400269917423.16</v>
       </c>
       <c r="C39" t="n">
-        <v>6.909067317232014e-07</v>
+        <v>26169132930601.29</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.25309495604873e-06</v>
+        <v>-43425741161009.8</v>
       </c>
       <c r="E39" t="n">
-        <v>1.209238375866627e-06</v>
+        <v>1311761149416.767</v>
       </c>
       <c r="F39" t="n">
-        <v>2.43705245806919e-06</v>
+        <v>1778027772829.765</v>
       </c>
       <c r="G39" t="n">
-        <v>2.887632478725768e-06</v>
+        <v>2709001459756.408</v>
       </c>
       <c r="H39" t="n">
-        <v>264.7994795832672</v>
+        <v>2.779858609430491</v>
       </c>
       <c r="I39" t="n">
-        <v>4.213845279691215e-56</v>
+        <v>0.5953144540573457</v>
       </c>
       <c r="J39" t="n">
-        <v>66.19986989581679</v>
+        <v>0.6949646523576228</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.330119</v>
       </c>
       <c r="B40" t="n">
-        <v>2.78018079573029e-05</v>
+        <v>42530150668850.78</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.285807902861214e-06</v>
+        <v>31677938402696.83</v>
       </c>
       <c r="D40" t="n">
-        <v>-5.456747243860074e-06</v>
+        <v>-60851489805093.38</v>
       </c>
       <c r="E40" t="n">
-        <v>1.467532821377721e-06</v>
+        <v>1645506877317.928</v>
       </c>
       <c r="F40" t="n">
-        <v>3.043440809346107e-06</v>
+        <v>1931392468319.827</v>
       </c>
       <c r="G40" t="n">
-        <v>3.520124906809711e-06</v>
+        <v>3203622605791.497</v>
       </c>
       <c r="H40" t="n">
-        <v>300.2561985928176</v>
+        <v>2.452398261603091</v>
       </c>
       <c r="I40" t="n">
-        <v>9.53981861426456e-64</v>
+        <v>0.6531794197694272</v>
       </c>
       <c r="J40" t="n">
-        <v>75.06404964820439</v>
+        <v>0.6130995654007728</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.331189</v>
       </c>
       <c r="B41" t="n">
-        <v>3.105086668306402e-05</v>
+        <v>31680503212700.05</v>
       </c>
       <c r="C41" t="n">
-        <v>2.544222450522373e-06</v>
+        <v>16730061230868.25</v>
       </c>
       <c r="D41" t="n">
-        <v>-9.89287750551101e-06</v>
+        <v>-27381778577522.02</v>
       </c>
       <c r="E41" t="n">
-        <v>1.27345659394323e-06</v>
+        <v>1136125064308.236</v>
       </c>
       <c r="F41" t="n">
-        <v>2.112523649651441e-06</v>
+        <v>1793808600955.032</v>
       </c>
       <c r="G41" t="n">
-        <v>2.753539577085424e-06</v>
+        <v>2438722435508.659</v>
       </c>
       <c r="H41" t="n">
-        <v>111.9122681798818</v>
+        <v>3.586095541381074</v>
       </c>
       <c r="I41" t="n">
-        <v>2.845117715824532e-23</v>
+        <v>0.4649086333345466</v>
       </c>
       <c r="J41" t="n">
-        <v>27.97806704497046</v>
+        <v>0.8965238853452684</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.333242</v>
       </c>
       <c r="B42" t="n">
-        <v>2.989520283611938e-05</v>
+        <v>32750291514590.95</v>
       </c>
       <c r="C42" t="n">
-        <v>4.395971586049855e-06</v>
+        <v>15182288751110.92</v>
       </c>
       <c r="D42" t="n">
-        <v>3.404490186481842e-06</v>
+        <v>-18707033744895.3</v>
       </c>
       <c r="E42" t="n">
-        <v>9.695408748123038e-07</v>
+        <v>1004758312423.957</v>
       </c>
       <c r="F42" t="n">
-        <v>1.898205324590488e-06</v>
+        <v>1655014711263.629</v>
       </c>
       <c r="G42" t="n">
-        <v>2.339811458908555e-06</v>
+        <v>2251035404029.061</v>
       </c>
       <c r="H42" t="n">
-        <v>117.1284705430103</v>
+        <v>9.747127361004337</v>
       </c>
       <c r="I42" t="n">
-        <v>2.192105012205677e-24</v>
+        <v>0.04490967043393174</v>
       </c>
       <c r="J42" t="n">
-        <v>29.28211763575258</v>
+        <v>2.436781840251084</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>2.905433091183265e-05</v>
+        <v>31304689055564.59</v>
       </c>
       <c r="C43" t="n">
-        <v>4.690634944378678e-06</v>
+        <v>15327013871199.22</v>
       </c>
       <c r="D43" t="n">
-        <v>3.251175921922076e-06</v>
+        <v>-17244071093798.6</v>
       </c>
       <c r="E43" t="n">
-        <v>8.912190257376033e-07</v>
+        <v>908040559601.7465</v>
       </c>
       <c r="F43" t="n">
-        <v>1.745257082104572e-06</v>
+        <v>1422789156747.101</v>
       </c>
       <c r="G43" t="n">
-        <v>2.165010276473546e-06</v>
+        <v>2018169723553.983</v>
       </c>
       <c r="H43" t="n">
-        <v>115.4935266987895</v>
+        <v>6.78826610076619</v>
       </c>
       <c r="I43" t="n">
-        <v>4.896471981646487e-24</v>
+        <v>0.1475094854897687</v>
       </c>
       <c r="J43" t="n">
-        <v>28.87338167469738</v>
+        <v>1.697066525191548</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.340042</v>
       </c>
       <c r="B44" t="n">
-        <v>2.718078513362496e-05</v>
+        <v>27823615981808.99</v>
       </c>
       <c r="C44" t="n">
-        <v>3.756623543125844e-06</v>
+        <v>13182007405179.6</v>
       </c>
       <c r="D44" t="n">
-        <v>3.629722603276466e-06</v>
+        <v>-11445944143159.98</v>
       </c>
       <c r="E44" t="n">
-        <v>8.079188644723784e-07</v>
+        <v>789974772566.7579</v>
       </c>
       <c r="F44" t="n">
-        <v>1.529504753800318e-06</v>
+        <v>1291826501952.923</v>
       </c>
       <c r="G44" t="n">
-        <v>1.908053019722834e-06</v>
+        <v>1783756566389.54</v>
       </c>
       <c r="H44" t="n">
-        <v>83.14085563932014</v>
+        <v>12.32246730670546</v>
       </c>
       <c r="I44" t="n">
-        <v>3.760976348395576e-17</v>
+        <v>0.01510769006051141</v>
       </c>
       <c r="J44" t="n">
-        <v>20.78521390983003</v>
+        <v>3.080616826676365</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>2.610862282588564e-05</v>
+        <v>26275599943909.53</v>
       </c>
       <c r="C45" t="n">
-        <v>2.971007987503104e-06</v>
+        <v>9701309493351.248</v>
       </c>
       <c r="D45" t="n">
-        <v>2.011492887819607e-06</v>
+        <v>-9527940722736.383</v>
       </c>
       <c r="E45" t="n">
-        <v>7.849577318446915e-07</v>
+        <v>751284542359.6008</v>
       </c>
       <c r="F45" t="n">
-        <v>1.445573355047189e-06</v>
+        <v>1254028891860.546</v>
       </c>
       <c r="G45" t="n">
-        <v>1.827045198532127e-06</v>
+        <v>1699145154972.382</v>
       </c>
       <c r="H45" t="n">
-        <v>56.42614481433669</v>
+        <v>6.385112772156774</v>
       </c>
       <c r="I45" t="n">
-        <v>1.632283427111149e-11</v>
+        <v>0.1721746824013108</v>
       </c>
       <c r="J45" t="n">
-        <v>14.10653620358417</v>
+        <v>1.596278193039194</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.349976</v>
       </c>
       <c r="B46" t="n">
-        <v>2.584584400923795e-05</v>
+        <v>25965085384570.65</v>
       </c>
       <c r="C46" t="n">
-        <v>4.17827037442274e-06</v>
+        <v>9288648454805.387</v>
       </c>
       <c r="D46" t="n">
-        <v>1.297903107695877e-06</v>
+        <v>-9808794381837.016</v>
       </c>
       <c r="E46" t="n">
-        <v>7.294816326166066e-07</v>
+        <v>713608987576.998</v>
       </c>
       <c r="F46" t="n">
-        <v>1.382675918901464e-06</v>
+        <v>1183645965106.511</v>
       </c>
       <c r="G46" t="n">
-        <v>1.749378919455631e-06</v>
+        <v>1618277411223.652</v>
       </c>
       <c r="H46" t="n">
-        <v>66.06002335934066</v>
+        <v>6.616487233920388</v>
       </c>
       <c r="I46" t="n">
-        <v>1.538545302110137e-13</v>
+        <v>0.1575971304754777</v>
       </c>
       <c r="J46" t="n">
-        <v>16.51500583983517</v>
+        <v>1.654121808480097</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.370053</v>
       </c>
       <c r="B47" t="n">
-        <v>2.207644035315823e-05</v>
+        <v>21343331708290.59</v>
       </c>
       <c r="C47" t="n">
-        <v>2.210291448873127e-07</v>
+        <v>5775723475940.9</v>
       </c>
       <c r="D47" t="n">
-        <v>3.939190446306299e-06</v>
+        <v>-6157590021602.641</v>
       </c>
       <c r="E47" t="n">
-        <v>6.546326324148076e-07</v>
+        <v>626329798950.0082</v>
       </c>
       <c r="F47" t="n">
-        <v>1.234285368974308e-06</v>
+        <v>1047730742441.405</v>
       </c>
       <c r="G47" t="n">
-        <v>1.521545934067717e-06</v>
+        <v>1384067727623.469</v>
       </c>
       <c r="H47" t="n">
-        <v>35.22086341584957</v>
+        <v>16.6616948661203</v>
       </c>
       <c r="I47" t="n">
-        <v>4.184495767629285e-07</v>
+        <v>0.002248433351549117</v>
       </c>
       <c r="J47" t="n">
-        <v>8.805215853962393</v>
+        <v>4.165423716530074</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.390148</v>
       </c>
       <c r="B48" t="n">
-        <v>2.192063448465915e-05</v>
+        <v>22135723898803.7</v>
       </c>
       <c r="C48" t="n">
-        <v>-3.169150719236967e-07</v>
+        <v>6356436517652.439</v>
       </c>
       <c r="D48" t="n">
-        <v>2.807800836558752e-06</v>
+        <v>-7292123887028.406</v>
       </c>
       <c r="E48" t="n">
-        <v>6.686485320383525e-07</v>
+        <v>651403327308.8427</v>
       </c>
       <c r="F48" t="n">
-        <v>1.260624508293687e-06</v>
+        <v>1087368022202.122</v>
       </c>
       <c r="G48" t="n">
-        <v>1.535098482327718e-06</v>
+        <v>1437685956241.865</v>
       </c>
       <c r="H48" t="n">
-        <v>36.72939945832991</v>
+        <v>11.43787682978313</v>
       </c>
       <c r="I48" t="n">
-        <v>2.047967276518779e-07</v>
+        <v>0.02205958126870018</v>
       </c>
       <c r="J48" t="n">
-        <v>9.182349864582477</v>
+        <v>2.859469207445782</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.410025</v>
       </c>
       <c r="B49" t="n">
-        <v>2.444970945817856e-05</v>
+        <v>24072557632542.03</v>
       </c>
       <c r="C49" t="n">
-        <v>1.0259676341148e-07</v>
+        <v>5475093553438.861</v>
       </c>
       <c r="D49" t="n">
-        <v>1.877387896402386e-06</v>
+        <v>-8565500875809.859</v>
       </c>
       <c r="E49" t="n">
-        <v>7.611581292090727e-07</v>
+        <v>717481925753.469</v>
       </c>
       <c r="F49" t="n">
-        <v>1.394505027134176e-06</v>
+        <v>1222562456405.691</v>
       </c>
       <c r="G49" t="n">
-        <v>1.728705282535542e-06</v>
+        <v>1578659326802.779</v>
       </c>
       <c r="H49" t="n">
-        <v>37.45949085744084</v>
+        <v>13.46356099210048</v>
       </c>
       <c r="I49" t="n">
-        <v>1.448426274980109e-07</v>
+        <v>0.009219436834525379</v>
       </c>
       <c r="J49" t="n">
-        <v>9.36487271436021</v>
+        <v>3.36589024802512</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.420244</v>
       </c>
       <c r="B50" t="n">
-        <v>2.547939935029396e-05</v>
+        <v>24201031616936.32</v>
       </c>
       <c r="C50" t="n">
-        <v>1.312331064190487e-06</v>
+        <v>7589224655537.275</v>
       </c>
       <c r="D50" t="n">
-        <v>2.151609199994595e-06</v>
+        <v>-7202269146349.883</v>
       </c>
       <c r="E50" t="n">
-        <v>8.723451554441654e-07</v>
+        <v>806266645597.2103</v>
       </c>
       <c r="F50" t="n">
-        <v>1.530731419312583e-06</v>
+        <v>1452926447599.571</v>
       </c>
       <c r="G50" t="n">
-        <v>1.932309437238837e-06</v>
+        <v>1815378702513.967</v>
       </c>
       <c r="H50" t="n">
-        <v>28.66224416905776</v>
+        <v>8.074423060471798</v>
       </c>
       <c r="I50" t="n">
-        <v>9.154754473990815e-06</v>
+        <v>0.08888971196633143</v>
       </c>
       <c r="J50" t="n">
-        <v>7.165561042264441</v>
+        <v>2.018605765117949</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.430182</v>
       </c>
       <c r="B51" t="n">
-        <v>2.468408293804947e-05</v>
+        <v>24460642661313.77</v>
       </c>
       <c r="C51" t="n">
-        <v>2.500175357917477e-06</v>
+        <v>8110723160222.963</v>
       </c>
       <c r="D51" t="n">
-        <v>1.849757964026486e-06</v>
+        <v>-8570901119299.375</v>
       </c>
       <c r="E51" t="n">
-        <v>8.262777104307085e-07</v>
+        <v>789386664673.9561</v>
       </c>
       <c r="F51" t="n">
-        <v>1.511532914857089e-06</v>
+        <v>1344530075828.316</v>
       </c>
       <c r="G51" t="n">
-        <v>1.888504897145207e-06</v>
+        <v>1752961786072.079</v>
       </c>
       <c r="H51" t="n">
-        <v>49.73159910419581</v>
+        <v>5.417937867092319</v>
       </c>
       <c r="I51" t="n">
-        <v>4.108150771563244e-10</v>
+        <v>0.2470375298858309</v>
       </c>
       <c r="J51" t="n">
-        <v>12.43289977604895</v>
+        <v>1.35448446677308</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.440043</v>
       </c>
       <c r="B52" t="n">
-        <v>1.956584265685354e-05</v>
+        <v>20765235675026.76</v>
       </c>
       <c r="C52" t="n">
-        <v>1.831085409694159e-06</v>
+        <v>9331475608987.701</v>
       </c>
       <c r="D52" t="n">
-        <v>5.189248462917172e-06</v>
+        <v>-9480869606602.539</v>
       </c>
       <c r="E52" t="n">
-        <v>1.150220546733921e-06</v>
+        <v>1097757221082.781</v>
       </c>
       <c r="F52" t="n">
-        <v>2.073612941759499e-06</v>
+        <v>1918575911590.909</v>
       </c>
       <c r="G52" t="n">
-        <v>2.575471766663182e-06</v>
+        <v>2385349471253.463</v>
       </c>
       <c r="H52" t="n">
-        <v>34.04003293759344</v>
+        <v>7.903552469158397</v>
       </c>
       <c r="I52" t="n">
-        <v>7.312332806725554e-07</v>
+        <v>0.09517576993246206</v>
       </c>
       <c r="J52" t="n">
-        <v>8.510008234398361</v>
+        <v>1.975888117289599</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.449945</v>
       </c>
       <c r="B53" t="n">
-        <v>2.281038590630451e-05</v>
+        <v>21144930984846.16</v>
       </c>
       <c r="C53" t="n">
-        <v>1.909205013474521e-06</v>
+        <v>12390078429559.97</v>
       </c>
       <c r="D53" t="n">
-        <v>2.358807266123719e-06</v>
+        <v>-12610989769234.63</v>
       </c>
       <c r="E53" t="n">
-        <v>1.426728967640913e-06</v>
+        <v>1224435708698.295</v>
       </c>
       <c r="F53" t="n">
-        <v>2.322406811780264e-06</v>
+        <v>2035256423702.819</v>
       </c>
       <c r="G53" t="n">
-        <v>3.061205570803934e-06</v>
+        <v>2671539220697.718</v>
       </c>
       <c r="H53" t="n">
-        <v>18.43285268236298</v>
+        <v>16.07305656889969</v>
       </c>
       <c r="I53" t="n">
-        <v>0.00101544383050515</v>
+        <v>0.002922683075457926</v>
       </c>
       <c r="J53" t="n">
-        <v>4.608213170590744</v>
+        <v>4.018264142224924</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.454988</v>
       </c>
       <c r="B54" t="n">
-        <v>1.337199608351025e-05</v>
+        <v>13293513992177.11</v>
       </c>
       <c r="C54" t="n">
-        <v>2.642622851795845e-06</v>
+        <v>6464833918354.234</v>
       </c>
       <c r="D54" t="n">
-        <v>1.41972812506667e-06</v>
+        <v>-6564318138019.715</v>
       </c>
       <c r="E54" t="n">
-        <v>2.243864546187275e-06</v>
+        <v>1927748763497.55</v>
       </c>
       <c r="F54" t="n">
-        <v>3.513520849351321e-06</v>
+        <v>3728614779205.77</v>
       </c>
       <c r="G54" t="n">
-        <v>4.56832464957468e-06</v>
+        <v>4259459815999.132</v>
       </c>
       <c r="H54" t="n">
-        <v>2.705321454452416</v>
+        <v>0.8628263261835392</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6082837479340744</v>
+        <v>0.9298323472541765</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6763303636131041</v>
+        <v>0.2157065815458848</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.460121</v>
       </c>
       <c r="B55" t="n">
-        <v>9.42158874057838e-06</v>
+        <v>12813897500799.58</v>
       </c>
       <c r="C55" t="n">
-        <v>-2.765201043107094e-07</v>
+        <v>5965522408989.266</v>
       </c>
       <c r="D55" t="n">
-        <v>3.90297301334644e-06</v>
+        <v>-5463192266387.992</v>
       </c>
       <c r="E55" t="n">
-        <v>1.884510916680905e-06</v>
+        <v>2632486609507.203</v>
       </c>
       <c r="F55" t="n">
-        <v>3.632087922644533e-06</v>
+        <v>4953955087120.723</v>
       </c>
       <c r="G55" t="n">
-        <v>4.187109869475478e-06</v>
+        <v>5420632851192.119</v>
       </c>
       <c r="H55" t="n">
-        <v>7.610035467963166</v>
+        <v>1.002566066181873</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1069539403910701</v>
+        <v>0.909406640821765</v>
       </c>
       <c r="J55" t="n">
-        <v>1.902508866990791</v>
+        <v>0.2506415165454682</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469957</v>
       </c>
       <c r="B56" t="n">
-        <v>1.266852950303476e-05</v>
+        <v>13188004164549.96</v>
       </c>
       <c r="C56" t="n">
-        <v>1.356497483302095e-06</v>
+        <v>8904676107248.812</v>
       </c>
       <c r="D56" t="n">
-        <v>6.09827865411898e-06</v>
+        <v>-5120854935390.414</v>
       </c>
       <c r="E56" t="n">
-        <v>2.083089240290774e-06</v>
+        <v>2030573169588.251</v>
       </c>
       <c r="F56" t="n">
-        <v>3.903598004254146e-06</v>
+        <v>3379247694500.098</v>
       </c>
       <c r="G56" t="n">
-        <v>4.82836437254468e-06</v>
+        <v>4509427915117.561</v>
       </c>
       <c r="H56" t="n">
-        <v>6.098360947442895</v>
+        <v>2.648793627112123</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1919220526345653</v>
+        <v>0.6182043311729872</v>
       </c>
       <c r="J56" t="n">
-        <v>1.524590236860724</v>
+        <v>0.6621984067780307</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477981</v>
       </c>
       <c r="B57" t="n">
-        <v>2.090315887247532e-05</v>
+        <v>18132921006272.68</v>
       </c>
       <c r="C57" t="n">
-        <v>5.901082808453349e-06</v>
+        <v>16318990379873.05</v>
       </c>
       <c r="D57" t="n">
-        <v>-6.137280098931895e-06</v>
+        <v>-15829641240821.12</v>
       </c>
       <c r="E57" t="n">
-        <v>2.531626013279771e-06</v>
+        <v>2025635286164.452</v>
       </c>
       <c r="F57" t="n">
-        <v>4.329210367408601e-06</v>
+        <v>3247103708191.37</v>
       </c>
       <c r="G57" t="n">
-        <v>5.223225663765024e-06</v>
+        <v>4384062635501.97</v>
       </c>
       <c r="H57" t="n">
-        <v>11.22560682438533</v>
+        <v>1.758726412043201</v>
       </c>
       <c r="I57" t="n">
-        <v>0.02414215656823158</v>
+        <v>0.7800242993587835</v>
       </c>
       <c r="J57" t="n">
-        <v>2.806401706096333</v>
+        <v>0.4396816030108002</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.486129</v>
       </c>
       <c r="B58" t="n">
-        <v>2.356726266564794e-05</v>
+        <v>25238270521093.57</v>
       </c>
       <c r="C58" t="n">
-        <v>7.199429011591473e-06</v>
+        <v>17043734294021.54</v>
       </c>
       <c r="D58" t="n">
-        <v>4.788726339051258e-06</v>
+        <v>-13456707207227.66</v>
       </c>
       <c r="E58" t="n">
-        <v>1.638680565097498e-06</v>
+        <v>1549431211082.299</v>
       </c>
       <c r="F58" t="n">
-        <v>2.876689694107913e-06</v>
+        <v>2918823271573.145</v>
       </c>
       <c r="G58" t="n">
-        <v>3.700586955202773e-06</v>
+        <v>3591893559415.942</v>
       </c>
       <c r="H58" t="n">
-        <v>37.08763024238343</v>
+        <v>3.921887270088443</v>
       </c>
       <c r="I58" t="n">
-        <v>1.727956340343162e-07</v>
+        <v>0.4166804650052046</v>
       </c>
       <c r="J58" t="n">
-        <v>9.271907560595857</v>
+        <v>0.9804718175221108</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.488189</v>
       </c>
       <c r="B59" t="n">
-        <v>2.687424014037112e-05</v>
+        <v>28722343004801.16</v>
       </c>
       <c r="C59" t="n">
-        <v>5.898789055456536e-06</v>
+        <v>17266073043785.48</v>
       </c>
       <c r="D59" t="n">
-        <v>4.4374958824618e-06</v>
+        <v>-15735851488357.34</v>
       </c>
       <c r="E59" t="n">
-        <v>1.542835909508223e-06</v>
+        <v>1484028924611.307</v>
       </c>
       <c r="F59" t="n">
-        <v>2.804779041689062e-06</v>
+        <v>2648058980900.393</v>
       </c>
       <c r="G59" t="n">
-        <v>3.537495102961408e-06</v>
+        <v>3381833660681.927</v>
       </c>
       <c r="H59" t="n">
-        <v>51.06271161596479</v>
+        <v>9.514713998961708</v>
       </c>
       <c r="I59" t="n">
-        <v>2.165870574394202e-10</v>
+        <v>0.04944578390351102</v>
       </c>
       <c r="J59" t="n">
-        <v>12.7656779039912</v>
+        <v>2.378678499740427</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>2.803412337087278e-05</v>
+        <v>27909070434898.67</v>
       </c>
       <c r="C60" t="n">
-        <v>8.07876082441285e-06</v>
+        <v>18283684363450.82</v>
       </c>
       <c r="D60" t="n">
-        <v>3.409252481742511e-06</v>
+        <v>-14860739423196.73</v>
       </c>
       <c r="E60" t="n">
-        <v>1.746777518359512e-06</v>
+        <v>1495901138209.026</v>
       </c>
       <c r="F60" t="n">
-        <v>2.855009587520647e-06</v>
+        <v>2624361543741.287</v>
       </c>
       <c r="G60" t="n">
-        <v>3.761488869089942e-06</v>
+        <v>3381391035055.506</v>
       </c>
       <c r="H60" t="n">
-        <v>26.31720042618907</v>
+        <v>3.571088816427221</v>
       </c>
       <c r="I60" t="n">
-        <v>2.730944391277182e-05</v>
+        <v>0.4671517744808594</v>
       </c>
       <c r="J60" t="n">
-        <v>6.579300106547267</v>
+        <v>0.8927722041068051</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.492223</v>
       </c>
       <c r="B61" t="n">
-        <v>3.038634653057626e-05</v>
+        <v>30317705705188.01</v>
       </c>
       <c r="C61" t="n">
-        <v>6.576740464615824e-06</v>
+        <v>20319505026941.43</v>
       </c>
       <c r="D61" t="n">
-        <v>4.59954593868704e-06</v>
+        <v>-16585386815961.98</v>
       </c>
       <c r="E61" t="n">
-        <v>1.274324905778959e-06</v>
+        <v>1175095808235.376</v>
       </c>
       <c r="F61" t="n">
-        <v>2.251097728236593e-06</v>
+        <v>1912361157813.505</v>
       </c>
       <c r="G61" t="n">
-        <v>2.925663348533476e-06</v>
+        <v>2606479091010.454</v>
       </c>
       <c r="H61" t="n">
-        <v>68.2110511472813</v>
+        <v>10.32568701667275</v>
       </c>
       <c r="I61" t="n">
-        <v>5.414195334776727e-14</v>
+        <v>0.03528472145164618</v>
       </c>
       <c r="J61" t="n">
-        <v>17.05276278682032</v>
+        <v>2.581421754168187</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.494992</v>
       </c>
       <c r="B62" t="n">
-        <v>3.255165720488678e-05</v>
+        <v>34137394104801.61</v>
       </c>
       <c r="C62" t="n">
-        <v>7.927433103839041e-06</v>
+        <v>20898976095061.95</v>
       </c>
       <c r="D62" t="n">
-        <v>6.378641040824114e-06</v>
+        <v>-17252982635078.84</v>
       </c>
       <c r="E62" t="n">
-        <v>1.077098585952656e-06</v>
+        <v>1050238033155.724</v>
       </c>
       <c r="F62" t="n">
-        <v>2.028971717408133e-06</v>
+        <v>1716814543789.089</v>
       </c>
       <c r="G62" t="n">
-        <v>2.595745780818297e-06</v>
+        <v>2403749434486.418</v>
       </c>
       <c r="H62" t="n">
-        <v>91.09595822686279</v>
+        <v>14.29972150068848</v>
       </c>
       <c r="I62" t="n">
-        <v>7.703087657711902e-19</v>
+        <v>0.006397423747663936</v>
       </c>
       <c r="J62" t="n">
-        <v>22.7739895567157</v>
+        <v>3.574930375172119</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>3.331822800820954e-05</v>
+        <v>36785184099929.34</v>
       </c>
       <c r="C63" t="n">
-        <v>7.690170675095241e-06</v>
+        <v>19801695876968.92</v>
       </c>
       <c r="D63" t="n">
-        <v>7.709006929188306e-06</v>
+        <v>-18528599925534.18</v>
       </c>
       <c r="E63" t="n">
-        <v>1.00260309857065e-06</v>
+        <v>1038503821553.5</v>
       </c>
       <c r="F63" t="n">
-        <v>2.017313210768882e-06</v>
+        <v>1695219426083.653</v>
       </c>
       <c r="G63" t="n">
-        <v>2.480575211529844e-06</v>
+        <v>2351631999614.595</v>
       </c>
       <c r="H63" t="n">
-        <v>134.3262744111529</v>
+        <v>6.519760809106519</v>
       </c>
       <c r="I63" t="n">
-        <v>4.623487575563741e-28</v>
+        <v>0.1635495430882473</v>
       </c>
       <c r="J63" t="n">
-        <v>33.58156860278822</v>
+        <v>1.62994020227663</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.510205</v>
       </c>
       <c r="B64" t="n">
-        <v>3.660533483470028e-05</v>
+        <v>39880686291522.42</v>
       </c>
       <c r="C64" t="n">
-        <v>9.635178639051659e-06</v>
+        <v>21797152386604.12</v>
       </c>
       <c r="D64" t="n">
-        <v>6.945889983035553e-06</v>
+        <v>-19565473794299.55</v>
       </c>
       <c r="E64" t="n">
-        <v>9.873136263150983e-07</v>
+        <v>1042117464282.988</v>
       </c>
       <c r="F64" t="n">
-        <v>2.011105135002257e-06</v>
+        <v>1618677265191.053</v>
       </c>
       <c r="G64" t="n">
-        <v>2.516597997385275e-06</v>
+        <v>2382946521176.968</v>
       </c>
       <c r="H64" t="n">
-        <v>130.1085504031164</v>
+        <v>10.6446413858343</v>
       </c>
       <c r="I64" t="n">
-        <v>3.691375175453237e-27</v>
+        <v>0.03086185406691974</v>
       </c>
       <c r="J64" t="n">
-        <v>32.52713760077909</v>
+        <v>2.661160346458576</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.512183</v>
       </c>
       <c r="B65" t="n">
-        <v>3.987876760867453e-05</v>
+        <v>46815905840273.25</v>
       </c>
       <c r="C65" t="n">
-        <v>6.660386652288177e-06</v>
+        <v>29853611666815.41</v>
       </c>
       <c r="D65" t="n">
-        <v>9.140726842720123e-06</v>
+        <v>-32769301613015.27</v>
       </c>
       <c r="E65" t="n">
-        <v>1.335825299471401e-06</v>
+        <v>1415867452449.821</v>
       </c>
       <c r="F65" t="n">
-        <v>2.741081483717618e-06</v>
+        <v>2088106445028.36</v>
       </c>
       <c r="G65" t="n">
-        <v>3.301362715891555e-06</v>
+        <v>3091492978437.699</v>
       </c>
       <c r="H65" t="n">
-        <v>164.909125177677</v>
+        <v>14.63258589404269</v>
       </c>
       <c r="I65" t="n">
-        <v>1.293863748993563e-34</v>
+        <v>0.005527186569242002</v>
       </c>
       <c r="J65" t="n">
-        <v>41.22728129441925</v>
+        <v>3.658146473510673</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>3.45197027503216e-05</v>
+        <v>47213491023708.02</v>
       </c>
       <c r="C66" t="n">
-        <v>7.593649083716476e-06</v>
+        <v>33176093487568.43</v>
       </c>
       <c r="D66" t="n">
-        <v>1.370652685257348e-05</v>
+        <v>-39422987548901.62</v>
       </c>
       <c r="E66" t="n">
-        <v>1.724633941645747e-06</v>
+        <v>1995821424284.041</v>
       </c>
       <c r="F66" t="n">
-        <v>3.746434756182659e-06</v>
+        <v>3272179911399.65</v>
       </c>
       <c r="G66" t="n">
-        <v>4.333700995966532e-06</v>
+        <v>4384747060810.799</v>
       </c>
       <c r="H66" t="n">
-        <v>150.9440601920156</v>
+        <v>4.804303106972433</v>
       </c>
       <c r="I66" t="n">
-        <v>1.277663272414999e-31</v>
+        <v>0.3079728922198953</v>
       </c>
       <c r="J66" t="n">
-        <v>37.73601504800391</v>
+        <v>1.201075776743108</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.520067</v>
       </c>
       <c r="B67" t="n">
-        <v>4.247594225436396e-05</v>
+        <v>43091890702894.77</v>
       </c>
       <c r="C67" t="n">
-        <v>3.270611810179857e-06</v>
+        <v>25834890659920.18</v>
       </c>
       <c r="D67" t="n">
-        <v>-5.171366046594547e-06</v>
+        <v>-39127337311436.3</v>
       </c>
       <c r="E67" t="n">
-        <v>2.468815589842788e-06</v>
+        <v>2237031709826.94</v>
       </c>
       <c r="F67" t="n">
-        <v>4.254979732940872e-06</v>
+        <v>3686087740543.895</v>
       </c>
       <c r="G67" t="n">
-        <v>5.429181852864021e-06</v>
+        <v>4789829473007.801</v>
       </c>
       <c r="H67" t="n">
-        <v>65.7953788691724</v>
+        <v>3.987673424534838</v>
       </c>
       <c r="I67" t="n">
-        <v>1.749383828838959e-13</v>
+        <v>0.4076766407144584</v>
       </c>
       <c r="J67" t="n">
-        <v>16.4488447172931</v>
+        <v>0.9969183561337094</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.525238</v>
       </c>
       <c r="B68" t="n">
-        <v>3.67293464337235e-05</v>
+        <v>38355334457488.09</v>
       </c>
       <c r="C68" t="n">
-        <v>2.357371180459569e-07</v>
+        <v>25661105640242.68</v>
       </c>
       <c r="D68" t="n">
-        <v>-3.711866321195911e-06</v>
+        <v>-39651514165228.07</v>
       </c>
       <c r="E68" t="n">
-        <v>3.08366429586066e-06</v>
+        <v>2855722223555.88</v>
       </c>
       <c r="F68" t="n">
-        <v>5.658250122373202e-06</v>
+        <v>4460076178687.977</v>
       </c>
       <c r="G68" t="n">
-        <v>6.867180809331277e-06</v>
+        <v>6087359257338.138</v>
       </c>
       <c r="H68" t="n">
-        <v>42.50822377369114</v>
+        <v>5.713473533224891</v>
       </c>
       <c r="I68" t="n">
-        <v>1.308780323232163e-08</v>
+        <v>0.2215924626640925</v>
       </c>
       <c r="J68" t="n">
-        <v>10.62705594342279</v>
+        <v>1.428368383306223</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529406</v>
       </c>
       <c r="B69" t="n">
-        <v>3.638634100368821e-05</v>
+        <v>43059508247977.38</v>
       </c>
       <c r="C69" t="n">
-        <v>2.934265522572743e-06</v>
+        <v>33009733325406.75</v>
       </c>
       <c r="D69" t="n">
-        <v>-2.162127620148753e-06</v>
+        <v>-49455262490128.98</v>
       </c>
       <c r="E69" t="n">
-        <v>2.609010528451827e-06</v>
+        <v>2500092295317.288</v>
       </c>
       <c r="F69" t="n">
-        <v>4.953099458589208e-06</v>
+        <v>3665109416492.561</v>
       </c>
       <c r="G69" t="n">
-        <v>5.89779888792989e-06</v>
+        <v>5203166162709.435</v>
       </c>
       <c r="H69" t="n">
-        <v>84.84006268394563</v>
+        <v>3.160347576566348</v>
       </c>
       <c r="I69" t="n">
-        <v>1.640229424776668e-17</v>
+        <v>0.5313591974000104</v>
       </c>
       <c r="J69" t="n">
-        <v>21.21001567098641</v>
+        <v>0.7900868941415869</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.535056</v>
       </c>
       <c r="B70" t="n">
-        <v>2.326312802501634e-05</v>
+        <v>35582195812409.01</v>
       </c>
       <c r="C70" t="n">
-        <v>-6.163843415148004e-06</v>
+        <v>19415973312422.53</v>
       </c>
       <c r="D70" t="n">
-        <v>3.137097209990011e-06</v>
+        <v>-48537038152228.17</v>
       </c>
       <c r="E70" t="n">
-        <v>3.070203409045295e-06</v>
+        <v>3537671810318.671</v>
       </c>
       <c r="F70" t="n">
-        <v>7.440057109704334e-06</v>
+        <v>5127897865569.294</v>
       </c>
       <c r="G70" t="n">
-        <v>7.784173210179569e-06</v>
+        <v>6692293456655.763</v>
       </c>
       <c r="H70" t="n">
-        <v>54.74189625491839</v>
+        <v>0.6640449218531308</v>
       </c>
       <c r="I70" t="n">
-        <v>3.679782193241983e-11</v>
+        <v>0.9556877635984402</v>
       </c>
       <c r="J70" t="n">
-        <v>13.6854740637296</v>
+        <v>0.1660112304632827</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.540236</v>
       </c>
       <c r="B71" t="n">
-        <v>2.775972602431886e-05</v>
+        <v>27819627470600.64</v>
       </c>
       <c r="C71" t="n">
-        <v>-3.3205703807934e-06</v>
+        <v>17420344590645.34</v>
       </c>
       <c r="D71" t="n">
-        <v>-2.449524415950467e-06</v>
+        <v>-31238199934141.85</v>
       </c>
       <c r="E71" t="n">
-        <v>4.748499384029584e-06</v>
+        <v>4334850488085.862</v>
       </c>
       <c r="F71" t="n">
-        <v>8.372726345046597e-06</v>
+        <v>7931241909222.882</v>
       </c>
       <c r="G71" t="n">
-        <v>1.036731560372811e-05</v>
+        <v>10099478341168.27</v>
       </c>
       <c r="H71" t="n">
-        <v>10.88765850481451</v>
+        <v>1.304177100177446</v>
       </c>
       <c r="I71" t="n">
-        <v>0.02785601703030611</v>
+        <v>0.8606664270276837</v>
       </c>
       <c r="J71" t="n">
-        <v>2.721914626203627</v>
+        <v>0.3260442750443616</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.549804</v>
       </c>
       <c r="B72" t="n">
-        <v>3.714903528313254e-05</v>
+        <v>36254477585079.62</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.212462429894081e-06</v>
+        <v>17108328008585.68</v>
       </c>
       <c r="D72" t="n">
-        <v>-6.387223085397003e-06</v>
+        <v>-28773167925244.18</v>
       </c>
       <c r="E72" t="n">
-        <v>2.739174761844363e-06</v>
+        <v>2354007380051.513</v>
       </c>
       <c r="F72" t="n">
-        <v>4.422439315130816e-06</v>
+        <v>4071554364618.163</v>
       </c>
       <c r="G72" t="n">
-        <v>5.65530769894851e-06</v>
+        <v>5088650121534.444</v>
       </c>
       <c r="H72" t="n">
-        <v>28.58093109301062</v>
+        <v>3.223423479606766</v>
       </c>
       <c r="I72" t="n">
-        <v>9.509340049401355e-06</v>
+        <v>0.5211559809418023</v>
       </c>
       <c r="J72" t="n">
-        <v>7.145232773252654</v>
+        <v>0.8058558699016916</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.560183</v>
       </c>
       <c r="B73" t="n">
-        <v>1.102000873113118e-05</v>
+        <v>12343231138161.31</v>
       </c>
       <c r="C73" t="n">
-        <v>8.037147412391238e-07</v>
+        <v>3073163421543.01</v>
       </c>
       <c r="D73" t="n">
-        <v>-4.778632978852988e-07</v>
+        <v>-7065816514851.562</v>
       </c>
       <c r="E73" t="n">
-        <v>2.905456331705039e-06</v>
+        <v>3220794947284.918</v>
       </c>
       <c r="F73" t="n">
-        <v>5.885423647115704e-06</v>
+        <v>5516140238184.179</v>
       </c>
       <c r="G73" t="n">
-        <v>6.21486191375859e-06</v>
+        <v>6337120364473.787</v>
       </c>
       <c r="H73" t="n">
-        <v>2.93029721740803</v>
+        <v>0.2426632432097807</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5695569417839627</v>
+        <v>0.9932084727005335</v>
       </c>
       <c r="J73" t="n">
-        <v>0.7325743043520074</v>
+        <v>0.06066581080244517</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570129</v>
       </c>
       <c r="B74" t="n">
-        <v>7.983254633706445e-06</v>
+        <v>9600974498579.336</v>
       </c>
       <c r="C74" t="n">
-        <v>3.062878281366263e-06</v>
+        <v>7631086530778.77</v>
       </c>
       <c r="D74" t="n">
-        <v>6.52624399849435e-06</v>
+        <v>-7973003324661.58</v>
       </c>
       <c r="E74" t="n">
-        <v>2.230448273266322e-06</v>
+        <v>3009031185963.858</v>
       </c>
       <c r="F74" t="n">
-        <v>5.91182938253444e-06</v>
+        <v>3615818058399.444</v>
       </c>
       <c r="G74" t="n">
-        <v>6.319414199808353e-06</v>
+        <v>6121171672349.672</v>
       </c>
       <c r="H74" t="n">
-        <v>3.471957415052523</v>
+        <v>0.4303026282139161</v>
       </c>
       <c r="I74" t="n">
-        <v>0.4821550721929019</v>
+        <v>0.9799216037321513</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8679893537631307</v>
+        <v>0.107575657053479</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580025</v>
       </c>
       <c r="B75" t="n">
-        <v>3.812900828075299e-06</v>
+        <v>12662384292283.13</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.223726474799647e-06</v>
+        <v>12175294692246.83</v>
       </c>
       <c r="D75" t="n">
-        <v>1.197839062776136e-05</v>
+        <v>-10461279285737.32</v>
       </c>
       <c r="E75" t="n">
-        <v>1.03741317309085e-06</v>
+        <v>2533379705821.711</v>
       </c>
       <c r="F75" t="n">
-        <v>5.60897757481636e-06</v>
+        <v>3377353495404.925</v>
       </c>
       <c r="G75" t="n">
-        <v>5.095749447037928e-06</v>
+        <v>5317958601074.305</v>
       </c>
       <c r="H75" t="n">
-        <v>11.96508289254061</v>
+        <v>0.7424451817390589</v>
       </c>
       <c r="I75" t="n">
-        <v>0.01761281544343438</v>
+        <v>0.9459932484611623</v>
       </c>
       <c r="J75" t="n">
-        <v>2.991270723135152</v>
+        <v>0.1856112954347647</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.590082</v>
       </c>
       <c r="B76" t="n">
-        <v>2.773782762215909e-05</v>
+        <v>31852558778474.14</v>
       </c>
       <c r="C76" t="n">
-        <v>4.355834799715196e-06</v>
+        <v>25609850131893.76</v>
       </c>
       <c r="D76" t="n">
-        <v>-3.999631433836153e-06</v>
+        <v>-38656236511100.22</v>
       </c>
       <c r="E76" t="n">
-        <v>2.467915318950654e-06</v>
+        <v>2275024905516.304</v>
       </c>
       <c r="F76" t="n">
-        <v>4.467093314759405e-06</v>
+        <v>3208752677392.511</v>
       </c>
       <c r="G76" t="n">
-        <v>5.632317033145843e-06</v>
+        <v>4735484608054.035</v>
       </c>
       <c r="H76" t="n">
-        <v>55.26337135741199</v>
+        <v>2.326799098173335</v>
       </c>
       <c r="I76" t="n">
-        <v>2.861266444724963e-11</v>
+        <v>0.6758942167371524</v>
       </c>
       <c r="J76" t="n">
-        <v>13.815842839353</v>
+        <v>0.5816997745433337</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.600268</v>
       </c>
       <c r="B77" t="n">
-        <v>4.202742592740168e-05</v>
+        <v>92390131433999.44</v>
       </c>
       <c r="C77" t="n">
-        <v>-1.090527423981077e-05</v>
+        <v>66860906734741.71</v>
       </c>
       <c r="D77" t="n">
-        <v>1.113825344335448e-05</v>
+        <v>-132759150624856.6</v>
       </c>
       <c r="E77" t="n">
-        <v>2.758721131068817e-06</v>
+        <v>3847676713192.359</v>
       </c>
       <c r="F77" t="n">
-        <v>6.845451595288841e-06</v>
+        <v>5148079844316.438</v>
       </c>
       <c r="G77" t="n">
-        <v>7.472101447035748e-06</v>
+        <v>7817753701711.545</v>
       </c>
       <c r="H77" t="n">
-        <v>332.3453703833948</v>
+        <v>4.138629065290568</v>
       </c>
       <c r="I77" t="n">
-        <v>1.135756148348155e-70</v>
+        <v>0.3875694287596317</v>
       </c>
       <c r="J77" t="n">
-        <v>83.08634259584869</v>
+        <v>1.034657266322642</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.609989</v>
       </c>
       <c r="B78" t="n">
-        <v>2.90214909498025e-05</v>
+        <v>269139872277540</v>
       </c>
       <c r="C78" t="n">
-        <v>-9.568000485450119e-05</v>
+        <v>195442002056381.2</v>
       </c>
       <c r="D78" t="n">
-        <v>9.41260988698376e-05</v>
+        <v>-444829179335834.4</v>
       </c>
       <c r="E78" t="n">
-        <v>2.766156509167203e-06</v>
+        <v>8914519061156.795</v>
       </c>
       <c r="F78" t="n">
-        <v>1.51945427151068e-05</v>
+        <v>7694976343734.022</v>
       </c>
       <c r="G78" t="n">
-        <v>1.368440503879531e-05</v>
+        <v>16077556228102.54</v>
       </c>
       <c r="H78" t="n">
-        <v>776.8330989856845</v>
+        <v>0.2723891207445601</v>
       </c>
       <c r="I78" t="n">
-        <v>8.002953244970665e-167</v>
+        <v>0.9915261206358454</v>
       </c>
       <c r="J78" t="n">
-        <v>194.2082747464211</v>
+        <v>0.06809728018614003</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.620227</v>
       </c>
       <c r="B79" t="n">
-        <v>5.022587320348945e-05</v>
+        <v>291398884604664</v>
       </c>
       <c r="C79" t="n">
-        <v>-9.076380821843575e-05</v>
+        <v>213658294735259.3</v>
       </c>
       <c r="D79" t="n">
-        <v>8.832739141638801e-05</v>
+        <v>-487964887065179.8</v>
       </c>
       <c r="E79" t="n">
-        <v>4.514497061820659e-06</v>
+        <v>10719632886682.46</v>
       </c>
       <c r="F79" t="n">
-        <v>1.883862004044004e-05</v>
+        <v>8044581808202.838</v>
       </c>
       <c r="G79" t="n">
-        <v>1.769189156567587e-05</v>
+        <v>19063657091418.12</v>
       </c>
       <c r="H79" t="n">
-        <v>617.6005511857738</v>
+        <v>5.268067785031165</v>
       </c>
       <c r="I79" t="n">
-        <v>2.4034002364889e-132</v>
+        <v>0.2608810830246954</v>
       </c>
       <c r="J79" t="n">
-        <v>154.4001377964435</v>
+        <v>1.317016946257791</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.629939</v>
       </c>
       <c r="B80" t="n">
-        <v>6.161597738909408e-05</v>
+        <v>227547837416513.8</v>
       </c>
       <c r="C80" t="n">
-        <v>-6.244134407778004e-05</v>
+        <v>160822575680143.7</v>
       </c>
       <c r="D80" t="n">
-        <v>3.898615914856444e-05</v>
+        <v>-370848658349927.6</v>
       </c>
       <c r="E80" t="n">
-        <v>4.210348086400252e-06</v>
+        <v>7722041369624.391</v>
       </c>
       <c r="F80" t="n">
-        <v>1.284246473013081e-05</v>
+        <v>8532359092958.9</v>
       </c>
       <c r="G80" t="n">
-        <v>1.298674095987192e-05</v>
+        <v>14542889203895.86</v>
       </c>
       <c r="H80" t="n">
-        <v>658.0325780063125</v>
+        <v>1.313036568369267</v>
       </c>
       <c r="I80" t="n">
-        <v>4.251836991574834e-141</v>
+        <v>0.8591598346975906</v>
       </c>
       <c r="J80" t="n">
-        <v>164.5081445015781</v>
+        <v>0.3282591420923168</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.635173</v>
       </c>
       <c r="B81" t="n">
-        <v>5.010796718492485e-05</v>
+        <v>119007706859428.9</v>
       </c>
       <c r="C81" t="n">
-        <v>-2.030804494587944e-05</v>
+        <v>82908068863727.91</v>
       </c>
       <c r="D81" t="n">
-        <v>2.358300042248115e-05</v>
+        <v>-176714930533117</v>
       </c>
       <c r="E81" t="n">
-        <v>3.07018706231162e-06</v>
+        <v>4512897085284.668</v>
       </c>
       <c r="F81" t="n">
-        <v>8.090977117199547e-06</v>
+        <v>5673754028024.184</v>
       </c>
       <c r="G81" t="n">
-        <v>8.621125162977624e-06</v>
+        <v>8956071061586.971</v>
       </c>
       <c r="H81" t="n">
-        <v>415.4358688104273</v>
+        <v>3.019577628772548</v>
       </c>
       <c r="I81" t="n">
-        <v>1.284715794840404e-88</v>
+        <v>0.5545544932342458</v>
       </c>
       <c r="J81" t="n">
-        <v>103.8589672026068</v>
+        <v>0.7548944071931369</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>7.44757336913989e-05</v>
+        <v>106886109652453</v>
       </c>
       <c r="C82" t="n">
-        <v>4.039924576405271e-06</v>
+        <v>68851203064996.62</v>
       </c>
       <c r="D82" t="n">
-        <v>1.255629040578519e-05</v>
+        <v>-108593498818872.1</v>
       </c>
       <c r="E82" t="n">
-        <v>3.093729612602084e-06</v>
+        <v>3624663480878.352</v>
       </c>
       <c r="F82" t="n">
-        <v>6.634687950632621e-06</v>
+        <v>5440404866130.676</v>
       </c>
       <c r="G82" t="n">
-        <v>7.773809473095685e-06</v>
+        <v>7828698953501.227</v>
       </c>
       <c r="H82" t="n">
-        <v>271.3782336588498</v>
+        <v>7.925295730412619</v>
       </c>
       <c r="I82" t="n">
-        <v>1.609530623446435e-57</v>
+        <v>0.09435335741445562</v>
       </c>
       <c r="J82" t="n">
-        <v>67.84455841471244</v>
+        <v>1.981323932603155</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.649962</v>
       </c>
       <c r="B83" t="n">
-        <v>8.493720123015514e-05</v>
+        <v>125988967449964.2</v>
       </c>
       <c r="C83" t="n">
-        <v>1.069178369681844e-06</v>
+        <v>83307626133719.41</v>
       </c>
       <c r="D83" t="n">
-        <v>8.453481872819867e-06</v>
+        <v>-143637214769754.9</v>
       </c>
       <c r="E83" t="n">
-        <v>3.273214396535074e-06</v>
+        <v>3876536075727.723</v>
       </c>
       <c r="F83" t="n">
-        <v>7.050591337239452e-06</v>
+        <v>4920624728673.227</v>
       </c>
       <c r="G83" t="n">
-        <v>8.293308745203267e-06</v>
+        <v>7942776273856.552</v>
       </c>
       <c r="H83" t="n">
-        <v>347.092384438654</v>
+        <v>8.788562571296733</v>
       </c>
       <c r="I83" t="n">
-        <v>7.443149511466704e-74</v>
+        <v>0.06660724560979087</v>
       </c>
       <c r="J83" t="n">
-        <v>86.7730961096635</v>
+        <v>2.197140642824183</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>8.894588619384832e-05</v>
+        <v>134453954919108.1</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.040791371404224e-05</v>
+        <v>66578058375357.78</v>
       </c>
       <c r="D84" t="n">
-        <v>-7.061964892803561e-06</v>
+        <v>-147166846974186.4</v>
       </c>
       <c r="E84" t="n">
-        <v>2.773509675633876e-06</v>
+        <v>3584790667986.802</v>
       </c>
       <c r="F84" t="n">
-        <v>6.502443019789896e-06</v>
+        <v>4412009694886.427</v>
       </c>
       <c r="G84" t="n">
-        <v>7.191610411854077e-06</v>
+        <v>7096428976539.039</v>
       </c>
       <c r="H84" t="n">
-        <v>427.1698273395857</v>
+        <v>1.570142281520243</v>
       </c>
       <c r="I84" t="n">
-        <v>3.739811917123809e-91</v>
+        <v>0.8141481952079448</v>
       </c>
       <c r="J84" t="n">
-        <v>106.7924568348964</v>
+        <v>0.3925355703800606</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.680153</v>
       </c>
       <c r="B85" t="n">
-        <v>7.61295150875946e-05</v>
+        <v>92917918481192.59</v>
       </c>
       <c r="C85" t="n">
-        <v>-8.405818594048678e-07</v>
+        <v>39626781281348.22</v>
       </c>
       <c r="D85" t="n">
-        <v>-7.8365051606791e-06</v>
+        <v>-81701178238115.03</v>
       </c>
       <c r="E85" t="n">
-        <v>2.18844457224472e-06</v>
+        <v>2456205228635.405</v>
       </c>
       <c r="F85" t="n">
-        <v>4.567521615712712e-06</v>
+        <v>3366642432496.555</v>
       </c>
       <c r="G85" t="n">
-        <v>5.331517756058718e-06</v>
+        <v>5049910593429.412</v>
       </c>
       <c r="H85" t="n">
-        <v>247.2967674584692</v>
+        <v>2.694883203189089</v>
       </c>
       <c r="I85" t="n">
-        <v>2.488146236477753e-52</v>
+        <v>0.6101102828161361</v>
       </c>
       <c r="J85" t="n">
-        <v>61.82419186461731</v>
+        <v>0.6737208007972721</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.689928</v>
       </c>
       <c r="B86" t="n">
-        <v>5.172043628579005e-05</v>
+        <v>65314682917715.84</v>
       </c>
       <c r="C86" t="n">
-        <v>4.653968741607126e-06</v>
+        <v>34775748535652.2</v>
       </c>
       <c r="D86" t="n">
-        <v>2.92547723409201e-06</v>
+        <v>-55508289396832.94</v>
       </c>
       <c r="E86" t="n">
-        <v>1.520895482672415e-06</v>
+        <v>1767458281258.596</v>
       </c>
       <c r="F86" t="n">
-        <v>3.272982554161609e-06</v>
+        <v>2420326837675.674</v>
       </c>
       <c r="G86" t="n">
-        <v>3.876483625494612e-06</v>
+        <v>3743746922281.117</v>
       </c>
       <c r="H86" t="n">
-        <v>249.2710107888168</v>
+        <v>5.266334413614686</v>
       </c>
       <c r="I86" t="n">
-        <v>9.345448512034942e-53</v>
+        <v>0.2610450111061989</v>
       </c>
       <c r="J86" t="n">
-        <v>62.31775269720419</v>
+        <v>1.316583603403672</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
-        <v>4.736148841102317e-05</v>
+        <v>55322205459883.05</v>
       </c>
       <c r="C87" t="n">
-        <v>8.174624169892956e-06</v>
+        <v>27597122396476.99</v>
       </c>
       <c r="D87" t="n">
-        <v>4.983040530173675e-06</v>
+        <v>-35717856876775.39</v>
       </c>
       <c r="E87" t="n">
-        <v>1.247042423270267e-06</v>
+        <v>1407518953613.911</v>
       </c>
       <c r="F87" t="n">
-        <v>2.654067253220912e-06</v>
+        <v>2022244302412.251</v>
       </c>
       <c r="G87" t="n">
-        <v>3.198099181181957e-06</v>
+        <v>3084709053276.568</v>
       </c>
       <c r="H87" t="n">
-        <v>189.2588215909856</v>
+        <v>6.726186382890593</v>
       </c>
       <c r="I87" t="n">
-        <v>7.648223061523049e-40</v>
+        <v>0.1510851131011251</v>
       </c>
       <c r="J87" t="n">
-        <v>47.31470539774639</v>
+        <v>1.681546595722648</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.730004</v>
       </c>
       <c r="B88" t="n">
-        <v>5.083160282251096e-05</v>
+        <v>60723837708381.62</v>
       </c>
       <c r="C88" t="n">
-        <v>8.673507016156012e-06</v>
+        <v>31653688191288.05</v>
       </c>
       <c r="D88" t="n">
-        <v>6.134846377199005e-06</v>
+        <v>-41227948036327.16</v>
       </c>
       <c r="E88" t="n">
-        <v>1.413326842777298e-06</v>
+        <v>1593719572965.557</v>
       </c>
       <c r="F88" t="n">
-        <v>2.986251182973549e-06</v>
+        <v>2322210358720.205</v>
       </c>
       <c r="G88" t="n">
-        <v>3.613920389928097e-06</v>
+        <v>3508701595417.025</v>
       </c>
       <c r="H88" t="n">
-        <v>201.9665330594549</v>
+        <v>7.747416826247573</v>
       </c>
       <c r="I88" t="n">
-        <v>1.419232343432983e-42</v>
+        <v>0.1012813202857294</v>
       </c>
       <c r="J88" t="n">
-        <v>50.49163326486372</v>
+        <v>1.936854206561893</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.749999</v>
       </c>
       <c r="B89" t="n">
-        <v>7.273180460027151e-05</v>
+        <v>98127926678940.06</v>
       </c>
       <c r="C89" t="n">
-        <v>3.677589278478998e-06</v>
+        <v>52241140866409.89</v>
       </c>
       <c r="D89" t="n">
-        <v>1.373234091299556e-05</v>
+        <v>-84275570203437.84</v>
       </c>
       <c r="E89" t="n">
-        <v>1.999564107801035e-06</v>
+        <v>2514161206408.455</v>
       </c>
       <c r="F89" t="n">
-        <v>4.664496447113897e-06</v>
+        <v>3251639065914.817</v>
       </c>
       <c r="G89" t="n">
-        <v>5.336084124183179e-06</v>
+        <v>5238416834588.038</v>
       </c>
       <c r="H89" t="n">
-        <v>311.8501008575676</v>
+        <v>5.528786666898347</v>
       </c>
       <c r="I89" t="n">
-        <v>3.008176298918037e-66</v>
+        <v>0.2372106726897283</v>
       </c>
       <c r="J89" t="n">
-        <v>77.96252521439189</v>
+        <v>1.382196666724587</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.755179</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0001270700087880344</v>
+        <v>202515176685673.9</v>
       </c>
       <c r="C90" t="n">
-        <v>-9.96694466788258e-06</v>
+        <v>105712569713778.7</v>
       </c>
       <c r="D90" t="n">
-        <v>1.210738970383151e-05</v>
+        <v>-217623526210324.6</v>
       </c>
       <c r="E90" t="n">
-        <v>3.658099193379044e-06</v>
+        <v>5145227632635.947</v>
       </c>
       <c r="F90" t="n">
-        <v>9.143130848923251e-06</v>
+        <v>6015254570432.503</v>
       </c>
       <c r="G90" t="n">
-        <v>1.007225064911668e-05</v>
+        <v>10230568270168.52</v>
       </c>
       <c r="H90" t="n">
-        <v>468.4093013678839</v>
+        <v>2.863922684812429</v>
       </c>
       <c r="I90" t="n">
-        <v>4.54630404290707e-100</v>
+        <v>0.5808496847157774</v>
       </c>
       <c r="J90" t="n">
-        <v>117.102325341971</v>
+        <v>0.7159806712031072</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.758876</v>
       </c>
       <c r="B91" t="n">
-        <v>0.000136539352754806</v>
+        <v>206505042885893.8</v>
       </c>
       <c r="C91" t="n">
-        <v>-7.27369734462933e-06</v>
+        <v>107718962952494.1</v>
       </c>
       <c r="D91" t="n">
-        <v>1.108002298958382e-05</v>
+        <v>-212622713426499.2</v>
       </c>
       <c r="E91" t="n">
-        <v>3.852797790909026e-06</v>
+        <v>5237686712676.402</v>
       </c>
       <c r="F91" t="n">
-        <v>9.391744862276736e-06</v>
+        <v>6258793065549.43</v>
       </c>
       <c r="G91" t="n">
-        <v>1.044116151248472e-05</v>
+        <v>10506666032523.94</v>
       </c>
       <c r="H91" t="n">
-        <v>425.9037268287378</v>
+        <v>2.916372191908654</v>
       </c>
       <c r="I91" t="n">
-        <v>7.02258300992822e-91</v>
+        <v>0.5719164427614277</v>
       </c>
       <c r="J91" t="n">
-        <v>106.4759317071844</v>
+        <v>0.7290930479771635</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.770038</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001366698488983003</v>
+        <v>194486336756546.4</v>
       </c>
       <c r="C92" t="n">
-        <v>4.967410246358919e-06</v>
+        <v>108280842179206.2</v>
       </c>
       <c r="D92" t="n">
-        <v>2.259179264503872e-05</v>
+        <v>-184259413806080.2</v>
       </c>
       <c r="E92" t="n">
-        <v>3.880882703773707e-06</v>
+        <v>5040011524163.825</v>
       </c>
       <c r="F92" t="n">
-        <v>9.186729408370554e-06</v>
+        <v>6225065350926.386</v>
       </c>
       <c r="G92" t="n">
-        <v>1.047099371788878e-05</v>
+        <v>10384741670085.26</v>
       </c>
       <c r="H92" t="n">
-        <v>361.4871501428516</v>
+        <v>6.603028844996789</v>
       </c>
       <c r="I92" t="n">
-        <v>5.801252569766826e-77</v>
+        <v>0.1584133899716844</v>
       </c>
       <c r="J92" t="n">
-        <v>90.37178753571291</v>
+        <v>1.650757211249197</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.775016</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001294223108677553</v>
+        <v>156627681669846.4</v>
       </c>
       <c r="C93" t="n">
-        <v>1.392082862175308e-05</v>
+        <v>83197191123771.36</v>
       </c>
       <c r="D93" t="n">
-        <v>8.236220824575972e-06</v>
+        <v>-124349698957116.9</v>
       </c>
       <c r="E93" t="n">
-        <v>3.918224447032926e-06</v>
+        <v>4337390856671.248</v>
       </c>
       <c r="F93" t="n">
-        <v>8.094085307569383e-06</v>
+        <v>6132788483759.343</v>
       </c>
       <c r="G93" t="n">
-        <v>9.739209525200305e-06</v>
+        <v>9272691404997.799</v>
       </c>
       <c r="H93" t="n">
-        <v>212.8403252310979</v>
+        <v>5.963579803938424</v>
       </c>
       <c r="I93" t="n">
-        <v>6.507233911175704e-45</v>
+        <v>0.2018847155387382</v>
       </c>
       <c r="J93" t="n">
-        <v>53.21008130777447</v>
+        <v>1.490894950984606</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780179</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001017066451342248</v>
+        <v>110163786219579.7</v>
       </c>
       <c r="C94" t="n">
-        <v>1.73737230599517e-05</v>
+        <v>66617065738154.05</v>
       </c>
       <c r="D94" t="n">
-        <v>1.459653829687091e-05</v>
+        <v>-72278328107349.44</v>
       </c>
       <c r="E94" t="n">
-        <v>4.352442905513555e-06</v>
+        <v>4145254321570.318</v>
       </c>
       <c r="F94" t="n">
-        <v>7.997072804770987e-06</v>
+        <v>6850291467265.59</v>
       </c>
       <c r="G94" t="n">
-        <v>9.933537437705453e-06</v>
+        <v>9152466247667.01</v>
       </c>
       <c r="H94" t="n">
-        <v>98.98361128756514</v>
+        <v>6.450315087641556</v>
       </c>
       <c r="I94" t="n">
-        <v>1.618835841784965e-20</v>
+        <v>0.167947979186581</v>
       </c>
       <c r="J94" t="n">
-        <v>24.74590282189128</v>
+        <v>1.612578771910389</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.790118</v>
       </c>
       <c r="B95" t="n">
-        <v>0.000171427973859296</v>
+        <v>174354422563898</v>
       </c>
       <c r="C95" t="n">
-        <v>4.650810262796378e-05</v>
+        <v>93623307180696.09</v>
       </c>
       <c r="D95" t="n">
-        <v>3.300679143200611e-05</v>
+        <v>-60997581507655.28</v>
       </c>
       <c r="E95" t="n">
-        <v>5.51861811654919e-06</v>
+        <v>5288462702923.837</v>
       </c>
       <c r="F95" t="n">
-        <v>1.033882248534633e-05</v>
+        <v>9129692886280.506</v>
       </c>
       <c r="G95" t="n">
-        <v>1.319818615135845e-05</v>
+        <v>12283946591138.97</v>
       </c>
       <c r="H95" t="n">
-        <v>61.94824603328653</v>
+        <v>7.446023670842488</v>
       </c>
       <c r="I95" t="n">
-        <v>1.129556433817196e-12</v>
+        <v>0.1141131089621018</v>
       </c>
       <c r="J95" t="n">
-        <v>15.48706150832163</v>
+        <v>1.861505917710622</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799915</v>
       </c>
       <c r="B96" t="n">
-        <v>0.000354130391817019</v>
+        <v>363086166300180.8</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0001161548492482248</v>
+        <v>188020426848766.7</v>
       </c>
       <c r="D96" t="n">
-        <v>5.833439214570377e-05</v>
+        <v>-109561764934572.2</v>
       </c>
       <c r="E96" t="n">
-        <v>8.73925154253555e-06</v>
+        <v>8878432976537.084</v>
       </c>
       <c r="F96" t="n">
-        <v>1.760096201433521e-05</v>
+        <v>14741089031222.77</v>
       </c>
       <c r="G96" t="n">
-        <v>2.207079141761337e-05</v>
+        <v>20728686716462.7</v>
       </c>
       <c r="H96" t="n">
-        <v>75.44773704385499</v>
+        <v>2.673831936342988</v>
       </c>
       <c r="I96" t="n">
-        <v>1.602178139373037e-15</v>
+        <v>0.6138013911169995</v>
       </c>
       <c r="J96" t="n">
-        <v>18.86193426096375</v>
+        <v>0.668457984085747</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.810027</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0003104618642284664</v>
+        <v>318179839832337.1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0001104135510872558</v>
+        <v>172956664161689.7</v>
       </c>
       <c r="D97" t="n">
-        <v>7.263117176942559e-05</v>
+        <v>-84048791826140.44</v>
       </c>
       <c r="E97" t="n">
-        <v>7.501765282554133e-06</v>
+        <v>7665644410328.023</v>
       </c>
       <c r="F97" t="n">
-        <v>1.536298230826753e-05</v>
+        <v>12807034163475.39</v>
       </c>
       <c r="G97" t="n">
-        <v>1.922085184983709e-05</v>
+        <v>18106245034735.07</v>
       </c>
       <c r="H97" t="n">
-        <v>73.92005499714324</v>
+        <v>4.624122878372254</v>
       </c>
       <c r="I97" t="n">
-        <v>3.371246625440737e-15</v>
+        <v>0.3280823443178162</v>
       </c>
       <c r="J97" t="n">
-        <v>18.48001374928581</v>
+        <v>1.156030719593063</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002052276213338144</v>
+        <v>210109843868751.6</v>
       </c>
       <c r="C98" t="n">
-        <v>7.630828592123949e-05</v>
+        <v>117931200156504.8</v>
       </c>
       <c r="D98" t="n">
-        <v>4.733081114644233e-05</v>
+        <v>-54375241995961.12</v>
       </c>
       <c r="E98" t="n">
-        <v>4.90235266306119e-06</v>
+        <v>5004870565353.496</v>
       </c>
       <c r="F98" t="n">
-        <v>1.001062537850801e-05</v>
+        <v>8404974636754.006</v>
       </c>
       <c r="G98" t="n">
-        <v>1.262261883510968e-05</v>
+        <v>11920838697981.01</v>
       </c>
       <c r="H98" t="n">
-        <v>74.96758997446594</v>
+        <v>5.890828543305631</v>
       </c>
       <c r="I98" t="n">
-        <v>2.02428924928766e-15</v>
+        <v>0.2074509586620095</v>
       </c>
       <c r="J98" t="n">
-        <v>18.74189749361648</v>
+        <v>1.472707135826408</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001333674136070985</v>
+        <v>133782685824602.5</v>
       </c>
       <c r="C99" t="n">
-        <v>4.369016724387661e-05</v>
+        <v>65927147479341.27</v>
       </c>
       <c r="D99" t="n">
-        <v>3.160992407224401e-05</v>
+        <v>-24444005027614.5</v>
       </c>
       <c r="E99" t="n">
-        <v>3.195444427004266e-06</v>
+        <v>3193186257757.161</v>
       </c>
       <c r="F99" t="n">
-        <v>6.443920272425601e-06</v>
+        <v>5467725126200.554</v>
       </c>
       <c r="G99" t="n">
-        <v>8.129891883686936e-06</v>
+        <v>7611549494306.923</v>
       </c>
       <c r="H99" t="n">
-        <v>57.61703630345855</v>
+        <v>8.600570405305472</v>
       </c>
       <c r="I99" t="n">
-        <v>9.182478532911093e-12</v>
+        <v>0.07189672449280297</v>
       </c>
       <c r="J99" t="n">
-        <v>14.40425907586464</v>
+        <v>2.150142601326368</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.820058</v>
       </c>
       <c r="B100" t="n">
-        <v>6.723049935259374e-05</v>
+        <v>65833419523116.34</v>
       </c>
       <c r="C100" t="n">
-        <v>1.961984556611694e-05</v>
+        <v>29383432614189.64</v>
       </c>
       <c r="D100" t="n">
-        <v>1.642447416065629e-05</v>
+        <v>-7744659774696.594</v>
       </c>
       <c r="E100" t="n">
-        <v>1.682620040670851e-06</v>
+        <v>1630595096623.772</v>
       </c>
       <c r="F100" t="n">
-        <v>3.285264243803195e-06</v>
+        <v>2887615564177.834</v>
       </c>
       <c r="G100" t="n">
-        <v>4.172407300077715e-06</v>
+        <v>3899881740127.536</v>
       </c>
       <c r="H100" t="n">
-        <v>34.45110269392223</v>
+        <v>9.109237111260919</v>
       </c>
       <c r="I100" t="n">
-        <v>6.021695316239014e-07</v>
+        <v>0.05842632023339293</v>
       </c>
       <c r="J100" t="n">
-        <v>8.612775673480558</v>
+        <v>2.27730927781523</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.829886</v>
       </c>
       <c r="B101" t="n">
-        <v>4.951811646138339e-05</v>
+        <v>47609311865225.62</v>
       </c>
       <c r="C101" t="n">
-        <v>1.22271696898685e-05</v>
+        <v>17152856416073.02</v>
       </c>
       <c r="D101" t="n">
-        <v>6.68031422920617e-06</v>
+        <v>-6010472926050.82</v>
       </c>
       <c r="E101" t="n">
-        <v>1.198434080027105e-06</v>
+        <v>1149577634111.447</v>
       </c>
       <c r="F101" t="n">
-        <v>2.293961764196871e-06</v>
+        <v>2021843719023.292</v>
       </c>
       <c r="G101" t="n">
-        <v>2.91995063363328e-06</v>
+        <v>2707448082495.988</v>
       </c>
       <c r="H101" t="n">
-        <v>23.50358767926338</v>
+        <v>2.482959545808469</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0001004227397699775</v>
+        <v>0.6476897279163398</v>
       </c>
       <c r="J101" t="n">
-        <v>5.875896919815844</v>
+        <v>0.6207398864521172</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
-        <v>5.064328703115013e-05</v>
+        <v>50183679931002.13</v>
       </c>
       <c r="C102" t="n">
-        <v>7.63897903551834e-06</v>
+        <v>16719823594563.57</v>
       </c>
       <c r="D102" t="n">
-        <v>7.3348554532945e-06</v>
+        <v>-10955627630493.88</v>
       </c>
       <c r="E102" t="n">
-        <v>1.212588976907153e-06</v>
+        <v>1202626285192.208</v>
       </c>
       <c r="F102" t="n">
-        <v>2.387175840259906e-06</v>
+        <v>2006814994352.089</v>
       </c>
       <c r="G102" t="n">
-        <v>2.956805122700805e-06</v>
+        <v>2740446648678.232</v>
       </c>
       <c r="H102" t="n">
-        <v>42.62891339795026</v>
+        <v>8.845187615791938</v>
       </c>
       <c r="I102" t="n">
-        <v>1.235479057733096e-08</v>
+        <v>0.06508770931631463</v>
       </c>
       <c r="J102" t="n">
-        <v>10.65722834948757</v>
+        <v>2.211296903947984</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.866293</v>
       </c>
       <c r="B103" t="n">
-        <v>5.437188445523468e-05</v>
+        <v>54335396176413.87</v>
       </c>
       <c r="C103" t="n">
-        <v>6.89208244444461e-06</v>
+        <v>19507305817470.55</v>
       </c>
       <c r="D103" t="n">
-        <v>8.952532356881036e-06</v>
+        <v>-14607067892849.52</v>
       </c>
       <c r="E103" t="n">
-        <v>1.319723259223945e-06</v>
+        <v>1319781847723.254</v>
       </c>
       <c r="F103" t="n">
-        <v>2.613403153872111e-06</v>
+        <v>2163720597398.867</v>
       </c>
       <c r="G103" t="n">
-        <v>3.224831309792627e-06</v>
+        <v>3002899833002.986</v>
       </c>
       <c r="H103" t="n">
-        <v>48.5056903084714</v>
+        <v>9.687516271077035</v>
       </c>
       <c r="I103" t="n">
-        <v>7.403438870199323e-10</v>
+        <v>0.04603358550131367</v>
       </c>
       <c r="J103" t="n">
-        <v>12.12642257711785</v>
+        <v>2.421879067769259</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.889892</v>
       </c>
       <c r="B104" t="n">
-        <v>5.703726841687675e-05</v>
+        <v>57858938748166.46</v>
       </c>
       <c r="C104" t="n">
-        <v>1.302296057734273e-05</v>
+        <v>23702492534281.69</v>
       </c>
       <c r="D104" t="n">
-        <v>7.863273689162712e-06</v>
+        <v>-16486998988412.3</v>
       </c>
       <c r="E104" t="n">
-        <v>1.335046325557558e-06</v>
+        <v>1360511168772.423</v>
       </c>
       <c r="F104" t="n">
-        <v>2.682910682082461e-06</v>
+        <v>2208578198737.949</v>
       </c>
       <c r="G104" t="n">
-        <v>3.370584051161326e-06</v>
+        <v>3160020270408.482</v>
       </c>
       <c r="H104" t="n">
-        <v>70.56069212092505</v>
+        <v>9.139531548100377</v>
       </c>
       <c r="I104" t="n">
-        <v>1.728270859090317e-14</v>
+        <v>0.0577049239319978</v>
       </c>
       <c r="J104" t="n">
-        <v>17.64017303023126</v>
+        <v>2.284882887025094</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.899914</v>
       </c>
       <c r="B105" t="n">
-        <v>6.130429022253236e-05</v>
+        <v>61057716704406.78</v>
       </c>
       <c r="C105" t="n">
-        <v>1.428997997327892e-05</v>
+        <v>25916767882894.89</v>
       </c>
       <c r="D105" t="n">
-        <v>7.833170797892652e-06</v>
+        <v>-16856098553873.11</v>
       </c>
       <c r="E105" t="n">
-        <v>1.600012672436711e-06</v>
+        <v>1572219481913.32</v>
       </c>
       <c r="F105" t="n">
-        <v>3.097338122996741e-06</v>
+        <v>2641868966991.459</v>
       </c>
       <c r="G105" t="n">
-        <v>3.916474882564215e-06</v>
+        <v>3638010643802.712</v>
       </c>
       <c r="H105" t="n">
-        <v>55.88155929643266</v>
+        <v>5.482822038476684</v>
       </c>
       <c r="I105" t="n">
-        <v>2.123165288346699e-11</v>
+        <v>0.2412435677988668</v>
       </c>
       <c r="J105" t="n">
-        <v>13.97038982410817</v>
+        <v>1.370705509619171</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
-        <v>5.948111235726543e-05</v>
+        <v>61449588192247.84</v>
       </c>
       <c r="C106" t="n">
-        <v>1.783390504087667e-05</v>
+        <v>30882342987464.43</v>
       </c>
       <c r="D106" t="n">
-        <v>1.076357328991584e-05</v>
+        <v>-20494857282538.08</v>
       </c>
       <c r="E106" t="n">
-        <v>1.557705555248232e-06</v>
+        <v>1563187839872.183</v>
       </c>
       <c r="F106" t="n">
-        <v>3.068442039090968e-06</v>
+        <v>2609341260056.063</v>
       </c>
       <c r="G106" t="n">
-        <v>3.880045375835415e-06</v>
+        <v>3631785967355.12</v>
       </c>
       <c r="H106" t="n">
-        <v>82.33537092111635</v>
+        <v>5.741271979571223</v>
       </c>
       <c r="I106" t="n">
-        <v>5.572898528189827e-17</v>
+        <v>0.219321375282432</v>
       </c>
       <c r="J106" t="n">
-        <v>20.58384273027909</v>
+        <v>1.435317994892806</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.919957</v>
       </c>
       <c r="B107" t="n">
-        <v>6.253401347764117e-05</v>
+        <v>61917655717140.34</v>
       </c>
       <c r="C107" t="n">
-        <v>1.229492424684516e-05</v>
+        <v>26861738234555.62</v>
       </c>
       <c r="D107" t="n">
-        <v>7.923867900813404e-06</v>
+        <v>-18740672789652.16</v>
       </c>
       <c r="E107" t="n">
-        <v>1.729489857345241e-06</v>
+        <v>1687192360505.185</v>
       </c>
       <c r="F107" t="n">
-        <v>3.29586844540512e-06</v>
+        <v>2867532895611.211</v>
       </c>
       <c r="G107" t="n">
-        <v>4.129513492249282e-06</v>
+        <v>3862545892134.055</v>
       </c>
       <c r="H107" t="n">
-        <v>49.27321152140708</v>
+        <v>4.720039823973563</v>
       </c>
       <c r="I107" t="n">
-        <v>5.120573333075402e-10</v>
+        <v>0.317247512942635</v>
       </c>
       <c r="J107" t="n">
-        <v>12.31830288035177</v>
+        <v>1.180009955993391</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.926154</v>
       </c>
       <c r="B108" t="n">
-        <v>6.429197617282759e-05</v>
+        <v>64949055897819.77</v>
       </c>
       <c r="C108" t="n">
-        <v>1.245072870252171e-05</v>
+        <v>26264095600343.32</v>
       </c>
       <c r="D108" t="n">
-        <v>5.405382490449842e-06</v>
+        <v>-21857498358409.19</v>
       </c>
       <c r="E108" t="n">
-        <v>1.579032001250295e-06</v>
+        <v>1593485045194.434</v>
       </c>
       <c r="F108" t="n">
-        <v>3.104028500550815e-06</v>
+        <v>2585849183977.056</v>
       </c>
       <c r="G108" t="n">
-        <v>3.870946619243207e-06</v>
+        <v>3637155250804.398</v>
       </c>
       <c r="H108" t="n">
-        <v>61.55755933380954</v>
+        <v>5.59961215443643</v>
       </c>
       <c r="I108" t="n">
-        <v>1.364844100450346e-12</v>
+        <v>0.2311112589122442</v>
       </c>
       <c r="J108" t="n">
-        <v>15.38938983345239</v>
+        <v>1.399903038609108</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="B109" t="n">
-        <v>6.347130004272174e-05</v>
+        <v>66162455836313.59</v>
       </c>
       <c r="C109" t="n">
-        <v>1.713037949859496e-05</v>
+        <v>32850920610108.29</v>
       </c>
       <c r="D109" t="n">
-        <v>1.059188249575852e-05</v>
+        <v>-25807691761803.55</v>
       </c>
       <c r="E109" t="n">
-        <v>1.715513429890912e-06</v>
+        <v>1731854204821.984</v>
       </c>
       <c r="F109" t="n">
-        <v>3.376083983225649e-06</v>
+        <v>2826933710285.617</v>
       </c>
       <c r="G109" t="n">
-        <v>4.257915517803039e-06</v>
+        <v>3985792347187.511</v>
       </c>
       <c r="H109" t="n">
-        <v>87.88910051048165</v>
+        <v>5.693692123028895</v>
       </c>
       <c r="I109" t="n">
-        <v>3.696590587738777e-18</v>
+        <v>0.2232211145417492</v>
       </c>
       <c r="J109" t="n">
-        <v>21.97227512762041</v>
+        <v>1.423423030757224</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.936923</v>
       </c>
       <c r="B110" t="n">
-        <v>6.468135239457057e-05</v>
+        <v>66667072113375.05</v>
       </c>
       <c r="C110" t="n">
-        <v>1.075935811843781e-05</v>
+        <v>27365310292167.52</v>
       </c>
       <c r="D110" t="n">
-        <v>1.180185344537738e-05</v>
+        <v>-24260758980407.98</v>
       </c>
       <c r="E110" t="n">
-        <v>1.626714150799075e-06</v>
+        <v>1656131647734.897</v>
       </c>
       <c r="F110" t="n">
-        <v>3.257194538707859e-06</v>
+        <v>2652686126965.948</v>
       </c>
       <c r="G110" t="n">
-        <v>4.04372530408652e-06</v>
+        <v>3759752554421.252</v>
       </c>
       <c r="H110" t="n">
-        <v>85.82966798134733</v>
+        <v>11.4819099632917</v>
       </c>
       <c r="I110" t="n">
-        <v>1.01142958153749e-17</v>
+        <v>0.0216499230657057</v>
       </c>
       <c r="J110" t="n">
-        <v>21.45741699533683</v>
+        <v>2.870477490822924</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.946745</v>
       </c>
       <c r="B111" t="n">
-        <v>6.390426914069862e-05</v>
+        <v>67307055867966.52</v>
       </c>
       <c r="C111" t="n">
-        <v>1.034907446257678e-05</v>
+        <v>29423427788314.38</v>
       </c>
       <c r="D111" t="n">
-        <v>7.153049725684363e-06</v>
+        <v>-31228716370500.09</v>
       </c>
       <c r="E111" t="n">
-        <v>1.653731583202349e-06</v>
+        <v>1697159836610.07</v>
       </c>
       <c r="F111" t="n">
-        <v>3.286995397489498e-06</v>
+        <v>2676939955334.271</v>
       </c>
       <c r="G111" t="n">
-        <v>4.044686439664514e-06</v>
+        <v>3790204640083.441</v>
       </c>
       <c r="H111" t="n">
-        <v>107.6592371746283</v>
+        <v>7.159227689380481</v>
       </c>
       <c r="I111" t="n">
-        <v>2.296724532628483e-22</v>
+        <v>0.1277092397406529</v>
       </c>
       <c r="J111" t="n">
-        <v>26.91480929365708</v>
+        <v>1.78980692234512</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.950269</v>
       </c>
       <c r="B112" t="n">
-        <v>6.419688693345614e-05</v>
+        <v>70022131118172.51</v>
       </c>
       <c r="C112" t="n">
-        <v>1.289658072207985e-05</v>
+        <v>35199333279436.27</v>
       </c>
       <c r="D112" t="n">
-        <v>1.038807016339359e-05</v>
+        <v>-35524158396210.06</v>
       </c>
       <c r="E112" t="n">
-        <v>1.757278049289348e-06</v>
+        <v>1844781126390.622</v>
       </c>
       <c r="F112" t="n">
-        <v>3.572915849677953e-06</v>
+        <v>2871424644199.692</v>
       </c>
       <c r="G112" t="n">
-        <v>4.376203883269688e-06</v>
+        <v>4123977086204.628</v>
       </c>
       <c r="H112" t="n">
-        <v>127.6457505678692</v>
+        <v>7.015941359910276</v>
       </c>
       <c r="I112" t="n">
-        <v>1.241097028142189e-26</v>
+        <v>0.1350481918198086</v>
       </c>
       <c r="J112" t="n">
-        <v>31.9114376419673</v>
+        <v>1.753985339977569</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.956763</v>
       </c>
       <c r="B113" t="n">
-        <v>6.274062631732951e-05</v>
+        <v>67239009933430.99</v>
       </c>
       <c r="C113" t="n">
-        <v>8.516453640204249e-06</v>
+        <v>30639701307400.01</v>
       </c>
       <c r="D113" t="n">
-        <v>1.302501955309165e-05</v>
+        <v>-32212316422495.98</v>
       </c>
       <c r="E113" t="n">
-        <v>1.651439978205612e-06</v>
+        <v>1730016765907.478</v>
       </c>
       <c r="F113" t="n">
-        <v>3.401694387989895e-06</v>
+        <v>2665482511995.404</v>
       </c>
       <c r="G113" t="n">
-        <v>4.111499668677462e-06</v>
+        <v>3847076996239.68</v>
       </c>
       <c r="H113" t="n">
-        <v>120.3693051677978</v>
+        <v>13.04395101192056</v>
       </c>
       <c r="I113" t="n">
-        <v>4.454305356277121e-25</v>
+        <v>0.01106302621593182</v>
       </c>
       <c r="J113" t="n">
-        <v>30.09232629194946</v>
+        <v>3.260987752980141</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869</v>
       </c>
       <c r="B114" t="n">
-        <v>6.504759604474946e-05</v>
+        <v>70101978391738.73</v>
       </c>
       <c r="C114" t="n">
-        <v>1.187870748768257e-05</v>
+        <v>31872796318468.68</v>
       </c>
       <c r="D114" t="n">
-        <v>7.274968484468836e-06</v>
+        <v>-34266065422675.58</v>
       </c>
       <c r="E114" t="n">
-        <v>1.709580696416454e-06</v>
+        <v>1775960683354.312</v>
       </c>
       <c r="F114" t="n">
-        <v>3.45868524470344e-06</v>
+        <v>2756531783444.023</v>
       </c>
       <c r="G114" t="n">
-        <v>4.21360525023739e-06</v>
+        <v>3932887537627.616</v>
       </c>
       <c r="H114" t="n">
-        <v>124.1586686527515</v>
+        <v>4.090577437188243</v>
       </c>
       <c r="I114" t="n">
-        <v>6.90517617503478e-26</v>
+        <v>0.393886294232087</v>
       </c>
       <c r="J114" t="n">
-        <v>31.03966716318788</v>
+        <v>1.022644359297061</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.964748</v>
       </c>
       <c r="B115" t="n">
-        <v>6.48547386637872e-05</v>
+        <v>70113011848482.84</v>
       </c>
       <c r="C115" t="n">
-        <v>9.260438256630459e-06</v>
+        <v>32308422718986.3</v>
       </c>
       <c r="D115" t="n">
-        <v>9.168459514082971e-06</v>
+        <v>-35903951509094.75</v>
       </c>
       <c r="E115" t="n">
-        <v>1.744930920473485e-06</v>
+        <v>1817434957622.541</v>
       </c>
       <c r="F115" t="n">
-        <v>3.517524217810535e-06</v>
+        <v>2815714674015.675</v>
       </c>
       <c r="G115" t="n">
-        <v>4.297593094983815e-06</v>
+        <v>4039158234245.795</v>
       </c>
       <c r="H115" t="n">
-        <v>125.3924970759638</v>
+        <v>7.839688144122428</v>
       </c>
       <c r="I115" t="n">
-        <v>3.762522266461124e-26</v>
+        <v>0.09763031446818639</v>
       </c>
       <c r="J115" t="n">
-        <v>31.34812426899096</v>
+        <v>1.959922036030607</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.967875</v>
       </c>
       <c r="B116" t="n">
-        <v>6.64008816851477e-05</v>
+        <v>71885839423705.08</v>
       </c>
       <c r="C116" t="n">
-        <v>1.083257942222577e-05</v>
+        <v>35414421728345.94</v>
       </c>
       <c r="D116" t="n">
-        <v>7.697105734433664e-06</v>
+        <v>-40613713761319.55</v>
       </c>
       <c r="E116" t="n">
-        <v>1.769901873585205e-06</v>
+        <v>1869125982702.751</v>
       </c>
       <c r="F116" t="n">
-        <v>3.635657580789219e-06</v>
+        <v>2815282131784.233</v>
       </c>
       <c r="G116" t="n">
-        <v>4.390940573392245e-06</v>
+        <v>4096294769697.379</v>
       </c>
       <c r="H116" t="n">
-        <v>133.8551649716527</v>
+        <v>6.911624803265767</v>
       </c>
       <c r="I116" t="n">
-        <v>5.831313599745409e-28</v>
+        <v>0.1406328057418564</v>
       </c>
       <c r="J116" t="n">
-        <v>33.46379124291318</v>
+        <v>1.727906200816442</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.970043</v>
       </c>
       <c r="B117" t="n">
-        <v>7.136954806232027e-05</v>
+        <v>76344233007719.36</v>
       </c>
       <c r="C117" t="n">
-        <v>1.507380484849412e-05</v>
+        <v>36807206839499.02</v>
       </c>
       <c r="D117" t="n">
-        <v>1.063182571470084e-05</v>
+        <v>-35682592217371.48</v>
       </c>
       <c r="E117" t="n">
-        <v>1.966483924997992e-06</v>
+        <v>2024917199486.659</v>
       </c>
       <c r="F117" t="n">
-        <v>3.926242171779161e-06</v>
+        <v>3187842116227.248</v>
       </c>
       <c r="G117" t="n">
-        <v>4.862612964220688e-06</v>
+        <v>4556281031663.884</v>
       </c>
       <c r="H117" t="n">
-        <v>108.0988379545606</v>
+        <v>7.012518361385403</v>
       </c>
       <c r="I117" t="n">
-        <v>1.850922895712969e-22</v>
+        <v>0.1352281642892172</v>
       </c>
       <c r="J117" t="n">
-        <v>27.02470948864014</v>
+        <v>1.753129590346351</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
-        <v>6.645306394145486e-05</v>
+        <v>72043633085097.22</v>
       </c>
       <c r="C118" t="n">
-        <v>1.110876817979607e-05</v>
+        <v>33982259543249.85</v>
       </c>
       <c r="D118" t="n">
-        <v>1.146988724091567e-05</v>
+        <v>-35168633077718.14</v>
       </c>
       <c r="E118" t="n">
-        <v>1.692835574487571e-06</v>
+        <v>1798823495355.813</v>
       </c>
       <c r="F118" t="n">
-        <v>3.501837246571363e-06</v>
+        <v>2759392346336.123</v>
       </c>
       <c r="G118" t="n">
-        <v>4.263839625044825e-06</v>
+        <v>4021128196387.663</v>
       </c>
       <c r="H118" t="n">
-        <v>131.4693039058029</v>
+        <v>9.125871363770848</v>
       </c>
       <c r="I118" t="n">
-        <v>1.888664367687377e-27</v>
+        <v>0.05802915556244292</v>
       </c>
       <c r="J118" t="n">
-        <v>32.86732597645072</v>
+        <v>2.281467840942712</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.974629</v>
       </c>
       <c r="B119" t="n">
-        <v>6.715046717331604e-05</v>
+        <v>73345883966094.16</v>
       </c>
       <c r="C119" t="n">
-        <v>1.260591118422026e-05</v>
+        <v>35916641231696.17</v>
       </c>
       <c r="D119" t="n">
-        <v>6.684114066745923e-06</v>
+        <v>-39962734413521.14</v>
       </c>
       <c r="E119" t="n">
-        <v>1.814841728933962e-06</v>
+        <v>1902796098003.289</v>
       </c>
       <c r="F119" t="n">
-        <v>3.65089023122223e-06</v>
+        <v>2940265505751.594</v>
       </c>
       <c r="G119" t="n">
-        <v>4.502003139841538e-06</v>
+        <v>4242711938543.021</v>
       </c>
       <c r="H119" t="n">
-        <v>133.4387316695611</v>
+        <v>4.470113568377509</v>
       </c>
       <c r="I119" t="n">
-        <v>7.159133554831209e-28</v>
+        <v>0.3461059616318575</v>
       </c>
       <c r="J119" t="n">
-        <v>33.35968291739027</v>
+        <v>1.117528392094377</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.984706</v>
       </c>
       <c r="B120" t="n">
-        <v>6.730041901379466e-05</v>
+        <v>74139906750650.97</v>
       </c>
       <c r="C120" t="n">
-        <v>1.151868688243733e-05</v>
+        <v>35531302671467.87</v>
       </c>
       <c r="D120" t="n">
-        <v>1.163995509829921e-05</v>
+        <v>-38352271658261.53</v>
       </c>
       <c r="E120" t="n">
-        <v>1.745778626663205e-06</v>
+        <v>1868564168097.332</v>
       </c>
       <c r="F120" t="n">
-        <v>3.624586213717144e-06</v>
+        <v>2836904421683.581</v>
       </c>
       <c r="G120" t="n">
-        <v>4.390585367259418e-06</v>
+        <v>4140887826280.897</v>
       </c>
       <c r="H120" t="n">
-        <v>141.9419310710973</v>
+        <v>9.273333317061358</v>
       </c>
       <c r="I120" t="n">
-        <v>1.083574114498096e-29</v>
+        <v>0.05461898283240153</v>
       </c>
       <c r="J120" t="n">
-        <v>35.48548276777434</v>
+        <v>2.318333329265339</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990074</v>
       </c>
       <c r="B121" t="n">
-        <v>7.374521541774344e-05</v>
+        <v>79208680040917.94</v>
       </c>
       <c r="C121" t="n">
-        <v>1.760562117115112e-05</v>
+        <v>40489197650389.69</v>
       </c>
       <c r="D121" t="n">
-        <v>1.365327442162503e-05</v>
+        <v>-35472787353471.83</v>
       </c>
       <c r="E121" t="n">
-        <v>1.953836998043213e-06</v>
+        <v>2040812105075.927</v>
       </c>
       <c r="F121" t="n">
-        <v>3.96572157490391e-06</v>
+        <v>3200331740929.969</v>
       </c>
       <c r="G121" t="n">
-        <v>4.935352027783565e-06</v>
+        <v>4648919071537.981</v>
       </c>
       <c r="H121" t="n">
-        <v>114.3168295421412</v>
+        <v>10.29437295458788</v>
       </c>
       <c r="I121" t="n">
-        <v>8.730285191457021e-24</v>
+        <v>0.03575046569405625</v>
       </c>
       <c r="J121" t="n">
-        <v>28.57920738553529</v>
+        <v>2.57359323864697</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669</v>
       </c>
       <c r="B122" t="n">
-        <v>6.948920862879046e-05</v>
+        <v>76353630909009.64</v>
       </c>
       <c r="C122" t="n">
-        <v>1.470552539064898e-05</v>
+        <v>38790216357524.59</v>
       </c>
       <c r="D122" t="n">
-        <v>1.35299602739788e-05</v>
+        <v>-37592010172909.2</v>
       </c>
       <c r="E122" t="n">
-        <v>1.742181914374677e-06</v>
+        <v>1878384289369.392</v>
       </c>
       <c r="F122" t="n">
-        <v>3.647546100986174e-06</v>
+        <v>2870559279082.553</v>
       </c>
       <c r="G122" t="n">
-        <v>4.448629078571637e-06</v>
+        <v>4228732037192.708</v>
       </c>
       <c r="H122" t="n">
-        <v>138.3593627065515</v>
+        <v>7.234913928236164</v>
       </c>
       <c r="I122" t="n">
-        <v>6.336617909014161e-29</v>
+        <v>0.1239827481052743</v>
       </c>
       <c r="J122" t="n">
-        <v>34.58984067663786</v>
+        <v>1.808728482059041</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.004642</v>
       </c>
       <c r="B123" t="n">
-        <v>6.933425253663762e-05</v>
+        <v>78473938683856.38</v>
       </c>
       <c r="C123" t="n">
-        <v>1.303204947120606e-05</v>
+        <v>40490978572744.69</v>
       </c>
       <c r="D123" t="n">
-        <v>1.854446582277954e-05</v>
+        <v>-41485010572228.45</v>
       </c>
       <c r="E123" t="n">
-        <v>1.673750855561153e-06</v>
+        <v>1881779400477.989</v>
       </c>
       <c r="F123" t="n">
-        <v>3.691154072357673e-06</v>
+        <v>2758055540012.292</v>
       </c>
       <c r="G123" t="n">
-        <v>4.376093691485205e-06</v>
+        <v>4164649647623.131</v>
       </c>
       <c r="H123" t="n">
-        <v>171.0686083944117</v>
+        <v>12.30428403036115</v>
       </c>
       <c r="I123" t="n">
-        <v>6.1675400691047e-36</v>
+        <v>0.01522631465311364</v>
       </c>
       <c r="J123" t="n">
-        <v>42.76715209860291</v>
+        <v>3.076071007590288</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
-        <v>8.036152975790825e-05</v>
+        <v>85252629735725.91</v>
       </c>
       <c r="C124" t="n">
-        <v>1.828276617669059e-05</v>
+        <v>40395815829491.26</v>
       </c>
       <c r="D124" t="n">
-        <v>1.155423006404444e-05</v>
+        <v>-35786526260829.72</v>
       </c>
       <c r="E124" t="n">
-        <v>2.038683837223862e-06</v>
+        <v>2128995839881.997</v>
       </c>
       <c r="F124" t="n">
-        <v>4.152182132359237e-06</v>
+        <v>3362169068839.391</v>
       </c>
       <c r="G124" t="n">
-        <v>5.115391843042309e-06</v>
+        <v>4827573229372.131</v>
       </c>
       <c r="H124" t="n">
-        <v>106.1688272285352</v>
+        <v>5.613733584263437</v>
       </c>
       <c r="I124" t="n">
-        <v>4.773140493757396e-22</v>
+        <v>0.2299116198127691</v>
       </c>
       <c r="J124" t="n">
-        <v>26.54220680713381</v>
+        <v>1.403433396065859</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.014843</v>
       </c>
       <c r="B125" t="n">
-        <v>8.076932704649257e-05</v>
+        <v>90928616797301.19</v>
       </c>
       <c r="C125" t="n">
-        <v>1.732548608797097e-05</v>
+        <v>48065885224689.95</v>
       </c>
       <c r="D125" t="n">
-        <v>1.899256549682765e-05</v>
+        <v>-47061360606569.97</v>
       </c>
       <c r="E125" t="n">
-        <v>1.993064905424567e-06</v>
+        <v>2208128908762.361</v>
       </c>
       <c r="F125" t="n">
-        <v>4.297652959845852e-06</v>
+        <v>3304646433276.325</v>
       </c>
       <c r="G125" t="n">
-        <v>5.154021909727705e-06</v>
+        <v>4926962083007.816</v>
       </c>
       <c r="H125" t="n">
-        <v>160.5097843973108</v>
+        <v>7.525842654850173</v>
       </c>
       <c r="I125" t="n">
-        <v>1.136560846327628e-33</v>
+        <v>0.1105751251757531</v>
       </c>
       <c r="J125" t="n">
-        <v>40.12744609932771</v>
+        <v>1.881460663712543</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.017737</v>
       </c>
       <c r="B126" t="n">
-        <v>9.340170658977059e-05</v>
+        <v>102941814116664.5</v>
       </c>
       <c r="C126" t="n">
-        <v>1.46676749994946e-05</v>
+        <v>48141773046837.18</v>
       </c>
       <c r="D126" t="n">
-        <v>1.52470946947068e-05</v>
+        <v>-53575417942019</v>
       </c>
       <c r="E126" t="n">
-        <v>2.326600825301551e-06</v>
+        <v>2516096630583.18</v>
       </c>
       <c r="F126" t="n">
-        <v>4.899252675460953e-06</v>
+        <v>3787128910856.435</v>
       </c>
       <c r="G126" t="n">
-        <v>5.856263376686836e-06</v>
+        <v>5532001844680.632</v>
       </c>
       <c r="H126" t="n">
-        <v>144.5750181632739</v>
+        <v>6.199808060730096</v>
       </c>
       <c r="I126" t="n">
-        <v>2.957764937388288e-30</v>
+        <v>0.1847151326513273</v>
       </c>
       <c r="J126" t="n">
-        <v>36.14375454081846</v>
+        <v>1.549952015182524</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.017861</v>
       </c>
       <c r="B127" t="n">
-        <v>9.294405451560381e-05</v>
+        <v>102154704251500.5</v>
       </c>
       <c r="C127" t="n">
-        <v>1.373202262814564e-05</v>
+        <v>45579856228696.28</v>
       </c>
       <c r="D127" t="n">
-        <v>1.138119757579612e-05</v>
+        <v>-53808453209817.56</v>
       </c>
       <c r="E127" t="n">
-        <v>2.300000774143497e-06</v>
+        <v>2486568522367.775</v>
       </c>
       <c r="F127" t="n">
-        <v>4.812644916198167e-06</v>
+        <v>3730033216910.042</v>
       </c>
       <c r="G127" t="n">
-        <v>5.776981218700812e-06</v>
+        <v>5466768870724.812</v>
       </c>
       <c r="H127" t="n">
-        <v>143.6797804837771</v>
+        <v>5.047057010243073</v>
       </c>
       <c r="I127" t="n">
-        <v>4.599402004177762e-30</v>
+        <v>0.282503143402948</v>
       </c>
       <c r="J127" t="n">
-        <v>35.91994512094428</v>
+        <v>1.261764252560768</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019822</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001144940809437049</v>
+        <v>126100432316192.5</v>
       </c>
       <c r="C128" t="n">
-        <v>1.687926226055516e-05</v>
+        <v>55115587604333.27</v>
       </c>
       <c r="D128" t="n">
-        <v>4.351268871967916e-06</v>
+        <v>-71255804386005.09</v>
       </c>
       <c r="E128" t="n">
-        <v>2.94805466021584e-06</v>
+        <v>3147233660402.18</v>
       </c>
       <c r="F128" t="n">
-        <v>6.011602131696941e-06</v>
+        <v>4762766093531.149</v>
       </c>
       <c r="G128" t="n">
-        <v>7.247633475819349e-06</v>
+        <v>6879220587618.223</v>
       </c>
       <c r="H128" t="n">
-        <v>145.0971267439807</v>
+        <v>1.241328877264282</v>
       </c>
       <c r="I128" t="n">
-        <v>2.286301238392691e-30</v>
+        <v>0.8712483365552687</v>
       </c>
       <c r="J128" t="n">
-        <v>36.27428168599518</v>
+        <v>0.3103322193160704</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001920687014833335</v>
+        <v>200163018126498.2</v>
       </c>
       <c r="C129" t="n">
-        <v>2.482747473027904e-05</v>
+        <v>80562377590953.08</v>
       </c>
       <c r="D129" t="n">
-        <v>1.061837508595302e-05</v>
+        <v>-91737358285414.81</v>
       </c>
       <c r="E129" t="n">
-        <v>4.971296871454867e-06</v>
+        <v>5062049808896.804</v>
       </c>
       <c r="F129" t="n">
-        <v>9.843496306627508e-06</v>
+        <v>7934759796889.862</v>
       </c>
       <c r="G129" t="n">
-        <v>1.196526419972261e-05</v>
+        <v>11147546066879.58</v>
       </c>
       <c r="H129" t="n">
-        <v>98.53785158291419</v>
+        <v>3.414668937544363</v>
       </c>
       <c r="I129" t="n">
-        <v>2.014081332650079e-20</v>
+        <v>0.4909711508684929</v>
       </c>
       <c r="J129" t="n">
-        <v>24.63446289572855</v>
+        <v>0.8536672343860907</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027826</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002660522565861395</v>
+        <v>273344300597728.9</v>
       </c>
       <c r="C130" t="n">
-        <v>5.198403182039577e-05</v>
+        <v>111995841582852.8</v>
       </c>
       <c r="D130" t="n">
-        <v>1.497516948106912e-05</v>
+        <v>-106217602091447.9</v>
       </c>
       <c r="E130" t="n">
-        <v>6.612607297820299e-06</v>
+        <v>6710769796756.943</v>
       </c>
       <c r="F130" t="n">
-        <v>1.307473231763135e-05</v>
+        <v>10820484443770.71</v>
       </c>
       <c r="G130" t="n">
-        <v>1.61091241669018e-05</v>
+        <v>15087682860893.35</v>
       </c>
       <c r="H130" t="n">
-        <v>81.87762123413724</v>
+        <v>0.9713979194700224</v>
       </c>
       <c r="I130" t="n">
-        <v>6.968135112204732e-17</v>
+        <v>0.914101541231659</v>
       </c>
       <c r="J130" t="n">
-        <v>20.46940530853431</v>
+        <v>0.2428494798675056</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.030101</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002661416324436202</v>
+        <v>271773301566630.2</v>
       </c>
       <c r="C131" t="n">
-        <v>4.943993676295437e-05</v>
+        <v>110108490911453.7</v>
       </c>
       <c r="D131" t="n">
-        <v>2.402596579421798e-05</v>
+        <v>-100479308080311.4</v>
       </c>
       <c r="E131" t="n">
-        <v>6.84989931844899e-06</v>
+        <v>6875251121330.899</v>
       </c>
       <c r="F131" t="n">
-        <v>1.340129334135062e-05</v>
+        <v>11122926942858.35</v>
       </c>
       <c r="G131" t="n">
-        <v>1.664689663849527e-05</v>
+        <v>15511067129244.67</v>
       </c>
       <c r="H131" t="n">
-        <v>73.82999973094401</v>
+        <v>4.846360028719197</v>
       </c>
       <c r="I131" t="n">
-        <v>3.522332238777744e-15</v>
+        <v>0.3034282616668983</v>
       </c>
       <c r="J131" t="n">
-        <v>18.457499932736</v>
+        <v>1.211590007179799</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032781</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002481489976243724</v>
+        <v>256771932338093.9</v>
       </c>
       <c r="C132" t="n">
-        <v>4.517388877799868e-05</v>
+        <v>108842275888250.3</v>
       </c>
       <c r="D132" t="n">
-        <v>1.408928838960262e-05</v>
+        <v>-109074979886325.1</v>
       </c>
       <c r="E132" t="n">
-        <v>6.29125106870101e-06</v>
+        <v>6402263529324.548</v>
       </c>
       <c r="F132" t="n">
-        <v>1.241732065480717e-05</v>
+        <v>10161238444848.01</v>
       </c>
       <c r="G132" t="n">
-        <v>1.527236205641444e-05</v>
+        <v>14281854018438.94</v>
       </c>
       <c r="H132" t="n">
-        <v>90.8361422613154</v>
+        <v>3.180776163444049</v>
       </c>
       <c r="I132" t="n">
-        <v>8.747207299577701e-19</v>
+        <v>0.5280415111665957</v>
       </c>
       <c r="J132" t="n">
-        <v>22.70903556532885</v>
+        <v>0.7951940408610123</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.035899</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002461329991474745</v>
+        <v>250643276361069.5</v>
       </c>
       <c r="C133" t="n">
-        <v>4.554794394381019e-05</v>
+        <v>96591250144588.22</v>
       </c>
       <c r="D133" t="n">
-        <v>1.356806457163091e-05</v>
+        <v>-92869376092509.19</v>
       </c>
       <c r="E133" t="n">
-        <v>6.236810110379081e-06</v>
+        <v>6254411077191.225</v>
       </c>
       <c r="F133" t="n">
-        <v>1.217485035539684e-05</v>
+        <v>10135053028125.14</v>
       </c>
       <c r="G133" t="n">
-        <v>1.513081419389892e-05</v>
+        <v>14117667481120.87</v>
       </c>
       <c r="H133" t="n">
-        <v>77.96866077954685</v>
+        <v>3.045091327492187</v>
       </c>
       <c r="I133" t="n">
-        <v>4.690404073949294e-16</v>
+        <v>0.5503080381958066</v>
       </c>
       <c r="J133" t="n">
-        <v>19.49216519488671</v>
+        <v>0.7612728318730468</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="B134" t="n">
-        <v>0.000240590137284926</v>
+        <v>248224640496097.1</v>
       </c>
       <c r="C134" t="n">
-        <v>4.189282280557094e-05</v>
+        <v>98692213429402</v>
       </c>
       <c r="D134" t="n">
-        <v>1.663756615029668e-05</v>
+        <v>-98726351494713</v>
       </c>
       <c r="E134" t="n">
-        <v>6.170614850402854e-06</v>
+        <v>6242752677260.589</v>
       </c>
       <c r="F134" t="n">
-        <v>1.21291568897167e-05</v>
+        <v>10077396722879.2</v>
       </c>
       <c r="G134" t="n">
-        <v>1.493768949869879e-05</v>
+        <v>13973285229263.69</v>
       </c>
       <c r="H134" t="n">
-        <v>79.56273056826647</v>
+        <v>1.492461917929504</v>
       </c>
       <c r="I134" t="n">
-        <v>2.155928410278136e-16</v>
+        <v>0.827975899924081</v>
       </c>
       <c r="J134" t="n">
-        <v>19.89068264206662</v>
+        <v>0.3731154794823759</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041981</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002315557172872192</v>
+        <v>233716325556426.7</v>
       </c>
       <c r="C135" t="n">
-        <v>4.641798343745941e-05</v>
+        <v>90934782859014.61</v>
       </c>
       <c r="D135" t="n">
-        <v>3.533577697442843e-06</v>
+        <v>-85803166614320.56</v>
       </c>
       <c r="E135" t="n">
-        <v>6.188391329410615e-06</v>
+        <v>6071722679047.694</v>
       </c>
       <c r="F135" t="n">
-        <v>1.171543974978142e-05</v>
+        <v>10144083825156.96</v>
       </c>
       <c r="G135" t="n">
-        <v>1.467735013665217e-05</v>
+        <v>13706347046577.54</v>
       </c>
       <c r="H135" t="n">
-        <v>66.83743794158455</v>
+        <v>0.7272322996515609</v>
       </c>
       <c r="I135" t="n">
-        <v>1.054944132593396e-13</v>
+        <v>0.9479286482745299</v>
       </c>
       <c r="J135" t="n">
-        <v>16.70935948539614</v>
+        <v>0.1818080749128902</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.044789</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0002084110971762754</v>
+        <v>210541372171224.8</v>
       </c>
       <c r="C136" t="n">
-        <v>4.219841707145917e-05</v>
+        <v>84716524027071.67</v>
       </c>
       <c r="D136" t="n">
-        <v>1.313992612124367e-05</v>
+        <v>-73812788923199.69</v>
       </c>
       <c r="E136" t="n">
-        <v>5.489587329423601e-06</v>
+        <v>5422777660557.12</v>
       </c>
       <c r="F136" t="n">
-        <v>1.060503752613222e-05</v>
+        <v>9027914660786.607</v>
       </c>
       <c r="G136" t="n">
-        <v>1.313842744156869e-05</v>
+        <v>12224005511991.01</v>
       </c>
       <c r="H136" t="n">
-        <v>67.01179195787205</v>
+        <v>0.3437056974988377</v>
       </c>
       <c r="I136" t="n">
-        <v>9.69320893337639e-14</v>
+        <v>0.9868208939102909</v>
       </c>
       <c r="J136" t="n">
-        <v>16.75294798946801</v>
+        <v>0.08592642437470943</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.049971</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0001554392800369971</v>
+        <v>157342754263527.1</v>
       </c>
       <c r="C137" t="n">
-        <v>4.184121905295394e-05</v>
+        <v>77095972207194.91</v>
       </c>
       <c r="D137" t="n">
-        <v>2.466212207606318e-05</v>
+        <v>-51503201585526.62</v>
       </c>
       <c r="E137" t="n">
-        <v>4.38915051942325e-06</v>
+        <v>4307195716438.867</v>
       </c>
       <c r="F137" t="n">
-        <v>8.459327378068388e-06</v>
+        <v>7217827956168.886</v>
       </c>
       <c r="G137" t="n">
-        <v>1.072269740324484e-05</v>
+        <v>9921433117126.352</v>
       </c>
       <c r="H137" t="n">
-        <v>61.68676402259964</v>
+        <v>4.355829755019381</v>
       </c>
       <c r="I137" t="n">
-        <v>1.282060666205418e-12</v>
+        <v>0.3599861952919523</v>
       </c>
       <c r="J137" t="n">
-        <v>15.42169100564991</v>
+        <v>1.088957438754845</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.054843</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001060611688012813</v>
+        <v>113275618185340.5</v>
       </c>
       <c r="C138" t="n">
-        <v>2.078436393441224e-05</v>
+        <v>54300907524728.02</v>
       </c>
       <c r="D138" t="n">
-        <v>1.227252874620803e-05</v>
+        <v>-55649775581337.44</v>
       </c>
       <c r="E138" t="n">
-        <v>3.094440262361512e-06</v>
+        <v>3126218549946.772</v>
       </c>
       <c r="F138" t="n">
-        <v>6.07015842510811e-06</v>
+        <v>4994970548141.128</v>
       </c>
       <c r="G138" t="n">
-        <v>7.511742472254664e-06</v>
+        <v>6991713377675.691</v>
       </c>
       <c r="H138" t="n">
-        <v>114.2505835093652</v>
+        <v>4.308097867993028</v>
       </c>
       <c r="I138" t="n">
-        <v>9.019161417384927e-24</v>
+        <v>0.3659121759940078</v>
       </c>
       <c r="J138" t="n">
-        <v>28.56264587734129</v>
+        <v>1.077024466998257</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.064876</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002002721722286072</v>
+        <v>222607917658898.5</v>
       </c>
       <c r="C139" t="n">
-        <v>4.100414446968857e-05</v>
+        <v>105292231339256.8</v>
       </c>
       <c r="D139" t="n">
-        <v>2.673756184222778e-05</v>
+        <v>-112257817298678.9</v>
       </c>
       <c r="E139" t="n">
-        <v>4.812284653050457e-06</v>
+        <v>5303645065514.558</v>
       </c>
       <c r="F139" t="n">
-        <v>1.027556354859509e-05</v>
+        <v>7953535872642.508</v>
       </c>
       <c r="G139" t="n">
-        <v>1.227843540640254e-05</v>
+        <v>11708084408753.98</v>
       </c>
       <c r="H139" t="n">
-        <v>151.2789674135893</v>
+        <v>1.514357754880254</v>
       </c>
       <c r="I139" t="n">
-        <v>1.083034228798614e-31</v>
+        <v>0.8240951643946476</v>
       </c>
       <c r="J139" t="n">
-        <v>37.81974185339733</v>
+        <v>0.3785894387200636</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.069912</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0001996750601857381</v>
+        <v>216638936227737.2</v>
       </c>
       <c r="C140" t="n">
-        <v>4.617556978194685e-05</v>
+        <v>107161411075920.8</v>
       </c>
       <c r="D140" t="n">
-        <v>4.181508302423132e-05</v>
+        <v>-95246779926618.38</v>
       </c>
       <c r="E140" t="n">
-        <v>4.816205815311678e-06</v>
+        <v>5219384008900.141</v>
       </c>
       <c r="F140" t="n">
-        <v>1.023253875391231e-05</v>
+        <v>7987753485789.751</v>
       </c>
       <c r="G140" t="n">
-        <v>1.244180022347269e-05</v>
+        <v>11817917009097.59</v>
       </c>
       <c r="H140" t="n">
-        <v>128.2086224195094</v>
+        <v>9.586017907107649</v>
       </c>
       <c r="I140" t="n">
-        <v>9.407216170985588e-27</v>
+        <v>0.04800946423924911</v>
       </c>
       <c r="J140" t="n">
-        <v>32.05215560487734</v>
+        <v>2.396504476776912</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.074481</v>
       </c>
       <c r="B141" t="n">
-        <v>0.000195893252744584</v>
+        <v>222775798213861.1</v>
       </c>
       <c r="C141" t="n">
-        <v>3.821206194467186e-05</v>
+        <v>106039294598936.9</v>
       </c>
       <c r="D141" t="n">
-        <v>2.617284155658433e-05</v>
+        <v>-121681666432317.1</v>
       </c>
       <c r="E141" t="n">
-        <v>4.552738385788061e-06</v>
+        <v>5178117046677.769</v>
       </c>
       <c r="F141" t="n">
-        <v>9.975655246174317e-06</v>
+        <v>7503909075572.107</v>
       </c>
       <c r="G141" t="n">
-        <v>1.177035102776437e-05</v>
+        <v>11282241489083.11</v>
       </c>
       <c r="H141" t="n">
-        <v>174.2197671807821</v>
+        <v>1.328003216644973</v>
       </c>
       <c r="I141" t="n">
-        <v>1.299220501098773e-36</v>
+        <v>0.856606779516332</v>
       </c>
       <c r="J141" t="n">
-        <v>43.55494179519552</v>
+        <v>0.3320008041612433</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.084189</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0001637283377659828</v>
+        <v>200732890933376.5</v>
       </c>
       <c r="C142" t="n">
-        <v>3.240852995976896e-05</v>
+        <v>109936354303813.7</v>
       </c>
       <c r="D142" t="n">
-        <v>4.495131005342396e-05</v>
+        <v>-128066448627331.6</v>
       </c>
       <c r="E142" t="n">
-        <v>3.935430614542618e-06</v>
+        <v>4807461549241.73</v>
       </c>
       <c r="F142" t="n">
-        <v>9.125463108730306e-06</v>
+        <v>6601036156225.003</v>
       </c>
       <c r="G142" t="n">
-        <v>1.066480861122712e-05</v>
+        <v>10491000791221.16</v>
       </c>
       <c r="H142" t="n">
-        <v>230.9826700305807</v>
+        <v>6.991859716300508</v>
       </c>
       <c r="I142" t="n">
-        <v>8.110434431725185e-49</v>
+        <v>0.1363190279430805</v>
       </c>
       <c r="J142" t="n">
-        <v>57.74566750764517</v>
+        <v>1.747964929075127</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.089986</v>
       </c>
       <c r="B143" t="n">
-        <v>0.000163962857408027</v>
+        <v>202219058641290</v>
       </c>
       <c r="C143" t="n">
-        <v>3.478712952990139e-05</v>
+        <v>113245285081947.7</v>
       </c>
       <c r="D143" t="n">
-        <v>4.296074564491141e-05</v>
+        <v>-133891654610461.8</v>
       </c>
       <c r="E143" t="n">
-        <v>4.028349440464829e-06</v>
+        <v>4904637516138.921</v>
       </c>
       <c r="F143" t="n">
-        <v>9.231590796946303e-06</v>
+        <v>6734920442346.948</v>
       </c>
       <c r="G143" t="n">
-        <v>1.091400622254328e-05</v>
+        <v>10744880483265.72</v>
       </c>
       <c r="H143" t="n">
-        <v>237.1828658650321</v>
+        <v>8.772124822975943</v>
       </c>
       <c r="I143" t="n">
-        <v>3.750551609900064e-50</v>
+        <v>0.0670546158684017</v>
       </c>
       <c r="J143" t="n">
-        <v>59.29571646625802</v>
+        <v>2.193031205743986</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093717</v>
       </c>
       <c r="B144" t="n">
-        <v>0.000265990533381846</v>
+        <v>359818278792034.2</v>
       </c>
       <c r="C144" t="n">
-        <v>5.742756752636545e-05</v>
+        <v>227172090730877.9</v>
       </c>
       <c r="D144" t="n">
-        <v>6.531616324993749e-05</v>
+        <v>-294996768460977</v>
       </c>
       <c r="E144" t="n">
-        <v>7.221236665978303e-06</v>
+        <v>9119667797544.117</v>
       </c>
       <c r="F144" t="n">
-        <v>1.668897712581053e-05</v>
+        <v>12070742841478.29</v>
       </c>
       <c r="G144" t="n">
-        <v>1.950736953889774e-05</v>
+        <v>19487732616924.49</v>
       </c>
       <c r="H144" t="n">
-        <v>308.9228977753827</v>
+        <v>1.512947965831396</v>
       </c>
       <c r="I144" t="n">
-        <v>1.287857443035364e-65</v>
+        <v>0.8243454494221493</v>
       </c>
       <c r="J144" t="n">
-        <v>77.23072444384567</v>
+        <v>0.3782369914578491</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0003470937973504207</v>
+        <v>470590714949373.5</v>
       </c>
       <c r="C145" t="n">
-        <v>7.091789534738964e-05</v>
+        <v>290301075631388.8</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0001162723251482224</v>
+        <v>-363267419008776.6</v>
       </c>
       <c r="E145" t="n">
-        <v>8.652427667471265e-06</v>
+        <v>11457220527457.97</v>
       </c>
       <c r="F145" t="n">
-        <v>2.109530560844748e-05</v>
+        <v>14800024421814.06</v>
       </c>
       <c r="G145" t="n">
-        <v>2.415247914940296e-05</v>
+        <v>24448496451519.81</v>
       </c>
       <c r="H145" t="n">
-        <v>311.1257320122198</v>
+        <v>3.654721826161905</v>
       </c>
       <c r="I145" t="n">
-        <v>4.311163238123198e-66</v>
+        <v>0.454745582364051</v>
       </c>
       <c r="J145" t="n">
-        <v>77.78143300305494</v>
+        <v>0.9136804565404761</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.098893</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0003345559464422853</v>
+        <v>455611369060426.5</v>
       </c>
       <c r="C146" t="n">
-        <v>6.408761892747811e-05</v>
+        <v>285478277459834.2</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0001079154369341797</v>
+        <v>-366872319601555.4</v>
       </c>
       <c r="E146" t="n">
-        <v>8.927649682805134e-06</v>
+        <v>11495771780690.7</v>
       </c>
       <c r="F146" t="n">
-        <v>2.118127139435287e-05</v>
+        <v>15005648420793.66</v>
       </c>
       <c r="G146" t="n">
-        <v>2.449386146756527e-05</v>
+        <v>24557595784061.33</v>
       </c>
       <c r="H146" t="n">
-        <v>310.6311286508301</v>
+        <v>5.877471727091554</v>
       </c>
       <c r="I146" t="n">
-        <v>5.512006012313271e-66</v>
+        <v>0.2084875319079232</v>
       </c>
       <c r="J146" t="n">
-        <v>77.65778216270752</v>
+        <v>1.469367931772888</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.099991</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0003413709845997838</v>
+        <v>460814675654826.5</v>
       </c>
       <c r="C147" t="n">
-        <v>8.624978216911734e-05</v>
+        <v>297940212460807.6</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0001009901867304032</v>
+        <v>-363547890597280.2</v>
       </c>
       <c r="E147" t="n">
-        <v>9.282692707849843e-06</v>
+        <v>11772915087724.55</v>
       </c>
       <c r="F147" t="n">
-        <v>2.154189559839455e-05</v>
+        <v>15815528905923.03</v>
       </c>
       <c r="G147" t="n">
-        <v>2.526099463192879e-05</v>
+        <v>25440406696784</v>
       </c>
       <c r="H147" t="n">
-        <v>294.736218178405</v>
+        <v>2.54302554948495</v>
       </c>
       <c r="I147" t="n">
-        <v>1.479735100706385e-62</v>
+        <v>0.6369483278867751</v>
       </c>
       <c r="J147" t="n">
-        <v>73.68405454460125</v>
+        <v>0.6357563873712374</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0003326710930691556</v>
+        <v>450122705549392.9</v>
       </c>
       <c r="C148" t="n">
-        <v>7.413507428219706e-05</v>
+        <v>291785336712459.8</v>
       </c>
       <c r="D148" t="n">
-        <v>0.0001231341905114153</v>
+        <v>-353291987092094.9</v>
       </c>
       <c r="E148" t="n">
-        <v>9.02802461724755e-06</v>
+        <v>11500504995884.24</v>
       </c>
       <c r="F148" t="n">
-        <v>2.133350341236096e-05</v>
+        <v>15441224430465.4</v>
       </c>
       <c r="G148" t="n">
-        <v>2.474346614302603e-05</v>
+        <v>24784205899108.89</v>
       </c>
       <c r="H148" t="n">
-        <v>296.0865296258035</v>
+        <v>4.240565049695307</v>
       </c>
       <c r="I148" t="n">
-        <v>7.567272338805222e-63</v>
+        <v>0.3744267930558033</v>
       </c>
       <c r="J148" t="n">
-        <v>74.02163240645086</v>
+        <v>1.060141262423827</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100713</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0003383971366835692</v>
+        <v>453196208878900.2</v>
       </c>
       <c r="C149" t="n">
-        <v>6.813929217444202e-05</v>
+        <v>280469734280818.6</v>
       </c>
       <c r="D149" t="n">
-        <v>9.90450564646154e-05</v>
+        <v>-354374253377051.5</v>
       </c>
       <c r="E149" t="n">
-        <v>9.130724202324647e-06</v>
+        <v>11521539959163.14</v>
       </c>
       <c r="F149" t="n">
-        <v>2.130850176223562e-05</v>
+        <v>15419103749331.26</v>
       </c>
       <c r="G149" t="n">
-        <v>2.473936031771882e-05</v>
+        <v>24701457377373.7</v>
       </c>
       <c r="H149" t="n">
-        <v>292.7985436393224</v>
+        <v>3.693617802865936</v>
       </c>
       <c r="I149" t="n">
-        <v>3.873463180457064e-62</v>
+        <v>0.449054859057551</v>
       </c>
       <c r="J149" t="n">
-        <v>73.19963590983059</v>
+        <v>0.923404450716484</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.102879</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0006394411254679009</v>
+        <v>757554779618674.8</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0001886956164598332</v>
+        <v>443445741601008.2</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0001840096242384374</v>
+        <v>-418750608612460</v>
       </c>
       <c r="E150" t="n">
-        <v>1.533804688112277e-05</v>
+        <v>18098644272134.23</v>
       </c>
       <c r="F150" t="n">
-        <v>3.474787663013928e-05</v>
+        <v>26269209313167.51</v>
       </c>
       <c r="G150" t="n">
-        <v>4.12480385635705e-05</v>
+        <v>40429383410075.27</v>
       </c>
       <c r="H150" t="n">
-        <v>197.5873555677034</v>
+        <v>2.997334177556781</v>
       </c>
       <c r="I150" t="n">
-        <v>1.240377614841624e-41</v>
+        <v>0.5582716184746888</v>
       </c>
       <c r="J150" t="n">
-        <v>49.39683889192585</v>
+        <v>0.7493335443891953</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.104856</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0007123720522985208</v>
+        <v>804720959262412.9</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0002142374291804404</v>
+        <v>446241379548806.4</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0001651156734852803</v>
+        <v>-386339288316206.2</v>
       </c>
       <c r="E151" t="n">
-        <v>1.666323026466635e-05</v>
+        <v>18923481053358.21</v>
       </c>
       <c r="F151" t="n">
-        <v>3.667315504612941e-05</v>
+        <v>28345560029304.95</v>
       </c>
       <c r="G151" t="n">
-        <v>4.406591790010145e-05</v>
+        <v>42717438592973.36</v>
       </c>
       <c r="H151" t="n">
-        <v>157.3922882287805</v>
+        <v>2.51314122458652</v>
       </c>
       <c r="I151" t="n">
-        <v>5.298295468131009e-33</v>
+        <v>0.6422842092873703</v>
       </c>
       <c r="J151" t="n">
-        <v>39.34807205719513</v>
+        <v>0.62828530614663</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.106897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0006701255522347368</v>
+        <v>755319090289636.5</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0002033652717434109</v>
+        <v>426784512231132.8</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0001587949030330915</v>
+        <v>-369097212722003.5</v>
       </c>
       <c r="E152" t="n">
-        <v>1.591431427435767e-05</v>
+        <v>17959546151959.97</v>
       </c>
       <c r="F152" t="n">
-        <v>3.485321735941053e-05</v>
+        <v>26930658516342.42</v>
       </c>
       <c r="G152" t="n">
-        <v>4.20431399825415e-05</v>
+        <v>40598017385196.66</v>
       </c>
       <c r="H152" t="n">
-        <v>157.5076484790746</v>
+        <v>3.249506297088869</v>
       </c>
       <c r="I152" t="n">
-        <v>5.004955505052904e-33</v>
+        <v>0.5169721390526612</v>
       </c>
       <c r="J152" t="n">
-        <v>39.37691211976864</v>
+        <v>0.8123765742722173</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.108781</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0006398179436895877</v>
+        <v>727368050172022.5</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0001911384055995785</v>
+        <v>414873464583832.6</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0001676602973052861</v>
+        <v>-357067734011432.8</v>
       </c>
       <c r="E153" t="n">
-        <v>1.514661319295269e-05</v>
+        <v>17242469539921.52</v>
       </c>
       <c r="F153" t="n">
-        <v>3.351813932348387e-05</v>
+        <v>25722513988856.27</v>
       </c>
       <c r="G153" t="n">
-        <v>4.013264371058053e-05</v>
+        <v>38800135501651.91</v>
       </c>
       <c r="H153" t="n">
-        <v>164.1122160042506</v>
+        <v>3.660627377543591</v>
       </c>
       <c r="I153" t="n">
-        <v>1.918035603489502e-34</v>
+        <v>0.4538783178734204</v>
       </c>
       <c r="J153" t="n">
-        <v>41.02805400106266</v>
+        <v>0.9151568443858978</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110037</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0006469982613114179</v>
+        <v>728490303200735.5</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0002045095019419081</v>
+        <v>419907067135455.1</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0001692938997327846</v>
+        <v>-346067587237579</v>
       </c>
       <c r="E154" t="n">
-        <v>1.543704643095893e-05</v>
+        <v>17373084795547.77</v>
       </c>
       <c r="F154" t="n">
-        <v>3.371665644535612e-05</v>
+        <v>26198028885000.7</v>
       </c>
       <c r="G154" t="n">
-        <v>4.090938980891596e-05</v>
+        <v>39511958546398.66</v>
       </c>
       <c r="H154" t="n">
-        <v>156.2146773796067</v>
+        <v>6.754736311856749</v>
       </c>
       <c r="I154" t="n">
-        <v>9.476120730141191e-33</v>
+        <v>0.1494310061824584</v>
       </c>
       <c r="J154" t="n">
-        <v>39.05366934490169</v>
+        <v>1.688684077964187</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006130752208529356</v>
+        <v>688762472399343.2</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0001865626504972342</v>
+        <v>393647790575328.8</v>
       </c>
       <c r="D155" t="n">
-        <v>0.0001625456891001359</v>
+        <v>-320445572978185.2</v>
       </c>
       <c r="E155" t="n">
-        <v>1.464699159545009e-05</v>
+        <v>16435091751781.27</v>
       </c>
       <c r="F155" t="n">
-        <v>3.21312484886657e-05</v>
+        <v>24879743201602.97</v>
       </c>
       <c r="G155" t="n">
-        <v>3.860559387795642e-05</v>
+        <v>37175122240927.56</v>
       </c>
       <c r="H155" t="n">
-        <v>150.7958638692291</v>
+        <v>3.98503398783128</v>
       </c>
       <c r="I155" t="n">
-        <v>1.374598344134395e-31</v>
+        <v>0.4080350682631906</v>
       </c>
       <c r="J155" t="n">
-        <v>37.69896596730727</v>
+        <v>0.9962584969578201</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.113839</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0005866409885406061</v>
+        <v>647474988793015.1</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0001740076591322553</v>
+        <v>358338535652298.9</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0001445821749818729</v>
+        <v>-286486103561676.9</v>
       </c>
       <c r="E156" t="n">
-        <v>1.387490724736786e-05</v>
+        <v>15369403436193.61</v>
       </c>
       <c r="F156" t="n">
-        <v>3.007969302839457e-05</v>
+        <v>23398058006684.73</v>
       </c>
       <c r="G156" t="n">
-        <v>3.64659231312651e-05</v>
+        <v>34981410061836.41</v>
       </c>
       <c r="H156" t="n">
-        <v>139.1581647680084</v>
+        <v>6.030021694707374</v>
       </c>
       <c r="I156" t="n">
-        <v>4.274294800819961e-29</v>
+        <v>0.1969174254533504</v>
       </c>
       <c r="J156" t="n">
-        <v>34.7895411920021</v>
+        <v>1.507505423676843</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.118804</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0005015447088195552</v>
+        <v>529667329656039.8</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0001608914893728203</v>
+        <v>275308460066238.6</v>
       </c>
       <c r="D157" t="n">
-        <v>9.248849299330248e-05</v>
+        <v>-183884133848491.5</v>
       </c>
       <c r="E157" t="n">
-        <v>1.168583279473877e-05</v>
+        <v>12370593515307</v>
       </c>
       <c r="F157" t="n">
-        <v>2.438931985748418e-05</v>
+        <v>19793483290996.82</v>
       </c>
       <c r="G157" t="n">
-        <v>3.012758992923934e-05</v>
+        <v>28607449735648.36</v>
       </c>
       <c r="H157" t="n">
-        <v>100.8522832643109</v>
+        <v>2.944454835852282</v>
       </c>
       <c r="I157" t="n">
-        <v>6.477223562409837e-21</v>
+        <v>0.5671633706949292</v>
       </c>
       <c r="J157" t="n">
-        <v>25.21307081607773</v>
+        <v>0.7361137089630705</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123773</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0003686633005799027</v>
+        <v>375816518004095.8</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0001133117483481114</v>
+        <v>185357095296953.7</v>
       </c>
       <c r="D158" t="n">
-        <v>6.885206854788037e-05</v>
+        <v>-100178382727683.9</v>
       </c>
       <c r="E158" t="n">
-        <v>9.062001867114027e-06</v>
+        <v>9144579282546.391</v>
       </c>
       <c r="F158" t="n">
-        <v>1.820764371407317e-05</v>
+        <v>15323532455122.03</v>
       </c>
       <c r="G158" t="n">
-        <v>2.280606877287944e-05</v>
+        <v>21413164752032.23</v>
       </c>
       <c r="H158" t="n">
-        <v>68.93850898446624</v>
+        <v>3.068135954951806</v>
       </c>
       <c r="I158" t="n">
-        <v>3.802288264125405e-14</v>
+        <v>0.5464884698369796</v>
       </c>
       <c r="J158" t="n">
-        <v>17.23462724611656</v>
+        <v>0.7670339887379516</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.128523</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002151786587635349</v>
+        <v>213424955801299.5</v>
       </c>
       <c r="C159" t="n">
-        <v>6.538822407185945e-05</v>
+        <v>100380835404373.5</v>
       </c>
       <c r="D159" t="n">
-        <v>4.032642284327475e-05</v>
+        <v>-41338817142724.5</v>
       </c>
       <c r="E159" t="n">
-        <v>5.395995918929013e-06</v>
+        <v>5284281103360.329</v>
       </c>
       <c r="F159" t="n">
-        <v>1.058480124075833e-05</v>
+        <v>9147405276813.109</v>
       </c>
       <c r="G159" t="n">
-        <v>1.336312779638438e-05</v>
+        <v>12459079339460.44</v>
       </c>
       <c r="H159" t="n">
-        <v>47.07952007294865</v>
+        <v>3.622839848464182</v>
       </c>
       <c r="I159" t="n">
-        <v>1.46785251899007e-09</v>
+        <v>0.4594476566440858</v>
       </c>
       <c r="J159" t="n">
-        <v>11.76988001823716</v>
+        <v>0.9057099621160455</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.129939</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0002241163598556205</v>
+        <v>225215657986423.8</v>
       </c>
       <c r="C160" t="n">
-        <v>7.549339747900455e-05</v>
+        <v>117083383392970</v>
       </c>
       <c r="D160" t="n">
-        <v>5.346087115613596e-05</v>
+        <v>-46583285694340.12</v>
       </c>
       <c r="E160" t="n">
-        <v>5.917323154092798e-06</v>
+        <v>5824618224787.502</v>
       </c>
       <c r="F160" t="n">
-        <v>1.164426101284848e-05</v>
+        <v>10076549528222.34</v>
       </c>
       <c r="G160" t="n">
-        <v>1.47984971676068e-05</v>
+        <v>13835106746410.93</v>
       </c>
       <c r="H160" t="n">
-        <v>53.35750482555073</v>
+        <v>7.461496805867547</v>
       </c>
       <c r="I160" t="n">
-        <v>7.17317711041206e-11</v>
+        <v>0.1134191548167992</v>
       </c>
       <c r="J160" t="n">
-        <v>13.33937620638768</v>
+        <v>1.865374201466887</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.133811</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001237346700027836</v>
+        <v>122751461661382.2</v>
       </c>
       <c r="C161" t="n">
-        <v>3.045584983340203e-05</v>
+        <v>52957968235878.98</v>
       </c>
       <c r="D161" t="n">
-        <v>1.02684768587901e-05</v>
+        <v>-33235368816186.22</v>
       </c>
       <c r="E161" t="n">
-        <v>3.46512693715549e-06</v>
+        <v>3354006548761.985</v>
       </c>
       <c r="F161" t="n">
-        <v>6.55781453130018e-06</v>
+        <v>5817606773884.54</v>
       </c>
       <c r="G161" t="n">
-        <v>8.28476920693552e-06</v>
+        <v>7753837356269.819</v>
       </c>
       <c r="H161" t="n">
-        <v>49.08868046813659</v>
+        <v>1.33299157828347</v>
       </c>
       <c r="I161" t="n">
-        <v>5.595297264437959e-10</v>
+        <v>0.8557536835195672</v>
       </c>
       <c r="J161" t="n">
-        <v>12.27217011703415</v>
+        <v>0.3332478945708676</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.138881</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001098681601229278</v>
+        <v>110225719597731.1</v>
       </c>
       <c r="C162" t="n">
-        <v>1.467820043656303e-05</v>
+        <v>42168684899144.41</v>
       </c>
       <c r="D162" t="n">
-        <v>7.380108046417869e-06</v>
+        <v>-41680124354506.97</v>
       </c>
       <c r="E162" t="n">
-        <v>3.328482960983941e-06</v>
+        <v>3177524906439.651</v>
       </c>
       <c r="F162" t="n">
-        <v>6.20174431817215e-06</v>
+        <v>5333188326765.407</v>
       </c>
       <c r="G162" t="n">
-        <v>7.694835250992463e-06</v>
+        <v>7072997191721.413</v>
       </c>
       <c r="H162" t="n">
-        <v>61.65023663769361</v>
+        <v>4.336940423858415</v>
       </c>
       <c r="I162" t="n">
-        <v>1.30494208347901e-12</v>
+        <v>0.3623222305306277</v>
       </c>
       <c r="J162" t="n">
-        <v>15.4125591594234</v>
+        <v>1.084235105964604</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.141653</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0001123151056260712</v>
+        <v>115670999176509.8</v>
       </c>
       <c r="C163" t="n">
-        <v>1.866922721890174e-05</v>
+        <v>49770947300989.97</v>
       </c>
       <c r="D163" t="n">
-        <v>4.773899765043521e-08</v>
+        <v>-56252161368564.78</v>
       </c>
       <c r="E163" t="n">
-        <v>3.25687591472444e-06</v>
+        <v>3235110215242.679</v>
       </c>
       <c r="F163" t="n">
-        <v>6.20022947767539e-06</v>
+        <v>5293599461244.099</v>
       </c>
       <c r="G163" t="n">
-        <v>7.719101349520607e-06</v>
+        <v>7239934562676.592</v>
       </c>
       <c r="H163" t="n">
-        <v>82.70112399021478</v>
+        <v>2.062208545764181</v>
       </c>
       <c r="I163" t="n">
-        <v>4.661635149552822e-17</v>
+        <v>0.724318076464726</v>
       </c>
       <c r="J163" t="n">
-        <v>20.6752809975537</v>
+        <v>0.5155521364410454</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001097576526110721</v>
+        <v>114816483905678</v>
       </c>
       <c r="C164" t="n">
-        <v>1.44388820764428e-05</v>
+        <v>49216410425136.11</v>
       </c>
       <c r="D164" t="n">
-        <v>2.645843860541027e-06</v>
+        <v>-59123325168792.41</v>
       </c>
       <c r="E164" t="n">
-        <v>3.233324324333328e-06</v>
+        <v>3216550449284.174</v>
       </c>
       <c r="F164" t="n">
-        <v>6.162781905622625e-06</v>
+        <v>5124021514635.076</v>
       </c>
       <c r="G164" t="n">
-        <v>7.675191725785235e-06</v>
+        <v>7142208750275.527</v>
       </c>
       <c r="H164" t="n">
-        <v>102.9085053488086</v>
+        <v>6.417763727875704</v>
       </c>
       <c r="I164" t="n">
-        <v>2.363103247309113e-21</v>
+        <v>0.1700462462720921</v>
       </c>
       <c r="J164" t="n">
-        <v>25.72712633720214</v>
+        <v>1.604440931968926</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.147988</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001080192688661067</v>
+        <v>118566106269100.2</v>
       </c>
       <c r="C165" t="n">
-        <v>1.317551844613415e-05</v>
+        <v>53442490835350.55</v>
       </c>
       <c r="D165" t="n">
-        <v>2.522898832302154e-06</v>
+        <v>-74617036303846.97</v>
       </c>
       <c r="E165" t="n">
-        <v>3.301139738912072e-06</v>
+        <v>3382903069580.764</v>
       </c>
       <c r="F165" t="n">
-        <v>6.434764530884974e-06</v>
+        <v>5308589505726.508</v>
       </c>
       <c r="G165" t="n">
-        <v>7.859786468282501e-06</v>
+        <v>7342575810320.819</v>
       </c>
       <c r="H165" t="n">
-        <v>131.5363336887323</v>
+        <v>2.868194582251352</v>
       </c>
       <c r="I165" t="n">
-        <v>1.827332200339327e-27</v>
+        <v>0.58011940516506</v>
       </c>
       <c r="J165" t="n">
-        <v>32.88408342218307</v>
+        <v>0.717048645562838</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001167985111129867</v>
+        <v>123278996141743.7</v>
       </c>
       <c r="C166" t="n">
-        <v>2.076307218780543e-05</v>
+        <v>56661979453249.28</v>
       </c>
       <c r="D166" t="n">
-        <v>-7.928096023345778e-06</v>
+        <v>-77159150914660.12</v>
       </c>
       <c r="E166" t="n">
-        <v>3.671266432350154e-06</v>
+        <v>3638578841628.554</v>
       </c>
       <c r="F166" t="n">
-        <v>6.84762236984761e-06</v>
+        <v>5836481961222.522</v>
       </c>
       <c r="G166" t="n">
-        <v>8.702252220647046e-06</v>
+        <v>8074396744487.749</v>
       </c>
       <c r="H166" t="n">
-        <v>100.1138908854782</v>
+        <v>1.373955289362899</v>
       </c>
       <c r="I166" t="n">
-        <v>9.30249921878854e-21</v>
+        <v>0.8487088428877568</v>
       </c>
       <c r="J166" t="n">
-        <v>25.02847272136956</v>
+        <v>0.3434888223407248</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150983</v>
       </c>
       <c r="B167" t="n">
-        <v>0.000112997651049847</v>
+        <v>124237385468648.4</v>
       </c>
       <c r="C167" t="n">
-        <v>1.577844198879318e-05</v>
+        <v>55112496378467.08</v>
       </c>
       <c r="D167" t="n">
-        <v>-2.90776539816739e-06</v>
+        <v>-81582228185434.53</v>
       </c>
       <c r="E167" t="n">
-        <v>3.196937537912715e-06</v>
+        <v>3352329334673.755</v>
       </c>
       <c r="F167" t="n">
-        <v>6.289744328667882e-06</v>
+        <v>5140430701712.053</v>
       </c>
       <c r="G167" t="n">
-        <v>7.753604008414275e-06</v>
+        <v>7322792747279.663</v>
       </c>
       <c r="H167" t="n">
-        <v>137.355591155617</v>
+        <v>1.739503115079337</v>
       </c>
       <c r="I167" t="n">
-        <v>1.039218222869858e-28</v>
+        <v>0.783529949668705</v>
       </c>
       <c r="J167" t="n">
-        <v>34.33889778890426</v>
+        <v>0.4348757787698344</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001144762827266986</v>
+        <v>131853702346655.2</v>
       </c>
       <c r="C168" t="n">
-        <v>1.043935444747953e-05</v>
+        <v>58295626783019.5</v>
       </c>
       <c r="D168" t="n">
-        <v>2.668417026952734e-06</v>
+        <v>-90294196188840.56</v>
       </c>
       <c r="E168" t="n">
-        <v>3.143195482360272e-06</v>
+        <v>3452023385391.321</v>
       </c>
       <c r="F168" t="n">
-        <v>6.548465400604368e-06</v>
+        <v>4989837646432.645</v>
       </c>
       <c r="G168" t="n">
-        <v>7.772901531547284e-06</v>
+        <v>7350697886596.171</v>
       </c>
       <c r="H168" t="n">
-        <v>177.8132784610811</v>
+        <v>1.603045938493929</v>
       </c>
       <c r="I168" t="n">
-        <v>2.198512510899562e-37</v>
+        <v>0.8082445801539779</v>
       </c>
       <c r="J168" t="n">
-        <v>44.45331961527027</v>
+        <v>0.4007614846234823</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.159375</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001173183718920014</v>
+        <v>138856240316468.8</v>
       </c>
       <c r="C169" t="n">
-        <v>1.400036574759192e-05</v>
+        <v>65029414341840.77</v>
       </c>
       <c r="D169" t="n">
-        <v>1.078603459903966e-05</v>
+        <v>-93803052534452.19</v>
       </c>
       <c r="E169" t="n">
-        <v>3.079250612390929e-06</v>
+        <v>3505711997580.104</v>
       </c>
       <c r="F169" t="n">
-        <v>6.606040087057776e-06</v>
+        <v>5009532636825.253</v>
       </c>
       <c r="G169" t="n">
-        <v>7.824382651800421e-06</v>
+        <v>7548803582965.59</v>
       </c>
       <c r="H169" t="n">
-        <v>203.5670446163635</v>
+        <v>4.02770465405051</v>
       </c>
       <c r="I169" t="n">
-        <v>6.425418352587812e-43</v>
+        <v>0.4022694168387682</v>
       </c>
       <c r="J169" t="n">
-        <v>50.89176115409087</v>
+        <v>1.006926163512627</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.170048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001197273959371615</v>
+        <v>137567381770787.4</v>
       </c>
       <c r="C170" t="n">
-        <v>1.997732756550691e-05</v>
+        <v>74478898165293.56</v>
       </c>
       <c r="D170" t="n">
-        <v>1.748159488856928e-05</v>
+        <v>-91710969128181.22</v>
       </c>
       <c r="E170" t="n">
-        <v>3.254032187936298e-06</v>
+        <v>3597614515186.86</v>
       </c>
       <c r="F170" t="n">
-        <v>6.864300823522024e-06</v>
+        <v>5176913482298.525</v>
       </c>
       <c r="G170" t="n">
-        <v>8.303116786466216e-06</v>
+        <v>7878509131146.919</v>
       </c>
       <c r="H170" t="n">
-        <v>182.0850592667069</v>
+        <v>7.709845260404534</v>
       </c>
       <c r="I170" t="n">
-        <v>2.659012063947635e-38</v>
+        <v>0.1028041595025479</v>
       </c>
       <c r="J170" t="n">
-        <v>45.52126481667672</v>
+        <v>1.927461315101133</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.189844</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001263685463991439</v>
+        <v>159329656216570.7</v>
       </c>
       <c r="C171" t="n">
-        <v>1.715317448930959e-05</v>
+        <v>83395377743120.8</v>
       </c>
       <c r="D171" t="n">
-        <v>2.81110705093687e-05</v>
+        <v>-114403529226712.7</v>
       </c>
       <c r="E171" t="n">
-        <v>3.119816134846416e-06</v>
+        <v>3862522934038.51</v>
       </c>
       <c r="F171" t="n">
-        <v>7.252901449778038e-06</v>
+        <v>5143081583472.459</v>
       </c>
       <c r="G171" t="n">
-        <v>8.426269278742869e-06</v>
+        <v>8276441301993.556</v>
       </c>
       <c r="H171" t="n">
-        <v>261.0009927265268</v>
+        <v>8.548774331624792</v>
       </c>
       <c r="I171" t="n">
-        <v>2.775121077131745e-55</v>
+        <v>0.07342251325490955</v>
       </c>
       <c r="J171" t="n">
-        <v>65.25024818163169</v>
+        <v>2.137193582906198</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210028</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001514629510158626</v>
+        <v>206533596339564.5</v>
       </c>
       <c r="C172" t="n">
-        <v>1.680650402835439e-05</v>
+        <v>115124132154218.7</v>
       </c>
       <c r="D172" t="n">
-        <v>3.828894785564378e-05</v>
+        <v>-169689719863253.7</v>
       </c>
       <c r="E172" t="n">
-        <v>3.804639028806336e-06</v>
+        <v>5022347601820.792</v>
       </c>
       <c r="F172" t="n">
-        <v>9.242804254300541e-06</v>
+        <v>6341677889650.197</v>
       </c>
       <c r="G172" t="n">
-        <v>1.052173332430315e-05</v>
+        <v>10542437906587.26</v>
       </c>
       <c r="H172" t="n">
-        <v>329.5308475632262</v>
+        <v>4.52596132446724</v>
       </c>
       <c r="I172" t="n">
-        <v>4.600230482799009e-70</v>
+        <v>0.3394802284240175</v>
       </c>
       <c r="J172" t="n">
-        <v>82.38271189080655</v>
+        <v>1.13149033111681</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.230028</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001867684492581767</v>
+        <v>296552769335186.4</v>
       </c>
       <c r="C173" t="n">
-        <v>2.680564290701481e-06</v>
+        <v>179786466607100.8</v>
       </c>
       <c r="D173" t="n">
-        <v>6.610826642322023e-05</v>
+        <v>-295755214961996.6</v>
       </c>
       <c r="E173" t="n">
-        <v>5.085402803557499e-06</v>
+        <v>7451064842570.248</v>
       </c>
       <c r="F173" t="n">
-        <v>1.32915293982531e-05</v>
+        <v>8650705867754.881</v>
       </c>
       <c r="G173" t="n">
-        <v>1.464000274396606e-05</v>
+        <v>15139084716031.82</v>
       </c>
       <c r="H173" t="n">
-        <v>445.4157961384693</v>
+        <v>5.57584750373262</v>
       </c>
       <c r="I173" t="n">
-        <v>4.254711425347888e-95</v>
+        <v>0.2331424344331294</v>
       </c>
       <c r="J173" t="n">
-        <v>111.3539490346173</v>
+        <v>1.393961875933155</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0002317546890676607</v>
+        <v>428580452010976.8</v>
       </c>
       <c r="C174" t="n">
-        <v>-2.874967735773295e-05</v>
+        <v>247122196686736.7</v>
       </c>
       <c r="D174" t="n">
-        <v>7.972192866482022e-05</v>
+        <v>-475272509415304</v>
       </c>
       <c r="E174" t="n">
-        <v>6.077406728808989e-06</v>
+        <v>10325274269827.94</v>
       </c>
       <c r="F174" t="n">
-        <v>1.770934730784713e-05</v>
+        <v>10843972513348.44</v>
       </c>
       <c r="G174" t="n">
-        <v>1.864249221165577e-05</v>
+        <v>20138916319630.36</v>
       </c>
       <c r="H174" t="n">
-        <v>598.3156152831724</v>
+        <v>1.357665832162379</v>
       </c>
       <c r="I174" t="n">
-        <v>3.587274146688054e-128</v>
+        <v>0.8515184964785218</v>
       </c>
       <c r="J174" t="n">
-        <v>149.5789038207931</v>
+        <v>0.3394164580405948</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.243064</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002455698397621464</v>
+        <v>463687818026503.2</v>
       </c>
       <c r="C175" t="n">
-        <v>-3.164474942792049e-05</v>
+        <v>285482760210008.8</v>
       </c>
       <c r="D175" t="n">
-        <v>0.000115004616685201</v>
+        <v>-522828676894603</v>
       </c>
       <c r="E175" t="n">
-        <v>6.977351536123377e-06</v>
+        <v>11612369081050.79</v>
       </c>
       <c r="F175" t="n">
-        <v>2.010559285357373e-05</v>
+        <v>12403796055392.77</v>
       </c>
       <c r="G175" t="n">
-        <v>2.130413155468547e-05</v>
+        <v>22855253940972.57</v>
       </c>
       <c r="H175" t="n">
-        <v>583.2206172806196</v>
+        <v>4.348279594667719</v>
       </c>
       <c r="I175" t="n">
-        <v>6.63043029355981e-125</v>
+        <v>0.3609184914242828</v>
       </c>
       <c r="J175" t="n">
-        <v>145.8051543201549</v>
+        <v>1.08706989866693</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.250129</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0003096958948178142</v>
+        <v>645738444157258</v>
       </c>
       <c r="C176" t="n">
-        <v>-8.126705363031253e-05</v>
+        <v>392574524816079.8</v>
       </c>
       <c r="D176" t="n">
-        <v>0.0001390968257194533</v>
+        <v>-787072428318239</v>
       </c>
       <c r="E176" t="n">
-        <v>9.427923601945014e-06</v>
+        <v>16311502130021.65</v>
       </c>
       <c r="F176" t="n">
-        <v>2.784166904844311e-05</v>
+        <v>16860999668544.27</v>
       </c>
       <c r="G176" t="n">
-        <v>2.901847734895002e-05</v>
+        <v>31410747596214.31</v>
       </c>
       <c r="H176" t="n">
-        <v>661.6975530878996</v>
+        <v>3.400413066842975</v>
       </c>
       <c r="I176" t="n">
-        <v>6.841356522783078e-142</v>
+        <v>0.4931813762392973</v>
       </c>
       <c r="J176" t="n">
-        <v>165.4243882719749</v>
+        <v>0.8501032667107437</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003899526892249971</v>
+        <v>845220510215523.5</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.0001115360137186547</v>
+        <v>521433189008386.6</v>
       </c>
       <c r="D177" t="n">
-        <v>0.0002038724278466116</v>
+        <v>-1036211854348979</v>
       </c>
       <c r="E177" t="n">
-        <v>1.15173808120796e-05</v>
+        <v>21066904004972.01</v>
       </c>
       <c r="F177" t="n">
-        <v>3.578012622446149e-05</v>
+        <v>21196714120398.53</v>
       </c>
       <c r="G177" t="n">
-        <v>3.677089583559774e-05</v>
+        <v>40368378843191.51</v>
       </c>
       <c r="H177" t="n">
-        <v>695.5982354141656</v>
+        <v>2.892213235014694</v>
       </c>
       <c r="I177" t="n">
-        <v>3.128511434988106e-149</v>
+        <v>0.5760222487803454</v>
       </c>
       <c r="J177" t="n">
-        <v>173.8995588535414</v>
+        <v>0.7230533087536735</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004378170878431671</v>
+        <v>884512989783574.5</v>
       </c>
       <c r="C178" t="n">
-        <v>-9.564961682729405e-05</v>
+        <v>558203546536470.2</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0002042720705071517</v>
+        <v>-1071879348879411</v>
       </c>
       <c r="E178" t="n">
-        <v>1.350840326957925e-05</v>
+        <v>22600455889173.68</v>
       </c>
       <c r="F178" t="n">
-        <v>3.890859403731108e-05</v>
+        <v>23373981582662.17</v>
       </c>
       <c r="G178" t="n">
-        <v>4.100797983021253e-05</v>
+        <v>43752549754986.09</v>
       </c>
       <c r="H178" t="n">
-        <v>630.4899648838183</v>
+        <v>4.550057012856892</v>
       </c>
       <c r="I178" t="n">
-        <v>3.898228762094499e-135</v>
+        <v>0.3366532085808898</v>
       </c>
       <c r="J178" t="n">
-        <v>157.6224912209546</v>
+        <v>1.137514253214223</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.269983</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004775394542858265</v>
+        <v>944230862920391</v>
       </c>
       <c r="C179" t="n">
-        <v>-6.980727171137331e-05</v>
+        <v>612185799399109.9</v>
       </c>
       <c r="D179" t="n">
-        <v>0.0002473601147250845</v>
+        <v>-1103875077011351</v>
       </c>
       <c r="E179" t="n">
-        <v>1.419783053045476e-05</v>
+        <v>24039350831443.93</v>
       </c>
       <c r="F179" t="n">
-        <v>4.116756217397401e-05</v>
+        <v>25409462008673.14</v>
       </c>
       <c r="G179" t="n">
-        <v>4.351925385088641e-05</v>
+        <v>47154171499234.61</v>
       </c>
       <c r="H179" t="n">
-        <v>602.0714603336454</v>
+        <v>4.223421421143154</v>
       </c>
       <c r="I179" t="n">
-        <v>5.519526908291392e-129</v>
+        <v>0.3766126520348259</v>
       </c>
       <c r="J179" t="n">
-        <v>150.5178650834114</v>
+        <v>1.055855355285789</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
-        <v>0.000587688166092789</v>
+        <v>1075247729233161</v>
       </c>
       <c r="C180" t="n">
-        <v>-1.359885436102949e-05</v>
+        <v>725059602278084.1</v>
       </c>
       <c r="D180" t="n">
-        <v>0.0003310072743511923</v>
+        <v>-1165672662049928</v>
       </c>
       <c r="E180" t="n">
-        <v>1.667098560174019e-05</v>
+        <v>27116661278935.24</v>
       </c>
       <c r="F180" t="n">
-        <v>4.723846750874781e-05</v>
+        <v>29786023868154.64</v>
       </c>
       <c r="G180" t="n">
-        <v>5.049187498892654e-05</v>
+        <v>54129331488910.25</v>
       </c>
       <c r="H180" t="n">
-        <v>543.5072057104187</v>
+        <v>2.736574172845298</v>
       </c>
       <c r="I180" t="n">
-        <v>2.598246426389636e-116</v>
+        <v>0.6028299426037687</v>
       </c>
       <c r="J180" t="n">
-        <v>135.8768014276047</v>
+        <v>0.6841435432113244</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.275024</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0005868152667676177</v>
+        <v>1093855233542810</v>
       </c>
       <c r="C181" t="n">
-        <v>-1.816246532360534e-05</v>
+        <v>705809727334654.4</v>
       </c>
       <c r="D181" t="n">
-        <v>0.0003348660290783893</v>
+        <v>-1166129937949966</v>
       </c>
       <c r="E181" t="n">
-        <v>1.534762006079685e-05</v>
+        <v>26582113969878.19</v>
       </c>
       <c r="F181" t="n">
-        <v>4.53882529026557e-05</v>
+        <v>28454805637865.74</v>
       </c>
       <c r="G181" t="n">
-        <v>4.794131257854975e-05</v>
+        <v>52734600556864.89</v>
       </c>
       <c r="H181" t="n">
-        <v>572.2144541849143</v>
+        <v>1.358051220735099</v>
       </c>
       <c r="I181" t="n">
-        <v>1.596813390481437e-122</v>
+        <v>0.8514521469056284</v>
       </c>
       <c r="J181" t="n">
-        <v>143.0536135462286</v>
+        <v>0.3395128051837749</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279812000000001</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0009559993207061031</v>
+        <v>1465898711520360</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0001028289320685553</v>
+        <v>945231293762844.8</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0004509322440767885</v>
+        <v>-1339079761187176</v>
       </c>
       <c r="E182" t="n">
-        <v>2.513704566852436e-05</v>
+        <v>36467062495015.66</v>
       </c>
       <c r="F182" t="n">
-        <v>6.587624251920404e-05</v>
+        <v>43777186077809.03</v>
       </c>
       <c r="G182" t="n">
-        <v>7.285359620175588e-05</v>
+        <v>75475635512096.22</v>
       </c>
       <c r="H182" t="n">
-        <v>406.3454436075389</v>
+        <v>4.983757221928534</v>
       </c>
       <c r="I182" t="n">
-        <v>1.183602205403876e-86</v>
+        <v>0.2889681699175978</v>
       </c>
       <c r="J182" t="n">
-        <v>101.5863609018847</v>
+        <v>1.245939305482133</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.284953</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001200959740485262</v>
+        <v>1741812604132561</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0002117016625035196</v>
+        <v>1112958747481050</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0005408815534378654</v>
+        <v>-1458735580012241</v>
       </c>
       <c r="E183" t="n">
-        <v>3.101821434583299e-05</v>
+        <v>43215208246385.99</v>
       </c>
       <c r="F183" t="n">
-        <v>7.894605547930083e-05</v>
+        <v>54117336585875.28</v>
       </c>
       <c r="G183" t="n">
-        <v>8.88584986004494e-05</v>
+        <v>91347824115749.67</v>
       </c>
       <c r="H183" t="n">
-        <v>360.0889039358009</v>
+        <v>5.608330743310647</v>
       </c>
       <c r="I183" t="n">
-        <v>1.162714888527812e-76</v>
+        <v>0.2303699567249946</v>
       </c>
       <c r="J183" t="n">
-        <v>90.02222598395024</v>
+        <v>1.402082685827662</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.290161</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001562847812222798</v>
+        <v>2234018490626926</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0003081036114455113</v>
+        <v>1409525435335610</v>
       </c>
       <c r="D184" t="n">
-        <v>0.0007546716868499937</v>
+        <v>-1759443596392567</v>
       </c>
       <c r="E184" t="n">
-        <v>3.709894587981581e-05</v>
+        <v>53221588517149.11</v>
       </c>
       <c r="F184" t="n">
-        <v>9.719183361227418e-05</v>
+        <v>65899435265981.54</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0001089188898970501</v>
+        <v>113229669807342.8</v>
       </c>
       <c r="H184" t="n">
-        <v>354.9738729429271</v>
+        <v>7.931381431680761</v>
       </c>
       <c r="I184" t="n">
-        <v>1.479140116549898e-75</v>
+        <v>0.09412436765436805</v>
       </c>
       <c r="J184" t="n">
-        <v>88.74346823573177</v>
+        <v>1.98284535792019</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.292942</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001766095408879078</v>
+        <v>2573158701417684</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0004313917168203899</v>
+        <v>1720723896474131</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0009262224820232195</v>
+        <v>-2022178755209397</v>
       </c>
       <c r="E185" t="n">
-        <v>4.165272254127754e-05</v>
+        <v>60961422023752.05</v>
       </c>
       <c r="F185" t="n">
-        <v>0.0001107992851180396</v>
+        <v>75873774559402.05</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0001228683523646282</v>
+        <v>129435354351342.6</v>
       </c>
       <c r="H185" t="n">
-        <v>369.469819565397</v>
+        <v>3.339419620240236</v>
       </c>
       <c r="I185" t="n">
-        <v>1.09532148276111e-78</v>
+        <v>0.5027108983126479</v>
       </c>
       <c r="J185" t="n">
-        <v>92.36745489134925</v>
+        <v>0.834854905060059</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.297674</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001767266676691309</v>
+        <v>2498518896693724</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0004051062832624102</v>
+        <v>1586376340108153</v>
       </c>
       <c r="D186" t="n">
-        <v>0.0008764548245367202</v>
+        <v>-1887359030039007</v>
       </c>
       <c r="E186" t="n">
-        <v>4.026668221648594e-05</v>
+        <v>58400171324579.99</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0001066891339375774</v>
+        <v>72555695445932.7</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0001192192546389269</v>
+        <v>124849378385864</v>
       </c>
       <c r="H186" t="n">
-        <v>347.8744730932715</v>
+        <v>7.708873971041051</v>
       </c>
       <c r="I186" t="n">
-        <v>5.045453779849858e-74</v>
+        <v>0.1028438092821903</v>
       </c>
       <c r="J186" t="n">
-        <v>86.96861827331787</v>
+        <v>1.927218492760263</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.299721</v>
       </c>
       <c r="B187" t="n">
-        <v>0.001745897879863459</v>
+        <v>2459838111540222</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0003911922847800362</v>
+        <v>1541248977218412</v>
       </c>
       <c r="D187" t="n">
-        <v>0.0006939294641168259</v>
+        <v>-1902630511486027</v>
       </c>
       <c r="E187" t="n">
-        <v>4.056706659340836e-05</v>
+        <v>57613232628614.41</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0001048684447359884</v>
+        <v>72255929019559.64</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0001173355753744814</v>
+        <v>122011845543726.8</v>
       </c>
       <c r="H187" t="n">
-        <v>352.2961909914893</v>
+        <v>1.557977904096763</v>
       </c>
       <c r="I187" t="n">
-        <v>5.60003338461817e-75</v>
+        <v>0.8163241554397435</v>
       </c>
       <c r="J187" t="n">
-        <v>88.07404774787231</v>
+        <v>0.3894944760241907</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.302376000000001</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001803820000627213</v>
+        <v>2409102276474947</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0004471896955726754</v>
+        <v>1484242844671200</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0007709839768866491</v>
+        <v>-1685381234096309</v>
       </c>
       <c r="E188" t="n">
-        <v>4.135498925166652e-05</v>
+        <v>56456695395439.92</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0001046836096626701</v>
+        <v>72971615253436.08</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0001194489864454431</v>
+        <v>122532239557954</v>
       </c>
       <c r="H188" t="n">
-        <v>301.4459569223891</v>
+        <v>9.192102344436378</v>
       </c>
       <c r="I188" t="n">
-        <v>5.283157014004896e-64</v>
+        <v>0.056473150225506</v>
       </c>
       <c r="J188" t="n">
-        <v>75.36148923059727</v>
+        <v>2.298025586109095</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.308233</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001439240757207674</v>
+        <v>1908401883324239</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0003692111537645915</v>
+        <v>1181798923253774</v>
       </c>
       <c r="D189" t="n">
-        <v>0.0006491264519473763</v>
+        <v>-1288892551496320</v>
       </c>
       <c r="E189" t="n">
-        <v>3.225281178521679e-05</v>
+        <v>44140489964602.42</v>
       </c>
       <c r="F189" t="n">
-        <v>8.240946408675677e-05</v>
+        <v>57373577109385.41</v>
       </c>
       <c r="G189" t="n">
-        <v>9.35070777146689e-05</v>
+        <v>95949321461059.89</v>
       </c>
       <c r="H189" t="n">
-        <v>297.3308913316527</v>
+        <v>8.457019516046861</v>
       </c>
       <c r="I189" t="n">
-        <v>4.078860391962107e-63</v>
+        <v>0.07620078902727212</v>
       </c>
       <c r="J189" t="n">
-        <v>74.33272283291318</v>
+        <v>2.114254879011715</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312876</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001118867075689239</v>
+        <v>1422814295790178</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0003169341628904549</v>
+        <v>873871347512320.2</v>
       </c>
       <c r="D190" t="n">
-        <v>0.000438934128796782</v>
+        <v>-899348612662622.5</v>
       </c>
       <c r="E190" t="n">
-        <v>2.545868126592158e-05</v>
+        <v>33155701691644.89</v>
       </c>
       <c r="F190" t="n">
-        <v>6.241169075077294e-05</v>
+        <v>44673916878987.79</v>
       </c>
       <c r="G190" t="n">
-        <v>7.219431816862508e-05</v>
+        <v>73028027834965.36</v>
       </c>
       <c r="H190" t="n">
-        <v>260.0728620601889</v>
+        <v>8.415184564481443</v>
       </c>
       <c r="I190" t="n">
-        <v>4.39832799945987e-55</v>
+        <v>0.07750020734406188</v>
       </c>
       <c r="J190" t="n">
-        <v>65.01821551504722</v>
+        <v>2.103796141120361</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.317521</v>
       </c>
       <c r="B191" t="n">
-        <v>0.000838905656109432</v>
+        <v>1003656471614308</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0002505392546285319</v>
+        <v>588271755994782.8</v>
       </c>
       <c r="D191" t="n">
-        <v>0.000261099302188727</v>
+        <v>-554016409967497.5</v>
       </c>
       <c r="E191" t="n">
-        <v>1.927389142998634e-05</v>
+        <v>23401756995873.08</v>
       </c>
       <c r="F191" t="n">
-        <v>4.470922960416899e-05</v>
+        <v>33328737442121.59</v>
       </c>
       <c r="G191" t="n">
-        <v>5.28197759942435e-05</v>
+        <v>52317257400114.52</v>
       </c>
       <c r="H191" t="n">
-        <v>207.2688535831684</v>
+        <v>6.407929419432549</v>
       </c>
       <c r="I191" t="n">
-        <v>1.027578262803785e-43</v>
+        <v>0.1706848080331571</v>
       </c>
       <c r="J191" t="n">
-        <v>51.81721339579209</v>
+        <v>1.601982354858137</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.322808999999999</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0006124161431762794</v>
+        <v>681472913193155.5</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0002034065970428158</v>
+        <v>390831588392405</v>
       </c>
       <c r="D192" t="n">
-        <v>0.000176594661630487</v>
+        <v>-290746513420486.5</v>
       </c>
       <c r="E192" t="n">
-        <v>1.412548811461426e-05</v>
+        <v>15914664835887.27</v>
       </c>
       <c r="F192" t="n">
-        <v>3.120868454614044e-05</v>
+        <v>24291399836530.52</v>
       </c>
       <c r="G192" t="n">
-        <v>3.777561206171762e-05</v>
+        <v>36533589848132.29</v>
       </c>
       <c r="H192" t="n">
-        <v>144.9689529953436</v>
+        <v>6.79440684119677</v>
       </c>
       <c r="I192" t="n">
-        <v>2.435496097562196e-30</v>
+        <v>0.1471600266025867</v>
       </c>
       <c r="J192" t="n">
-        <v>36.2422382488359</v>
+        <v>1.698601710299192</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.327683</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004486631989416705</v>
+        <v>475160767152834.4</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0001553317807539738</v>
+        <v>270889290170018.3</v>
       </c>
       <c r="D193" t="n">
-        <v>0.0001333816416766891</v>
+        <v>-152570814574638.6</v>
       </c>
       <c r="E193" t="n">
-        <v>1.066969002726639e-05</v>
+        <v>11323833521681.25</v>
       </c>
       <c r="F193" t="n">
-        <v>2.265396738617884e-05</v>
+        <v>18316984927131.55</v>
       </c>
       <c r="G193" t="n">
-        <v>2.788841705615342e-05</v>
+        <v>26477230467197.79</v>
       </c>
       <c r="H193" t="n">
-        <v>102.1825830999521</v>
+        <v>9.565227213498817</v>
       </c>
       <c r="I193" t="n">
-        <v>3.373643065912609e-21</v>
+        <v>0.04842409080588747</v>
       </c>
       <c r="J193" t="n">
-        <v>25.54564577498801</v>
+        <v>2.391306803374704</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003497200714020986</v>
+        <v>355092849353661.8</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0001512367160483573</v>
+        <v>209253255536413.8</v>
       </c>
       <c r="D194" t="n">
-        <v>7.981402587496666e-05</v>
+        <v>-72476335508787.69</v>
       </c>
       <c r="E194" t="n">
-        <v>8.757310962318821e-06</v>
+        <v>8731410303209.432</v>
       </c>
       <c r="F194" t="n">
-        <v>1.754501809290951e-05</v>
+        <v>15234057314898.41</v>
       </c>
       <c r="G194" t="n">
-        <v>2.224598337532357e-05</v>
+        <v>20997110180125.29</v>
       </c>
       <c r="H194" t="n">
-        <v>61.26590565847171</v>
+        <v>2.325511131006134</v>
       </c>
       <c r="I194" t="n">
-        <v>1.571872643260693e-12</v>
+        <v>0.6761282972722735</v>
       </c>
       <c r="J194" t="n">
-        <v>15.31647641461793</v>
+        <v>0.5813777827515334</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.332912</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003655216688868463</v>
+        <v>363576070782328.6</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0001346638129625443</v>
+        <v>189521637379477.8</v>
       </c>
       <c r="D195" t="n">
-        <v>8.934620039976722e-05</v>
+        <v>-54585530765883.19</v>
       </c>
       <c r="E195" t="n">
-        <v>8.631867083791727e-06</v>
+        <v>8590566583948.858</v>
       </c>
       <c r="F195" t="n">
-        <v>1.746940005386833e-05</v>
+        <v>14918706771161.31</v>
       </c>
       <c r="G195" t="n">
-        <v>2.214928185811049e-05</v>
+        <v>20732973186665.27</v>
       </c>
       <c r="H195" t="n">
-        <v>52.7300882957644</v>
+        <v>8.232081721323979</v>
       </c>
       <c r="I195" t="n">
-        <v>9.705165921235643e-11</v>
+        <v>0.08343728642096938</v>
       </c>
       <c r="J195" t="n">
-        <v>13.1825220739411</v>
+        <v>2.058020430330995</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.337469</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003349429393628356</v>
+        <v>323701912137863.8</v>
       </c>
       <c r="C196" t="n">
-        <v>0.0001288818765522583</v>
+        <v>159272171258405.8</v>
       </c>
       <c r="D196" t="n">
-        <v>8.042288279085151e-05</v>
+        <v>-11219429715929.62</v>
       </c>
       <c r="E196" t="n">
-        <v>7.730358204468954e-06</v>
+        <v>7480285891067.456</v>
       </c>
       <c r="F196" t="n">
-        <v>1.541703538567624e-05</v>
+        <v>13552868116612.93</v>
       </c>
       <c r="G196" t="n">
-        <v>1.970664503388052e-05</v>
+        <v>18345086977133.45</v>
       </c>
       <c r="H196" t="n">
-        <v>31.98304044950587</v>
+        <v>8.552829984422372</v>
       </c>
       <c r="I196" t="n">
-        <v>1.928427188630616e-06</v>
+        <v>0.07330194733112451</v>
       </c>
       <c r="J196" t="n">
-        <v>7.995760112376468</v>
+        <v>2.138207496105593</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.342735</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0003076770644333992</v>
+        <v>295554815053003.6</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0001287017910932639</v>
+        <v>155214973832139.5</v>
       </c>
       <c r="D197" t="n">
-        <v>7.656774809355356e-05</v>
+        <v>-2110190095372.5</v>
       </c>
       <c r="E197" t="n">
-        <v>7.144814913289347e-06</v>
+        <v>6853969111774.129</v>
       </c>
       <c r="F197" t="n">
-        <v>1.422431876503119e-05</v>
+        <v>12599759386735.46</v>
       </c>
       <c r="G197" t="n">
-        <v>1.814029427943793e-05</v>
+        <v>16883226888851.41</v>
       </c>
       <c r="H197" t="n">
-        <v>21.9741367087475</v>
+        <v>3.071925762160328</v>
       </c>
       <c r="I197" t="n">
-        <v>0.0002028102139664015</v>
+        <v>0.5458617822150813</v>
       </c>
       <c r="J197" t="n">
-        <v>5.493534177186875</v>
+        <v>0.7679814405400819</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.342928</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0003074586165649446</v>
+        <v>294375077898325.2</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0001220952612163349</v>
+        <v>143031335451857</v>
       </c>
       <c r="D198" t="n">
-        <v>8.195311022631663e-05</v>
+        <v>13813295301986</v>
       </c>
       <c r="E198" t="n">
-        <v>6.970357113471506e-06</v>
+        <v>6673868090147.952</v>
       </c>
       <c r="F198" t="n">
-        <v>1.39053863041013e-05</v>
+        <v>12432923814107.4</v>
       </c>
       <c r="G198" t="n">
-        <v>1.774376198183815e-05</v>
+        <v>16545779880422.44</v>
       </c>
       <c r="H198" t="n">
-        <v>20.4730707768715</v>
+        <v>8.620723929842381</v>
       </c>
       <c r="I198" t="n">
-        <v>0.0004026814195116301</v>
+        <v>0.07131119399633766</v>
       </c>
       <c r="J198" t="n">
-        <v>5.118267694217876</v>
+        <v>2.155180982460595</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.346943</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002762277809162439</v>
+        <v>262564151598914.8</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0001149938164022961</v>
+        <v>125461756597013.8</v>
       </c>
       <c r="D199" t="n">
-        <v>5.946280705241517e-05</v>
+        <v>14613062923388.12</v>
       </c>
       <c r="E199" t="n">
-        <v>6.303715647207548e-06</v>
+        <v>5969513643484.399</v>
       </c>
       <c r="F199" t="n">
-        <v>1.239510094409826e-05</v>
+        <v>11265617763683.89</v>
       </c>
       <c r="G199" t="n">
-        <v>1.584713556807319e-05</v>
+        <v>14745936671897.67</v>
       </c>
       <c r="H199" t="n">
-        <v>11.8142675488417</v>
+        <v>1.033312977236261</v>
       </c>
       <c r="I199" t="n">
-        <v>0.01878720893409385</v>
+        <v>0.9047032811749044</v>
       </c>
       <c r="J199" t="n">
-        <v>2.953566887210425</v>
+        <v>0.2583282443090653</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.348261</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002737196967003982</v>
+        <v>257776894054290.7</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0001118606679799942</v>
+        <v>120962499959286.9</v>
       </c>
       <c r="D200" t="n">
-        <v>7.057149850355382e-05</v>
+        <v>30918310953115.81</v>
       </c>
       <c r="E200" t="n">
-        <v>6.09713159928498e-06</v>
+        <v>5739994654873.787</v>
       </c>
       <c r="F200" t="n">
-        <v>1.207292984262789e-05</v>
+        <v>10963558076947.32</v>
       </c>
       <c r="G200" t="n">
-        <v>1.555735542040518e-05</v>
+        <v>14441807464876.75</v>
       </c>
       <c r="H200" t="n">
-        <v>12.62862688727692</v>
+        <v>7.851420000884881</v>
       </c>
       <c r="I200" t="n">
-        <v>0.01324042976334336</v>
+        <v>0.09717502221045926</v>
       </c>
       <c r="J200" t="n">
-        <v>3.15715672181923</v>
+        <v>1.96285500022122</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.348582</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002691722758370553</v>
+        <v>254725233019458.3</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0001076746378185868</v>
+        <v>117904084576139.8</v>
       </c>
       <c r="D201" t="n">
-        <v>5.911245077869985e-05</v>
+        <v>19583128673697.38</v>
       </c>
       <c r="E201" t="n">
-        <v>5.996712043843759e-06</v>
+        <v>5663913257618.213</v>
       </c>
       <c r="F201" t="n">
-        <v>1.180673130497809e-05</v>
+        <v>10724589595379.48</v>
       </c>
       <c r="G201" t="n">
-        <v>1.502299839648529e-05</v>
+        <v>13987746763179.91</v>
       </c>
       <c r="H201" t="n">
-        <v>9.269635996087278</v>
+        <v>1.474027198934679</v>
       </c>
       <c r="I201" t="n">
-        <v>0.05470210161420047</v>
+        <v>0.8312320485667586</v>
       </c>
       <c r="J201" t="n">
-        <v>2.317408999021819</v>
+        <v>0.3685067997336697</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.352053</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002766601556092283</v>
+        <v>268614050796752.2</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0001009031469997817</v>
+        <v>131492612986541.8</v>
       </c>
       <c r="D202" t="n">
-        <v>6.773895212158505e-05</v>
+        <v>-16972564306978.62</v>
       </c>
       <c r="E202" t="n">
-        <v>6.70903239044593e-06</v>
+        <v>6479223165954.891</v>
       </c>
       <c r="F202" t="n">
-        <v>1.325486082425621e-05</v>
+        <v>11711770214870.3</v>
       </c>
       <c r="G202" t="n">
-        <v>1.672437934995988e-05</v>
+        <v>15564260724116.11</v>
       </c>
       <c r="H202" t="n">
-        <v>26.76862020643427</v>
+        <v>3.561684294498029</v>
       </c>
       <c r="I202" t="n">
-        <v>2.213894978884684e-05</v>
+        <v>0.4685613037442546</v>
       </c>
       <c r="J202" t="n">
-        <v>6.692155051608569</v>
+        <v>0.8904210736245073</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.353596</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0002628182427771839</v>
+        <v>251064599397392.4</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0001073789927706072</v>
+        <v>123681052382346</v>
       </c>
       <c r="D203" t="n">
-        <v>6.670095176693897e-05</v>
+        <v>9971535032955.688</v>
       </c>
       <c r="E203" t="n">
-        <v>5.782827495065906e-06</v>
+        <v>5556756650083.198</v>
       </c>
       <c r="F203" t="n">
-        <v>1.161607694461403e-05</v>
+        <v>10315241429001.73</v>
       </c>
       <c r="G203" t="n">
-        <v>1.486074860097489e-05</v>
+        <v>13854826835149.62</v>
       </c>
       <c r="H203" t="n">
-        <v>20.51461083967822</v>
+        <v>8.248122407896991</v>
       </c>
       <c r="I203" t="n">
-        <v>0.0003951330037892837</v>
+        <v>0.0829005257053885</v>
       </c>
       <c r="J203" t="n">
-        <v>5.128652709919555</v>
+        <v>2.062030601974248</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.357905000000001</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003193587987121797</v>
+        <v>326113489822352.5</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0001018729963906348</v>
+        <v>166037866934942.5</v>
       </c>
       <c r="D204" t="n">
-        <v>6.103291517176349e-05</v>
+        <v>-88735962892220</v>
       </c>
       <c r="E204" t="n">
-        <v>7.855301118910593e-06</v>
+        <v>7946819729885.916</v>
       </c>
       <c r="F204" t="n">
-        <v>1.58037149184725e-05</v>
+        <v>13296632179879.61</v>
       </c>
       <c r="G204" t="n">
-        <v>1.978394739210257e-05</v>
+        <v>18594810096630.18</v>
       </c>
       <c r="H204" t="n">
-        <v>70.00402231327814</v>
+        <v>4.977934018548938</v>
       </c>
       <c r="I204" t="n">
-        <v>2.265408164178728e-14</v>
+        <v>0.2895691058795544</v>
       </c>
       <c r="J204" t="n">
-        <v>17.50100557831954</v>
+        <v>1.244483504637234</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359834999999999</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0003050390271953874</v>
+        <v>315902294776108.1</v>
       </c>
       <c r="C205" t="n">
-        <v>9.51613695485158e-05</v>
+        <v>164085119388614.9</v>
       </c>
       <c r="D205" t="n">
-        <v>5.84900939866999e-05</v>
+        <v>-100742624312652.8</v>
       </c>
       <c r="E205" t="n">
-        <v>7.53123143742637e-06</v>
+        <v>7711784427941.897</v>
       </c>
       <c r="F205" t="n">
-        <v>1.531368451263035e-05</v>
+        <v>12668820401780.45</v>
       </c>
       <c r="G205" t="n">
-        <v>1.898103236162392e-05</v>
+        <v>17872502267708.98</v>
       </c>
       <c r="H205" t="n">
-        <v>83.68879842587029</v>
+        <v>3.06934457246553</v>
       </c>
       <c r="I205" t="n">
-        <v>2.878076812494797e-17</v>
+        <v>0.5462885662716361</v>
       </c>
       <c r="J205" t="n">
-        <v>20.92219960646757</v>
+        <v>0.7673361431163824</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.361894</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0003037356791616503</v>
+        <v>312873506502758</v>
       </c>
       <c r="C206" t="n">
-        <v>0.0001007743710394825</v>
+        <v>161682744105472.4</v>
       </c>
       <c r="D206" t="n">
-        <v>5.684296465730448e-05</v>
+        <v>-92050348322185.69</v>
       </c>
       <c r="E206" t="n">
-        <v>7.5003879249581e-06</v>
+        <v>7644054857906.413</v>
       </c>
       <c r="F206" t="n">
-        <v>1.512166227285534e-05</v>
+        <v>12747207209017.89</v>
       </c>
       <c r="G206" t="n">
-        <v>1.903764549837431e-05</v>
+        <v>17957412374324.7</v>
       </c>
       <c r="H206" t="n">
-        <v>77.77348749643264</v>
+        <v>3.263986995808184</v>
       </c>
       <c r="I206" t="n">
-        <v>5.15858218554771e-16</v>
+        <v>0.5146583714495505</v>
       </c>
       <c r="J206" t="n">
-        <v>19.44337187410816</v>
+        <v>0.815996748952046</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.363857</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002950702240346215</v>
+        <v>311444603637709.2</v>
       </c>
       <c r="C207" t="n">
-        <v>9.650131197623302e-05</v>
+        <v>170046493204403.6</v>
       </c>
       <c r="D207" t="n">
-        <v>6.25154093481312e-05</v>
+        <v>-107260797694636.8</v>
       </c>
       <c r="E207" t="n">
-        <v>7.309202468070481e-06</v>
+        <v>7626066354675.086</v>
       </c>
       <c r="F207" t="n">
-        <v>1.504536404545038e-05</v>
+        <v>12382945277572.23</v>
       </c>
       <c r="G207" t="n">
-        <v>1.861928727734631e-05</v>
+        <v>17655802241698.11</v>
       </c>
       <c r="H207" t="n">
-        <v>93.86803333509272</v>
+        <v>4.52505325220472</v>
       </c>
       <c r="I207" t="n">
-        <v>1.983624073421608e-19</v>
+        <v>0.3395871403778348</v>
       </c>
       <c r="J207" t="n">
-        <v>23.46700833377318</v>
+        <v>1.13126331305118</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.366045</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002931769684049623</v>
+        <v>307931545876952.8</v>
       </c>
       <c r="C208" t="n">
-        <v>9.386313055616193e-05</v>
+        <v>163153733456737.5</v>
       </c>
       <c r="D208" t="n">
-        <v>5.327293381655619e-05</v>
+        <v>-107723291562297.2</v>
       </c>
       <c r="E208" t="n">
-        <v>7.363113535525948e-06</v>
+        <v>7607926836712.587</v>
       </c>
       <c r="F208" t="n">
-        <v>1.49465805119691e-05</v>
+        <v>12459318073077.75</v>
       </c>
       <c r="G208" t="n">
-        <v>1.859661242564056e-05</v>
+        <v>17643702660311.47</v>
       </c>
       <c r="H208" t="n">
-        <v>92.44295875951551</v>
+        <v>2.95539132930834</v>
       </c>
       <c r="I208" t="n">
-        <v>3.98479651344118e-19</v>
+        <v>0.5653180963350626</v>
       </c>
       <c r="J208" t="n">
-        <v>23.11073968987888</v>
+        <v>0.7388478323270851</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368041000000001</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0002984201586435217</v>
+        <v>309875257046328.4</v>
       </c>
       <c r="C209" t="n">
-        <v>8.965026368011161e-05</v>
+        <v>151791844247277.8</v>
       </c>
       <c r="D209" t="n">
-        <v>4.720009591175023e-05</v>
+        <v>-101931856477396.4</v>
       </c>
       <c r="E209" t="n">
-        <v>6.906724884732946e-06</v>
+        <v>7211148045237.149</v>
       </c>
       <c r="F209" t="n">
-        <v>1.424575459417568e-05</v>
+        <v>11608536388907.21</v>
       </c>
       <c r="G209" t="n">
-        <v>1.767876965671701e-05</v>
+        <v>16704520247106.43</v>
       </c>
       <c r="H209" t="n">
-        <v>90.50125318279029</v>
+        <v>3.161036773479374</v>
       </c>
       <c r="I209" t="n">
-        <v>1.030434022224835e-18</v>
+        <v>0.5312470653020949</v>
       </c>
       <c r="J209" t="n">
-        <v>22.62531329569757</v>
+        <v>0.7902591933698434</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.369651</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002945166570296219</v>
+        <v>308594367830012.8</v>
       </c>
       <c r="C210" t="n">
-        <v>8.387116695111175e-05</v>
+        <v>155305383683573.7</v>
       </c>
       <c r="D210" t="n">
-        <v>4.969167894885876e-05</v>
+        <v>-111549681383693.6</v>
       </c>
       <c r="E210" t="n">
-        <v>7.208277667800971e-06</v>
+        <v>7488090372621.064</v>
       </c>
       <c r="F210" t="n">
-        <v>1.468888864102589e-05</v>
+        <v>12069746616287.07</v>
       </c>
       <c r="G210" t="n">
-        <v>1.817230752895469e-05</v>
+        <v>17216266322121.07</v>
       </c>
       <c r="H210" t="n">
-        <v>87.96080350382087</v>
+        <v>2.77835597211292</v>
       </c>
       <c r="I210" t="n">
-        <v>3.569254677777853e-18</v>
+        <v>0.5955746041635103</v>
       </c>
       <c r="J210" t="n">
-        <v>21.99020087595522</v>
+        <v>0.69458899302823</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.374804</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0002638030967230728</v>
+        <v>272928671000489.4</v>
       </c>
       <c r="C211" t="n">
-        <v>8.345389806042435e-05</v>
+        <v>136606945326108.9</v>
       </c>
       <c r="D211" t="n">
-        <v>5.066817951475692e-05</v>
+        <v>-79996526817109.62</v>
       </c>
       <c r="E211" t="n">
-        <v>5.911654591499153e-06</v>
+        <v>6211041274436.396</v>
       </c>
       <c r="F211" t="n">
-        <v>1.234724307210974e-05</v>
+        <v>10040610080243.33</v>
       </c>
       <c r="G211" t="n">
-        <v>1.528646651378141e-05</v>
+        <v>14490221965359.81</v>
       </c>
       <c r="H211" t="n">
-        <v>82.85183924120794</v>
+        <v>3.746146536529964</v>
       </c>
       <c r="I211" t="n">
-        <v>4.330947964785396e-17</v>
+        <v>0.4414497922520066</v>
       </c>
       <c r="J211" t="n">
-        <v>20.71295981030199</v>
+        <v>0.9365366341324911</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.380088</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0002291601237114955</v>
+        <v>230533361494989.8</v>
       </c>
       <c r="C212" t="n">
-        <v>7.091625537061486e-05</v>
+        <v>107826989219736.3</v>
       </c>
       <c r="D212" t="n">
-        <v>4.407957501909222e-05</v>
+        <v>-48982076509083.62</v>
       </c>
       <c r="E212" t="n">
-        <v>5.124383608670212e-06</v>
+        <v>5220363609223.763</v>
       </c>
       <c r="F212" t="n">
-        <v>1.050924051958704e-05</v>
+        <v>8732780115680.958</v>
       </c>
       <c r="G212" t="n">
-        <v>1.307861161033715e-05</v>
+        <v>12288648679684.65</v>
       </c>
       <c r="H212" t="n">
-        <v>59.78728621355114</v>
+        <v>4.023584764410109</v>
       </c>
       <c r="I212" t="n">
-        <v>3.215325019180028e-12</v>
+        <v>0.4028234087108547</v>
       </c>
       <c r="J212" t="n">
-        <v>14.94682155338779</v>
+        <v>1.005896191102527</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382924</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0002211969081337964</v>
+        <v>219574683084122.1</v>
       </c>
       <c r="C213" t="n">
-        <v>6.958562664942193e-05</v>
+        <v>99902294240546.94</v>
       </c>
       <c r="D213" t="n">
-        <v>4.231178910251001e-05</v>
+        <v>-37603487140758.88</v>
       </c>
       <c r="E213" t="n">
-        <v>4.862354018823293e-06</v>
+        <v>4899794479300.226</v>
       </c>
       <c r="F213" t="n">
-        <v>9.927262055798075e-06</v>
+        <v>8317350152878.096</v>
       </c>
       <c r="G213" t="n">
-        <v>1.239811678137803e-05</v>
+        <v>11608708923417.13</v>
       </c>
       <c r="H213" t="n">
-        <v>50.64159792954868</v>
+        <v>4.645021793678731</v>
       </c>
       <c r="I213" t="n">
-        <v>2.652258197082398e-10</v>
+        <v>0.3256962418251876</v>
       </c>
       <c r="J213" t="n">
-        <v>12.66039948238717</v>
+        <v>1.161255448419683</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.383343</v>
       </c>
       <c r="B214" t="n">
-        <v>0.000227360229047433</v>
+        <v>228374394097528.5</v>
       </c>
       <c r="C214" t="n">
-        <v>7.25757953186391e-05</v>
+        <v>107456943184803</v>
       </c>
       <c r="D214" t="n">
-        <v>4.578232689477239e-05</v>
+        <v>-45482716090644.69</v>
       </c>
       <c r="E214" t="n">
-        <v>4.956858549674886e-06</v>
+        <v>5074378338139.877</v>
       </c>
       <c r="F214" t="n">
-        <v>1.024388999228758e-05</v>
+        <v>8490581049418.97</v>
       </c>
       <c r="G214" t="n">
-        <v>1.274461330079217e-05</v>
+        <v>12003529411735.07</v>
       </c>
       <c r="H214" t="n">
-        <v>59.26562302503011</v>
+        <v>6.603094960259559</v>
       </c>
       <c r="I214" t="n">
-        <v>4.138284415451839e-12</v>
+        <v>0.158409370671604</v>
       </c>
       <c r="J214" t="n">
-        <v>14.81640575625753</v>
+        <v>1.65077374006489</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383858999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002214057502334439</v>
+        <v>219157653021867.8</v>
       </c>
       <c r="C215" t="n">
-        <v>7.13071394902898e-05</v>
+        <v>98762306769591.77</v>
       </c>
       <c r="D215" t="n">
-        <v>3.843433146262691e-05</v>
+        <v>-36045656883433.38</v>
       </c>
       <c r="E215" t="n">
-        <v>4.803372832235394e-06</v>
+        <v>4837362634157.591</v>
       </c>
       <c r="F215" t="n">
-        <v>9.7773539204044e-06</v>
+        <v>8216287589530.824</v>
       </c>
       <c r="G215" t="n">
-        <v>1.226633082563332e-05</v>
+        <v>11497756096752.17</v>
       </c>
       <c r="H215" t="n">
-        <v>47.71797606616281</v>
+        <v>4.557470049793547</v>
       </c>
       <c r="I215" t="n">
-        <v>1.080579187906353e-09</v>
+        <v>0.3357873050891326</v>
       </c>
       <c r="J215" t="n">
-        <v>11.9294940165407</v>
+        <v>1.139367512448387</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.385955</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002168142004232977</v>
+        <v>215642280729371.4</v>
       </c>
       <c r="C216" t="n">
-        <v>6.542928838405219e-05</v>
+        <v>94066645989237.97</v>
       </c>
       <c r="D216" t="n">
-        <v>3.585642727897855e-05</v>
+        <v>-38397141476433.69</v>
       </c>
       <c r="E216" t="n">
-        <v>4.693752318716369e-06</v>
+        <v>4749400273335.204</v>
       </c>
       <c r="F216" t="n">
-        <v>9.557339974290338e-06</v>
+        <v>8014453385689.317</v>
       </c>
       <c r="G216" t="n">
-        <v>1.194904478824483e-05</v>
+        <v>11229441890599.44</v>
       </c>
       <c r="H216" t="n">
-        <v>49.95230931380096</v>
+        <v>4.010227891482302</v>
       </c>
       <c r="I216" t="n">
-        <v>3.694610963810386e-10</v>
+        <v>0.4046234247893263</v>
       </c>
       <c r="J216" t="n">
-        <v>12.48807732845024</v>
+        <v>1.002556972870575</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.389858</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0002156714019026727</v>
+        <v>213598711075939.9</v>
       </c>
       <c r="C217" t="n">
-        <v>6.356226261974885e-05</v>
+        <v>91880771814229.95</v>
       </c>
       <c r="D217" t="n">
-        <v>3.217447782978127e-05</v>
+        <v>-39127315859069.62</v>
       </c>
       <c r="E217" t="n">
-        <v>4.614373293066239e-06</v>
+        <v>4659081235072.589</v>
       </c>
       <c r="F217" t="n">
-        <v>9.418708683811377e-06</v>
+        <v>7841580523526.862</v>
       </c>
       <c r="G217" t="n">
-        <v>1.170087542870041e-05</v>
+        <v>10943273480295.36</v>
       </c>
       <c r="H217" t="n">
-        <v>48.85438066086627</v>
+        <v>2.067409242487711</v>
       </c>
       <c r="I217" t="n">
-        <v>6.261875158986318e-10</v>
+        <v>0.7233619535415032</v>
       </c>
       <c r="J217" t="n">
-        <v>12.21359516521657</v>
+        <v>0.5168523106219277</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.393084</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0002183739772607947</v>
+        <v>215682443617454.4</v>
       </c>
       <c r="C218" t="n">
-        <v>6.47169743056319e-05</v>
+        <v>94896088217627.77</v>
       </c>
       <c r="D218" t="n">
-        <v>5.338153002683402e-05</v>
+        <v>-27319716975139.88</v>
       </c>
       <c r="E218" t="n">
-        <v>4.670479706726835e-06</v>
+        <v>4720922928096.231</v>
       </c>
       <c r="F218" t="n">
-        <v>9.697983495333051e-06</v>
+        <v>8029022857566.65</v>
       </c>
       <c r="G218" t="n">
-        <v>1.205210945277933e-05</v>
+        <v>11257244560089.5</v>
       </c>
       <c r="H218" t="n">
-        <v>46.3408303841114</v>
+        <v>10.09653659012487</v>
       </c>
       <c r="I218" t="n">
-        <v>2.091706034505422e-09</v>
+        <v>0.03883255661352283</v>
       </c>
       <c r="J218" t="n">
-        <v>11.58520759602785</v>
+        <v>2.524134147531218</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.403415</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0002316434860189551</v>
+        <v>228080261795863.2</v>
       </c>
       <c r="C219" t="n">
-        <v>5.93021444463354e-05</v>
+        <v>92085305695357.66</v>
       </c>
       <c r="D219" t="n">
-        <v>4.654016941802841e-05</v>
+        <v>-33844505601430.56</v>
       </c>
       <c r="E219" t="n">
-        <v>4.958239007197553e-06</v>
+        <v>4992553211654.409</v>
       </c>
       <c r="F219" t="n">
-        <v>1.016989714978554e-05</v>
+        <v>8406772503013.865</v>
       </c>
       <c r="G219" t="n">
-        <v>1.264794322780769e-05</v>
+        <v>11809886947997.81</v>
       </c>
       <c r="H219" t="n">
-        <v>44.62332474849449</v>
+        <v>7.895423958552729</v>
       </c>
       <c r="I219" t="n">
-        <v>4.761473737916959e-09</v>
+        <v>0.0954849404107541</v>
       </c>
       <c r="J219" t="n">
-        <v>11.15583118712362</v>
+        <v>1.973855989638182</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.414078</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0002322648492670935</v>
+        <v>227267733282424.8</v>
       </c>
       <c r="C220" t="n">
-        <v>6.816839851049187e-05</v>
+        <v>95040034636068.86</v>
       </c>
       <c r="D220" t="n">
-        <v>4.702811846121567e-05</v>
+        <v>-24457832262662</v>
       </c>
       <c r="E220" t="n">
-        <v>4.987399649426189e-06</v>
+        <v>4971886007484.359</v>
       </c>
       <c r="F220" t="n">
-        <v>1.012567578718745e-05</v>
+        <v>8554623084234.924</v>
       </c>
       <c r="G220" t="n">
-        <v>1.275660451021458e-05</v>
+        <v>11920702318962.69</v>
       </c>
       <c r="H220" t="n">
-        <v>38.83029921523391</v>
+        <v>8.411194816902672</v>
       </c>
       <c r="I220" t="n">
-        <v>7.551969494174054e-08</v>
+        <v>0.07762521747738162</v>
       </c>
       <c r="J220" t="n">
-        <v>9.707574803808477</v>
+        <v>2.102798704225668</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.424364</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0002220424243221014</v>
+        <v>218124411103608.8</v>
       </c>
       <c r="C221" t="n">
-        <v>7.725399547445803e-05</v>
+        <v>102683970359411.2</v>
       </c>
       <c r="D221" t="n">
-        <v>5.161098010147432e-05</v>
+        <v>-20082799972136.06</v>
       </c>
       <c r="E221" t="n">
-        <v>4.775539161993276e-06</v>
+        <v>4774933373760.942</v>
       </c>
       <c r="F221" t="n">
-        <v>9.802370975606746e-06</v>
+        <v>8320993977376.294</v>
       </c>
       <c r="G221" t="n">
-        <v>1.236183987035684e-05</v>
+        <v>11590882028218.27</v>
       </c>
       <c r="H221" t="n">
-        <v>42.3785955332495</v>
+        <v>9.341531073326053</v>
       </c>
       <c r="I221" t="n">
-        <v>1.39235013964339e-08</v>
+        <v>0.0531072719047126</v>
       </c>
       <c r="J221" t="n">
-        <v>10.59464888331237</v>
+        <v>2.335382768331513</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.435405</v>
       </c>
       <c r="B222" t="n">
-        <v>0.0002281884621056504</v>
+        <v>228739338668577.5</v>
       </c>
       <c r="C222" t="n">
-        <v>8.663827053691762e-05</v>
+        <v>118014889692450</v>
       </c>
       <c r="D222" t="n">
-        <v>5.491448802928683e-05</v>
+        <v>-34539434845234.62</v>
       </c>
       <c r="E222" t="n">
-        <v>4.844873505797802e-06</v>
+        <v>4975119449465.432</v>
       </c>
       <c r="F222" t="n">
-        <v>1.018310722699995e-05</v>
+        <v>8489743477919.999</v>
       </c>
       <c r="G222" t="n">
-        <v>1.267176368162054e-05</v>
+        <v>11968279996718.92</v>
       </c>
       <c r="H222" t="n">
-        <v>56.65437846357885</v>
+        <v>5.020073844199213</v>
       </c>
       <c r="I222" t="n">
-        <v>1.461936368830409e-11</v>
+        <v>0.2852439883281742</v>
       </c>
       <c r="J222" t="n">
-        <v>14.16359461589471</v>
+        <v>1.255018461049803</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.439261</v>
       </c>
       <c r="B223" t="n">
-        <v>0.0002380721725744355</v>
+        <v>241053215313155.8</v>
       </c>
       <c r="C223" t="n">
-        <v>9.021034583904113e-05</v>
+        <v>128131541698875.1</v>
       </c>
       <c r="D223" t="n">
-        <v>6.479410949603747e-05</v>
+        <v>-41807126065888.38</v>
       </c>
       <c r="E223" t="n">
-        <v>5.080787255089398e-06</v>
+        <v>5284032334876.369</v>
       </c>
       <c r="F223" t="n">
-        <v>1.081983176992245e-05</v>
+        <v>8905724290662.096</v>
       </c>
       <c r="G223" t="n">
-        <v>1.342234180294945e-05</v>
+        <v>12708957912902.27</v>
       </c>
       <c r="H223" t="n">
-        <v>66.47106529873022</v>
+        <v>8.343101833876533</v>
       </c>
       <c r="I223" t="n">
-        <v>1.260284678334202e-13</v>
+        <v>0.0797883089639584</v>
       </c>
       <c r="J223" t="n">
-        <v>16.61776632468256</v>
+        <v>2.085775458469133</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/a1/a4/a1_a4Fit.xlsx
+++ b/legendre_out/DATA/a1/a4/a1_a4Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J223"/>
+  <dimension ref="A1:J221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7106 +415,7042 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.996021</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>26266158381009.4</v>
+        <v>3.000154242034687e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>15594924777457.83</v>
+        <v>1.78127227448675e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>-9168078963010.844</v>
+        <v>-1.047189720196451e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>637845187870.8157</v>
+        <v>7.285549416914637e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>1030664048146.343</v>
+        <v>1.1772376731729e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>1491907914830.28</v>
+        <v>1.704076324701968e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>4.68919308709349</v>
+        <v>4.689193176609835</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3206995831729136</v>
+        <v>0.3206995731106633</v>
       </c>
       <c r="J2" t="n">
-        <v>1.172298271773373</v>
+        <v>1.172298294152459</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.000967</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>24191172664421.75</v>
+        <v>2.763146714319384e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>16110506705175.2</v>
+        <v>1.840162701977008e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>-8471586214131.953</v>
+        <v>-9.676354217421298e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>636577961255.866</v>
+        <v>7.271074985798868e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>1071473479671.144</v>
+        <v>1.223850726972304e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>1508354519865.22</v>
+        <v>1.722861846932252e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>6.109067804797503</v>
+        <v>6.109067749713084</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1911497426129495</v>
+        <v>0.1911497465791668</v>
       </c>
       <c r="J3" t="n">
-        <v>1.527266951199376</v>
+        <v>1.527266937428271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>22563455968366.57</v>
+        <v>2.577226830385066e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>14012679512173.02</v>
+        <v>1.600546197708002e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-7643117535586.535</v>
+        <v>-8.730066719472177e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>610174425947.78</v>
+        <v>6.969490423322151e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>1050359320366.619</v>
+        <v>1.199733865754499e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>1445387021906.955</v>
+        <v>1.650939563403511e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>5.944169915522403</v>
+        <v>5.944170000135323</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2033566748671685</v>
+        <v>0.2033566684298083</v>
       </c>
       <c r="J4" t="n">
-        <v>1.486042478880601</v>
+        <v>1.486042500033831</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.006972</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>21265323787939.45</v>
+        <v>2.428952509867424e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>12959288478393.42</v>
+        <v>1.480226525267417e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>-6651287915793.867</v>
+        <v>-7.597186280157087e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>597132438357.9393</v>
+        <v>6.820523175158766e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>1023949379774.198</v>
+        <v>1.169568092989712e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>1409415742633.515</v>
+        <v>1.609852708888266e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>14.11455287031637</v>
+        <v>14.1145528264936</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006938283654961844</v>
+        <v>0.006938283788120915</v>
       </c>
       <c r="J5" t="n">
-        <v>3.528638217579093</v>
+        <v>3.5286382066234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.009086</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>20766728344636.64</v>
+        <v>2.372002301597441e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>13304966312198.48</v>
+        <v>1.519710286274038e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>-6107842098096.953</v>
+        <v>-6.976455464429317e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>628656392761.6399</v>
+        <v>7.180593818945264e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>1111476570816.989</v>
+        <v>1.269542772228561e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>1496632750472.272</v>
+        <v>1.709473091844523e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>7.374103833566413</v>
+        <v>7.374103835235544</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1173906377756931</v>
+        <v>0.1173906376986253</v>
       </c>
       <c r="J6" t="n">
-        <v>1.843525958391603</v>
+        <v>1.843525958808886</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.010032</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>20248107039059.88</v>
+        <v>2.312764710066394e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>14097910291527.68</v>
+        <v>1.610281367335447e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>-6222025515879.984</v>
+        <v>-7.106877224280631e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>622604260845.1572</v>
+        <v>7.111465593766218e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>1078974014155.541</v>
+        <v>1.232417935998823e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>1459452247224.175</v>
+        <v>1.667005044600267e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>8.513596899654106</v>
+        <v>8.513596864988441</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07447615528512951</v>
+        <v>0.07447615633044775</v>
       </c>
       <c r="J7" t="n">
-        <v>2.128399224913526</v>
+        <v>2.12839921624711</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>19774266087286.65</v>
+        <v>2.258641991980371e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>11968509689989.92</v>
+        <v>1.367058501383109e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>-5434246945247.848</v>
+        <v>-6.207066458210446e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>560460551829.4518</v>
+        <v>6.401652195156967e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>986388441219.6117</v>
+        <v>1.126665508379437e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>1341034945297.068</v>
+        <v>1.531747286500168e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>7.110241325508381</v>
+        <v>7.1102413586974</v>
       </c>
       <c r="I8" t="n">
-        <v>0.130175903120391</v>
+        <v>0.1301759014344223</v>
       </c>
       <c r="J8" t="n">
-        <v>1.777560331377095</v>
+        <v>1.77756033967435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.019108</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>16976557644514.62</v>
+        <v>1.939084151484123e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>11580340630552.58</v>
+        <v>1.322721331789946e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>-4247863896601.461</v>
+        <v>-4.851964464850711e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>489091337904.1931</v>
+        <v>5.586463879270433e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>865331912362.9106</v>
+        <v>9.883931905317586e-07</v>
       </c>
       <c r="G9" t="n">
-        <v>1176617622412.692</v>
+        <v>1.343947712743851e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>6.383803013977818</v>
+        <v>6.383802982123075</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1722605615521016</v>
+        <v>0.1722605636412457</v>
       </c>
       <c r="J9" t="n">
-        <v>1.595950753494455</v>
+        <v>1.595950745530769</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.019916</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>14464705429302.04</v>
+        <v>1.652177173379054e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>8291920648991.481</v>
+        <v>9.471137942255725e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>-3189010971048.762</v>
+        <v>-3.642529140702493e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>495285844229.1041</v>
+        <v>5.657218331053732e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>902029053927.4066</v>
+        <v>1.030309135787862e-06</v>
       </c>
       <c r="G10" t="n">
-        <v>1129042424266.938</v>
+        <v>1.289606715098436e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>9.317651560624114</v>
+        <v>9.317651388583711</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05363200027856841</v>
+        <v>0.05363200407674028</v>
       </c>
       <c r="J10" t="n">
-        <v>2.329412890156028</v>
+        <v>2.329412847145928</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.025044</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>10044051791058.37</v>
+        <v>1.147244456758692e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>5858077651133.119</v>
+        <v>6.691171295618998e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>-2055674346808.689</v>
+        <v>-2.348017567157525e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>394101267492.1676</v>
+        <v>4.501475137096457e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>728016271335.1106</v>
+        <v>8.315495074644358e-07</v>
       </c>
       <c r="G11" t="n">
-        <v>939800920687.5803</v>
+        <v>1.073452644870645e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>15.28754901870252</v>
+        <v>15.2875492315408</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004140514773603434</v>
+        <v>0.004140514383950021</v>
       </c>
       <c r="J11" t="n">
-        <v>3.821887254675631</v>
+        <v>3.821887307885199</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.029979</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>6109011034641.726</v>
+        <v>6.977790626549638e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>3680462616341.899</v>
+        <v>4.203871527543474e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>541940986497.4551</v>
+        <v>6.190119368030275e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>270024972504.8442</v>
+        <v>3.084259809642814e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>521008272185.4868</v>
+        <v>5.951023194591419e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>643146813079.704</v>
+        <v>7.34610524699497e-07</v>
       </c>
       <c r="H12" t="n">
-        <v>16.38632841066874</v>
+        <v>16.38632848719294</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002542254435409761</v>
+        <v>0.002542254348718668</v>
       </c>
       <c r="J12" t="n">
-        <v>4.096582102667186</v>
+        <v>4.096582121798236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.035141</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>4647027295333.852</v>
+        <v>5.307894078801236e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>2321558885710.988</v>
+        <v>2.651714283588003e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>-299828521708.5703</v>
+        <v>-3.424679822633889e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>240611430780.837</v>
+        <v>2.748294569379141e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>447417756956.9604</v>
+        <v>5.110462905575971e-07</v>
       </c>
       <c r="G13" t="n">
-        <v>559399992427.9794</v>
+        <v>6.389538339755037e-07</v>
       </c>
       <c r="H13" t="n">
-        <v>10.90955817271948</v>
+        <v>10.90955817410301</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02759948167591292</v>
+        <v>0.02759948165977852</v>
       </c>
       <c r="J13" t="n">
-        <v>2.727389543179871</v>
+        <v>2.727389543525752</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.269958</v>
+        <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>21618795169740.84</v>
+        <v>2.469326465206197e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>8620788649343.453</v>
+        <v>9.846775181506025e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>-13658228164136.73</v>
+        <v>-1.560060308383167e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>586174728185.1631</v>
+        <v>6.695362803015539e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>874082380942.0231</v>
+        <v>9.983880865610605e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>1271940202590.235</v>
+        <v>1.452826386349682e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>8.41479908372018</v>
+        <v>8.41479907156771</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07751227725757361</v>
+        <v>0.07751227763811147</v>
       </c>
       <c r="J14" t="n">
-        <v>2.103699770930045</v>
+        <v>2.103699767891928</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.290051</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>33918736766032.9</v>
+        <v>3.874241541531473e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>15569400117675.21</v>
+        <v>1.778356817413681e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>-15399407590277.81</v>
+        <v>-1.758940053932236e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>850306465309.0576</v>
+        <v>9.712309325528824e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>1312760223463.371</v>
+        <v>1.499451535318876e-06</v>
       </c>
       <c r="G15" t="n">
-        <v>1905383903243.669</v>
+        <v>2.176353891009622e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>7.477845928605587</v>
+        <v>7.477846057638707</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1126901708248887</v>
+        <v>0.1126901650886912</v>
       </c>
       <c r="J15" t="n">
-        <v>1.869461482151397</v>
+        <v>1.869461514409677</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291116000000001</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>45990738410900.34</v>
+        <v>5.253121026628386e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>22862817583456.45</v>
+        <v>2.611420301844196e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>-19015073008778.16</v>
+        <v>-2.171925985858655e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>1149837587182.299</v>
+        <v>1.313359214801878e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>1793705274542.299</v>
+        <v>2.048793132788536e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>2612057339859.323</v>
+        <v>2.983525339756514e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>8.279150399389405</v>
+        <v>8.279150399047822</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08187146433803183</v>
+        <v>0.08187146434929413</v>
       </c>
       <c r="J16" t="n">
-        <v>2.069787599847351</v>
+        <v>2.069787599761955</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.293189</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>43399166553208.2</v>
+        <v>4.957108371890544e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>20144864623615.75</v>
+        <v>2.300972230755846e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>-17954691764380.46</v>
+        <v>-2.050807879164091e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>1096887715874.037</v>
+        <v>1.252879194038493e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>1737301873207.769</v>
+        <v>1.984368446278934e-06</v>
       </c>
       <c r="G17" t="n">
-        <v>2479904720419.318</v>
+        <v>2.832578925950644e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>9.049663143703246</v>
+        <v>9.04966318196991</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05987005534383341</v>
+        <v>0.05987005440565888</v>
       </c>
       <c r="J17" t="n">
-        <v>2.262415785925811</v>
+        <v>2.262415795492478</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.294196</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>44016603835201.71</v>
+        <v>5.027632850608362e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>23369649217685.86</v>
+        <v>2.669311258064623e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>-22325596261964.89</v>
+        <v>-2.550058193820018e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>1146617295114.933</v>
+        <v>1.309680956108659e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>1804124633249.708</v>
+        <v>2.060694256928517e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>2586549981946.945</v>
+        <v>2.954390509391063e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>11.05360881555966</v>
+        <v>11.05360892951204</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02596808603212999</v>
+        <v>0.02596808477925766</v>
       </c>
       <c r="J18" t="n">
-        <v>2.763402203889916</v>
+        <v>2.76340223237801</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.295147</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>43650346301356.97</v>
+        <v>4.98579844617926e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>23163259055114.54</v>
+        <v>2.645737110964416e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>-22682269132490.56</v>
+        <v>-2.590797826026096e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>1157102585533.487</v>
+        <v>1.321657388487153e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>1796378428864.461</v>
+        <v>2.051846442340508e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>2595151754503.676</v>
+        <v>2.964215562855836e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>9.014027303814263</v>
+        <v>9.014027393514276</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06074981982436022</v>
+        <v>0.06074981759448679</v>
       </c>
       <c r="J19" t="n">
-        <v>2.253506825953566</v>
+        <v>2.253506848378569</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.296155000000001</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>43953372091471.19</v>
+        <v>5.020410439878777e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>22840582926123.03</v>
+        <v>2.608880626670756e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>-22780804677415.56</v>
+        <v>-2.602052676249217e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>1202402508469.496</v>
+        <v>1.373399540458392e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>1892904604666.797</v>
+        <v>2.162099877276497e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>2709083084947.945</v>
+        <v>3.09434938669874e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>9.759389804169865</v>
+        <v>9.759389879536954</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0446817548798877</v>
+        <v>0.04468175348249061</v>
       </c>
       <c r="J20" t="n">
-        <v>2.439847451042466</v>
+        <v>2.439847469884239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>47664665835574.34</v>
+        <v>5.44431916291678e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>25311680163019.71</v>
+        <v>2.891132518198322e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>-29488813240716.88</v>
+        <v>-3.368250004313073e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>1352328062816.611</v>
+        <v>1.544646428130132e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>2136905047431.337</v>
+        <v>2.440800305296366e-06</v>
       </c>
       <c r="G21" t="n">
-        <v>2995936788842.995</v>
+        <v>3.421997357410354e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>6.822894120893398</v>
+        <v>6.822894144579479</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1455487359910279</v>
+        <v>0.1455487346580308</v>
       </c>
       <c r="J21" t="n">
-        <v>1.70572353022335</v>
+        <v>1.70572353614487</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298083999999999</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>64880414477411.14</v>
+        <v>7.410724015313657e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>46762105666769.2</v>
+        <v>5.341227584172557e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>-70225134943585.39</v>
+        <v>-8.021204830749502e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>2196692339016.195</v>
+        <v>2.509090116165247e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>2993869847696.782</v>
+        <v>3.419636475462134e-06</v>
       </c>
       <c r="G22" t="n">
-        <v>4613680155273.851</v>
+        <v>5.269804548025242e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>5.16525423767044</v>
+        <v>5.165254280866831</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2707577537499413</v>
+        <v>0.2707577495343503</v>
       </c>
       <c r="J22" t="n">
-        <v>1.29131355941761</v>
+        <v>1.291313570216708</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299093</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>79425655008073.33</v>
+        <v>9.072100005241123e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>56480211276860.06</v>
+        <v>6.451242047780966e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>-96434058756043.11</v>
+        <v>-0.0001101482165858535</v>
       </c>
       <c r="E23" t="n">
-        <v>2869361501441.252</v>
+        <v>3.27742144954006e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>4201348054056.709</v>
+        <v>4.798833543475506e-06</v>
       </c>
       <c r="G23" t="n">
-        <v>6097763511235.007</v>
+        <v>6.964943565662214e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>3.275383528293586</v>
+        <v>3.275383508128299</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5128419549987994</v>
+        <v>0.5128419582092506</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8188458820733966</v>
+        <v>0.8188458770320748</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.301051999999999</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>97751461857009.98</v>
+        <v>0.0001116529714359026</v>
       </c>
       <c r="C24" t="n">
-        <v>73517829093810.69</v>
+        <v>8.397300579944625e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>-132822800239895.4</v>
+        <v>-0.0001517119032965833</v>
       </c>
       <c r="E24" t="n">
-        <v>3682868857642.334</v>
+        <v>4.20661995610511e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>4706615685477.576</v>
+        <v>5.375956694781085e-06</v>
       </c>
       <c r="G24" t="n">
-        <v>7458471664946.481</v>
+        <v>8.519161817909605e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>5.409395650582366</v>
+        <v>5.409395577776905</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2478092136954488</v>
+        <v>0.2478092202813828</v>
       </c>
       <c r="J24" t="n">
-        <v>1.352348912645591</v>
+        <v>1.352348894444226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.303098</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>103753901501705.4</v>
+        <v>0.0001185090348680956</v>
       </c>
       <c r="C25" t="n">
-        <v>71129010322963.78</v>
+        <v>8.124446642104332e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>-141423644295398.4</v>
+        <v>-0.0001615358975278831</v>
       </c>
       <c r="E25" t="n">
-        <v>3596591685085.876</v>
+        <v>4.10807307660879e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>4599656729369.942</v>
+        <v>5.253786811968713e-06</v>
       </c>
       <c r="G25" t="n">
-        <v>7197438402893.672</v>
+        <v>8.221006306282778e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7030075801171893</v>
+        <v>0.7030075736178883</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9509575078380748</v>
+        <v>0.9509575086418054</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1757518950292973</v>
+        <v>0.1757518934044721</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.305231</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>94896562590158.25</v>
+        <v>0.0001083920689375963</v>
       </c>
       <c r="C26" t="n">
-        <v>63319987880243.48</v>
+        <v>7.232490097256979e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>-126365408205432</v>
+        <v>-0.0001443361874331376</v>
       </c>
       <c r="E26" t="n">
-        <v>3550030885574.061</v>
+        <v>4.054890730576845e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>5153548637040.102</v>
+        <v>5.886449235305297e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>7337197751805.972</v>
+        <v>8.380641211534797e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>5.10885976699647</v>
+        <v>5.108859716040768</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2763090748426273</v>
+        <v>0.2763090799018289</v>
       </c>
       <c r="J26" t="n">
-        <v>1.277214941749117</v>
+        <v>1.277214929010192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>89120385087623.81</v>
+        <v>0.0001017944448485512</v>
       </c>
       <c r="C27" t="n">
-        <v>67798336875846.62</v>
+        <v>7.744012836766279e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>-122747926082904.3</v>
+        <v>-0.0001402042526700719</v>
       </c>
       <c r="E27" t="n">
-        <v>3453253147039.514</v>
+        <v>3.944349957990391e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>4306640237201.403</v>
+        <v>4.919099621782524e-06</v>
       </c>
       <c r="G27" t="n">
-        <v>6999387679764.408</v>
+        <v>7.994790225486291e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>6.4308024006554</v>
+        <v>6.430802415173222</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1692029445034632</v>
+        <v>0.1692029435666012</v>
       </c>
       <c r="J27" t="n">
-        <v>1.60770060016385</v>
+        <v>1.607700603793305</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.309297</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>90785489416900.84</v>
+        <v>0.0001036963484720066</v>
       </c>
       <c r="C28" t="n">
-        <v>65455495723080.95</v>
+        <v>7.476410535063496e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>-126816709154293</v>
+        <v>-0.0001448516690045284</v>
       </c>
       <c r="E28" t="n">
-        <v>3511832622073.659</v>
+        <v>4.011260185567302e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>4833864737196.134</v>
+        <v>5.521302190246276e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>7179526112820.394</v>
+        <v>8.200546646983089e-06</v>
       </c>
       <c r="H28" t="n">
-        <v>2.275159305398003</v>
+        <v>2.275159315379479</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6852952805240224</v>
+        <v>0.6852952787038942</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5687898263495008</v>
+        <v>0.5687898288448698</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.309961</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>91915085337109.23</v>
+        <v>0.0001049865874526784</v>
       </c>
       <c r="C29" t="n">
-        <v>66877558792299.98</v>
+        <v>7.638840399749407e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>-121536845016994.2</v>
+        <v>-0.0001388209406816949</v>
       </c>
       <c r="E29" t="n">
-        <v>3374118892826.108</v>
+        <v>3.853961803306445e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>4579276669600.724</v>
+        <v>5.230508445757743e-06</v>
       </c>
       <c r="G29" t="n">
-        <v>6974735913405.22</v>
+        <v>7.966632668291647e-06</v>
       </c>
       <c r="H29" t="n">
-        <v>4.95595019667503</v>
+        <v>4.955950205951513</v>
       </c>
       <c r="I29" t="n">
-        <v>0.291847217263306</v>
+        <v>0.2918472162988566</v>
       </c>
       <c r="J29" t="n">
-        <v>1.238987549168757</v>
+        <v>1.238987551487878</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.311172</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>88475128631953.34</v>
+        <v>0.0001010574246729614</v>
       </c>
       <c r="C30" t="n">
-        <v>63479587614937.45</v>
+        <v>7.250719771413519e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>-122856174328895.7</v>
+        <v>-0.0001403278951806152</v>
       </c>
       <c r="E30" t="n">
-        <v>3261090635643.677</v>
+        <v>3.724859478181301e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>4140442304569.833</v>
+        <v>4.729266215262623e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>6471446409813.293</v>
+        <v>7.391768948029357e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>2.369238052690471</v>
+        <v>2.369238068274734</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6681934365759237</v>
+        <v>0.6681934337525948</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5923095131726177</v>
+        <v>0.5923095170686836</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.313105999999999</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>83904885399193.59</v>
+        <v>9.583723437422295e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>57681442040683.72</v>
+        <v>6.588448164533328e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>-122055020051951</v>
+        <v>-0.0001394128066311931</v>
       </c>
       <c r="E31" t="n">
-        <v>3224449562428.536</v>
+        <v>3.683007574751136e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>4112479373063.152</v>
+        <v>4.697326595512357e-06</v>
       </c>
       <c r="G31" t="n">
-        <v>6286132474139.461</v>
+        <v>7.180100997965232e-06</v>
       </c>
       <c r="H31" t="n">
-        <v>2.164394656899612</v>
+        <v>2.16439463203139</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7055528603366732</v>
+        <v>0.7055528648962955</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5410986642249029</v>
+        <v>0.5410986580078475</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.315126</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>78389682250745.12</v>
+        <v>8.953769891951617e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>58640716182653.99</v>
+        <v>6.698017703514789e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>-117574003377667.8</v>
+        <v>-0.0001342945323580813</v>
       </c>
       <c r="E32" t="n">
-        <v>3153792885841.242</v>
+        <v>3.602302612447361e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>4192441125741.218</v>
+        <v>4.788659933248531e-06</v>
       </c>
       <c r="G32" t="n">
-        <v>6319315834149.208</v>
+        <v>7.218003450872108e-06</v>
       </c>
       <c r="H32" t="n">
-        <v>1.155970141804732</v>
+        <v>1.155970129488438</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8852932709223027</v>
+        <v>0.885293272919178</v>
       </c>
       <c r="J32" t="n">
-        <v>0.288992535451183</v>
+        <v>0.2889925323721095</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.317204</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>74714289456584.91</v>
+        <v>8.533961816792934e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>53195413329217.84</v>
+        <v>6.076048229913105e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>-110533148684955.1</v>
+        <v>-0.0001262523778859053</v>
       </c>
       <c r="E33" t="n">
-        <v>2936681814094.513</v>
+        <v>3.354315572364757e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>3552938737513.569</v>
+        <v>4.05821212174415e-06</v>
       </c>
       <c r="G33" t="n">
-        <v>5839264356690.542</v>
+        <v>6.669682521694345e-06</v>
       </c>
       <c r="H33" t="n">
-        <v>3.108381545095877</v>
+        <v>3.108381513784303</v>
       </c>
       <c r="I33" t="n">
-        <v>0.539854660899397</v>
+        <v>0.5398546660422341</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7770953862739692</v>
+        <v>0.7770953784460757</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.319168</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>69681436702301.15</v>
+        <v>7.959102923424123e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>49938208873351.53</v>
+        <v>5.70400615525231e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>-103300701907322.8</v>
+        <v>-0.0001179913843810736</v>
       </c>
       <c r="E34" t="n">
-        <v>2994845443063.104</v>
+        <v>3.420750810179524e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>3783706302068.638</v>
+        <v>4.32179778627774e-06</v>
       </c>
       <c r="G34" t="n">
-        <v>5857234747573.271</v>
+        <v>6.690208524586081e-06</v>
       </c>
       <c r="H34" t="n">
-        <v>3.942028115190016</v>
+        <v>3.942028253962383</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4139083404610636</v>
+        <v>0.4139083214081158</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9855070287975041</v>
+        <v>0.9855070634905957</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>68258209672294.24</v>
+        <v>7.796540098685737e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>49644617899945.33</v>
+        <v>5.670471815851145e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>-100660840379886.8</v>
+        <v>-0.0001149761005864912</v>
       </c>
       <c r="E35" t="n">
-        <v>2716774641999.327</v>
+        <v>3.103134779898495e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>3579069508813.841</v>
+        <v>4.088059018250399e-06</v>
       </c>
       <c r="G35" t="n">
-        <v>5443419192398.716</v>
+        <v>6.21754309487908e-06</v>
       </c>
       <c r="H35" t="n">
-        <v>1.666355671222297</v>
+        <v>1.666355738378213</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7968196972465339</v>
+        <v>0.7968196850861453</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4165889178055742</v>
+        <v>0.4165889345945532</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>61231806871199.2</v>
+        <v>6.993975397670115e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>39057285406879.66</v>
+        <v>4.461173157526952e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>-85684649576152.36</v>
+        <v>-9.787010415568138e-05</v>
       </c>
       <c r="E36" t="n">
-        <v>2471970215010.792</v>
+        <v>2.823516031379127e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>3631932828527.752</v>
+        <v>4.148440179234872e-06</v>
       </c>
       <c r="G36" t="n">
-        <v>5061832633088.405</v>
+        <v>5.781690044625634e-06</v>
       </c>
       <c r="H36" t="n">
-        <v>4.571146162658472</v>
+        <v>4.57114623108038</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3341945432919025</v>
+        <v>0.3341945353385813</v>
       </c>
       <c r="J36" t="n">
-        <v>1.142786540664618</v>
+        <v>1.142786557770095</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.325205</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>52532944398878.36</v>
+        <v>6.000380166294159e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>38979777226057.29</v>
+        <v>4.452320058247687e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>-73337229604779.42</v>
+        <v>-8.376672253026142e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>2054427650298.18</v>
+        <v>2.346593567094264e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>2609391024216.336</v>
+        <v>2.980479836790409e-06</v>
       </c>
       <c r="G37" t="n">
-        <v>4092319687666.155</v>
+        <v>4.674299945132738e-06</v>
       </c>
       <c r="H37" t="n">
-        <v>7.837532132340263</v>
+        <v>7.8375321086152</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09771420204495959</v>
+        <v>0.09771420296844117</v>
       </c>
       <c r="J37" t="n">
-        <v>1.959383033085066</v>
+        <v>1.9593830271538</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.327112000000001</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>44586813628827.88</v>
+        <v>5.092762941309818e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>33302475654197.03</v>
+        <v>3.803851410095422e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>-58167869810567.36</v>
+        <v>-6.644008569746241e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>1674680198352.057</v>
+        <v>1.912841166095105e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>1995451402406.111</v>
+        <v>2.279230140792795e-06</v>
       </c>
       <c r="G38" t="n">
-        <v>3296841617590.327</v>
+        <v>3.765694710098489e-06</v>
       </c>
       <c r="H38" t="n">
-        <v>8.81614391877638</v>
+        <v>8.816143924134098</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06586294317777706</v>
+        <v>0.06586294303396435</v>
       </c>
       <c r="J38" t="n">
-        <v>2.204035979694095</v>
+        <v>2.204035981033524</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.329078</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>37400269917423.16</v>
+        <v>4.27190671864446e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>26169132930601.29</v>
+        <v>2.989071872950149e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>-43425741161009.8</v>
+        <v>-4.960143757867757e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>1311761149416.767</v>
+        <v>1.498310381255116e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>1778027772829.765</v>
+        <v>2.030886089113228e-06</v>
       </c>
       <c r="G39" t="n">
-        <v>2709001459756.408</v>
+        <v>3.094256154400252e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>2.779858609430491</v>
+        <v>2.77985861165806</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5953144540573457</v>
+        <v>0.5953144536717296</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6949646523576228</v>
+        <v>0.6949646529145149</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.330119</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>42530150668850.78</v>
+        <v>4.85784826572358e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>31677938402696.83</v>
+        <v>3.618294685903901e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>-60851489805093.38</v>
+        <v>-6.950535078010568e-05</v>
       </c>
       <c r="E40" t="n">
-        <v>1645506877317.928</v>
+        <v>1.879519024396914e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>1931392468319.827</v>
+        <v>2.206061206348202e-06</v>
       </c>
       <c r="G40" t="n">
-        <v>3203622605791.497</v>
+        <v>3.659218759246458e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>2.452398261603091</v>
+        <v>2.452398285346072</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6531794197694272</v>
+        <v>0.6531794154983763</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6130995654007728</v>
+        <v>0.613099571336518</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.331189</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>31680503212700.05</v>
+        <v>3.618587641946012e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>16730061230868.25</v>
+        <v>1.910929015216261e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>-27381778577522.02</v>
+        <v>-3.127581813473949e-05</v>
       </c>
       <c r="E41" t="n">
-        <v>1136125064308.236</v>
+        <v>1.297696596297212e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>1793808600955.032</v>
+        <v>2.048911152386876e-06</v>
       </c>
       <c r="G41" t="n">
-        <v>2438722435508.659</v>
+        <v>2.785539991665528e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>3.586095541381074</v>
+        <v>3.586095569737085</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4649086333345466</v>
+        <v>0.4649086291030278</v>
       </c>
       <c r="J41" t="n">
-        <v>0.8965238853452684</v>
+        <v>0.8965238924342713</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.333242</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>32750291514590.95</v>
+        <v>3.74078023162222e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>15182288751110.92</v>
+        <v>1.734140460933441e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>-18707033744895.3</v>
+        <v>-2.136741350460375e-05</v>
       </c>
       <c r="E42" t="n">
-        <v>1004758312423.957</v>
+        <v>1.14764780879032e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>1655014711263.629</v>
+        <v>1.890378994229301e-06</v>
       </c>
       <c r="G42" t="n">
-        <v>2251035404029.061</v>
+        <v>2.571161459553252e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>9.747127361004337</v>
+        <v>9.747127275135419</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04490967043393174</v>
+        <v>0.04490967203382437</v>
       </c>
       <c r="J42" t="n">
-        <v>2.436781840251084</v>
+        <v>2.436781818783855</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.335151000000001</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>31304689055564.59</v>
+        <v>3.575661664910162e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>15327013871199.22</v>
+        <v>1.750671151666219e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>-17244071093798.6</v>
+        <v>-1.969639882640699e-05</v>
       </c>
       <c r="E43" t="n">
-        <v>908040559601.7465</v>
+        <v>1.037175554157505e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>1422789156747.101</v>
+        <v>1.625127992058587e-06</v>
       </c>
       <c r="G43" t="n">
-        <v>2018169723553.983</v>
+        <v>2.305179300579028e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>6.78826610076619</v>
+        <v>6.788266079905385</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1475094854897687</v>
+        <v>0.1475094866782071</v>
       </c>
       <c r="J43" t="n">
-        <v>1.697066525191548</v>
+        <v>1.697066519976346</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.340042</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>27823615981808.99</v>
+        <v>3.178049042586882e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>13182007405179.6</v>
+        <v>1.505665765259322e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>-11445944143159.98</v>
+        <v>-1.307370396177374e-05</v>
       </c>
       <c r="E44" t="n">
-        <v>789974772566.7579</v>
+        <v>9.023193006082339e-07</v>
       </c>
       <c r="F44" t="n">
-        <v>1291826501952.923</v>
+        <v>1.475540770512849e-06</v>
       </c>
       <c r="G44" t="n">
-        <v>1783756566389.54</v>
+        <v>2.037429590652424e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>12.32246730670546</v>
+        <v>12.32246712537029</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01510769006051141</v>
+        <v>0.01510769123901244</v>
       </c>
       <c r="J44" t="n">
-        <v>3.080616826676365</v>
+        <v>3.080616781342573</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.344876999999999</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>26275599943909.53</v>
+        <v>3.001232669975656e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>9701309493351.248</v>
+        <v>1.108095993073402e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>-9527940722736.383</v>
+        <v>-1.088293592315515e-05</v>
       </c>
       <c r="E45" t="n">
-        <v>751284542359.6008</v>
+        <v>8.581268239665896e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>1254028891860.546</v>
+        <v>1.432367858239155e-06</v>
       </c>
       <c r="G45" t="n">
-        <v>1699145154972.382</v>
+        <v>1.940785352806461e-06</v>
       </c>
       <c r="H45" t="n">
-        <v>6.385112772156774</v>
+        <v>6.385112748660653</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1721746824013108</v>
+        <v>0.1721746839415746</v>
       </c>
       <c r="J45" t="n">
-        <v>1.596278193039194</v>
+        <v>1.596278187165163</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.349976</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>25965085384570.65</v>
+        <v>2.965765299718466e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>9288648454805.387</v>
+        <v>1.060961320724015e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>-9808794381837.016</v>
+        <v>-1.120373054926892e-05</v>
       </c>
       <c r="E46" t="n">
-        <v>713608987576.998</v>
+        <v>8.150933225154343e-07</v>
       </c>
       <c r="F46" t="n">
-        <v>1183645965106.511</v>
+        <v>1.351975577955251e-06</v>
       </c>
       <c r="G46" t="n">
-        <v>1618277411223.652</v>
+        <v>1.848417179462124e-06</v>
       </c>
       <c r="H46" t="n">
-        <v>6.616487233920388</v>
+        <v>6.616487312114147</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1575971304754777</v>
+        <v>0.1575971257440999</v>
       </c>
       <c r="J46" t="n">
-        <v>1.654121808480097</v>
+        <v>1.654121828028537</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.370053</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>21343331708290.59</v>
+        <v>2.437862676138678e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>5775723475940.9</v>
+        <v>6.59710532576093e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>-6157590021602.641</v>
+        <v>-7.033278186473523e-06</v>
       </c>
       <c r="E47" t="n">
-        <v>626329798950.0082</v>
+        <v>7.154019161658189e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>1047730742441.405</v>
+        <v>1.196731469217325e-06</v>
       </c>
       <c r="G47" t="n">
-        <v>1384067727623.469</v>
+        <v>1.580899880537381e-06</v>
       </c>
       <c r="H47" t="n">
-        <v>16.6616948661203</v>
+        <v>16.66169466690484</v>
       </c>
       <c r="I47" t="n">
-        <v>0.002248433351549117</v>
+        <v>0.00224843355150821</v>
       </c>
       <c r="J47" t="n">
-        <v>4.165423716530074</v>
+        <v>4.165423666726211</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.390148</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>22135723898803.7</v>
+        <v>2.528370726576391e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>6356436517652.439</v>
+        <v>7.260403226170068e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>-7292123887028.406</v>
+        <v>-8.329157281843041e-06</v>
       </c>
       <c r="E48" t="n">
-        <v>651403327308.8427</v>
+        <v>7.440412201218811e-07</v>
       </c>
       <c r="F48" t="n">
-        <v>1087368022202.122</v>
+        <v>1.242005677154741e-06</v>
       </c>
       <c r="G48" t="n">
-        <v>1437685956241.865</v>
+        <v>1.642143305829614e-06</v>
       </c>
       <c r="H48" t="n">
-        <v>11.43787682978313</v>
+        <v>11.43787704620005</v>
       </c>
       <c r="I48" t="n">
-        <v>0.02205958126870018</v>
+        <v>0.02205957923693635</v>
       </c>
       <c r="J48" t="n">
-        <v>2.859469207445782</v>
+        <v>2.859469261550012</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.410025</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>24072557632542.03</v>
+        <v>2.74959835278975e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>5475093553438.861</v>
+        <v>6.253721976686344e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>-8565500875809.859</v>
+        <v>-9.783624772133874e-06</v>
       </c>
       <c r="E49" t="n">
-        <v>717481925753.469</v>
+        <v>8.195170429571394e-07</v>
       </c>
       <c r="F49" t="n">
-        <v>1222562456405.691</v>
+        <v>1.396426491599757e-06</v>
       </c>
       <c r="G49" t="n">
-        <v>1578659326802.779</v>
+        <v>1.803164895753692e-06</v>
       </c>
       <c r="H49" t="n">
-        <v>13.46356099210048</v>
+        <v>13.46356085566675</v>
       </c>
       <c r="I49" t="n">
-        <v>0.009219436834525379</v>
+        <v>0.009219437382104149</v>
       </c>
       <c r="J49" t="n">
-        <v>3.36589024802512</v>
+        <v>3.365890213916687</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.420244</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>24201031616936.32</v>
+        <v>2.764272818320678e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>7589224655537.275</v>
+        <v>8.668509550448093e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>-7202269146349.883</v>
+        <v>-8.226524055092872e-06</v>
       </c>
       <c r="E50" t="n">
-        <v>806266645597.2103</v>
+        <v>9.209280857412723e-07</v>
       </c>
       <c r="F50" t="n">
-        <v>1452926447599.571</v>
+        <v>1.659551191352295e-06</v>
       </c>
       <c r="G50" t="n">
-        <v>1815378702513.967</v>
+        <v>2.073548797997874e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>8.074423060471798</v>
+        <v>8.074423066414793</v>
       </c>
       <c r="I50" t="n">
-        <v>0.08888971196633143</v>
+        <v>0.08888971175463276</v>
       </c>
       <c r="J50" t="n">
-        <v>2.018605765117949</v>
+        <v>2.018605766603698</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.430182</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>24460642661313.77</v>
+        <v>2.793925924186295e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>8110723160222.963</v>
+        <v>9.26417183752225e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>-8570901119299.375</v>
+        <v>-9.78979299625213e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>789386664673.9561</v>
+        <v>9.016475562079493e-07</v>
       </c>
       <c r="F51" t="n">
-        <v>1344530075828.316</v>
+        <v>1.535739467231729e-06</v>
       </c>
       <c r="G51" t="n">
-        <v>1752961786072.079</v>
+        <v>2.002255396725181e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>5.417937867092319</v>
+        <v>5.417937823773166</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2470375298858309</v>
+        <v>0.2470375337939135</v>
       </c>
       <c r="J51" t="n">
-        <v>1.35448446677308</v>
+        <v>1.354484455943292</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.440043</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>20765235675026.76</v>
+        <v>2.371831807989177e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>9331475608987.701</v>
+        <v>1.065853091891562e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>-9480869606602.539</v>
+        <v>-1.082917064819612e-05</v>
       </c>
       <c r="E52" t="n">
-        <v>1097757221082.781</v>
+        <v>1.253872353640091e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>1918575911590.909</v>
+        <v>2.191421972815057e-06</v>
       </c>
       <c r="G52" t="n">
-        <v>2385349471253.463</v>
+        <v>2.724576707847103e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>7.903552469158397</v>
+        <v>7.903552564820004</v>
       </c>
       <c r="I52" t="n">
-        <v>0.09517576993246206</v>
+        <v>0.09517576629946205</v>
       </c>
       <c r="J52" t="n">
-        <v>1.975888117289599</v>
+        <v>1.975888141205001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.449945</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>21144930984846.16</v>
+        <v>2.415201092280286e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>12390078429559.97</v>
+        <v>1.415210618494234e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>-12610989769234.63</v>
+        <v>-1.440443397469707e-05</v>
       </c>
       <c r="E53" t="n">
-        <v>1224435708698.295</v>
+        <v>1.398566143748921e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>2035256423702.819</v>
+        <v>2.324695946148653e-06</v>
       </c>
       <c r="G53" t="n">
-        <v>2671539220697.718</v>
+        <v>3.051466304958194e-06</v>
       </c>
       <c r="H53" t="n">
-        <v>16.07305656889969</v>
+        <v>16.07305667233074</v>
       </c>
       <c r="I53" t="n">
-        <v>0.002922683075457926</v>
+        <v>0.002922682941036195</v>
       </c>
       <c r="J53" t="n">
-        <v>4.018264142224924</v>
+        <v>4.018264168082684</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.454988</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>13293513992177.11</v>
+        <v>1.518402191473265e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>6464833918354.234</v>
+        <v>7.384216079699815e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>-6564318138019.715</v>
+        <v>-7.497848267355446e-06</v>
       </c>
       <c r="E54" t="n">
-        <v>1927748763497.55</v>
+        <v>2.20189932052701e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>3728614779205.77</v>
+        <v>4.258871541558747e-06</v>
       </c>
       <c r="G54" t="n">
-        <v>4259459815999.132</v>
+        <v>4.86520953905749e-06</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8628263261835392</v>
+        <v>0.8628263272397417</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9298323472541765</v>
+        <v>0.9298323471061805</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2157065815458848</v>
+        <v>0.2157065818099354</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.460121</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>12813897500799.58</v>
+        <v>1.463619777656303e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>5965522408989.266</v>
+        <v>6.813896101269872e-06</v>
       </c>
       <c r="D55" t="n">
-        <v>-5463192266387.992</v>
+        <v>-6.24012816636639e-06</v>
       </c>
       <c r="E55" t="n">
-        <v>2632486609507.203</v>
+        <v>3.006859912806283e-06</v>
       </c>
       <c r="F55" t="n">
-        <v>4953955087120.723</v>
+        <v>5.658470933186011e-06</v>
       </c>
       <c r="G55" t="n">
-        <v>5420632851192.119</v>
+        <v>6.191516249463536e-06</v>
       </c>
       <c r="H55" t="n">
-        <v>1.002566066181873</v>
+        <v>1.002566061282605</v>
       </c>
       <c r="I55" t="n">
-        <v>0.909406640821765</v>
+        <v>0.9094066415656054</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2506415165454682</v>
+        <v>0.2506415153206513</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469957</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>13188004164549.96</v>
+        <v>1.506350723091026e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>8904676107248.812</v>
+        <v>1.017103504098023e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>-5120854935390.414</v>
+        <v>-5.849106093650295e-06</v>
       </c>
       <c r="E56" t="n">
-        <v>2030573169588.251</v>
+        <v>2.319346673634064e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>3379247694500.098</v>
+        <v>3.859819984366731e-06</v>
       </c>
       <c r="G56" t="n">
-        <v>4509427915117.561</v>
+        <v>5.150726303767389e-06</v>
       </c>
       <c r="H56" t="n">
-        <v>2.648793627112123</v>
+        <v>2.648793638581961</v>
       </c>
       <c r="I56" t="n">
-        <v>0.6182043311729872</v>
+        <v>0.6182043291529135</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6621984067780307</v>
+        <v>0.6621984096454903</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477981</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>18132921006272.68</v>
+        <v>2.071165454672651e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>16318990379873.05</v>
+        <v>1.863975974882565e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>-15829641240821.12</v>
+        <v>-1.808081891344023e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>2025635286164.452</v>
+        <v>2.31370656107185e-06</v>
       </c>
       <c r="F57" t="n">
-        <v>3247103708191.37</v>
+        <v>3.708883431030961e-06</v>
       </c>
       <c r="G57" t="n">
-        <v>4384062635501.97</v>
+        <v>5.007532476643321e-06</v>
       </c>
       <c r="H57" t="n">
-        <v>1.758726412043201</v>
+        <v>1.758726396234441</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7800242993587835</v>
+        <v>0.7800243022437017</v>
       </c>
       <c r="J57" t="n">
-        <v>0.4396816030108002</v>
+        <v>0.4396815990586103</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.486129</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>25238270521093.57</v>
+        <v>2.882747574461396e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>17043734294021.54</v>
+        <v>1.946757155043576e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>-13456707207227.66</v>
+        <v>-1.537042330495312e-05</v>
       </c>
       <c r="E58" t="n">
-        <v>1549431211082.299</v>
+        <v>1.769780168537662e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>2918823271573.145</v>
+        <v>3.333917315189551e-06</v>
       </c>
       <c r="G58" t="n">
-        <v>3591893559415.942</v>
+        <v>4.10270681388039e-06</v>
       </c>
       <c r="H58" t="n">
-        <v>3.921887270088443</v>
+        <v>3.921887237402301</v>
       </c>
       <c r="I58" t="n">
-        <v>0.4166804650052046</v>
+        <v>0.4166804695151552</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9804718175221108</v>
+        <v>0.9804718093505752</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.488189</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>28722343004801.16</v>
+        <v>3.280702793695272e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>17266073043785.48</v>
+        <v>1.972152971539514e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>-15735851488357.34</v>
+        <v>-1.797369107139642e-05</v>
       </c>
       <c r="E59" t="n">
-        <v>1484028924611.307</v>
+        <v>1.695076839217269e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>2648058980900.393</v>
+        <v>3.024646873374228e-06</v>
       </c>
       <c r="G59" t="n">
-        <v>3381833660681.927</v>
+        <v>3.862773708695494e-06</v>
       </c>
       <c r="H59" t="n">
-        <v>9.514713998961708</v>
+        <v>9.51471401620037</v>
       </c>
       <c r="I59" t="n">
-        <v>0.04944578390351102</v>
+        <v>0.04944578355134666</v>
       </c>
       <c r="J59" t="n">
-        <v>2.378678499740427</v>
+        <v>2.378678504050093</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490073000000001</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>27909070434898.67</v>
+        <v>3.187809760233196e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>18283684363450.82</v>
+        <v>2.088385836472324e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>-14860739423196.73</v>
+        <v>-1.697412686394097e-05</v>
       </c>
       <c r="E60" t="n">
-        <v>1495901138209.026</v>
+        <v>1.708637434456233e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>2624361543741.287</v>
+        <v>2.997579358126605e-06</v>
       </c>
       <c r="G60" t="n">
-        <v>3381391035055.506</v>
+        <v>3.862268137659494e-06</v>
       </c>
       <c r="H60" t="n">
-        <v>3.571088816427221</v>
+        <v>3.571088878133501</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4671517744808594</v>
+        <v>0.4671517652420089</v>
       </c>
       <c r="J60" t="n">
-        <v>0.8927722041068051</v>
+        <v>0.8927722195333752</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.492223</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>30317705705188.01</v>
+        <v>3.46292716489193e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>20319505026941.43</v>
+        <v>2.3209198805034e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>-16585386815961.98</v>
+        <v>-1.894404115384802e-05</v>
       </c>
       <c r="E61" t="n">
-        <v>1175095808235.376</v>
+        <v>1.342209479291025e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>1912361157813.505</v>
+        <v>2.1843234025972e-06</v>
       </c>
       <c r="G61" t="n">
-        <v>2606479091010.454</v>
+        <v>2.977153794299617e-06</v>
       </c>
       <c r="H61" t="n">
-        <v>10.32568701667275</v>
+        <v>10.32568697532788</v>
       </c>
       <c r="I61" t="n">
-        <v>0.03528472145164618</v>
+        <v>0.03528472206270934</v>
       </c>
       <c r="J61" t="n">
-        <v>2.581421754168187</v>
+        <v>2.581421743831971</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.494992</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>34137394104801.61</v>
+        <v>3.899216863487676e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>20898976095061.95</v>
+        <v>2.387107812799489e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>-17252982635078.84</v>
+        <v>-1.970657769418159e-05</v>
       </c>
       <c r="E62" t="n">
-        <v>1050238033155.724</v>
+        <v>1.199595329521268e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>1716814543789.089</v>
+        <v>1.960967553622447e-06</v>
       </c>
       <c r="G62" t="n">
-        <v>2403749434486.418</v>
+        <v>2.745593382297147e-06</v>
       </c>
       <c r="H62" t="n">
-        <v>14.29972150068848</v>
+        <v>14.29972158316559</v>
       </c>
       <c r="I62" t="n">
-        <v>0.006397423747663936</v>
+        <v>0.006397423516214584</v>
       </c>
       <c r="J62" t="n">
-        <v>3.574930375172119</v>
+        <v>3.574930395791398</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499972000000001</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>36785184099929.34</v>
+        <v>4.201650827796277e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>19801695876968.92</v>
+        <v>2.261775054059597e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>-18528599925534.18</v>
+        <v>-2.116360405329256e-05</v>
       </c>
       <c r="E63" t="n">
-        <v>1038503821553.5</v>
+        <v>1.18619236194368e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>1695219426083.653</v>
+        <v>1.936301333075153e-06</v>
       </c>
       <c r="G63" t="n">
-        <v>2351631999614.595</v>
+        <v>2.686064181081117e-06</v>
       </c>
       <c r="H63" t="n">
-        <v>6.519760809106519</v>
+        <v>6.519760796404402</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1635495430882473</v>
+        <v>0.163549543883124</v>
       </c>
       <c r="J63" t="n">
-        <v>1.62994020227663</v>
+        <v>1.6299401991011</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.510205</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>39880686291522.42</v>
+        <v>4.555223052345129e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>21797152386604.12</v>
+        <v>2.489698652210448e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>-19565473794299.55</v>
+        <v>-2.234793466111683e-05</v>
       </c>
       <c r="E64" t="n">
-        <v>1042117464282.988</v>
+        <v>1.19031990999692e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>1618677265191.053</v>
+        <v>1.848873896108612e-06</v>
       </c>
       <c r="G64" t="n">
-        <v>2382946521176.968</v>
+        <v>2.721832025063311e-06</v>
       </c>
       <c r="H64" t="n">
-        <v>10.6446413858343</v>
+        <v>10.64464124862144</v>
       </c>
       <c r="I64" t="n">
-        <v>0.03086185406691974</v>
+        <v>0.03086185584934518</v>
       </c>
       <c r="J64" t="n">
-        <v>2.661160346458576</v>
+        <v>2.66116031215536</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.512183</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>46815905840273.25</v>
+        <v>5.347372706062752e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>29853611666815.41</v>
+        <v>3.409917752286543e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>-32769301613015.27</v>
+        <v>-3.742951589215049e-05</v>
       </c>
       <c r="E65" t="n">
-        <v>1415867452449.821</v>
+        <v>1.617221932236465e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>2088106445028.36</v>
+        <v>2.385061916358301e-06</v>
       </c>
       <c r="G65" t="n">
-        <v>3091492978437.699</v>
+        <v>3.531142860789397e-06</v>
       </c>
       <c r="H65" t="n">
-        <v>14.63258589404269</v>
+        <v>14.63258594270019</v>
       </c>
       <c r="I65" t="n">
-        <v>0.005527186569242002</v>
+        <v>0.005527186450941878</v>
       </c>
       <c r="J65" t="n">
-        <v>3.658146473510673</v>
+        <v>3.658146485675047</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.515076000000001</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>47213491023708.02</v>
+        <v>5.392785399208004e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>33176093487568.43</v>
+        <v>3.789415875945753e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>-39422987548901.62</v>
+        <v>-4.502944117176925e-05</v>
       </c>
       <c r="E66" t="n">
-        <v>1995821424284.041</v>
+        <v>2.27965278641955e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>3272179911399.65</v>
+        <v>3.737525793717815e-06</v>
       </c>
       <c r="G66" t="n">
-        <v>4384747060810.799</v>
+        <v>5.008314237175772e-06</v>
       </c>
       <c r="H66" t="n">
-        <v>4.804303106972433</v>
+        <v>4.804303102287475</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3079728922198953</v>
+        <v>0.3079728927292671</v>
       </c>
       <c r="J66" t="n">
-        <v>1.201075776743108</v>
+        <v>1.201075775571869</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.520067</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>43091890702894.77</v>
+        <v>4.922010930009435e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>25834890659920.18</v>
+        <v>2.950894292434044e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>-39127337311436.3</v>
+        <v>-4.469174569964782e-05</v>
       </c>
       <c r="E67" t="n">
-        <v>2237031709826.94</v>
+        <v>2.555166262808162e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>3686087740543.895</v>
+        <v>4.210296613295181e-06</v>
       </c>
       <c r="G67" t="n">
-        <v>4789829473007.801</v>
+        <v>5.471004553801808e-06</v>
       </c>
       <c r="H67" t="n">
-        <v>3.987673424534838</v>
+        <v>3.987673457889779</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4076766407144584</v>
+        <v>0.4076766361864472</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9969183561337094</v>
+        <v>0.9969183644724448</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.525238</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>38355334457488.09</v>
+        <v>4.380995414284909e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>25661105640242.68</v>
+        <v>2.931044344799702e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>-39651514165228.07</v>
+        <v>-4.529046723329454e-05</v>
       </c>
       <c r="E68" t="n">
-        <v>2855722223555.88</v>
+        <v>3.261842490737283e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>4460076178687.977</v>
+        <v>5.094356121355658e-06</v>
       </c>
       <c r="G68" t="n">
-        <v>6087359257338.138</v>
+        <v>6.953059690359376e-06</v>
       </c>
       <c r="H68" t="n">
-        <v>5.713473533224891</v>
+        <v>5.71347350935728</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2215924626640925</v>
+        <v>0.2215924646228657</v>
       </c>
       <c r="J68" t="n">
-        <v>1.428368383306223</v>
+        <v>1.42836837733932</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529406</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>43059508247977.38</v>
+        <v>4.918312165210555e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>33009733325406.75</v>
+        <v>3.770414005640146e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>-49455262490128.98</v>
+        <v>-5.648843404150911e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>2500092295317.288</v>
+        <v>2.855637431718153e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>3665109416492.561</v>
+        <v>4.186334904628064e-06</v>
       </c>
       <c r="G69" t="n">
-        <v>5203166162709.435</v>
+        <v>5.943123013183674e-06</v>
       </c>
       <c r="H69" t="n">
-        <v>3.160347576566348</v>
+        <v>3.160347577353776</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5313591974000104</v>
+        <v>0.5313591972718883</v>
       </c>
       <c r="J69" t="n">
-        <v>0.7900868941415869</v>
+        <v>0.7900868943384439</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.535056</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>35582195812409.01</v>
+        <v>4.064243965274718e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>19415973312422.53</v>
+        <v>2.217717332990862e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>-48537038152228.17</v>
+        <v>-5.543962645454901e-05</v>
       </c>
       <c r="E70" t="n">
-        <v>3537671810318.671</v>
+        <v>4.040774039925789e-06</v>
       </c>
       <c r="F70" t="n">
-        <v>5127897865569.294</v>
+        <v>5.857150601790872e-06</v>
       </c>
       <c r="G70" t="n">
-        <v>6692293456655.763</v>
+        <v>7.644023273603432e-06</v>
       </c>
       <c r="H70" t="n">
-        <v>0.6640449218531308</v>
+        <v>0.6640449216776416</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9556877635984402</v>
+        <v>0.9556877636193425</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1660112304632827</v>
+        <v>0.1660112304194104</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.540236</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>27819627470600.64</v>
+        <v>3.177593472196273e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>17420344590645.34</v>
+        <v>1.989774061535426e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>-31238199934141.85</v>
+        <v>-3.568067191586322e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>4334850488085.862</v>
+        <v>4.951321733732732e-06</v>
       </c>
       <c r="F71" t="n">
-        <v>7931241909222.882</v>
+        <v>9.059166060119527e-06</v>
       </c>
       <c r="G71" t="n">
-        <v>10099478341168.27</v>
+        <v>1.153575348528383e-05</v>
       </c>
       <c r="H71" t="n">
-        <v>1.304177100177446</v>
+        <v>1.304177104533155</v>
       </c>
       <c r="I71" t="n">
-        <v>0.8606664270276837</v>
+        <v>0.8606664262878452</v>
       </c>
       <c r="J71" t="n">
-        <v>0.3260442750443616</v>
+        <v>0.3260442761332887</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.549804</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>36254477585079.62</v>
+        <v>4.141032848613948e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>17108328008585.68</v>
+        <v>1.954135130395888e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>-28773167925244.18</v>
+        <v>-3.286508078567445e-05</v>
       </c>
       <c r="E72" t="n">
-        <v>2354007380051.513</v>
+        <v>2.688777370941651e-06</v>
       </c>
       <c r="F72" t="n">
-        <v>4071554364618.163</v>
+        <v>4.650581528075464e-06</v>
       </c>
       <c r="G72" t="n">
-        <v>5088650121534.444</v>
+        <v>5.812321324922104e-06</v>
       </c>
       <c r="H72" t="n">
-        <v>3.223423479606766</v>
+        <v>3.223423513621692</v>
       </c>
       <c r="I72" t="n">
-        <v>0.5211559809418023</v>
+        <v>0.5211559754720283</v>
       </c>
       <c r="J72" t="n">
-        <v>0.8058558699016916</v>
+        <v>0.8058558784054229</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.560183</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>12343231138161.31</v>
+        <v>1.409859662756308e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>3073163421543.01</v>
+        <v>3.510206600504989e-06</v>
       </c>
       <c r="D73" t="n">
-        <v>-7065816514851.562</v>
+        <v>-8.070666067643828e-06</v>
       </c>
       <c r="E73" t="n">
-        <v>3220794947284.918</v>
+        <v>3.678833228451137e-06</v>
       </c>
       <c r="F73" t="n">
-        <v>5516140238184.179</v>
+        <v>6.300606010957321e-06</v>
       </c>
       <c r="G73" t="n">
-        <v>6337120364473.787</v>
+        <v>7.238340021101752e-06</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2426632432097807</v>
+        <v>0.2426632469926878</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9932084727005335</v>
+        <v>0.9932084724972622</v>
       </c>
       <c r="J73" t="n">
-        <v>0.06066581080244517</v>
+        <v>0.06066581174817194</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570129</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>9600974498579.336</v>
+        <v>1.096635600062079e-05</v>
       </c>
       <c r="C74" t="n">
-        <v>7631086530778.77</v>
+        <v>8.716324750471597e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>-7973003324661.58</v>
+        <v>-9.10686646251306e-06</v>
       </c>
       <c r="E74" t="n">
-        <v>3009031185963.858</v>
+        <v>3.436953949360833e-06</v>
       </c>
       <c r="F74" t="n">
-        <v>3615818058399.444</v>
+        <v>4.130033682779625e-06</v>
       </c>
       <c r="G74" t="n">
-        <v>6121171672349.672</v>
+        <v>6.991680662735681e-06</v>
       </c>
       <c r="H74" t="n">
-        <v>0.4303026282139161</v>
+        <v>0.4303026337520242</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9799216037321513</v>
+        <v>0.9799216032517144</v>
       </c>
       <c r="J74" t="n">
-        <v>0.107575657053479</v>
+        <v>0.1075756584380061</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580025</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>12662384292283.13</v>
+        <v>1.446313745654189e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>12175294692246.83</v>
+        <v>1.390677747508524e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>-10461279285737.32</v>
+        <v>-1.194900714673273e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>2533379705821.711</v>
+        <v>2.893658737716127e-06</v>
       </c>
       <c r="F75" t="n">
-        <v>3377353495404.925</v>
+        <v>3.857656406154682e-06</v>
       </c>
       <c r="G75" t="n">
-        <v>5317958601074.305</v>
+        <v>6.074240405685755e-06</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7424451817390589</v>
+        <v>0.7424451763452945</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9459932484611623</v>
+        <v>0.9459932491518417</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1856112954347647</v>
+        <v>0.1856112940863236</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.590082</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>31852558778474.14</v>
+        <v>3.638240047843436e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>25609850131893.76</v>
+        <v>2.925189873245097e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>-38656236511100.22</v>
+        <v>-4.415364834815778e-05</v>
       </c>
       <c r="E76" t="n">
-        <v>2275024905516.304</v>
+        <v>2.59856257691325e-06</v>
       </c>
       <c r="F76" t="n">
-        <v>3208752677392.511</v>
+        <v>3.665078392113118e-06</v>
       </c>
       <c r="G76" t="n">
-        <v>4735484608054.035</v>
+        <v>5.408931152145621e-06</v>
       </c>
       <c r="H76" t="n">
-        <v>2.326799098173335</v>
+        <v>2.326799098994877</v>
       </c>
       <c r="I76" t="n">
-        <v>0.6758942167371524</v>
+        <v>0.6758942165878485</v>
       </c>
       <c r="J76" t="n">
-        <v>0.5816997745433337</v>
+        <v>0.5816997747487194</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.600268</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>92390131433999.44</v>
+        <v>0.0001055291909995931</v>
       </c>
       <c r="C77" t="n">
-        <v>66860906734741.71</v>
+        <v>7.636938373653536e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>-132759150624856.6</v>
+        <v>-0.0001516392015690235</v>
       </c>
       <c r="E77" t="n">
-        <v>3847676713192.359</v>
+        <v>4.394865612711465e-06</v>
       </c>
       <c r="F77" t="n">
-        <v>5148079844316.438</v>
+        <v>5.880202718917386e-06</v>
       </c>
       <c r="G77" t="n">
-        <v>7817753701711.545</v>
+        <v>8.929538386835053e-06</v>
       </c>
       <c r="H77" t="n">
-        <v>4.138629065290568</v>
+        <v>4.138629040040159</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3875694287596317</v>
+        <v>0.3875694320585614</v>
       </c>
       <c r="J77" t="n">
-        <v>1.034657266322642</v>
+        <v>1.03465726001004</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.609989</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>269139872277540</v>
+        <v>0.0003074150082799202</v>
       </c>
       <c r="C78" t="n">
-        <v>195442002056381.2</v>
+        <v>0.0002232363572277013</v>
       </c>
       <c r="D78" t="n">
-        <v>-444829179335834.4</v>
+        <v>-0.0005080895844431361</v>
       </c>
       <c r="E78" t="n">
-        <v>8914519061156.795</v>
+        <v>1.018227780932772e-05</v>
       </c>
       <c r="F78" t="n">
-        <v>7694976343734.022</v>
+        <v>8.789300507941939e-06</v>
       </c>
       <c r="G78" t="n">
-        <v>16077556228102.54</v>
+        <v>1.83639905770201e-05</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2723891207445601</v>
+        <v>0.2723891123307349</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9915261206358454</v>
+        <v>0.9915261211358508</v>
       </c>
       <c r="J78" t="n">
-        <v>0.06809728018614003</v>
+        <v>0.06809727808268372</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.620227</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>291398884604664</v>
+        <v>0.0003328395369877125</v>
       </c>
       <c r="C79" t="n">
-        <v>213658294735259.3</v>
+        <v>0.000244043239869812</v>
       </c>
       <c r="D79" t="n">
-        <v>-487964887065179.8</v>
+        <v>-0.0005573597417687919</v>
       </c>
       <c r="E79" t="n">
-        <v>10719632886682.46</v>
+        <v>1.22441019425499e-05</v>
       </c>
       <c r="F79" t="n">
-        <v>8044581808202.838</v>
+        <v>9.18862434786021e-06</v>
       </c>
       <c r="G79" t="n">
-        <v>19063657091418.12</v>
+        <v>2.177475322965343e-05</v>
       </c>
       <c r="H79" t="n">
-        <v>5.268067785031165</v>
+        <v>5.268067856337696</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2608810830246954</v>
+        <v>0.26088107628292</v>
       </c>
       <c r="J79" t="n">
-        <v>1.317016946257791</v>
+        <v>1.317016964084424</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.629939</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>227547837416513.8</v>
+        <v>0.0002599080535354469</v>
       </c>
       <c r="C80" t="n">
-        <v>160822575680143.7</v>
+        <v>0.0001836936050340845</v>
       </c>
       <c r="D80" t="n">
-        <v>-370848658349927.6</v>
+        <v>-0.0004235880859789653</v>
       </c>
       <c r="E80" t="n">
-        <v>7722041369624.391</v>
+        <v>8.82021452928127e-06</v>
       </c>
       <c r="F80" t="n">
-        <v>8532359092958.9</v>
+        <v>9.745769806799618e-06</v>
       </c>
       <c r="G80" t="n">
-        <v>14542889203895.86</v>
+        <v>1.661107426315533e-05</v>
       </c>
       <c r="H80" t="n">
-        <v>1.313036568369267</v>
+        <v>1.313036547718475</v>
       </c>
       <c r="I80" t="n">
-        <v>0.8591598346975906</v>
+        <v>0.8591598382134482</v>
       </c>
       <c r="J80" t="n">
-        <v>0.3282591420923168</v>
+        <v>0.3282591369296187</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.635173</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>119007706859428.9</v>
+        <v>0.0001359321265676764</v>
       </c>
       <c r="C81" t="n">
-        <v>82908068863727.91</v>
+        <v>9.469865781647284e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>-176714930533117</v>
+        <v>-0.000201846056333114</v>
       </c>
       <c r="E81" t="n">
-        <v>4512897085284.668</v>
+        <v>5.154688838582071e-06</v>
       </c>
       <c r="F81" t="n">
-        <v>5673754028024.184</v>
+        <v>6.48063450238754e-06</v>
       </c>
       <c r="G81" t="n">
-        <v>8956071061586.971</v>
+        <v>1.022973904973025e-05</v>
       </c>
       <c r="H81" t="n">
-        <v>3.019577628772548</v>
+        <v>3.019577652829612</v>
       </c>
       <c r="I81" t="n">
-        <v>0.5545544932342458</v>
+        <v>0.5545544892215535</v>
       </c>
       <c r="J81" t="n">
-        <v>0.7548944071931369</v>
+        <v>0.7548944132074029</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>106886109652453</v>
+        <v>0.0001220866831877324</v>
       </c>
       <c r="C82" t="n">
-        <v>68851203064996.62</v>
+        <v>7.864272583396907e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>-108593498818872.1</v>
+        <v>-0.0001240368851071332</v>
       </c>
       <c r="E82" t="n">
-        <v>3624663480878.352</v>
+        <v>4.140137044224441e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>5440404866130.676</v>
+        <v>6.214100100988021e-06</v>
       </c>
       <c r="G82" t="n">
-        <v>7828698953501.227</v>
+        <v>8.942040194270968e-06</v>
       </c>
       <c r="H82" t="n">
-        <v>7.925295730412619</v>
+        <v>7.925295830379003</v>
       </c>
       <c r="I82" t="n">
-        <v>0.09435335741445562</v>
+        <v>0.09435335364868938</v>
       </c>
       <c r="J82" t="n">
-        <v>1.981323932603155</v>
+        <v>1.981323957594751</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.649962</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>125988967449964.2</v>
+        <v>0.000143906211749224</v>
       </c>
       <c r="C83" t="n">
-        <v>83307626133719.41</v>
+        <v>9.51550371601005e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>-143637214769754.9</v>
+        <v>-0.0001640642658073228</v>
       </c>
       <c r="E83" t="n">
-        <v>3876536075727.723</v>
+        <v>4.427829134217341e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>4920624728673.227</v>
+        <v>5.620400567583935e-06</v>
       </c>
       <c r="G83" t="n">
-        <v>7942776273856.552</v>
+        <v>9.072340745565209e-06</v>
       </c>
       <c r="H83" t="n">
-        <v>8.788562571296733</v>
+        <v>8.788562727647818</v>
       </c>
       <c r="I83" t="n">
-        <v>0.06660724560979087</v>
+        <v>0.06660724136802561</v>
       </c>
       <c r="J83" t="n">
-        <v>2.197140642824183</v>
+        <v>2.197140681911955</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.670119000000001</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>134453954919108.1</v>
+        <v>0.0001535750290626236</v>
       </c>
       <c r="C84" t="n">
-        <v>66578058375357.78</v>
+        <v>7.604631099000005e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>-147166846974186.4</v>
+        <v>-0.0001680958573460923</v>
       </c>
       <c r="E84" t="n">
-        <v>3584790667986.802</v>
+        <v>4.094593804572978e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>4412009694886.427</v>
+        <v>5.039453968365323e-06</v>
       </c>
       <c r="G84" t="n">
-        <v>7096428976539.039</v>
+        <v>8.105632046332536e-06</v>
       </c>
       <c r="H84" t="n">
-        <v>1.570142281520243</v>
+        <v>1.570142204406052</v>
       </c>
       <c r="I84" t="n">
-        <v>0.8141481952079448</v>
+        <v>0.8141482090137346</v>
       </c>
       <c r="J84" t="n">
-        <v>0.3925355703800606</v>
+        <v>0.3925355511015129</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.680153</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>92917918481192.59</v>
+        <v>0.0001061320362073925</v>
       </c>
       <c r="C85" t="n">
-        <v>39626781281348.22</v>
+        <v>4.526221687679487e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>-81701178238115.03</v>
+        <v>-9.332013185081413e-05</v>
       </c>
       <c r="E85" t="n">
-        <v>2456205228635.405</v>
+        <v>2.805509060932127e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>3366642432496.555</v>
+        <v>3.845422093460719e-06</v>
       </c>
       <c r="G85" t="n">
-        <v>5049910593429.412</v>
+        <v>5.768072538190704e-06</v>
       </c>
       <c r="H85" t="n">
-        <v>2.694883203189089</v>
+        <v>2.694883240679274</v>
       </c>
       <c r="I85" t="n">
-        <v>0.6101102828161361</v>
+        <v>0.6101102762514936</v>
       </c>
       <c r="J85" t="n">
-        <v>0.6737208007972721</v>
+        <v>0.6737208101698186</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.689928</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>65314682917715.84</v>
+        <v>7.460326717705928e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>34775748535652.2</v>
+        <v>3.972130528081629e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>-55508289396832.94</v>
+        <v>-6.34022789994991e-05</v>
       </c>
       <c r="E86" t="n">
-        <v>1767458281258.596</v>
+        <v>2.018813479043713e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>2420326837675.674</v>
+        <v>2.764528305145578e-06</v>
       </c>
       <c r="G86" t="n">
-        <v>3743746922281.117</v>
+        <v>4.276155670075779e-06</v>
       </c>
       <c r="H86" t="n">
-        <v>5.266334413614686</v>
+        <v>5.266334395369102</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2610450111061989</v>
+        <v>0.2610450128321808</v>
       </c>
       <c r="J86" t="n">
-        <v>1.316583603403672</v>
+        <v>1.316583598842276</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>55322205459883.05</v>
+        <v>6.318973141465907e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>27597122396476.99</v>
+        <v>3.152178657078912e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>-35717856876775.39</v>
+        <v>-4.079739349691525e-05</v>
       </c>
       <c r="E87" t="n">
-        <v>1407518953613.911</v>
+        <v>1.607686170246328e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>2022244302412.251</v>
+        <v>2.309833335228881e-06</v>
       </c>
       <c r="G87" t="n">
-        <v>3084709053276.568</v>
+        <v>3.523394177733604e-06</v>
       </c>
       <c r="H87" t="n">
-        <v>6.726186382890593</v>
+        <v>6.726186481314826</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1510851131011251</v>
+        <v>0.1510851073700234</v>
       </c>
       <c r="J87" t="n">
-        <v>1.681546595722648</v>
+        <v>1.681546620328706</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.730004</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>60723837708381.62</v>
+        <v>6.935954500329951e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>31653688191288.05</v>
+        <v>3.615524800057752e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>-41227948036327.16</v>
+        <v>-4.70910903008632e-05</v>
       </c>
       <c r="E88" t="n">
-        <v>1593719572965.557</v>
+        <v>1.820366902272281e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>2322210358720.205</v>
+        <v>2.652458404357215e-06</v>
       </c>
       <c r="G88" t="n">
-        <v>3508701595417.025</v>
+        <v>4.007683885998064e-06</v>
       </c>
       <c r="H88" t="n">
-        <v>7.747416826247573</v>
+        <v>7.747416891841143</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1012813202857294</v>
+        <v>0.101281317645583</v>
       </c>
       <c r="J88" t="n">
-        <v>1.936854206561893</v>
+        <v>1.936854222960286</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.749999</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>98127926678940.06</v>
+        <v>0.0001120829744446205</v>
       </c>
       <c r="C89" t="n">
-        <v>52241140866409.89</v>
+        <v>5.967050011380181e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>-84275570203437.84</v>
+        <v>-9.62606356445485e-05</v>
       </c>
       <c r="E89" t="n">
-        <v>2514161206408.455</v>
+        <v>2.871707121414456e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>3251639065914.817</v>
+        <v>3.714063774385527e-06</v>
       </c>
       <c r="G89" t="n">
-        <v>5238416834588.038</v>
+        <v>5.983386781644465e-06</v>
       </c>
       <c r="H89" t="n">
-        <v>5.528786666898347</v>
+        <v>5.528786636118771</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2372106726897283</v>
+        <v>0.2372106753705733</v>
       </c>
       <c r="J89" t="n">
-        <v>1.382196666724587</v>
+        <v>1.382196659029693</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.755179</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>202515176685673.9</v>
+        <v>0.0002313154277874164</v>
       </c>
       <c r="C90" t="n">
-        <v>105712569713778.7</v>
+        <v>0.0001207462505928953</v>
       </c>
       <c r="D90" t="n">
-        <v>-217623526210324.6</v>
+        <v>-0.0002485723780130996</v>
       </c>
       <c r="E90" t="n">
-        <v>5145227632635.947</v>
+        <v>5.876944877643168e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>6015254570432.503</v>
+        <v>6.87070078865505e-06</v>
       </c>
       <c r="G90" t="n">
-        <v>10230568270168.52</v>
+        <v>1.168548606158212e-05</v>
       </c>
       <c r="H90" t="n">
-        <v>2.863922684812429</v>
+        <v>2.863922523380824</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5808496847157774</v>
+        <v>0.5808497123213625</v>
       </c>
       <c r="J90" t="n">
-        <v>0.7159806712031072</v>
+        <v>0.715980630845206</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.758876</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>206505042885893.8</v>
+        <v>0.0002358727040221707</v>
       </c>
       <c r="C91" t="n">
-        <v>107718962952494.1</v>
+        <v>0.0001230379789651499</v>
       </c>
       <c r="D91" t="n">
-        <v>-212622713426499.2</v>
+        <v>-0.0002428603855750514</v>
       </c>
       <c r="E91" t="n">
-        <v>5237686712676.402</v>
+        <v>5.982552825977417e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>6258793065549.43</v>
+        <v>7.148873578842411e-06</v>
       </c>
       <c r="G91" t="n">
-        <v>10506666032523.94</v>
+        <v>1.200084846799941e-05</v>
       </c>
       <c r="H91" t="n">
-        <v>2.916372191908654</v>
+        <v>2.916372299298958</v>
       </c>
       <c r="I91" t="n">
-        <v>0.5719164427614277</v>
+        <v>0.5719164245448892</v>
       </c>
       <c r="J91" t="n">
-        <v>0.7290930479771635</v>
+        <v>0.7290930748247395</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.770038</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>194486336756546.4</v>
+        <v>0.0002221447839952602</v>
       </c>
       <c r="C92" t="n">
-        <v>108280842179206.2</v>
+        <v>0.000123679764484696</v>
       </c>
       <c r="D92" t="n">
-        <v>-184259413806080.2</v>
+        <v>-0.000210463461671089</v>
       </c>
       <c r="E92" t="n">
-        <v>5040011524163.825</v>
+        <v>5.756765696507257e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>6225065350926.386</v>
+        <v>7.110349351626086e-06</v>
       </c>
       <c r="G92" t="n">
-        <v>10384741670085.26</v>
+        <v>1.186158490522376e-05</v>
       </c>
       <c r="H92" t="n">
-        <v>6.603028844996789</v>
+        <v>6.603028575762181</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1584133899716844</v>
+        <v>0.1584134063392696</v>
       </c>
       <c r="J92" t="n">
-        <v>1.650757211249197</v>
+        <v>1.650757143940545</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.775016</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>156627681669846.4</v>
+        <v>0.0001789021431545884</v>
       </c>
       <c r="C93" t="n">
-        <v>83197191123771.36</v>
+        <v>9.502889677999354e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>-124349698957116.9</v>
+        <v>-0.0001420338182063391</v>
       </c>
       <c r="E93" t="n">
-        <v>4337390856671.248</v>
+        <v>4.954223369203144e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>6132788483759.343</v>
+        <v>7.004949526785445e-06</v>
       </c>
       <c r="G93" t="n">
-        <v>9272691404997.799</v>
+        <v>1.059138683998827e-05</v>
       </c>
       <c r="H93" t="n">
-        <v>5.963579803938424</v>
+        <v>5.963579716586212</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2018847155387382</v>
+        <v>0.2018847221418105</v>
       </c>
       <c r="J93" t="n">
-        <v>1.490894950984606</v>
+        <v>1.490894929146553</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780179</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>110163786219579.7</v>
+        <v>0.0001258304871842469</v>
       </c>
       <c r="C94" t="n">
-        <v>66617065738154.05</v>
+        <v>7.609086544606901e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>-72278328107349.44</v>
+        <v>-8.255723196550394e-05</v>
       </c>
       <c r="E94" t="n">
-        <v>4145254321570.318</v>
+        <v>4.73476255467662e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>6850291467265.59</v>
+        <v>7.824490620748756e-06</v>
       </c>
       <c r="G94" t="n">
-        <v>9152466247667.01</v>
+        <v>1.045406412390692e-05</v>
       </c>
       <c r="H94" t="n">
-        <v>6.450315087641556</v>
+        <v>6.450315005214416</v>
       </c>
       <c r="I94" t="n">
-        <v>0.167947979186581</v>
+        <v>0.1679479844700973</v>
       </c>
       <c r="J94" t="n">
-        <v>1.612578771910389</v>
+        <v>1.612578751303604</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.790118</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>174354422563898</v>
+        <v>0.0001991498540119604</v>
       </c>
       <c r="C95" t="n">
-        <v>93623307180696.09</v>
+        <v>0.000106937740357909</v>
       </c>
       <c r="D95" t="n">
-        <v>-60997581507655.28</v>
+        <v>-6.967221888795491e-05</v>
       </c>
       <c r="E95" t="n">
-        <v>5288462702923.837</v>
+        <v>6.040549803137015e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>9129692886280.506</v>
+        <v>1.042805211403309e-05</v>
       </c>
       <c r="G95" t="n">
-        <v>12283946591138.97</v>
+        <v>1.403088107997689e-05</v>
       </c>
       <c r="H95" t="n">
-        <v>7.446023670842488</v>
+        <v>7.446023848338829</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1141131089621018</v>
+        <v>0.1141131009790249</v>
       </c>
       <c r="J95" t="n">
-        <v>1.861505917710622</v>
+        <v>1.861505962084707</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799915</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>363086166300180.8</v>
+        <v>0.0004147216682794244</v>
       </c>
       <c r="C96" t="n">
-        <v>188020426848766.7</v>
+        <v>0.0002147593391240341</v>
       </c>
       <c r="D96" t="n">
-        <v>-109561764934572.2</v>
+        <v>-0.0001251428507814906</v>
       </c>
       <c r="E96" t="n">
-        <v>8878432976537.084</v>
+        <v>1.014105982860041e-05</v>
       </c>
       <c r="F96" t="n">
-        <v>14741089031222.77</v>
+        <v>1.683746064371399e-05</v>
       </c>
       <c r="G96" t="n">
-        <v>20728686716462.7</v>
+        <v>2.367657139254321e-05</v>
       </c>
       <c r="H96" t="n">
-        <v>2.673831936342988</v>
+        <v>2.67383191988367</v>
       </c>
       <c r="I96" t="n">
-        <v>0.6138013911169995</v>
+        <v>0.6138013940068189</v>
       </c>
       <c r="J96" t="n">
-        <v>0.668457984085747</v>
+        <v>0.6684579799709176</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.810027</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>318179839832337.1</v>
+        <v>0.0003634290871641658</v>
       </c>
       <c r="C97" t="n">
-        <v>172956664161689.7</v>
+        <v>0.0001975533166211927</v>
       </c>
       <c r="D97" t="n">
-        <v>-84048791826140.44</v>
+        <v>-9.600160642033308e-05</v>
       </c>
       <c r="E97" t="n">
-        <v>7665644410328.023</v>
+        <v>8.755797193816334e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>12807034163475.39</v>
+        <v>1.462835839785289e-05</v>
       </c>
       <c r="G97" t="n">
-        <v>18106245034735.07</v>
+        <v>2.068118490201357e-05</v>
       </c>
       <c r="H97" t="n">
-        <v>4.624122878372254</v>
+        <v>4.624122947191724</v>
       </c>
       <c r="I97" t="n">
-        <v>0.3280823443178162</v>
+        <v>0.3280823364371093</v>
       </c>
       <c r="J97" t="n">
-        <v>1.156030719593063</v>
+        <v>1.156030736797931</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>210109843868751.6</v>
+        <v>0.0002399901539528359</v>
       </c>
       <c r="C98" t="n">
-        <v>117931200156504.8</v>
+        <v>0.0001347025268070479</v>
       </c>
       <c r="D98" t="n">
-        <v>-54375241995961.12</v>
+        <v>-6.210809786660941e-05</v>
       </c>
       <c r="E98" t="n">
-        <v>5004870565353.496</v>
+        <v>5.716627233746923e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>8404974636754.006</v>
+        <v>9.600269642401878e-06</v>
       </c>
       <c r="G98" t="n">
-        <v>11920838697981.01</v>
+        <v>1.361613457407674e-05</v>
       </c>
       <c r="H98" t="n">
-        <v>5.890828543305631</v>
+        <v>5.890828456068474</v>
       </c>
       <c r="I98" t="n">
-        <v>0.2074509586620095</v>
+        <v>0.2074509654172489</v>
       </c>
       <c r="J98" t="n">
-        <v>1.472707135826408</v>
+        <v>1.472707114017118</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>133782685824602.5</v>
+        <v>0.0001528082967493449</v>
       </c>
       <c r="C99" t="n">
-        <v>65927147479341.27</v>
+        <v>7.530283190826723e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>-24444005027614.5</v>
+        <v>-2.792025562801259e-05</v>
       </c>
       <c r="E99" t="n">
-        <v>3193186257757.161</v>
+        <v>3.647298229944277e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>5467725126200.554</v>
+        <v>6.245305650363016e-06</v>
       </c>
       <c r="G99" t="n">
-        <v>7611549494306.923</v>
+        <v>8.694009289469017e-06</v>
       </c>
       <c r="H99" t="n">
-        <v>8.600570405305472</v>
+        <v>8.60057034328654</v>
       </c>
       <c r="I99" t="n">
-        <v>0.07189672449280297</v>
+        <v>0.07189672630164823</v>
       </c>
       <c r="J99" t="n">
-        <v>2.150142601326368</v>
+        <v>2.150142585821635</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.820058</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>65833419523116.34</v>
+        <v>7.519577471931954e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>29383432614189.64</v>
+        <v>3.356213297935427e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>-7744659774696.594</v>
+        <v>-8.846049441917306e-06</v>
       </c>
       <c r="E100" t="n">
-        <v>1630595096623.772</v>
+        <v>1.862486597188414e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>2887615564177.834</v>
+        <v>3.298271470812044e-06</v>
       </c>
       <c r="G100" t="n">
-        <v>3899881740127.536</v>
+        <v>4.454494857829187e-06</v>
       </c>
       <c r="H100" t="n">
-        <v>9.109237111260919</v>
+        <v>9.109237188351095</v>
       </c>
       <c r="I100" t="n">
-        <v>0.05842632023339293</v>
+        <v>0.05842631838678226</v>
       </c>
       <c r="J100" t="n">
-        <v>2.27730927781523</v>
+        <v>2.277309297087774</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.829886</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>47609311865225.62</v>
+        <v>5.437996558735128e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>17152856416073.02</v>
+        <v>1.95922122540777e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>-6010472926050.82</v>
+        <v>-6.865239149234144e-06</v>
       </c>
       <c r="E101" t="n">
-        <v>1149577634111.447</v>
+        <v>1.313062293717529e-06</v>
       </c>
       <c r="F101" t="n">
-        <v>2021843719023.292</v>
+        <v>2.30937578476895e-06</v>
       </c>
       <c r="G101" t="n">
-        <v>2707448082495.988</v>
+        <v>3.09248186670815e-06</v>
       </c>
       <c r="H101" t="n">
-        <v>2.482959545808469</v>
+        <v>2.482959575173951</v>
       </c>
       <c r="I101" t="n">
-        <v>0.6476897279163398</v>
+        <v>0.6476897226491498</v>
       </c>
       <c r="J101" t="n">
-        <v>0.6207398864521172</v>
+        <v>0.6207398937934878</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>50183679931002.13</v>
+        <v>5.732044175378717e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>16719823594563.57</v>
+        <v>1.909759660142078e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>-10955627630493.88</v>
+        <v>-1.251365815937061e-05</v>
       </c>
       <c r="E102" t="n">
-        <v>1202626285192.208</v>
+        <v>1.373655142018551e-06</v>
       </c>
       <c r="F102" t="n">
-        <v>2006814994352.089</v>
+        <v>2.292209781225028e-06</v>
       </c>
       <c r="G102" t="n">
-        <v>2740446648678.232</v>
+        <v>3.130173251310483e-06</v>
       </c>
       <c r="H102" t="n">
-        <v>8.845187615791938</v>
+        <v>8.845187620702331</v>
       </c>
       <c r="I102" t="n">
-        <v>0.06508770931631463</v>
+        <v>0.06508770918598142</v>
       </c>
       <c r="J102" t="n">
-        <v>2.211296903947984</v>
+        <v>2.211296905175583</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.866293</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>54335396176413.87</v>
+        <v>6.20625852228339e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>19507305817470.55</v>
+        <v>2.228149447251564e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>-14607067892849.52</v>
+        <v>-1.668437998916453e-05</v>
       </c>
       <c r="E103" t="n">
-        <v>1319781847723.254</v>
+        <v>1.507471724472597e-06</v>
       </c>
       <c r="F103" t="n">
-        <v>2163720597398.867</v>
+        <v>2.471429369346183e-06</v>
       </c>
       <c r="G103" t="n">
-        <v>3002899833002.986</v>
+        <v>3.429950636219261e-06</v>
       </c>
       <c r="H103" t="n">
-        <v>9.687516271077035</v>
+        <v>9.687516338519213</v>
       </c>
       <c r="I103" t="n">
-        <v>0.04603358550131367</v>
+        <v>0.04603358421464534</v>
       </c>
       <c r="J103" t="n">
-        <v>2.421879067769259</v>
+        <v>2.421879084629803</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.889892</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>57858938748166.46</v>
+        <v>6.608722063740619e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>23702492534281.69</v>
+        <v>2.707329046511022e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>-16486998988412.3</v>
+        <v>-1.883166132165705e-05</v>
       </c>
       <c r="E104" t="n">
-        <v>1360511168772.423</v>
+        <v>1.553993278016504e-06</v>
       </c>
       <c r="F104" t="n">
-        <v>2208578198737.949</v>
+        <v>2.52266629847274e-06</v>
       </c>
       <c r="G104" t="n">
-        <v>3160020270408.482</v>
+        <v>3.609415615396844e-06</v>
       </c>
       <c r="H104" t="n">
-        <v>9.139531548100377</v>
+        <v>9.139531584470948</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0577049239319978</v>
+        <v>0.0577049230710239</v>
       </c>
       <c r="J104" t="n">
-        <v>2.284882887025094</v>
+        <v>2.284882896117737</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.899914</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>61057716704406.78</v>
+        <v>6.974090580952666e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>25916767882894.89</v>
+        <v>2.96024641054358e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>-16856098553873.11</v>
+        <v>-1.925325159712548e-05</v>
       </c>
       <c r="E105" t="n">
-        <v>1572219481913.32</v>
+        <v>1.795809221782491e-06</v>
       </c>
       <c r="F105" t="n">
-        <v>2641868966991.459</v>
+        <v>3.017576560991101e-06</v>
       </c>
       <c r="G105" t="n">
-        <v>3638010643802.712</v>
+        <v>4.155382338178262e-06</v>
       </c>
       <c r="H105" t="n">
-        <v>5.482822038476684</v>
+        <v>5.482821977132676</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2412435677988668</v>
+        <v>0.241243573220581</v>
       </c>
       <c r="J105" t="n">
-        <v>1.370705509619171</v>
+        <v>1.370705494283169</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>61449588192247.84</v>
+        <v>7.01885064558694e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>30882342987464.43</v>
+        <v>3.527420755105353e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>-20494857282538.08</v>
+        <v>-2.340948839944546e-05</v>
       </c>
       <c r="E106" t="n">
-        <v>1563187839872.183</v>
+        <v>1.785493164885028e-06</v>
       </c>
       <c r="F106" t="n">
-        <v>2609341260056.063</v>
+        <v>2.980422996005753e-06</v>
       </c>
       <c r="G106" t="n">
-        <v>3631785967355.12</v>
+        <v>4.148272431623178e-06</v>
       </c>
       <c r="H106" t="n">
-        <v>5.741271979571223</v>
+        <v>5.741272018781061</v>
       </c>
       <c r="I106" t="n">
-        <v>0.219321375282432</v>
+        <v>0.2193213720935255</v>
       </c>
       <c r="J106" t="n">
-        <v>1.435317994892806</v>
+        <v>1.435318004695265</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.919957</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>61917655717140.34</v>
+        <v>7.072313915325942e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>26861738234555.62</v>
+        <v>3.068182135929651e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>-18740672789652.16</v>
+        <v>-2.140583644420333e-05</v>
       </c>
       <c r="E107" t="n">
-        <v>1687192360505.185</v>
+        <v>1.927132716331288e-06</v>
       </c>
       <c r="F107" t="n">
-        <v>2867532895611.211</v>
+        <v>3.275332787544674e-06</v>
       </c>
       <c r="G107" t="n">
-        <v>3862545892134.055</v>
+        <v>4.411849373939682e-06</v>
       </c>
       <c r="H107" t="n">
-        <v>4.720039823973563</v>
+        <v>4.720039808647024</v>
       </c>
       <c r="I107" t="n">
-        <v>0.317247512942635</v>
+        <v>0.317247514650235</v>
       </c>
       <c r="J107" t="n">
-        <v>1.180009955993391</v>
+        <v>1.180009952161756</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.926154</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>64949055897819.77</v>
+        <v>7.418564326925211e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>26264095600343.32</v>
+        <v>2.999918630011667e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>-21857498358409.19</v>
+        <v>-2.496591448656249e-05</v>
       </c>
       <c r="E108" t="n">
-        <v>1593485045194.434</v>
+        <v>1.82009902070515e-06</v>
       </c>
       <c r="F108" t="n">
-        <v>2585849183977.056</v>
+        <v>2.953590045064638e-06</v>
       </c>
       <c r="G108" t="n">
-        <v>3637155250804.398</v>
+        <v>4.154405295130658e-06</v>
       </c>
       <c r="H108" t="n">
-        <v>5.59961215443643</v>
+        <v>5.599612194333452</v>
       </c>
       <c r="I108" t="n">
-        <v>0.2311112589122442</v>
+        <v>0.2311112555152242</v>
       </c>
       <c r="J108" t="n">
-        <v>1.399903038609108</v>
+        <v>1.399903048583363</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930194999999999</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>66162455836313.59</v>
+        <v>7.557160424454405e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>32850920610108.29</v>
+        <v>3.752274213840487e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>-25807691761803.55</v>
+        <v>-2.947787603195564e-05</v>
       </c>
       <c r="E109" t="n">
-        <v>1731854204821.984</v>
+        <v>1.978146048270872e-06</v>
       </c>
       <c r="F109" t="n">
-        <v>2826933710285.617</v>
+        <v>3.228959879198324e-06</v>
       </c>
       <c r="G109" t="n">
-        <v>3985792347187.511</v>
+        <v>4.552623053538686e-06</v>
       </c>
       <c r="H109" t="n">
-        <v>5.693692123028895</v>
+        <v>5.693692220692489</v>
       </c>
       <c r="I109" t="n">
-        <v>0.2232211145417492</v>
+        <v>0.2232211064750261</v>
       </c>
       <c r="J109" t="n">
-        <v>1.423423030757224</v>
+        <v>1.423423055173122</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.936923</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>66667072113375.05</v>
+        <v>7.614798335586908e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>27365310292167.52</v>
+        <v>3.125700779526587e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>-24260758980407.98</v>
+        <v>-2.771094950896424e-05</v>
       </c>
       <c r="E110" t="n">
-        <v>1656131647734.897</v>
+        <v>1.891654773289404e-06</v>
       </c>
       <c r="F110" t="n">
-        <v>2652686126965.948</v>
+        <v>3.029932057723897e-06</v>
       </c>
       <c r="G110" t="n">
-        <v>3759752554421.252</v>
+        <v>4.294437508124062e-06</v>
       </c>
       <c r="H110" t="n">
-        <v>11.4819099632917</v>
+        <v>11.48190990795632</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0216499230657057</v>
+        <v>0.02164992357584874</v>
       </c>
       <c r="J110" t="n">
-        <v>2.870477490822924</v>
+        <v>2.870477476989079</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.946745</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>67307055867966.52</v>
+        <v>7.687898091953641e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>29423427788314.38</v>
+        <v>3.360781585365099e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>-31228716370500.09</v>
+        <v>-3.566983946313036e-05</v>
       </c>
       <c r="E111" t="n">
-        <v>1697159836610.07</v>
+        <v>1.938517694948631e-06</v>
       </c>
       <c r="F111" t="n">
-        <v>2676939955334.271</v>
+        <v>3.057635092366331e-06</v>
       </c>
       <c r="G111" t="n">
-        <v>3790204640083.441</v>
+        <v>4.329220269702424e-06</v>
       </c>
       <c r="H111" t="n">
-        <v>7.159227689380481</v>
+        <v>7.159227575633325</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1277092397406529</v>
+        <v>0.1277092454179315</v>
       </c>
       <c r="J111" t="n">
-        <v>1.78980692234512</v>
+        <v>1.789806893908331</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.950269</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>70022131118172.51</v>
+        <v>7.99801746524017e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>35199333279436.27</v>
+        <v>4.020512911751501e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>-35524158396210.06</v>
+        <v>-4.057614843327914e-05</v>
       </c>
       <c r="E112" t="n">
-        <v>1844781126390.622</v>
+        <v>2.107132623862344e-06</v>
       </c>
       <c r="F112" t="n">
-        <v>2871424644199.692</v>
+        <v>3.279777994148076e-06</v>
       </c>
       <c r="G112" t="n">
-        <v>4123977086204.628</v>
+        <v>4.710459432742741e-06</v>
       </c>
       <c r="H112" t="n">
-        <v>7.015941359910276</v>
+        <v>7.015941319598176</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1350481918198086</v>
+        <v>0.1350481939380189</v>
       </c>
       <c r="J112" t="n">
-        <v>1.753985339977569</v>
+        <v>1.753985329899544</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.956763</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>67239009933430.99</v>
+        <v>7.680125808677259e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>30639701307400.01</v>
+        <v>3.499705911844715e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>-32212316422495.98</v>
+        <v>-3.679332023748461e-05</v>
       </c>
       <c r="E113" t="n">
-        <v>1730016765907.478</v>
+        <v>1.976047301479071e-06</v>
       </c>
       <c r="F113" t="n">
-        <v>2665482511995.404</v>
+        <v>3.044548253552641e-06</v>
       </c>
       <c r="G113" t="n">
-        <v>3847076996239.68</v>
+        <v>4.394180602945048e-06</v>
       </c>
       <c r="H113" t="n">
-        <v>13.04395101192056</v>
+        <v>13.0439510563945</v>
       </c>
       <c r="I113" t="n">
-        <v>0.01106302621593182</v>
+        <v>0.01106302600262891</v>
       </c>
       <c r="J113" t="n">
-        <v>3.260987752980141</v>
+        <v>3.260987764098625</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>70101978391738.73</v>
+        <v>8.007137742112398e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>31872796318468.68</v>
+        <v>3.640551621488608e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>-34266065422675.58</v>
+        <v>-3.913913891167033e-05</v>
       </c>
       <c r="E114" t="n">
-        <v>1775960683354.312</v>
+        <v>2.028525032455187e-06</v>
       </c>
       <c r="F114" t="n">
-        <v>2756531783444.023</v>
+        <v>3.148545896796822e-06</v>
       </c>
       <c r="G114" t="n">
-        <v>3932887537627.616</v>
+        <v>4.492194501552017e-06</v>
       </c>
       <c r="H114" t="n">
-        <v>4.090577437188243</v>
+        <v>4.090577322174751</v>
       </c>
       <c r="I114" t="n">
-        <v>0.393886294232087</v>
+        <v>0.3938863094451204</v>
       </c>
       <c r="J114" t="n">
-        <v>1.022644359297061</v>
+        <v>1.022644330543688</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.964748</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>70113011848482.84</v>
+        <v>8.008397995429655e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>32308422718986.3</v>
+        <v>3.690309416787734e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>-35903951509094.75</v>
+        <v>-4.100995328975963e-05</v>
       </c>
       <c r="E115" t="n">
-        <v>1817434957622.541</v>
+        <v>2.075897479548432e-06</v>
       </c>
       <c r="F115" t="n">
-        <v>2815714674015.675</v>
+        <v>3.216145352815205e-06</v>
       </c>
       <c r="G115" t="n">
-        <v>4039158234245.795</v>
+        <v>4.613578252636231e-06</v>
       </c>
       <c r="H115" t="n">
-        <v>7.839688144122428</v>
+        <v>7.839688197636033</v>
       </c>
       <c r="I115" t="n">
-        <v>0.09763031446818639</v>
+        <v>0.09763031238687842</v>
       </c>
       <c r="J115" t="n">
-        <v>1.959922036030607</v>
+        <v>1.959922049409008</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.967875</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>71885839423705.08</v>
+        <v>8.21089261733579e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>35414421728345.94</v>
+        <v>4.045080587170454e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>-40613713761319.55</v>
+        <v>-4.6389503757416e-05</v>
       </c>
       <c r="E116" t="n">
-        <v>1869125982702.751</v>
+        <v>2.134939629262983e-06</v>
       </c>
       <c r="F116" t="n">
-        <v>2815282131784.233</v>
+        <v>3.215651296082818e-06</v>
       </c>
       <c r="G116" t="n">
-        <v>4096294769697.379</v>
+        <v>4.678840332910869e-06</v>
       </c>
       <c r="H116" t="n">
-        <v>6.911624803265767</v>
+        <v>6.911624822960139</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1406328057418564</v>
+        <v>0.1406328046678125</v>
       </c>
       <c r="J116" t="n">
-        <v>1.727906200816442</v>
+        <v>1.727906205740035</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.970043</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>76344233007719.36</v>
+        <v>8.720136042315918e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>36807206839499.02</v>
+        <v>4.204166287723195e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>-35682592217371.48</v>
+        <v>-4.075711360535273e-05</v>
       </c>
       <c r="E117" t="n">
-        <v>2024917199486.659</v>
+        <v>2.312886352203438e-06</v>
       </c>
       <c r="F117" t="n">
-        <v>3187842116227.248</v>
+        <v>3.641194083635964e-06</v>
       </c>
       <c r="G117" t="n">
-        <v>4556281031663.884</v>
+        <v>5.204242532397427e-06</v>
       </c>
       <c r="H117" t="n">
-        <v>7.012518361385403</v>
+        <v>7.012518286709338</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1352281642892172</v>
+        <v>0.1352281682178952</v>
       </c>
       <c r="J117" t="n">
-        <v>1.753129590346351</v>
+        <v>1.753129571677335</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>72043633085097.22</v>
+        <v>8.228916027800296e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>33982259543249.85</v>
+        <v>3.881497205676108e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>-35168633077718.14</v>
+        <v>-4.017006321101652e-05</v>
       </c>
       <c r="E118" t="n">
-        <v>1798823495355.813</v>
+        <v>2.05463922950975e-06</v>
       </c>
       <c r="F118" t="n">
-        <v>2759392346336.123</v>
+        <v>3.151813268202087e-06</v>
       </c>
       <c r="G118" t="n">
-        <v>4021128196387.663</v>
+        <v>4.59298411317303e-06</v>
       </c>
       <c r="H118" t="n">
-        <v>9.125871363770848</v>
+        <v>9.125871345206836</v>
       </c>
       <c r="I118" t="n">
-        <v>0.05802915556244292</v>
+        <v>0.05802915600424567</v>
       </c>
       <c r="J118" t="n">
-        <v>2.281467840942712</v>
+        <v>2.281467836301709</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.974629</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>73345883966094.16</v>
+        <v>8.377660771846928e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>35916641231696.17</v>
+        <v>4.10244474756957e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>-39962734413521.14</v>
+        <v>-4.56459468194491e-05</v>
       </c>
       <c r="E119" t="n">
-        <v>1902796098003.289</v>
+        <v>2.173398065632232e-06</v>
       </c>
       <c r="F119" t="n">
-        <v>2940265505751.594</v>
+        <v>3.358408908531724e-06</v>
       </c>
       <c r="G119" t="n">
-        <v>4242711938543.021</v>
+        <v>4.846079900134129e-06</v>
       </c>
       <c r="H119" t="n">
-        <v>4.470113568377509</v>
+        <v>4.47011352636156</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3461059616318575</v>
+        <v>0.3461059666552824</v>
       </c>
       <c r="J119" t="n">
-        <v>1.117528392094377</v>
+        <v>1.11752838159039</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.984706</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>74139906750650.97</v>
+        <v>8.468355078247249e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>35531302671467.87</v>
+        <v>4.058430890828584e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>-38352271658261.53</v>
+        <v>-4.380645579095036e-05</v>
       </c>
       <c r="E120" t="n">
-        <v>1868564168097.332</v>
+        <v>2.134297917434311e-06</v>
       </c>
       <c r="F120" t="n">
-        <v>2836904421683.581</v>
+        <v>3.240348554177617e-06</v>
       </c>
       <c r="G120" t="n">
-        <v>4140887826280.897</v>
+        <v>4.729775094777543e-06</v>
       </c>
       <c r="H120" t="n">
-        <v>9.273333317061358</v>
+        <v>9.273333225906429</v>
       </c>
       <c r="I120" t="n">
-        <v>0.05461898283240153</v>
+        <v>0.05461898488015323</v>
       </c>
       <c r="J120" t="n">
-        <v>2.318333329265339</v>
+        <v>2.318333306476607</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990074</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>79208680040917.94</v>
+        <v>9.047316852704549e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>40489197650389.69</v>
+        <v>4.624727987930047e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>-35472787353471.83</v>
+        <v>-4.051747203987673e-05</v>
       </c>
       <c r="E121" t="n">
-        <v>2040812105075.927</v>
+        <v>2.331041715872939e-06</v>
       </c>
       <c r="F121" t="n">
-        <v>3200331740929.969</v>
+        <v>3.655459891064915e-06</v>
       </c>
       <c r="G121" t="n">
-        <v>4648919071537.981</v>
+        <v>5.310054886670857e-06</v>
       </c>
       <c r="H121" t="n">
-        <v>10.29437295458788</v>
+        <v>10.29437287331706</v>
       </c>
       <c r="I121" t="n">
-        <v>0.03575046569405625</v>
+        <v>0.035750466910466</v>
       </c>
       <c r="J121" t="n">
-        <v>2.57359323864697</v>
+        <v>2.573593218329265</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>76353630909009.64</v>
+        <v>8.721209487429061e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>38790216357524.59</v>
+        <v>4.43066818463212e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>-37592010172909.2</v>
+        <v>-4.293807540200892e-05</v>
       </c>
       <c r="E122" t="n">
-        <v>1878384289369.392</v>
+        <v>2.145514584855104e-06</v>
       </c>
       <c r="F122" t="n">
-        <v>2870559279082.553</v>
+        <v>3.278789562245644e-06</v>
       </c>
       <c r="G122" t="n">
-        <v>4228732037192.708</v>
+        <v>4.830111875355824e-06</v>
       </c>
       <c r="H122" t="n">
-        <v>7.234913928236164</v>
+        <v>7.234913877741287</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1239827481052743</v>
+        <v>0.1239827505576054</v>
       </c>
       <c r="J122" t="n">
-        <v>1.808728482059041</v>
+        <v>1.808728469435322</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.004642</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>78473938683856.38</v>
+        <v>8.963393756427206e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>40490978572744.69</v>
+        <v>4.624931413247582e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>-41485010572228.45</v>
+        <v>-4.738471028476862e-05</v>
       </c>
       <c r="E123" t="n">
-        <v>1881779400477.989</v>
+        <v>2.149392526655107e-06</v>
       </c>
       <c r="F123" t="n">
-        <v>2758055540012.292</v>
+        <v>3.150286354206905e-06</v>
       </c>
       <c r="G123" t="n">
-        <v>4164649647623.131</v>
+        <v>4.756916153846033e-06</v>
       </c>
       <c r="H123" t="n">
-        <v>12.30428403036115</v>
+        <v>12.30428420088095</v>
       </c>
       <c r="I123" t="n">
-        <v>0.01522631465311364</v>
+        <v>0.01522631353643083</v>
       </c>
       <c r="J123" t="n">
-        <v>3.076071007590288</v>
+        <v>3.076071050220238</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>85252629735725.91</v>
+        <v>9.737664514887169e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>40395815829491.26</v>
+        <v>4.614061786445397e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>-35786526260829.72</v>
+        <v>-4.087582840052564e-05</v>
       </c>
       <c r="E124" t="n">
-        <v>2128995839881.997</v>
+        <v>2.431766309278849e-06</v>
       </c>
       <c r="F124" t="n">
-        <v>3362169068839.391</v>
+        <v>3.840312561117844e-06</v>
       </c>
       <c r="G124" t="n">
-        <v>4827573229372.131</v>
+        <v>5.514115957486883e-06</v>
       </c>
       <c r="H124" t="n">
-        <v>5.613733584263437</v>
+        <v>5.61373367691425</v>
       </c>
       <c r="I124" t="n">
-        <v>0.2299116198127691</v>
+        <v>0.229911611959793</v>
       </c>
       <c r="J124" t="n">
-        <v>1.403433396065859</v>
+        <v>1.403433419228562</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.014843</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>90928616797301.19</v>
+        <v>0.0001038598302544735</v>
       </c>
       <c r="C125" t="n">
-        <v>48065885224689.95</v>
+        <v>5.490146952537407e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>-47061360606569.97</v>
+        <v>-5.375408833491405e-05</v>
       </c>
       <c r="E125" t="n">
-        <v>2208128908762.361</v>
+        <v>2.522153113072709e-06</v>
       </c>
       <c r="F125" t="n">
-        <v>3304646433276.325</v>
+        <v>3.774609468673468e-06</v>
       </c>
       <c r="G125" t="n">
-        <v>4926962083007.816</v>
+        <v>5.627639176600156e-06</v>
       </c>
       <c r="H125" t="n">
-        <v>7.525842654850173</v>
+        <v>7.525842658400649</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1105751251757531</v>
+        <v>0.1105751250206696</v>
       </c>
       <c r="J125" t="n">
-        <v>1.881460663712543</v>
+        <v>1.881460664600162</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.017737</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>102941814116664.5</v>
+        <v>0.0001175814580627266</v>
       </c>
       <c r="C126" t="n">
-        <v>48141773046837.18</v>
+        <v>5.498814938368871e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>-53575417942019</v>
+        <v>-6.11945282990436e-05</v>
       </c>
       <c r="E126" t="n">
-        <v>2516096630583.18</v>
+        <v>2.873917788094132e-06</v>
       </c>
       <c r="F126" t="n">
-        <v>3787128910856.435</v>
+        <v>4.325707134955935e-06</v>
       </c>
       <c r="G126" t="n">
-        <v>5532001844680.632</v>
+        <v>6.318723340384998e-06</v>
       </c>
       <c r="H126" t="n">
-        <v>6.199808060730096</v>
+        <v>6.199808139540457</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1847151326513273</v>
+        <v>0.1847151271479366</v>
       </c>
       <c r="J126" t="n">
-        <v>1.549952015182524</v>
+        <v>1.549952034885114</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.017861</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>102154704251500.5</v>
+        <v>0.0001166824111796317</v>
       </c>
       <c r="C127" t="n">
-        <v>45579856228696.28</v>
+        <v>5.206189536226134e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>-53808453209817.56</v>
+        <v>-6.14607041771385e-05</v>
       </c>
       <c r="E127" t="n">
-        <v>2486568522367.775</v>
+        <v>2.84019040604755e-06</v>
       </c>
       <c r="F127" t="n">
-        <v>3730033216910.042</v>
+        <v>4.260491700901453e-06</v>
       </c>
       <c r="G127" t="n">
-        <v>5466768870724.812</v>
+        <v>6.244213403659279e-06</v>
       </c>
       <c r="H127" t="n">
-        <v>5.047057010243073</v>
+        <v>5.047056928498453</v>
       </c>
       <c r="I127" t="n">
-        <v>0.282503143402948</v>
+        <v>0.2825031516725175</v>
       </c>
       <c r="J127" t="n">
-        <v>1.261764252560768</v>
+        <v>1.261764232124613</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019822</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>126100432316192.5</v>
+        <v>0.0001440335284033769</v>
       </c>
       <c r="C128" t="n">
-        <v>55115587604333.27</v>
+        <v>6.295373011016931e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>-71255804386005.09</v>
+        <v>-8.138929244876401e-05</v>
       </c>
       <c r="E128" t="n">
-        <v>3147233660402.18</v>
+        <v>3.594810580187028e-06</v>
       </c>
       <c r="F128" t="n">
-        <v>4762766093531.149</v>
+        <v>5.440092412995102e-06</v>
       </c>
       <c r="G128" t="n">
-        <v>6879220587618.223</v>
+        <v>7.857533828552009e-06</v>
       </c>
       <c r="H128" t="n">
-        <v>1.241328877264282</v>
+        <v>1.241328706805453</v>
       </c>
       <c r="I128" t="n">
-        <v>0.8712483365552687</v>
+        <v>0.8712483649930175</v>
       </c>
       <c r="J128" t="n">
-        <v>0.3103322193160704</v>
+        <v>0.3103321767013633</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.024805000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>200163018126498.2</v>
+        <v>0.0002286287624292498</v>
       </c>
       <c r="C129" t="n">
-        <v>80562377590953.08</v>
+        <v>9.201937924198622e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>-91737358285414.81</v>
+        <v>-0.0001047835854487682</v>
       </c>
       <c r="E129" t="n">
-        <v>5062049808896.804</v>
+        <v>5.781938100958142e-06</v>
       </c>
       <c r="F129" t="n">
-        <v>7934759796889.862</v>
+        <v>9.063184234026263e-06</v>
       </c>
       <c r="G129" t="n">
-        <v>11147546066879.58</v>
+        <v>1.273286983062644e-05</v>
       </c>
       <c r="H129" t="n">
-        <v>3.414668937544363</v>
+        <v>3.414669020305363</v>
       </c>
       <c r="I129" t="n">
-        <v>0.4909711508684929</v>
+        <v>0.4909711380561544</v>
       </c>
       <c r="J129" t="n">
-        <v>0.8536672343860907</v>
+        <v>0.8536672550763407</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027826</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>273344300597728.9</v>
+        <v>0.0003122173600061873</v>
       </c>
       <c r="C130" t="n">
-        <v>111995841582852.8</v>
+        <v>0.000127923084226788</v>
       </c>
       <c r="D130" t="n">
-        <v>-106217602091447.9</v>
+        <v>-0.0001213231051572753</v>
       </c>
       <c r="E130" t="n">
-        <v>6710769796756.943</v>
+        <v>7.66512718550302e-06</v>
       </c>
       <c r="F130" t="n">
-        <v>10820484443770.71</v>
+        <v>1.235929587438576e-05</v>
       </c>
       <c r="G130" t="n">
-        <v>15087682860893.35</v>
+        <v>1.723334453860494e-05</v>
       </c>
       <c r="H130" t="n">
-        <v>0.9713979194700224</v>
+        <v>0.9713979346182124</v>
       </c>
       <c r="I130" t="n">
-        <v>0.914101541231659</v>
+        <v>0.9141015389682577</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2428494798675056</v>
+        <v>0.2428494836545531</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.030101</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>271773301566630.2</v>
+        <v>0.000310422944790086</v>
       </c>
       <c r="C131" t="n">
-        <v>110108490911453.7</v>
+        <v>0.0001257673278206566</v>
       </c>
       <c r="D131" t="n">
-        <v>-100479308080311.4</v>
+        <v>-0.0001147687521013878</v>
       </c>
       <c r="E131" t="n">
-        <v>6875251121330.899</v>
+        <v>7.85299986459225e-06</v>
       </c>
       <c r="F131" t="n">
-        <v>11122926942858.35</v>
+        <v>1.270474958194452e-05</v>
       </c>
       <c r="G131" t="n">
-        <v>15511067129244.67</v>
+        <v>1.771693949411587e-05</v>
       </c>
       <c r="H131" t="n">
-        <v>4.846360028719197</v>
+        <v>4.846359897130214</v>
       </c>
       <c r="I131" t="n">
-        <v>0.3034282616668983</v>
+        <v>0.3034282757988295</v>
       </c>
       <c r="J131" t="n">
-        <v>1.211590007179799</v>
+        <v>1.211589974282554</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032781</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>256771932338093.9</v>
+        <v>0.0002932881889689139</v>
       </c>
       <c r="C132" t="n">
-        <v>108842275888250.3</v>
+        <v>0.0001243210405633068</v>
       </c>
       <c r="D132" t="n">
-        <v>-109074979886325.1</v>
+        <v>-0.0001245868385268305</v>
       </c>
       <c r="E132" t="n">
-        <v>6402263529324.548</v>
+        <v>7.312747378355064e-06</v>
       </c>
       <c r="F132" t="n">
-        <v>10161238444848.01</v>
+        <v>1.160629666907268e-05</v>
       </c>
       <c r="G132" t="n">
-        <v>14281854018438.94</v>
+        <v>1.631291653015003e-05</v>
       </c>
       <c r="H132" t="n">
-        <v>3.180776163444049</v>
+        <v>3.180776103875569</v>
       </c>
       <c r="I132" t="n">
-        <v>0.5280415111665957</v>
+        <v>0.5280415208224981</v>
       </c>
       <c r="J132" t="n">
-        <v>0.7951940408610123</v>
+        <v>0.7951940259688923</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.035899</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>250643276361069.5</v>
+        <v>0.0002862879592234184</v>
       </c>
       <c r="C133" t="n">
-        <v>96591250144588.22</v>
+        <v>0.0001103277627268133</v>
       </c>
       <c r="D133" t="n">
-        <v>-92869376092509.19</v>
+        <v>-0.0001060765901390748</v>
       </c>
       <c r="E133" t="n">
-        <v>6254411077191.225</v>
+        <v>7.143868417275234e-06</v>
       </c>
       <c r="F133" t="n">
-        <v>10135053028125.14</v>
+        <v>1.157638733175281e-05</v>
       </c>
       <c r="G133" t="n">
-        <v>14117667481120.87</v>
+        <v>1.612538057878154e-05</v>
       </c>
       <c r="H133" t="n">
-        <v>3.045091327492187</v>
+        <v>3.045091324607966</v>
       </c>
       <c r="I133" t="n">
-        <v>0.5503080381958066</v>
+        <v>0.5503080386748069</v>
       </c>
       <c r="J133" t="n">
-        <v>0.7612728318730468</v>
+        <v>0.7612728311519915</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.038705999999999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>248224640496097.1</v>
+        <v>0.0002835253625906371</v>
       </c>
       <c r="C134" t="n">
-        <v>98692213429402</v>
+        <v>0.0001127275101020404</v>
       </c>
       <c r="D134" t="n">
-        <v>-98726351494713</v>
+        <v>-0.0001127665029561772</v>
       </c>
       <c r="E134" t="n">
-        <v>6242752677260.589</v>
+        <v>7.130552029279033e-06</v>
       </c>
       <c r="F134" t="n">
-        <v>10077396722879.2</v>
+        <v>1.151053155526624e-05</v>
       </c>
       <c r="G134" t="n">
-        <v>13973285229263.69</v>
+        <v>1.596046528532032e-05</v>
       </c>
       <c r="H134" t="n">
-        <v>1.492461917929504</v>
+        <v>1.492461926789381</v>
       </c>
       <c r="I134" t="n">
-        <v>0.827975899924081</v>
+        <v>0.8279758983566553</v>
       </c>
       <c r="J134" t="n">
-        <v>0.3731154794823759</v>
+        <v>0.3731154816973452</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041981</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>233716325556426.7</v>
+        <v>0.0002669537795698326</v>
       </c>
       <c r="C135" t="n">
-        <v>90934782859014.61</v>
+        <v>0.00010386687342228</v>
       </c>
       <c r="D135" t="n">
-        <v>-85803166614320.56</v>
+        <v>-9.800547530040642e-05</v>
       </c>
       <c r="E135" t="n">
-        <v>6071722679047.694</v>
+        <v>6.935199383973108e-06</v>
       </c>
       <c r="F135" t="n">
-        <v>10144083825156.96</v>
+        <v>1.158670241965166e-05</v>
       </c>
       <c r="G135" t="n">
-        <v>13706347046577.54</v>
+        <v>1.565556509131373e-05</v>
       </c>
       <c r="H135" t="n">
-        <v>0.7272322996515609</v>
+        <v>0.7272322690943941</v>
       </c>
       <c r="I135" t="n">
-        <v>0.9479286482745299</v>
+        <v>0.9479286521365077</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1818080749128902</v>
+        <v>0.1818080672735985</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.044789</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>210541372171224.8</v>
+        <v>0.000240483051049968</v>
       </c>
       <c r="C136" t="n">
-        <v>84716524027071.67</v>
+        <v>9.676429833327556e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>-73812788923199.69</v>
+        <v>-8.430991264170377e-05</v>
       </c>
       <c r="E136" t="n">
-        <v>5422777660557.12</v>
+        <v>6.193966074999816e-06</v>
       </c>
       <c r="F136" t="n">
-        <v>9027914660786.607</v>
+        <v>1.031179972965826e-05</v>
       </c>
       <c r="G136" t="n">
-        <v>12224005511991.01</v>
+        <v>1.396241560960709e-05</v>
       </c>
       <c r="H136" t="n">
-        <v>0.3437056974988377</v>
+        <v>0.3437057243270669</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9868208939102909</v>
+        <v>0.9868208919690296</v>
       </c>
       <c r="J136" t="n">
-        <v>0.08592642437470943</v>
+        <v>0.08592643108176673</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.049971</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>157342754263527.1</v>
+        <v>0.0001797189086259691</v>
       </c>
       <c r="C137" t="n">
-        <v>77095972207194.91</v>
+        <v>8.806000641749179e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>-51503201585526.62</v>
+        <v>-5.88276164218212e-05</v>
       </c>
       <c r="E137" t="n">
-        <v>4307195716438.867</v>
+        <v>4.919734102515735e-06</v>
       </c>
       <c r="F137" t="n">
-        <v>7217827956168.886</v>
+        <v>8.244295513278444e-06</v>
       </c>
       <c r="G137" t="n">
-        <v>9921433117126.352</v>
+        <v>1.133238796092627e-05</v>
       </c>
       <c r="H137" t="n">
-        <v>4.355829755019381</v>
+        <v>4.355829649505646</v>
       </c>
       <c r="I137" t="n">
-        <v>0.3599861952919523</v>
+        <v>0.3599862083075316</v>
       </c>
       <c r="J137" t="n">
-        <v>1.088957438754845</v>
+        <v>1.088957412376411</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.054843</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>113275618185340.5</v>
+        <v>0.0001293848613067862</v>
       </c>
       <c r="C138" t="n">
-        <v>54300907524728.02</v>
+        <v>6.202319188089785e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>-55649775581337.44</v>
+        <v>-6.356388592942451e-05</v>
       </c>
       <c r="E138" t="n">
-        <v>3126218549946.772</v>
+        <v>3.57080686085567e-06</v>
       </c>
       <c r="F138" t="n">
-        <v>4994970548141.128</v>
+        <v>5.705319317974223e-06</v>
       </c>
       <c r="G138" t="n">
-        <v>6991713377675.691</v>
+        <v>7.986024552466291e-06</v>
       </c>
       <c r="H138" t="n">
-        <v>4.308097867993028</v>
+        <v>4.308097887099051</v>
       </c>
       <c r="I138" t="n">
-        <v>0.3659121759940078</v>
+        <v>0.3659121736067225</v>
       </c>
       <c r="J138" t="n">
-        <v>1.077024466998257</v>
+        <v>1.077024471774763</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.064876</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>222607917658898.5</v>
+        <v>0.0002542656138601661</v>
       </c>
       <c r="C139" t="n">
-        <v>105292231339256.8</v>
+        <v>0.0001202661351035373</v>
       </c>
       <c r="D139" t="n">
-        <v>-112257817298678.9</v>
+        <v>-0.0001282223164382377</v>
       </c>
       <c r="E139" t="n">
-        <v>5303645065514.558</v>
+        <v>6.057891300810975e-06</v>
       </c>
       <c r="F139" t="n">
-        <v>7953535872642.508</v>
+        <v>9.084630502133096e-06</v>
       </c>
       <c r="G139" t="n">
-        <v>11708084408753.98</v>
+        <v>1.337312391433704e-05</v>
       </c>
       <c r="H139" t="n">
-        <v>1.514357754880254</v>
+        <v>1.514357865887735</v>
       </c>
       <c r="I139" t="n">
-        <v>0.8240951643946476</v>
+        <v>0.8240951446848512</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3785894387200636</v>
+        <v>0.3785894664719337</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.069912</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>216638936227737.2</v>
+        <v>0.0002474477667020884</v>
       </c>
       <c r="C140" t="n">
-        <v>107161411075920.8</v>
+        <v>0.0001224011359220137</v>
       </c>
       <c r="D140" t="n">
-        <v>-95246779926618.38</v>
+        <v>-0.0001087920919591654</v>
       </c>
       <c r="E140" t="n">
-        <v>5219384008900.141</v>
+        <v>5.961647234885174e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>7987753485789.751</v>
+        <v>9.123714298270688e-06</v>
       </c>
       <c r="G140" t="n">
-        <v>11817917009097.59</v>
+        <v>1.349857611397129e-05</v>
       </c>
       <c r="H140" t="n">
-        <v>9.586017907107649</v>
+        <v>9.586017956925451</v>
       </c>
       <c r="I140" t="n">
-        <v>0.04800946423924911</v>
+        <v>0.04800946324981823</v>
       </c>
       <c r="J140" t="n">
-        <v>2.396504476776912</v>
+        <v>2.396504489231363</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.074481</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>222775798213861.1</v>
+        <v>0.0002544573691264853</v>
       </c>
       <c r="C141" t="n">
-        <v>106039294598936.9</v>
+        <v>0.0001211194398616165</v>
       </c>
       <c r="D141" t="n">
-        <v>-121681666432317.1</v>
+        <v>-0.0001389863570627473</v>
       </c>
       <c r="E141" t="n">
-        <v>5178117046677.769</v>
+        <v>5.91451158670739e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>7503909075572.107</v>
+        <v>8.571061023698696e-06</v>
       </c>
       <c r="G141" t="n">
-        <v>11282241489083.11</v>
+        <v>1.288672069155067e-05</v>
       </c>
       <c r="H141" t="n">
-        <v>1.328003216644973</v>
+        <v>1.328003112365663</v>
       </c>
       <c r="I141" t="n">
-        <v>0.856606779516332</v>
+        <v>0.8566067973386853</v>
       </c>
       <c r="J141" t="n">
-        <v>0.3320008041612433</v>
+        <v>0.3320007780914156</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.084189</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>200732890933376.5</v>
+        <v>0.0002292796781555733</v>
       </c>
       <c r="C142" t="n">
-        <v>109936354303813.7</v>
+        <v>0.0001255707112968629</v>
       </c>
       <c r="D142" t="n">
-        <v>-128066448627331.6</v>
+        <v>-0.0001462791373266975</v>
       </c>
       <c r="E142" t="n">
-        <v>4807461549241.73</v>
+        <v>5.491144133002071e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>6601036156225.003</v>
+        <v>7.539788017793924e-06</v>
       </c>
       <c r="G142" t="n">
-        <v>10491000791221.16</v>
+        <v>1.198295541521414e-05</v>
       </c>
       <c r="H142" t="n">
-        <v>6.991859716300508</v>
+        <v>6.991859615544828</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1363190279430805</v>
+        <v>0.1363190332830554</v>
       </c>
       <c r="J142" t="n">
-        <v>1.747964929075127</v>
+        <v>1.747964903886207</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.089986</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>202219058641290</v>
+        <v>0.0002309771980809863</v>
       </c>
       <c r="C143" t="n">
-        <v>113245285081947.7</v>
+        <v>0.0001293502147442447</v>
       </c>
       <c r="D143" t="n">
-        <v>-133891654610461.8</v>
+        <v>-0.0001529327625156402</v>
       </c>
       <c r="E143" t="n">
-        <v>4904637516138.921</v>
+        <v>5.602139770481062e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>6734920442346.948</v>
+        <v>7.692712360207298e-06</v>
       </c>
       <c r="G143" t="n">
-        <v>10744880483265.72</v>
+        <v>1.227294006710024e-05</v>
       </c>
       <c r="H143" t="n">
-        <v>8.772124822975943</v>
+        <v>8.772124929812344</v>
       </c>
       <c r="I143" t="n">
-        <v>0.0670546158684017</v>
+        <v>0.06705461295150296</v>
       </c>
       <c r="J143" t="n">
-        <v>2.193031205743986</v>
+        <v>2.193031232453086</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093717</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>359818278792034.2</v>
+        <v>0.0004109890449836846</v>
       </c>
       <c r="C144" t="n">
-        <v>227172090730877.9</v>
+        <v>0.0002594788707299674</v>
       </c>
       <c r="D144" t="n">
-        <v>-294996768460977</v>
+        <v>-0.0003369490861586453</v>
       </c>
       <c r="E144" t="n">
-        <v>9119667797544.117</v>
+        <v>1.041660133438674e-05</v>
       </c>
       <c r="F144" t="n">
-        <v>12070742841478.29</v>
+        <v>1.378735701661112e-05</v>
       </c>
       <c r="G144" t="n">
-        <v>19487732616924.49</v>
+        <v>2.225913773047528e-05</v>
       </c>
       <c r="H144" t="n">
-        <v>1.512947965831396</v>
+        <v>1.512947955508364</v>
       </c>
       <c r="I144" t="n">
-        <v>0.8243454494221493</v>
+        <v>0.8243454512546275</v>
       </c>
       <c r="J144" t="n">
-        <v>0.3782369914578491</v>
+        <v>0.3782369888770909</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>470590714949373.5</v>
+        <v>0.0005375147401555683</v>
       </c>
       <c r="C145" t="n">
-        <v>290301075631388.8</v>
+        <v>0.0003315856058344696</v>
       </c>
       <c r="D145" t="n">
-        <v>-363267419008776.6</v>
+        <v>-0.0004149286972978405</v>
       </c>
       <c r="E145" t="n">
-        <v>11457220527457.97</v>
+        <v>1.308658399049362e-05</v>
       </c>
       <c r="F145" t="n">
-        <v>14800024421814.06</v>
+        <v>1.690477738012014e-05</v>
       </c>
       <c r="G145" t="n">
-        <v>24448496451519.81</v>
+        <v>2.792538567499818e-05</v>
       </c>
       <c r="H145" t="n">
-        <v>3.654721826161905</v>
+        <v>3.654721815299741</v>
       </c>
       <c r="I145" t="n">
-        <v>0.454745582364051</v>
+        <v>0.4547455839602899</v>
       </c>
       <c r="J145" t="n">
-        <v>0.9136804565404761</v>
+        <v>0.9136804538249352</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.098893</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>455611369060426.5</v>
+        <v>0.0005204051395067142</v>
       </c>
       <c r="C146" t="n">
-        <v>285478277459834.2</v>
+        <v>0.0003260769442882015</v>
       </c>
       <c r="D146" t="n">
-        <v>-366872319601555.4</v>
+        <v>-0.0004190462612489211</v>
       </c>
       <c r="E146" t="n">
-        <v>11495771780690.7</v>
+        <v>1.313061773133015e-05</v>
       </c>
       <c r="F146" t="n">
-        <v>15005648420793.66</v>
+        <v>1.71396437701977e-05</v>
       </c>
       <c r="G146" t="n">
-        <v>24557595784061.33</v>
+        <v>2.805000036232349e-05</v>
       </c>
       <c r="H146" t="n">
-        <v>5.877471727091554</v>
+        <v>5.877471827318682</v>
       </c>
       <c r="I146" t="n">
-        <v>0.2084875319079232</v>
+        <v>0.2084875241125113</v>
       </c>
       <c r="J146" t="n">
-        <v>1.469367931772888</v>
+        <v>1.46936795682967</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.099991</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>460814675654826.5</v>
+        <v>0.0005263484230223983</v>
       </c>
       <c r="C147" t="n">
-        <v>297940212460807.6</v>
+        <v>0.0003403111252407762</v>
       </c>
       <c r="D147" t="n">
-        <v>-363547890597280.2</v>
+        <v>-0.000415249055252644</v>
       </c>
       <c r="E147" t="n">
-        <v>11772915087724.55</v>
+        <v>1.344717435392931e-05</v>
       </c>
       <c r="F147" t="n">
-        <v>15815528905923.03</v>
+        <v>1.806469962188489e-05</v>
       </c>
       <c r="G147" t="n">
-        <v>25440406696784</v>
+        <v>2.905835826832108e-05</v>
       </c>
       <c r="H147" t="n">
-        <v>2.54302554948495</v>
+        <v>2.543025566459728</v>
       </c>
       <c r="I147" t="n">
-        <v>0.6369483278867751</v>
+        <v>0.6369483248606711</v>
       </c>
       <c r="J147" t="n">
-        <v>0.6357563873712374</v>
+        <v>0.635756391614932</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.100430999999999</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>450122705549392.9</v>
+        <v>0.0005141359176291859</v>
       </c>
       <c r="C148" t="n">
-        <v>291785336712459.8</v>
+        <v>0.0003332809474450419</v>
       </c>
       <c r="D148" t="n">
-        <v>-353291987092094.9</v>
+        <v>-0.0004035346307095155</v>
       </c>
       <c r="E148" t="n">
-        <v>11500504995884.24</v>
+        <v>1.313602405717051e-05</v>
       </c>
       <c r="F148" t="n">
-        <v>15441224430465.4</v>
+        <v>1.76371642551239e-05</v>
       </c>
       <c r="G148" t="n">
-        <v>24784205899108.89</v>
+        <v>2.830883730718943e-05</v>
       </c>
       <c r="H148" t="n">
-        <v>4.240565049695307</v>
+        <v>4.240565129576872</v>
       </c>
       <c r="I148" t="n">
-        <v>0.3744267930558033</v>
+        <v>0.3744267828937071</v>
       </c>
       <c r="J148" t="n">
-        <v>1.060141262423827</v>
+        <v>1.060141282394218</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100713</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>453196208878900.2</v>
+        <v>0.0005176465125329521</v>
       </c>
       <c r="C149" t="n">
-        <v>280469734280818.6</v>
+        <v>0.0003203561216362442</v>
       </c>
       <c r="D149" t="n">
-        <v>-354374253377051.5</v>
+        <v>-0.0004047708094095089</v>
       </c>
       <c r="E149" t="n">
-        <v>11521539959163.14</v>
+        <v>1.316005046113863e-05</v>
       </c>
       <c r="F149" t="n">
-        <v>15419103749331.26</v>
+        <v>1.761189773173392e-05</v>
       </c>
       <c r="G149" t="n">
-        <v>24701457377373.7</v>
+        <v>2.8214320886405e-05</v>
       </c>
       <c r="H149" t="n">
-        <v>3.693617802865936</v>
+        <v>3.693617869948127</v>
       </c>
       <c r="I149" t="n">
-        <v>0.449054859057551</v>
+        <v>0.4490548492865228</v>
       </c>
       <c r="J149" t="n">
-        <v>0.923404450716484</v>
+        <v>0.9234044674870319</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.102879</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>757554779618674.8</v>
+        <v>0.0008652887683119142</v>
       </c>
       <c r="C150" t="n">
-        <v>443445741601008.2</v>
+        <v>0.0005065094028544997</v>
       </c>
       <c r="D150" t="n">
-        <v>-418750608612460</v>
+        <v>-0.0004783023052507079</v>
       </c>
       <c r="E150" t="n">
-        <v>18098644272134.23</v>
+        <v>2.067250321924399e-05</v>
       </c>
       <c r="F150" t="n">
-        <v>26269209313167.51</v>
+        <v>3.00050272149254e-05</v>
       </c>
       <c r="G150" t="n">
-        <v>40429383410075.27</v>
+        <v>4.617895937602272e-05</v>
       </c>
       <c r="H150" t="n">
-        <v>2.997334177556781</v>
+        <v>2.997334172123295</v>
       </c>
       <c r="I150" t="n">
-        <v>0.5582716184746888</v>
+        <v>0.5582716193843738</v>
       </c>
       <c r="J150" t="n">
-        <v>0.7493335443891953</v>
+        <v>0.7493335430308238</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.104856</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>804720959262412.9</v>
+        <v>0.0009191625837005913</v>
       </c>
       <c r="C151" t="n">
-        <v>446241379548806.4</v>
+        <v>0.0005097026180318986</v>
       </c>
       <c r="D151" t="n">
-        <v>-386339288316206.2</v>
+        <v>-0.0004412816825695002</v>
       </c>
       <c r="E151" t="n">
-        <v>18923481053358.21</v>
+        <v>2.161464235799663e-05</v>
       </c>
       <c r="F151" t="n">
-        <v>28345560029304.95</v>
+        <v>3.237666160338972e-05</v>
       </c>
       <c r="G151" t="n">
-        <v>42717438592973.36</v>
+        <v>4.879240531945368e-05</v>
       </c>
       <c r="H151" t="n">
-        <v>2.51314122458652</v>
+        <v>2.513141122790458</v>
       </c>
       <c r="I151" t="n">
-        <v>0.6422842092873703</v>
+        <v>0.6422842274913443</v>
       </c>
       <c r="J151" t="n">
-        <v>0.62828530614663</v>
+        <v>0.6282852806976145</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.106897</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>755319090289636.5</v>
+        <v>0.0008627351361211296</v>
       </c>
       <c r="C152" t="n">
-        <v>426784512231132.8</v>
+        <v>0.0004874787344689226</v>
       </c>
       <c r="D152" t="n">
-        <v>-369097212722003.5</v>
+        <v>-0.0004215875627571449</v>
       </c>
       <c r="E152" t="n">
-        <v>17959546151959.97</v>
+        <v>2.051362357759167e-05</v>
       </c>
       <c r="F152" t="n">
-        <v>26930658516342.42</v>
+        <v>3.076054299941317e-05</v>
       </c>
       <c r="G152" t="n">
-        <v>40598017385196.66</v>
+        <v>4.637157529295483e-05</v>
       </c>
       <c r="H152" t="n">
-        <v>3.249506297088869</v>
+        <v>3.249506325801777</v>
       </c>
       <c r="I152" t="n">
-        <v>0.5169721390526612</v>
+        <v>0.5169721344584255</v>
       </c>
       <c r="J152" t="n">
-        <v>0.8123765742722173</v>
+        <v>0.8123765814504443</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.108781</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>727368050172022.5</v>
+        <v>0.0008308091009129575</v>
       </c>
       <c r="C153" t="n">
-        <v>414873464583832.6</v>
+        <v>0.0004738737842785188</v>
       </c>
       <c r="D153" t="n">
-        <v>-357067734011432.8</v>
+        <v>-0.0004078473394769479</v>
       </c>
       <c r="E153" t="n">
-        <v>17242469539921.52</v>
+        <v>1.969456947334699e-05</v>
       </c>
       <c r="F153" t="n">
-        <v>25722513988856.27</v>
+        <v>2.938058481870427e-05</v>
       </c>
       <c r="G153" t="n">
-        <v>38800135501651.91</v>
+        <v>4.43180115560429e-05</v>
       </c>
       <c r="H153" t="n">
-        <v>3.660627377543591</v>
+        <v>3.660627326477693</v>
       </c>
       <c r="I153" t="n">
-        <v>0.4538783178734204</v>
+        <v>0.4538783253677257</v>
       </c>
       <c r="J153" t="n">
-        <v>0.9151568443858978</v>
+        <v>0.9151568316194233</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110037</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>728490303200735.5</v>
+        <v>0.0008320909510795256</v>
       </c>
       <c r="C154" t="n">
-        <v>419907067135455.1</v>
+        <v>0.0004796232276016133</v>
       </c>
       <c r="D154" t="n">
-        <v>-346067587237579</v>
+        <v>-0.0003952828280926097</v>
       </c>
       <c r="E154" t="n">
-        <v>17373084795547.77</v>
+        <v>1.984375989458474e-05</v>
       </c>
       <c r="F154" t="n">
-        <v>26198028885000.7</v>
+        <v>2.992372400882878e-05</v>
       </c>
       <c r="G154" t="n">
-        <v>39511958546398.66</v>
+        <v>4.51310649389487e-05</v>
       </c>
       <c r="H154" t="n">
-        <v>6.754736311856749</v>
+        <v>6.754736367166887</v>
       </c>
       <c r="I154" t="n">
-        <v>0.1494310061824584</v>
+        <v>0.1494310029939997</v>
       </c>
       <c r="J154" t="n">
-        <v>1.688684077964187</v>
+        <v>1.688684091791722</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>688762472399343.2</v>
+        <v>0.0007867133152502938</v>
       </c>
       <c r="C155" t="n">
-        <v>393647790575328.8</v>
+        <v>0.0004496295470173767</v>
       </c>
       <c r="D155" t="n">
-        <v>-320445572978185.2</v>
+        <v>-0.0003660170378591446</v>
       </c>
       <c r="E155" t="n">
-        <v>16435091751781.27</v>
+        <v>1.877237223675691e-05</v>
       </c>
       <c r="F155" t="n">
-        <v>24879743201602.97</v>
+        <v>2.841796126202954e-05</v>
       </c>
       <c r="G155" t="n">
-        <v>37175122240927.56</v>
+        <v>4.246190062004955e-05</v>
       </c>
       <c r="H155" t="n">
-        <v>3.98503398783128</v>
+        <v>3.98503401211468</v>
       </c>
       <c r="I155" t="n">
-        <v>0.4080350682631906</v>
+        <v>0.4080350649644943</v>
       </c>
       <c r="J155" t="n">
-        <v>0.9962584969578201</v>
+        <v>0.9962585030286699</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.113839</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>647474988793015.1</v>
+        <v>0.0007395542226564705</v>
       </c>
       <c r="C156" t="n">
-        <v>358338535652298.9</v>
+        <v>0.0004092988636667813</v>
       </c>
       <c r="D156" t="n">
-        <v>-286486103561676.9</v>
+        <v>-0.0003272280953905472</v>
       </c>
       <c r="E156" t="n">
-        <v>15369403436193.61</v>
+        <v>1.755512938822839e-05</v>
       </c>
       <c r="F156" t="n">
-        <v>23398058006684.73</v>
+        <v>2.672556143388768e-05</v>
       </c>
       <c r="G156" t="n">
-        <v>34981410061836.41</v>
+        <v>3.995621446512081e-05</v>
       </c>
       <c r="H156" t="n">
-        <v>6.030021694707374</v>
+        <v>6.030021711410243</v>
       </c>
       <c r="I156" t="n">
-        <v>0.1969174254533504</v>
+        <v>0.196917424218406</v>
       </c>
       <c r="J156" t="n">
-        <v>1.507505423676843</v>
+        <v>1.507505427852561</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.118804</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>529667329656039.8</v>
+        <v>0.0006049928057316262</v>
       </c>
       <c r="C157" t="n">
-        <v>275308460066238.6</v>
+        <v>0.0003144608483876142</v>
       </c>
       <c r="D157" t="n">
-        <v>-183884133848491.5</v>
+        <v>-0.0002100348121808666</v>
       </c>
       <c r="E157" t="n">
-        <v>12370593515307</v>
+        <v>1.412985030367019e-05</v>
       </c>
       <c r="F157" t="n">
-        <v>19793483290996.82</v>
+        <v>2.260837003503588e-05</v>
       </c>
       <c r="G157" t="n">
-        <v>28607449735648.36</v>
+        <v>3.267579536332563e-05</v>
       </c>
       <c r="H157" t="n">
-        <v>2.944454835852282</v>
+        <v>2.944454799204696</v>
       </c>
       <c r="I157" t="n">
-        <v>0.5671633706949292</v>
+        <v>0.5671633768837803</v>
       </c>
       <c r="J157" t="n">
-        <v>0.7361137089630705</v>
+        <v>0.736113699801174</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123773</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>375816518004095.8</v>
+        <v>0.0004292624386658923</v>
       </c>
       <c r="C158" t="n">
-        <v>185357095296953.7</v>
+        <v>0.0002117172477121068</v>
       </c>
       <c r="D158" t="n">
-        <v>-100178382727683.9</v>
+        <v>-0.0001144250315902905</v>
       </c>
       <c r="E158" t="n">
-        <v>9144579282546.391</v>
+        <v>1.044505555156056e-05</v>
       </c>
       <c r="F158" t="n">
-        <v>15323532455122.03</v>
+        <v>1.750273499239178e-05</v>
       </c>
       <c r="G158" t="n">
-        <v>21413164752032.23</v>
+        <v>2.44583909615563e-05</v>
       </c>
       <c r="H158" t="n">
-        <v>3.068135954951806</v>
+        <v>3.068135919503739</v>
       </c>
       <c r="I158" t="n">
-        <v>0.5464884698369796</v>
+        <v>0.546488475700655</v>
       </c>
       <c r="J158" t="n">
-        <v>0.7670339887379516</v>
+        <v>0.7670339798759347</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.128523</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>213424955801299.5</v>
+        <v>0.0002437767172252931</v>
       </c>
       <c r="C159" t="n">
-        <v>100380835404373.5</v>
+        <v>0.0001146562757477877</v>
       </c>
       <c r="D159" t="n">
-        <v>-41338817142724.5</v>
+        <v>-4.721772681203336e-05</v>
       </c>
       <c r="E159" t="n">
-        <v>5284281103360.329</v>
+        <v>6.035773541686369e-06</v>
       </c>
       <c r="F159" t="n">
-        <v>9147405276813.109</v>
+        <v>1.044828343956574e-05</v>
       </c>
       <c r="G159" t="n">
-        <v>12459079339460.44</v>
+        <v>1.423091996135315e-05</v>
       </c>
       <c r="H159" t="n">
-        <v>3.622839848464182</v>
+        <v>3.622839820983761</v>
       </c>
       <c r="I159" t="n">
-        <v>0.4594476566440858</v>
+        <v>0.4594476607115416</v>
       </c>
       <c r="J159" t="n">
-        <v>0.9057099621160455</v>
+        <v>0.9057099552459402</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.129939</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>225215657986423.8</v>
+        <v>0.0002572442083367581</v>
       </c>
       <c r="C160" t="n">
-        <v>117083383392970</v>
+        <v>0.0001337341399335642</v>
       </c>
       <c r="D160" t="n">
-        <v>-46583285694340.12</v>
+        <v>-5.320802546851457e-05</v>
       </c>
       <c r="E160" t="n">
-        <v>5824618224787.502</v>
+        <v>6.652953510346989e-06</v>
       </c>
       <c r="F160" t="n">
-        <v>10076549528222.34</v>
+        <v>1.150956389669666e-05</v>
       </c>
       <c r="G160" t="n">
-        <v>13835106746410.93</v>
+        <v>1.580263606920661e-05</v>
       </c>
       <c r="H160" t="n">
-        <v>7.461496805867547</v>
+        <v>7.461496967728396</v>
       </c>
       <c r="I160" t="n">
-        <v>0.1134191548167992</v>
+        <v>0.1134191475780368</v>
       </c>
       <c r="J160" t="n">
-        <v>1.865374201466887</v>
+        <v>1.865374241932099</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.133811</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>122751461661382.2</v>
+        <v>0.0001402082913643601</v>
       </c>
       <c r="C161" t="n">
-        <v>52957968235878.98</v>
+        <v>6.048926947604279e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>-33235368816186.22</v>
+        <v>-3.796186406756388e-05</v>
       </c>
       <c r="E161" t="n">
-        <v>3354006548761.985</v>
+        <v>3.830989229129094e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>5817606773884.54</v>
+        <v>6.644944954686959e-06</v>
       </c>
       <c r="G161" t="n">
-        <v>7753837356269.819</v>
+        <v>8.856532321095858e-06</v>
       </c>
       <c r="H161" t="n">
-        <v>1.33299157828347</v>
+        <v>1.332991681884378</v>
       </c>
       <c r="I161" t="n">
-        <v>0.8557536835195672</v>
+        <v>0.8557536657909224</v>
       </c>
       <c r="J161" t="n">
-        <v>0.3332478945708676</v>
+        <v>0.3332479204710945</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.138881</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>110225719597731.1</v>
+        <v>0.0001259012282784311</v>
       </c>
       <c r="C162" t="n">
-        <v>42168684899144.41</v>
+        <v>4.816561169174105e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>-41680124354506.97</v>
+        <v>-4.760757156042954e-05</v>
       </c>
       <c r="E162" t="n">
-        <v>3177524906439.651</v>
+        <v>3.629409633252933e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>5333188326765.407</v>
+        <v>6.091635993186411e-06</v>
       </c>
       <c r="G162" t="n">
-        <v>7072997191721.413</v>
+        <v>8.078867956011604e-06</v>
       </c>
       <c r="H162" t="n">
-        <v>4.336940423858415</v>
+        <v>4.336940475462036</v>
       </c>
       <c r="I162" t="n">
-        <v>0.3623222305306277</v>
+        <v>0.3623222241325574</v>
       </c>
       <c r="J162" t="n">
-        <v>1.084235105964604</v>
+        <v>1.084235118865509</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.141653</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>115670999176509.8</v>
+        <v>0.0001321208963886041</v>
       </c>
       <c r="C163" t="n">
-        <v>49770947300989.97</v>
+        <v>5.684901302186105e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>-56252161368564.78</v>
+        <v>-6.425193889038488e-05</v>
       </c>
       <c r="E163" t="n">
-        <v>3235110215242.679</v>
+        <v>3.695184306183956e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>5293599461244.099</v>
+        <v>6.046417081754865e-06</v>
       </c>
       <c r="G163" t="n">
-        <v>7239934562676.592</v>
+        <v>8.269545946323795e-06</v>
       </c>
       <c r="H163" t="n">
-        <v>2.062208545764181</v>
+        <v>2.062208565625578</v>
       </c>
       <c r="I163" t="n">
-        <v>0.724318076464726</v>
+        <v>0.7243180728131574</v>
       </c>
       <c r="J163" t="n">
-        <v>0.5155521364410454</v>
+        <v>0.5155521414063944</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144741000000001</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>114816483905678</v>
+        <v>0.0001311448581505286</v>
       </c>
       <c r="C164" t="n">
-        <v>49216410425136.11</v>
+        <v>5.621561452452738e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>-59123325168792.41</v>
+        <v>-6.75314193148899e-05</v>
       </c>
       <c r="E164" t="n">
-        <v>3216550449284.174</v>
+        <v>3.673985109593758e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>5124021514635.076</v>
+        <v>5.852722982521514e-06</v>
       </c>
       <c r="G164" t="n">
-        <v>7142208750275.527</v>
+        <v>8.157922287639213e-06</v>
       </c>
       <c r="H164" t="n">
-        <v>6.417763727875704</v>
+        <v>6.417763834355426</v>
       </c>
       <c r="I164" t="n">
-        <v>0.1700462462720921</v>
+        <v>0.170046239369838</v>
       </c>
       <c r="J164" t="n">
-        <v>1.604440931968926</v>
+        <v>1.604440958588856</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.147988</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>118566106269100.2</v>
+        <v>0.0001354277245494635</v>
       </c>
       <c r="C165" t="n">
-        <v>53442490835350.55</v>
+        <v>6.10426973310278e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>-74617036303846.97</v>
+        <v>-8.522853412183632e-05</v>
       </c>
       <c r="E165" t="n">
-        <v>3382903069580.764</v>
+        <v>3.863995202083171e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>5308589505726.508</v>
+        <v>6.063538904178132e-06</v>
       </c>
       <c r="G165" t="n">
-        <v>7342575810320.819</v>
+        <v>8.386784108987586e-06</v>
       </c>
       <c r="H165" t="n">
-        <v>2.868194582251352</v>
+        <v>2.86819455927286</v>
       </c>
       <c r="I165" t="n">
-        <v>0.58011940516506</v>
+        <v>0.5801194090919577</v>
       </c>
       <c r="J165" t="n">
-        <v>0.717048645562838</v>
+        <v>0.717048639818215</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.150005999999999</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>123278996141743.7</v>
+        <v>0.000140810847792884</v>
       </c>
       <c r="C166" t="n">
-        <v>56661979453249.28</v>
+        <v>6.472003836320514e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>-77159150914660.12</v>
+        <v>-8.813216995446867e-05</v>
       </c>
       <c r="E166" t="n">
-        <v>3638578841628.554</v>
+        <v>4.156031337048521e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>5836481961222.522</v>
+        <v>6.666504420573151e-06</v>
       </c>
       <c r="G166" t="n">
-        <v>8074396744487.749</v>
+        <v>9.222679336329273e-06</v>
       </c>
       <c r="H166" t="n">
-        <v>1.373955289362899</v>
+        <v>1.373955390789699</v>
       </c>
       <c r="I166" t="n">
-        <v>0.8487088428877568</v>
+        <v>0.8487088253604682</v>
       </c>
       <c r="J166" t="n">
-        <v>0.3434888223407248</v>
+        <v>0.3434888476974247</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150983</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>124237385468648.4</v>
+        <v>0.0001419055325131608</v>
       </c>
       <c r="C167" t="n">
-        <v>55112496378467.08</v>
+        <v>6.29501988757431e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>-81582228185434.53</v>
+        <v>-9.318426600952431e-05</v>
       </c>
       <c r="E167" t="n">
-        <v>3352329334673.755</v>
+        <v>3.82907348875365e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>5140430701712.053</v>
+        <v>5.871465763044014e-06</v>
       </c>
       <c r="G167" t="n">
-        <v>7322792747279.663</v>
+        <v>8.364187634622849e-06</v>
       </c>
       <c r="H167" t="n">
-        <v>1.739503115079337</v>
+        <v>1.739503156224073</v>
       </c>
       <c r="I167" t="n">
-        <v>0.783529949668705</v>
+        <v>0.7835299421706055</v>
       </c>
       <c r="J167" t="n">
-        <v>0.4348757787698344</v>
+        <v>0.4348757890560183</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>131853702346655.2</v>
+        <v>0.0001506049870321878</v>
       </c>
       <c r="C168" t="n">
-        <v>58295626783019.5</v>
+        <v>6.658601120324291e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>-90294196188840.56</v>
+        <v>-0.000103135186753282</v>
       </c>
       <c r="E168" t="n">
-        <v>3452023385391.321</v>
+        <v>3.942945309455007e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>4989837646432.645</v>
+        <v>5.69945644900631e-06</v>
       </c>
       <c r="G168" t="n">
-        <v>7350697886596.171</v>
+        <v>8.396061242929597e-06</v>
       </c>
       <c r="H168" t="n">
-        <v>1.603045938493929</v>
+        <v>1.603045984771024</v>
       </c>
       <c r="I168" t="n">
-        <v>0.8082445801539779</v>
+        <v>0.8082445718333698</v>
       </c>
       <c r="J168" t="n">
-        <v>0.4007614846234823</v>
+        <v>0.4007614961927559</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.159375</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>138856240316468.8</v>
+        <v>0.0001586033755668486</v>
       </c>
       <c r="C169" t="n">
-        <v>65029414341840.77</v>
+        <v>7.427742980565669e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>-93803052534452.19</v>
+        <v>-0.0001071430474254458</v>
       </c>
       <c r="E169" t="n">
-        <v>3505711997580.104</v>
+        <v>4.004269129846757e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>5009532636825.253</v>
+        <v>5.721952317248854e-06</v>
       </c>
       <c r="G169" t="n">
-        <v>7548803582965.59</v>
+        <v>8.622340103125158e-06</v>
       </c>
       <c r="H169" t="n">
-        <v>4.02770465405051</v>
+        <v>4.02770462165668</v>
       </c>
       <c r="I169" t="n">
-        <v>0.4022694168387682</v>
+        <v>0.4022694211924328</v>
       </c>
       <c r="J169" t="n">
-        <v>1.006926163512627</v>
+        <v>1.00692615541417</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.170048</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>137567381770787.4</v>
+        <v>0.000157131225044153</v>
       </c>
       <c r="C170" t="n">
-        <v>74478898165293.56</v>
+        <v>8.507075108149501e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>-91710969128181.22</v>
+        <v>-0.0001047534433070595</v>
       </c>
       <c r="E170" t="n">
-        <v>3597614515186.86</v>
+        <v>4.109241359174105e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>5176913482298.525</v>
+        <v>5.913136864872076e-06</v>
       </c>
       <c r="G170" t="n">
-        <v>7878509131146.919</v>
+        <v>8.998933997499397e-06</v>
       </c>
       <c r="H170" t="n">
-        <v>7.709845260404534</v>
+        <v>7.709845113160485</v>
       </c>
       <c r="I170" t="n">
-        <v>0.1028041595025479</v>
+        <v>0.1028041655122342</v>
       </c>
       <c r="J170" t="n">
-        <v>1.927461315101133</v>
+        <v>1.927461278290121</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.189844</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>159329656216570.7</v>
+        <v>0.000181988373410047</v>
       </c>
       <c r="C171" t="n">
-        <v>83395377743120.8</v>
+        <v>9.525526840255666e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>-114403529226712.7</v>
+        <v>-0.0001306731757804262</v>
       </c>
       <c r="E171" t="n">
-        <v>3862522934038.51</v>
+        <v>4.411823150330201e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>5143081583472.459</v>
+        <v>5.874493636635456e-06</v>
       </c>
       <c r="G171" t="n">
-        <v>8276441301993.556</v>
+        <v>9.453457226076379e-06</v>
       </c>
       <c r="H171" t="n">
-        <v>8.548774331624792</v>
+        <v>8.54877422302463</v>
       </c>
       <c r="I171" t="n">
-        <v>0.07342251325490955</v>
+        <v>0.07342251648586956</v>
       </c>
       <c r="J171" t="n">
-        <v>2.137193582906198</v>
+        <v>2.137193555756157</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210028</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>206533596339564.5</v>
+        <v>0.0002359053181334132</v>
       </c>
       <c r="C172" t="n">
-        <v>115124132154218.7</v>
+        <v>0.0001314962576951422</v>
       </c>
       <c r="D172" t="n">
-        <v>-169689719863253.7</v>
+        <v>-0.0001938217707094038</v>
       </c>
       <c r="E172" t="n">
-        <v>5022347601820.792</v>
+        <v>5.736589736562904e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>6341677889650.197</v>
+        <v>7.243545680700624e-06</v>
       </c>
       <c r="G172" t="n">
-        <v>10542437906587.26</v>
+        <v>1.204170756424049e-05</v>
       </c>
       <c r="H172" t="n">
-        <v>4.52596132446724</v>
+        <v>4.525961214895123</v>
       </c>
       <c r="I172" t="n">
-        <v>0.3394802284240175</v>
+        <v>0.3394802413228645</v>
       </c>
       <c r="J172" t="n">
-        <v>1.13149033111681</v>
+        <v>1.131490303723781</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.230028</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>296552769335186.4</v>
+        <v>0.0003387263703939848</v>
       </c>
       <c r="C173" t="n">
-        <v>179786466607100.8</v>
+        <v>0.0002053544038824769</v>
       </c>
       <c r="D173" t="n">
-        <v>-295755214961996.6</v>
+        <v>-0.0003378153932858758</v>
       </c>
       <c r="E173" t="n">
-        <v>7451064842570.248</v>
+        <v>8.510701663795464e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>8650705867754.881</v>
+        <v>9.880947007774571e-06</v>
       </c>
       <c r="G173" t="n">
-        <v>15139084716031.82</v>
+        <v>1.729205640669323e-05</v>
       </c>
       <c r="H173" t="n">
-        <v>5.57584750373262</v>
+        <v>5.57584737604672</v>
       </c>
       <c r="I173" t="n">
-        <v>0.2331424344331294</v>
+        <v>0.2331424453881687</v>
       </c>
       <c r="J173" t="n">
-        <v>1.393961875933155</v>
+        <v>1.39396184401168</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.239501000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>428580452010976.8</v>
+        <v>0.000489530079652768</v>
       </c>
       <c r="C174" t="n">
-        <v>247122196686736.7</v>
+        <v>0.0002822661371232548</v>
       </c>
       <c r="D174" t="n">
-        <v>-475272509415304</v>
+        <v>-0.0005428623450301588</v>
       </c>
       <c r="E174" t="n">
-        <v>10325274269827.94</v>
+        <v>1.17936604801454e-05</v>
       </c>
       <c r="F174" t="n">
-        <v>10843972513348.44</v>
+        <v>1.238612425154116e-05</v>
       </c>
       <c r="G174" t="n">
-        <v>20138916319630.36</v>
+        <v>2.30029280814075e-05</v>
       </c>
       <c r="H174" t="n">
-        <v>1.357665832162379</v>
+        <v>1.357665908848045</v>
       </c>
       <c r="I174" t="n">
-        <v>0.8515184964785218</v>
+        <v>0.851518483276705</v>
       </c>
       <c r="J174" t="n">
-        <v>0.3394164580405948</v>
+        <v>0.3394164772120112</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.243064</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>463687818026503.2</v>
+        <v>0.0005296301628213759</v>
       </c>
       <c r="C175" t="n">
-        <v>285482760210008.8</v>
+        <v>0.0003260820643398201</v>
       </c>
       <c r="D175" t="n">
-        <v>-522828676894603</v>
+        <v>-0.0005971816093989549</v>
       </c>
       <c r="E175" t="n">
-        <v>11612369081050.79</v>
+        <v>1.326379664956468e-05</v>
       </c>
       <c r="F175" t="n">
-        <v>12403796055392.77</v>
+        <v>1.41677746790382e-05</v>
       </c>
       <c r="G175" t="n">
-        <v>22855253940972.57</v>
+        <v>2.610556369786127e-05</v>
       </c>
       <c r="H175" t="n">
-        <v>4.348279594667719</v>
+        <v>4.348279651520691</v>
       </c>
       <c r="I175" t="n">
-        <v>0.3609184914242828</v>
+        <v>0.3609184843968983</v>
       </c>
       <c r="J175" t="n">
-        <v>1.08706989866693</v>
+        <v>1.087069912880173</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.250129</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>645738444157258</v>
+        <v>0.0007375707192471187</v>
       </c>
       <c r="C176" t="n">
-        <v>392574524816079.8</v>
+        <v>0.0004484036486898219</v>
       </c>
       <c r="D176" t="n">
-        <v>-787072428318239</v>
+        <v>-0.0008990042053902605</v>
       </c>
       <c r="E176" t="n">
-        <v>16311502130021.65</v>
+        <v>1.863120659469711e-05</v>
       </c>
       <c r="F176" t="n">
-        <v>16860999668544.27</v>
+        <v>1.925884971064078e-05</v>
       </c>
       <c r="G176" t="n">
-        <v>31410747596214.31</v>
+        <v>3.587775810151802e-05</v>
       </c>
       <c r="H176" t="n">
-        <v>3.400413066842975</v>
+        <v>3.400413135134272</v>
       </c>
       <c r="I176" t="n">
-        <v>0.4931813762392973</v>
+        <v>0.4931813656358585</v>
       </c>
       <c r="J176" t="n">
-        <v>0.8501032667107437</v>
+        <v>0.8501032837835679</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>845220510215523.5</v>
+        <v>0.0009654216895387854</v>
       </c>
       <c r="C177" t="n">
-        <v>521433189008386.6</v>
+        <v>0.0005955876654505877</v>
       </c>
       <c r="D177" t="n">
-        <v>-1036211854348979</v>
+        <v>-0.00118357444845346</v>
       </c>
       <c r="E177" t="n">
-        <v>21066904004972.01</v>
+        <v>2.406288749163089e-05</v>
       </c>
       <c r="F177" t="n">
-        <v>21196714120398.53</v>
+        <v>2.421115825562106e-05</v>
       </c>
       <c r="G177" t="n">
-        <v>40368378843191.51</v>
+        <v>4.610927917667282e-05</v>
       </c>
       <c r="H177" t="n">
-        <v>2.892213235014694</v>
+        <v>2.892213213290368</v>
       </c>
       <c r="I177" t="n">
-        <v>0.5760222487803454</v>
+        <v>0.5760222524793126</v>
       </c>
       <c r="J177" t="n">
-        <v>0.7230533087536735</v>
+        <v>0.723053303322592</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>884512989783574.5</v>
+        <v>0.00101030206237973</v>
       </c>
       <c r="C178" t="n">
-        <v>558203546536470.2</v>
+        <v>0.0006375872378915155</v>
       </c>
       <c r="D178" t="n">
-        <v>-1071879348879411</v>
+        <v>-0.001224314316667318</v>
       </c>
       <c r="E178" t="n">
-        <v>22600455889173.68</v>
+        <v>2.58145300884427e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>23373981582662.17</v>
+        <v>2.669806105375109e-05</v>
       </c>
       <c r="G178" t="n">
-        <v>43752549754986.09</v>
+        <v>4.997472253936094e-05</v>
       </c>
       <c r="H178" t="n">
-        <v>4.550057012856892</v>
+        <v>4.550057020643179</v>
       </c>
       <c r="I178" t="n">
-        <v>0.3366532085808898</v>
+        <v>0.3366532076704422</v>
       </c>
       <c r="J178" t="n">
-        <v>1.137514253214223</v>
+        <v>1.137514255160795</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.269983</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>944230862920391</v>
+        <v>0.00107851258176764</v>
       </c>
       <c r="C179" t="n">
-        <v>612185799399109.9</v>
+        <v>0.0006992464578884534</v>
       </c>
       <c r="D179" t="n">
-        <v>-1103875077011351</v>
+        <v>-0.001260860247003446</v>
       </c>
       <c r="E179" t="n">
-        <v>24039350831443.93</v>
+        <v>2.745805432350921e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>25409462008673.14</v>
+        <v>2.902301285545405e-05</v>
       </c>
       <c r="G179" t="n">
-        <v>47154171499234.61</v>
+        <v>5.386009844668594e-05</v>
       </c>
       <c r="H179" t="n">
-        <v>4.223421421143154</v>
+        <v>4.223421459460713</v>
       </c>
       <c r="I179" t="n">
-        <v>0.3766126520348259</v>
+        <v>0.3766126471381885</v>
       </c>
       <c r="J179" t="n">
-        <v>1.055855355285789</v>
+        <v>1.055855364865178</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>1075247729233161</v>
+        <v>0.001239254667015087</v>
       </c>
       <c r="C180" t="n">
-        <v>725059602278084.1</v>
+        <v>0.0008159709009699033</v>
       </c>
       <c r="D180" t="n">
-        <v>-1165672662049928</v>
+        <v>-0.001330914124966955</v>
       </c>
       <c r="E180" t="n">
-        <v>27116661278935.24</v>
+        <v>2.168065459750456e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>29786023868154.64</v>
+        <v>2.349082414636378e-05</v>
       </c>
       <c r="G180" t="n">
-        <v>54129331488910.25</v>
+        <v>4.313666054914784e-05</v>
       </c>
       <c r="H180" t="n">
-        <v>2.736574172845298</v>
+        <v>5.350660594849519</v>
       </c>
       <c r="I180" t="n">
-        <v>0.6028299426037687</v>
+        <v>0.9130027607897095</v>
       </c>
       <c r="J180" t="n">
-        <v>0.6841435432113244</v>
+        <v>0.4864236904408654</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.275024</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>1093855233542810</v>
+        <v>0.001674368276272529</v>
       </c>
       <c r="C181" t="n">
-        <v>705809727334654.4</v>
+        <v>0.001079655286952378</v>
       </c>
       <c r="D181" t="n">
-        <v>-1166129937949966</v>
+        <v>-0.001529514045611742</v>
       </c>
       <c r="E181" t="n">
-        <v>26582113969878.19</v>
+        <v>4.165314566662297e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>28454805637865.74</v>
+        <v>5.00028624000916e-05</v>
       </c>
       <c r="G181" t="n">
-        <v>52734600556864.89</v>
+        <v>8.620923719046581e-05</v>
       </c>
       <c r="H181" t="n">
-        <v>1.358051220735099</v>
+        <v>4.983757195751307</v>
       </c>
       <c r="I181" t="n">
-        <v>0.8514521469056284</v>
+        <v>0.2889681726166507</v>
       </c>
       <c r="J181" t="n">
-        <v>0.3395128051837749</v>
+        <v>1.245939298937827</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279812000000001</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>1465898711520360</v>
+        <v>0.001989520656920035</v>
       </c>
       <c r="C182" t="n">
-        <v>945231293762844.8</v>
+        <v>0.001271235729910539</v>
       </c>
       <c r="D182" t="n">
-        <v>-1339079761187176</v>
+        <v>-0.001666186456044817</v>
       </c>
       <c r="E182" t="n">
-        <v>36467062495015.66</v>
+        <v>4.936096424128925e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>43777186077809.03</v>
+        <v>6.181351478683526e-05</v>
       </c>
       <c r="G182" t="n">
-        <v>75475635512096.22</v>
+        <v>0.0001043386543946905</v>
       </c>
       <c r="H182" t="n">
-        <v>4.983757221928534</v>
+        <v>5.608330727558008</v>
       </c>
       <c r="I182" t="n">
-        <v>0.2889681699175978</v>
+        <v>0.2303699580624935</v>
       </c>
       <c r="J182" t="n">
-        <v>1.245939305482133</v>
+        <v>1.402082681889502</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.284953</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>1741812604132561</v>
+        <v>0.002551724524152538</v>
       </c>
       <c r="C183" t="n">
-        <v>1112958747481050</v>
+        <v>0.001609978000152431</v>
       </c>
       <c r="D183" t="n">
-        <v>-1458735580012241</v>
+        <v>-0.002009659005879699</v>
       </c>
       <c r="E183" t="n">
-        <v>43215208246385.99</v>
+        <v>6.079037983669346e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>54117336585875.28</v>
+        <v>7.527117866416451e-05</v>
       </c>
       <c r="G183" t="n">
-        <v>91347824115749.67</v>
+        <v>0.0001293323785722563</v>
       </c>
       <c r="H183" t="n">
-        <v>5.608330743310647</v>
+        <v>7.931381422802038</v>
       </c>
       <c r="I183" t="n">
-        <v>0.2303699567249946</v>
+        <v>0.09412436798807236</v>
       </c>
       <c r="J183" t="n">
-        <v>1.402082685827662</v>
+        <v>1.982845355700509</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.290161</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>2234018490626926</v>
+        <v>0.002939094816715013</v>
       </c>
       <c r="C184" t="n">
-        <v>1409525435335610</v>
+        <v>0.001965432864693939</v>
       </c>
       <c r="D184" t="n">
-        <v>-1759443596392567</v>
+        <v>-0.002309758469490107</v>
       </c>
       <c r="E184" t="n">
-        <v>53221588517149.11</v>
+        <v>6.963091684359225e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>65899435265981.54</v>
+        <v>8.666399683370681e-05</v>
       </c>
       <c r="G184" t="n">
-        <v>113229669807342.8</v>
+        <v>0.0001478427190510128</v>
       </c>
       <c r="H184" t="n">
-        <v>7.931381431680761</v>
+        <v>3.339419677041383</v>
       </c>
       <c r="I184" t="n">
-        <v>0.09412436765436805</v>
+        <v>0.5027108893832466</v>
       </c>
       <c r="J184" t="n">
-        <v>1.98284535792019</v>
+        <v>0.8348549192603457</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.292942</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>2573158701417684</v>
+        <v>0.002853840274752063</v>
       </c>
       <c r="C185" t="n">
-        <v>1720723896474131</v>
+        <v>0.001811979365575225</v>
       </c>
       <c r="D185" t="n">
-        <v>-2022178755209397</v>
+        <v>-0.00215576564781923</v>
       </c>
       <c r="E185" t="n">
-        <v>60961422023752.05</v>
+        <v>6.670542348747326e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>75873774559402.05</v>
+        <v>8.28740442760376e-05</v>
       </c>
       <c r="G185" t="n">
-        <v>129435354351342.6</v>
+        <v>0.000142604558649331</v>
       </c>
       <c r="H185" t="n">
-        <v>3.339419620240236</v>
+        <v>7.708873766631375</v>
       </c>
       <c r="I185" t="n">
-        <v>0.5027108983126479</v>
+        <v>0.102843817628062</v>
       </c>
       <c r="J185" t="n">
-        <v>0.834854905060059</v>
+        <v>1.927218441657844</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.297674</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>2498518896693724</v>
+        <v>0.002809658588883497</v>
       </c>
       <c r="C186" t="n">
-        <v>1586376340108153</v>
+        <v>0.00176043431394959</v>
       </c>
       <c r="D186" t="n">
-        <v>-1887359030039007</v>
+        <v>-0.002173208930853444</v>
       </c>
       <c r="E186" t="n">
-        <v>58400171324579.99</v>
+        <v>6.580657196388144e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>72555695445932.7</v>
+        <v>8.253164727449304e-05</v>
       </c>
       <c r="G186" t="n">
-        <v>124849378385864</v>
+        <v>0.0001393634921170608</v>
       </c>
       <c r="H186" t="n">
-        <v>7.708873971041051</v>
+        <v>1.557977796170795</v>
       </c>
       <c r="I186" t="n">
-        <v>0.1028438092821903</v>
+        <v>0.8163241747290514</v>
       </c>
       <c r="J186" t="n">
-        <v>1.927218492760263</v>
+        <v>0.3894944490426988</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.299721</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>2459838111540222</v>
+        <v>0.002751707466284682</v>
       </c>
       <c r="C187" t="n">
-        <v>1541248977218412</v>
+        <v>0.001695321177700741</v>
       </c>
       <c r="D187" t="n">
-        <v>-1902630511486027</v>
+        <v>-0.00192506402066257</v>
       </c>
       <c r="E187" t="n">
-        <v>57613232628614.41</v>
+        <v>6.448556036818976e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>72255929019559.64</v>
+        <v>8.334911329526059e-05</v>
       </c>
       <c r="G187" t="n">
-        <v>122011845543726.8</v>
+        <v>0.0001399578929898289</v>
       </c>
       <c r="H187" t="n">
-        <v>1.557977904096763</v>
+        <v>9.192102502699534</v>
       </c>
       <c r="I187" t="n">
-        <v>0.8163241554397435</v>
+        <v>0.05647314655526144</v>
       </c>
       <c r="J187" t="n">
-        <v>0.3894944760241907</v>
+        <v>2.298025625674883</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.302376000000001</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>2409102276474947</v>
+        <v>0.002179801067622252</v>
       </c>
       <c r="C188" t="n">
-        <v>1484242844671200</v>
+        <v>0.001349865862442792</v>
       </c>
       <c r="D188" t="n">
-        <v>-1685381234096309</v>
+        <v>-0.001472189575184638</v>
       </c>
       <c r="E188" t="n">
-        <v>56456695395439.92</v>
+        <v>5.041783279341505e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>72971615253436.08</v>
+        <v>6.553283434616393e-05</v>
       </c>
       <c r="G188" t="n">
-        <v>122532239557954</v>
+        <v>0.0001095945434653795</v>
       </c>
       <c r="H188" t="n">
-        <v>9.192102344436378</v>
+        <v>8.457019493680372</v>
       </c>
       <c r="I188" t="n">
-        <v>0.056473150225506</v>
+        <v>0.07620078971645852</v>
       </c>
       <c r="J188" t="n">
-        <v>2.298025586109095</v>
+        <v>2.114254873420093</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.308233</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>1908401883324239</v>
+        <v>0.001625156705784719</v>
       </c>
       <c r="C189" t="n">
-        <v>1181798923253774</v>
+        <v>0.0009981470422638617</v>
       </c>
       <c r="D189" t="n">
-        <v>-1288892551496320</v>
+        <v>-0.001027247499126487</v>
       </c>
       <c r="E189" t="n">
-        <v>44140489964602.42</v>
+        <v>3.787086703954652e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>57373577109385.41</v>
+        <v>5.102711989902273e-05</v>
       </c>
       <c r="G189" t="n">
-        <v>95949321461059.89</v>
+        <v>8.341354853633606e-05</v>
       </c>
       <c r="H189" t="n">
-        <v>8.457019516046861</v>
+        <v>8.4151841033012</v>
       </c>
       <c r="I189" t="n">
-        <v>0.07620078902727212</v>
+        <v>0.07750022178316694</v>
       </c>
       <c r="J189" t="n">
-        <v>2.114254879011715</v>
+        <v>2.1037960258253</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312876</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>1422814295790178</v>
+        <v>0.00114638927242524</v>
       </c>
       <c r="C190" t="n">
-        <v>873871347512320.2</v>
+        <v>0.0006719315317377418</v>
       </c>
       <c r="D190" t="n">
-        <v>-899348612662622.5</v>
+        <v>-0.000632804636492069</v>
       </c>
       <c r="E190" t="n">
-        <v>33155701691644.89</v>
+        <v>2.672978648320969e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>44673916878987.79</v>
+        <v>3.806851064600874e-05</v>
       </c>
       <c r="G190" t="n">
-        <v>73028027834965.36</v>
+        <v>5.975744127572853e-05</v>
       </c>
       <c r="H190" t="n">
-        <v>8.415184564481443</v>
+        <v>6.407928968533769</v>
       </c>
       <c r="I190" t="n">
-        <v>0.07750020734406188</v>
+        <v>0.1706848373604941</v>
       </c>
       <c r="J190" t="n">
-        <v>2.103796141120361</v>
+        <v>1.601982242133442</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.317521</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>1003656471614308</v>
+        <v>0.0007783870873183319</v>
       </c>
       <c r="C191" t="n">
-        <v>588271755994782.8</v>
+        <v>0.0004464128446354978</v>
       </c>
       <c r="D191" t="n">
-        <v>-554016409967497.5</v>
+        <v>-0.0003320943912805069</v>
       </c>
       <c r="E191" t="n">
-        <v>23401756995873.08</v>
+        <v>1.817793394077567e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>33328737442121.59</v>
+        <v>2.774594791434595e-05</v>
       </c>
       <c r="G191" t="n">
-        <v>52317257400114.52</v>
+        <v>4.17291340947691e-05</v>
       </c>
       <c r="H191" t="n">
-        <v>6.407929419432549</v>
+        <v>6.794406855756947</v>
       </c>
       <c r="I191" t="n">
-        <v>0.1706848080331571</v>
+        <v>0.1471600257748894</v>
       </c>
       <c r="J191" t="n">
-        <v>1.601982354858137</v>
+        <v>1.698601713939237</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.322808999999999</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>681472913193155.5</v>
+        <v>0.0005427347121975533</v>
       </c>
       <c r="C192" t="n">
-        <v>390831588392405</v>
+        <v>0.0003094132154433994</v>
       </c>
       <c r="D192" t="n">
-        <v>-290746513420486.5</v>
+        <v>-0.0001742683377582611</v>
       </c>
       <c r="E192" t="n">
-        <v>15914664835887.27</v>
+        <v>1.2934227651113e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>24291399836530.52</v>
+        <v>2.09218947132396e-05</v>
       </c>
       <c r="G192" t="n">
-        <v>36533589848132.29</v>
+        <v>3.024263167042389e-05</v>
       </c>
       <c r="H192" t="n">
-        <v>6.79440684119677</v>
+        <v>9.565227169428979</v>
       </c>
       <c r="I192" t="n">
-        <v>0.1471600266025867</v>
+        <v>0.04842409168838611</v>
       </c>
       <c r="J192" t="n">
-        <v>1.698601710299192</v>
+        <v>2.391306792357245</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.327683</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>475160767152834.4</v>
+        <v>0.0004103987674781566</v>
       </c>
       <c r="C193" t="n">
-        <v>270889290170018.3</v>
+        <v>0.0002275657269775034</v>
       </c>
       <c r="D193" t="n">
-        <v>-152570814574638.6</v>
+        <v>-7.234456197126771e-05</v>
       </c>
       <c r="E193" t="n">
-        <v>11323833521681.25</v>
+        <v>6.993700654583055e-06</v>
       </c>
       <c r="F193" t="n">
-        <v>18316984927131.55</v>
+        <v>1.217288872065685e-05</v>
       </c>
       <c r="G193" t="n">
-        <v>26477230467197.79</v>
+        <v>1.684791806977968e-05</v>
       </c>
       <c r="H193" t="n">
-        <v>9.565227213498817</v>
+        <v>12.68366490076732</v>
       </c>
       <c r="I193" t="n">
-        <v>0.04842409080588747</v>
+        <v>0.3145026683028072</v>
       </c>
       <c r="J193" t="n">
-        <v>2.391306803374704</v>
+        <v>1.153060445524302</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>355092849353661.8</v>
+        <v>0.0003697364686038057</v>
       </c>
       <c r="C194" t="n">
-        <v>209253255536413.8</v>
+        <v>0.0001819227131836704</v>
       </c>
       <c r="D194" t="n">
-        <v>-72476335508787.69</v>
+        <v>-1.281497610546457e-05</v>
       </c>
       <c r="E194" t="n">
-        <v>8731410303209.432</v>
+        <v>8.544078322445754e-06</v>
       </c>
       <c r="F194" t="n">
-        <v>15234057314898.41</v>
+        <v>1.54802594776149e-05</v>
       </c>
       <c r="G194" t="n">
-        <v>20997110180125.29</v>
+        <v>2.095399322587829e-05</v>
       </c>
       <c r="H194" t="n">
-        <v>2.325511131006134</v>
+        <v>8.55282991603209</v>
       </c>
       <c r="I194" t="n">
-        <v>0.6761282972722735</v>
+        <v>0.07330194936264313</v>
       </c>
       <c r="J194" t="n">
-        <v>0.5813777827515334</v>
+        <v>2.138207479008023</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.332912</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>363576070782328.6</v>
+        <v>0.0003375864942135216</v>
       </c>
       <c r="C195" t="n">
-        <v>189521637379477.8</v>
+        <v>0.0001772885308067682</v>
       </c>
       <c r="D195" t="n">
-        <v>-54585530765883.19</v>
+        <v>-2.410286376746209e-06</v>
       </c>
       <c r="E195" t="n">
-        <v>8590566583948.858</v>
+        <v>7.828691278713388e-06</v>
       </c>
       <c r="F195" t="n">
-        <v>14918706771161.31</v>
+        <v>1.439160650664957e-05</v>
       </c>
       <c r="G195" t="n">
-        <v>20732973186665.27</v>
+        <v>1.928423793075861e-05</v>
       </c>
       <c r="H195" t="n">
-        <v>8.232081721323979</v>
+        <v>3.071925774375127</v>
       </c>
       <c r="I195" t="n">
-        <v>0.08343728642096938</v>
+        <v>0.5458617801958927</v>
       </c>
       <c r="J195" t="n">
-        <v>2.058020430330995</v>
+        <v>0.7679814435937817</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.337469</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>323701912137863.8</v>
+        <v>0.0003362389831665302</v>
       </c>
       <c r="C196" t="n">
-        <v>159272171258405.8</v>
+        <v>0.0001633722226289562</v>
       </c>
       <c r="D196" t="n">
-        <v>-11219429715929.62</v>
+        <v>1.577772295409993e-05</v>
       </c>
       <c r="E196" t="n">
-        <v>7480285891067.456</v>
+        <v>7.62297758056451e-06</v>
       </c>
       <c r="F196" t="n">
-        <v>13552868116612.93</v>
+        <v>1.420104477204916e-05</v>
       </c>
       <c r="G196" t="n">
-        <v>18345086977133.45</v>
+        <v>1.889880161465489e-05</v>
       </c>
       <c r="H196" t="n">
-        <v>8.552829984422372</v>
+        <v>8.620724024350908</v>
       </c>
       <c r="I196" t="n">
-        <v>0.07330194733112451</v>
+        <v>0.07131119126114246</v>
       </c>
       <c r="J196" t="n">
-        <v>2.138207496105593</v>
+        <v>2.155181006087727</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.342735</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>295554815053003.6</v>
+        <v>0.0002999041358998337</v>
       </c>
       <c r="C197" t="n">
-        <v>155214973832139.5</v>
+        <v>0.0001433040247237294</v>
       </c>
       <c r="D197" t="n">
-        <v>-2110190095372.5</v>
+        <v>1.669122756557711e-05</v>
       </c>
       <c r="E197" t="n">
-        <v>6853969111774.129</v>
+        <v>6.818454906740466e-06</v>
       </c>
       <c r="F197" t="n">
-        <v>12599759386735.46</v>
+        <v>1.286773284345777e-05</v>
       </c>
       <c r="G197" t="n">
-        <v>16883226888851.41</v>
+        <v>1.684299764867384e-05</v>
       </c>
       <c r="H197" t="n">
-        <v>3.071925762160328</v>
+        <v>1.033313022806697</v>
       </c>
       <c r="I197" t="n">
-        <v>0.5458617822150813</v>
+        <v>0.9047032741526911</v>
       </c>
       <c r="J197" t="n">
-        <v>0.7679814405400819</v>
+        <v>0.2583282557016742</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.342928</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>294375077898325.2</v>
+        <v>0.0002944360689054706</v>
       </c>
       <c r="C198" t="n">
-        <v>143031335451857</v>
+        <v>0.0001381649160241291</v>
       </c>
       <c r="D198" t="n">
-        <v>13813295301986</v>
+        <v>3.531529088182878e-05</v>
       </c>
       <c r="E198" t="n">
-        <v>6673868090147.952</v>
+        <v>6.556295379891172e-06</v>
       </c>
       <c r="F198" t="n">
-        <v>12432923814107.4</v>
+        <v>1.252271641433512e-05</v>
       </c>
       <c r="G198" t="n">
-        <v>16545779880422.44</v>
+        <v>1.649561739046176e-05</v>
       </c>
       <c r="H198" t="n">
-        <v>8.620723929842381</v>
+        <v>7.85141997086086</v>
       </c>
       <c r="I198" t="n">
-        <v>0.07131119399633766</v>
+        <v>0.09717502337309289</v>
       </c>
       <c r="J198" t="n">
-        <v>2.155180982460595</v>
+        <v>1.962854992715215</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.346943</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>262564151598914.8</v>
+        <v>0.0002909504225544872</v>
       </c>
       <c r="C199" t="n">
-        <v>125461756597013.8</v>
+        <v>0.0001346715552821516</v>
       </c>
       <c r="D199" t="n">
-        <v>14613062923388.12</v>
+        <v>2.236810037368244e-05</v>
       </c>
       <c r="E199" t="n">
-        <v>5969513643484.399</v>
+        <v>6.469394243005098e-06</v>
       </c>
       <c r="F199" t="n">
-        <v>11265617763683.89</v>
+        <v>1.224976355797075e-05</v>
       </c>
       <c r="G199" t="n">
-        <v>14745936671897.67</v>
+        <v>1.597698345241754e-05</v>
       </c>
       <c r="H199" t="n">
-        <v>1.033312977236261</v>
+        <v>1.474027131196442</v>
       </c>
       <c r="I199" t="n">
-        <v>0.9047032811749044</v>
+        <v>0.8312320605120969</v>
       </c>
       <c r="J199" t="n">
-        <v>0.2583282443090653</v>
+        <v>0.3685067827991104</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.348261</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>257776894054290.7</v>
+        <v>0.0003068144083216727</v>
       </c>
       <c r="C200" t="n">
-        <v>120962499959286.9</v>
+        <v>0.0001501925462288306</v>
       </c>
       <c r="D200" t="n">
-        <v>30918310953115.81</v>
+        <v>-1.93862804831496e-05</v>
       </c>
       <c r="E200" t="n">
-        <v>5739994654873.787</v>
+        <v>7.400651657131738e-06</v>
       </c>
       <c r="F200" t="n">
-        <v>10963558076947.32</v>
+        <v>1.33773339020448e-05</v>
       </c>
       <c r="G200" t="n">
-        <v>14441807464876.75</v>
+        <v>1.777769789371947e-05</v>
       </c>
       <c r="H200" t="n">
-        <v>7.851420000884881</v>
+        <v>3.561684291409094</v>
       </c>
       <c r="I200" t="n">
-        <v>0.09717502221045926</v>
+        <v>0.4685613042076956</v>
       </c>
       <c r="J200" t="n">
-        <v>1.96285500022122</v>
+        <v>0.8904210728522736</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.348582</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>254725233019458.3</v>
+        <v>0.0002867692000445767</v>
       </c>
       <c r="C201" t="n">
-        <v>117904084576139.8</v>
+        <v>0.0001412700817669089</v>
       </c>
       <c r="D201" t="n">
-        <v>19583128673697.38</v>
+        <v>1.138961523699985e-05</v>
       </c>
       <c r="E201" t="n">
-        <v>5663913257618.213</v>
+        <v>6.346998596198177e-06</v>
       </c>
       <c r="F201" t="n">
-        <v>10724589595379.48</v>
+        <v>1.178220083644377e-05</v>
       </c>
       <c r="G201" t="n">
-        <v>13987746763179.91</v>
+        <v>1.582516060208586e-05</v>
       </c>
       <c r="H201" t="n">
-        <v>1.474027198934679</v>
+        <v>8.248122366623846</v>
       </c>
       <c r="I201" t="n">
-        <v>0.8312320485667586</v>
+        <v>0.08290052708229875</v>
       </c>
       <c r="J201" t="n">
-        <v>0.3685067997336697</v>
+        <v>2.062030591655962</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.352053</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>268614050796752.2</v>
+        <v>0.0003724910035479419</v>
       </c>
       <c r="C202" t="n">
-        <v>131492612986541.8</v>
+        <v>0.0001896505777494874</v>
       </c>
       <c r="D202" t="n">
-        <v>-16972564306978.62</v>
+        <v>-0.000101355353191598</v>
       </c>
       <c r="E202" t="n">
-        <v>6479223165954.891</v>
+        <v>9.076959258578284e-06</v>
       </c>
       <c r="F202" t="n">
-        <v>11711770214870.3</v>
+        <v>1.518758353344824e-05</v>
       </c>
       <c r="G202" t="n">
-        <v>15564260724116.11</v>
+        <v>2.123923019213554e-05</v>
       </c>
       <c r="H202" t="n">
-        <v>3.561684294498029</v>
+        <v>4.977934032914293</v>
       </c>
       <c r="I202" t="n">
-        <v>0.4685613037442546</v>
+        <v>0.2895691043958039</v>
       </c>
       <c r="J202" t="n">
-        <v>0.8904210736245073</v>
+        <v>1.244483508228573</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.353596</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>251064599397392.4</v>
+        <v>0.0003608276458816227</v>
       </c>
       <c r="C203" t="n">
-        <v>123681052382346</v>
+        <v>0.000187420123703515</v>
       </c>
       <c r="D203" t="n">
-        <v>9971535032955.688</v>
+        <v>-0.0001150695151064177</v>
       </c>
       <c r="E203" t="n">
-        <v>5556756650083.198</v>
+        <v>8.808498927134815e-06</v>
       </c>
       <c r="F203" t="n">
-        <v>10315241429001.73</v>
+        <v>1.447048888778821e-05</v>
       </c>
       <c r="G203" t="n">
-        <v>13854826835149.62</v>
+        <v>2.041420094863525e-05</v>
       </c>
       <c r="H203" t="n">
-        <v>8.248122407896991</v>
+        <v>3.069344607894933</v>
       </c>
       <c r="I203" t="n">
-        <v>0.0829005257053885</v>
+        <v>0.5462885604122816</v>
       </c>
       <c r="J203" t="n">
-        <v>2.062030601974248</v>
+        <v>0.7673361519737332</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.357905000000001</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>326113489822352.5</v>
+        <v>0.0003573681251934594</v>
       </c>
       <c r="C204" t="n">
-        <v>166037866934942.5</v>
+        <v>0.0001846761005231591</v>
       </c>
       <c r="D204" t="n">
-        <v>-88735962892220</v>
+        <v>-0.0001051410868925487</v>
       </c>
       <c r="E204" t="n">
-        <v>7946819729885.916</v>
+        <v>8.731137337339506e-06</v>
       </c>
       <c r="F204" t="n">
-        <v>13296632179879.61</v>
+        <v>1.456002329482672e-05</v>
       </c>
       <c r="G204" t="n">
-        <v>18594810096630.18</v>
+        <v>2.051118635133049e-05</v>
       </c>
       <c r="H204" t="n">
-        <v>4.977934018548938</v>
+        <v>3.263987007221933</v>
       </c>
       <c r="I204" t="n">
-        <v>0.2895691058795544</v>
+        <v>0.5146583696283784</v>
       </c>
       <c r="J204" t="n">
-        <v>1.244483504637234</v>
+        <v>0.8159967518054831</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359834999999999</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>315902294776108.1</v>
+        <v>0.0003557360137351089</v>
       </c>
       <c r="C205" t="n">
-        <v>164085119388614.9</v>
+        <v>0.0001942292818119615</v>
       </c>
       <c r="D205" t="n">
-        <v>-100742624312652.8</v>
+        <v>-0.0001225146565702563</v>
       </c>
       <c r="E205" t="n">
-        <v>7711784427941.897</v>
+        <v>8.710590625234788e-06</v>
       </c>
       <c r="F205" t="n">
-        <v>12668820401780.45</v>
+        <v>1.414395863028299e-05</v>
       </c>
       <c r="G205" t="n">
-        <v>17872502267708.98</v>
+        <v>2.016668337749259e-05</v>
       </c>
       <c r="H205" t="n">
-        <v>3.06934457246553</v>
+        <v>4.52505326183049</v>
       </c>
       <c r="I205" t="n">
-        <v>0.5462885662716361</v>
+        <v>0.3395871392444004</v>
       </c>
       <c r="J205" t="n">
-        <v>0.7673361431163824</v>
+        <v>1.131263315457623</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.361894</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>312873506502758</v>
+        <v>0.0003517233545562289</v>
       </c>
       <c r="C206" t="n">
-        <v>161682744105472.4</v>
+        <v>0.0001863562832350471</v>
       </c>
       <c r="D206" t="n">
-        <v>-92050348322185.69</v>
+        <v>-0.0001230429228101976</v>
       </c>
       <c r="E206" t="n">
-        <v>7644054857906.413</v>
+        <v>8.689871450905831e-06</v>
       </c>
       <c r="F206" t="n">
-        <v>12747207209017.89</v>
+        <v>1.423119263174702e-05</v>
       </c>
       <c r="G206" t="n">
-        <v>17957412374324.7</v>
+        <v>2.015286310859046e-05</v>
       </c>
       <c r="H206" t="n">
-        <v>3.263986995808184</v>
+        <v>2.95539134596143</v>
       </c>
       <c r="I206" t="n">
-        <v>0.5146583714495505</v>
+        <v>0.5653180935277243</v>
       </c>
       <c r="J206" t="n">
-        <v>0.815996748952046</v>
+        <v>0.7388478364903575</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.363857</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>311444603637709.2</v>
+        <v>0.0003539434859674832</v>
       </c>
       <c r="C207" t="n">
-        <v>170046493204403.6</v>
+        <v>0.0001733785880479361</v>
       </c>
       <c r="D207" t="n">
-        <v>-107260797694636.8</v>
+        <v>-0.000116427871479893</v>
       </c>
       <c r="E207" t="n">
-        <v>7626066354675.086</v>
+        <v>8.236665631308368e-06</v>
       </c>
       <c r="F207" t="n">
-        <v>12382945277572.23</v>
+        <v>1.325941888770928e-05</v>
       </c>
       <c r="G207" t="n">
-        <v>17655802241698.11</v>
+        <v>1.908011690809141e-05</v>
       </c>
       <c r="H207" t="n">
-        <v>4.52505325220472</v>
+        <v>3.161036777435219</v>
       </c>
       <c r="I207" t="n">
-        <v>0.3395871403778348</v>
+        <v>0.531247064658521</v>
       </c>
       <c r="J207" t="n">
-        <v>1.13126331305118</v>
+        <v>0.7902591943588047</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.366045</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>307931545876952.8</v>
+        <v>0.0003524804379592516</v>
       </c>
       <c r="C208" t="n">
-        <v>163153733456737.5</v>
+        <v>0.0001773917978035646</v>
       </c>
       <c r="D208" t="n">
-        <v>-107723291562297.2</v>
+        <v>-0.000127413473963038</v>
       </c>
       <c r="E208" t="n">
-        <v>7607926836712.587</v>
+        <v>8.552992703816807e-06</v>
       </c>
       <c r="F208" t="n">
-        <v>12459318073077.75</v>
+        <v>1.378621912636431e-05</v>
       </c>
       <c r="G208" t="n">
-        <v>17643702660311.47</v>
+        <v>1.966463984131315e-05</v>
       </c>
       <c r="H208" t="n">
-        <v>2.95539132930834</v>
+        <v>2.778355946260114</v>
       </c>
       <c r="I208" t="n">
-        <v>0.5653180963350626</v>
+        <v>0.5955746086398523</v>
       </c>
       <c r="J208" t="n">
-        <v>0.7388478323270851</v>
+        <v>0.6945889865650285</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368041000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>309875257046328.4</v>
+        <v>0.0003117426225159579</v>
       </c>
       <c r="C209" t="n">
-        <v>151791844247277.8</v>
+        <v>0.0001560342023134701</v>
       </c>
       <c r="D209" t="n">
-        <v>-101931856477396.4</v>
+        <v>-9.137305740651445e-05</v>
       </c>
       <c r="E209" t="n">
-        <v>7211148045237.149</v>
+        <v>7.094330869748853e-06</v>
       </c>
       <c r="F209" t="n">
-        <v>11608536388907.21</v>
+        <v>1.146851339627201e-05</v>
       </c>
       <c r="G209" t="n">
-        <v>16704520247106.43</v>
+        <v>1.655091705797997e-05</v>
       </c>
       <c r="H209" t="n">
-        <v>3.161036773479374</v>
+        <v>3.746146695935918</v>
       </c>
       <c r="I209" t="n">
-        <v>0.5312470653020949</v>
+        <v>0.4414497693135647</v>
       </c>
       <c r="J209" t="n">
-        <v>0.7902591933698434</v>
+        <v>0.9365366739839796</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.369651</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>308594367830012.8</v>
+        <v>0.0002633181571860833</v>
       </c>
       <c r="C210" t="n">
-        <v>155305383683573.7</v>
+        <v>0.0001231613677685504</v>
       </c>
       <c r="D210" t="n">
-        <v>-111549681383693.6</v>
+        <v>-5.594795516483382e-05</v>
       </c>
       <c r="E210" t="n">
-        <v>7488090372621.064</v>
+        <v>5.962766157114592e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>12069746616287.07</v>
+        <v>9.974693275798787e-06</v>
       </c>
       <c r="G210" t="n">
-        <v>17216266322121.07</v>
+        <v>1.403625187720007e-05</v>
       </c>
       <c r="H210" t="n">
-        <v>2.77835597211292</v>
+        <v>4.023584739395512</v>
       </c>
       <c r="I210" t="n">
-        <v>0.5955746041635103</v>
+        <v>0.4028234120762519</v>
       </c>
       <c r="J210" t="n">
-        <v>0.69458899302823</v>
+        <v>1.005896184848878</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.374804</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>272928671000489.4</v>
+        <v>0.0002508010144019103</v>
       </c>
       <c r="C211" t="n">
-        <v>136606945326108.9</v>
+        <v>0.0001141096797461949</v>
       </c>
       <c r="D211" t="n">
-        <v>-79996526817109.62</v>
+        <v>-4.295118486096953e-05</v>
       </c>
       <c r="E211" t="n">
-        <v>6211041274436.396</v>
+        <v>5.596607994624076e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>10040610080243.33</v>
+        <v>9.500183853989073e-06</v>
       </c>
       <c r="G211" t="n">
-        <v>14490221965359.81</v>
+        <v>1.325961598146076e-05</v>
       </c>
       <c r="H211" t="n">
-        <v>3.746146536529964</v>
+        <v>4.645021830985128</v>
       </c>
       <c r="I211" t="n">
-        <v>0.4414497922520066</v>
+        <v>0.3256962375784307</v>
       </c>
       <c r="J211" t="n">
-        <v>0.9365366341324911</v>
+        <v>1.161255457746282</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.380088</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>230533361494989.8</v>
+        <v>0.0002608521569917321</v>
       </c>
       <c r="C212" t="n">
-        <v>107826989219736.3</v>
+        <v>0.0001227386962656531</v>
       </c>
       <c r="D212" t="n">
-        <v>-48982076509083.62</v>
+        <v>-5.195094030709471e-05</v>
       </c>
       <c r="E212" t="n">
-        <v>5220363609223.763</v>
+        <v>5.796019916742422e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>8732780115680.958</v>
+        <v>9.698050396665015e-06</v>
       </c>
       <c r="G212" t="n">
-        <v>12288648679684.65</v>
+        <v>1.371058500118992e-05</v>
       </c>
       <c r="H212" t="n">
-        <v>4.023584764410109</v>
+        <v>6.603094976277449</v>
       </c>
       <c r="I212" t="n">
-        <v>0.4028234087108547</v>
+        <v>0.1584093696978506</v>
       </c>
       <c r="J212" t="n">
-        <v>1.005896191102527</v>
+        <v>1.650773744069362</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382924</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>219574683084122.1</v>
+        <v>0.0002503246773637742</v>
       </c>
       <c r="C213" t="n">
-        <v>99902294240546.94</v>
+        <v>0.0001128075715187754</v>
       </c>
       <c r="D213" t="n">
-        <v>-37603487140758.88</v>
+        <v>-4.117181130950889e-05</v>
       </c>
       <c r="E213" t="n">
-        <v>4899794479300.226</v>
+        <v>5.525297548135172e-06</v>
       </c>
       <c r="F213" t="n">
-        <v>8317350152878.096</v>
+        <v>9.38474888992472e-06</v>
       </c>
       <c r="G213" t="n">
-        <v>11608708923417.13</v>
+        <v>1.313288425777454e-05</v>
       </c>
       <c r="H213" t="n">
-        <v>4.645021793678731</v>
+        <v>4.557470008948023</v>
       </c>
       <c r="I213" t="n">
-        <v>0.3256962418251876</v>
+        <v>0.3357873098552666</v>
       </c>
       <c r="J213" t="n">
-        <v>1.161255448419683</v>
+        <v>1.139367502237006</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.383343</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>228374394097528.5</v>
+        <v>0.000246309374097866</v>
       </c>
       <c r="C214" t="n">
-        <v>107456943184803</v>
+        <v>0.0001074441276555078</v>
       </c>
       <c r="D214" t="n">
-        <v>-45482716090644.69</v>
+        <v>-4.385770699528871e-05</v>
       </c>
       <c r="E214" t="n">
-        <v>5074378338139.877</v>
+        <v>5.424825803141501e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>8490581049418.97</v>
+        <v>9.154211267399011e-06</v>
       </c>
       <c r="G214" t="n">
-        <v>12003529411735.07</v>
+        <v>1.282641231852618e-05</v>
       </c>
       <c r="H214" t="n">
-        <v>6.603094960259559</v>
+        <v>4.01022804568286</v>
       </c>
       <c r="I214" t="n">
-        <v>0.158409370671604</v>
+        <v>0.4046234039739113</v>
       </c>
       <c r="J214" t="n">
-        <v>1.65077374006489</v>
+        <v>1.002557011420715</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383858999999999</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>219157653021867.8</v>
+        <v>0.0002439751825949623</v>
       </c>
       <c r="C215" t="n">
-        <v>98762306769591.77</v>
+        <v>0.0001049473939287853</v>
       </c>
       <c r="D215" t="n">
-        <v>-36045656883433.38</v>
+        <v>-4.46917208675303e-05</v>
       </c>
       <c r="E215" t="n">
-        <v>4837362634157.591</v>
+        <v>5.321662244893902e-06</v>
       </c>
       <c r="F215" t="n">
-        <v>8216287589530.824</v>
+        <v>8.956753683356261e-06</v>
       </c>
       <c r="G215" t="n">
-        <v>11497756096752.17</v>
+        <v>1.249954708399126e-05</v>
       </c>
       <c r="H215" t="n">
-        <v>4.557470049793547</v>
+        <v>2.067409228957426</v>
       </c>
       <c r="I215" t="n">
-        <v>0.3357873050891326</v>
+        <v>0.7233619560288779</v>
       </c>
       <c r="J215" t="n">
-        <v>1.139367512448387</v>
+        <v>0.5168523072393564</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.385955</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>215642280729371.4</v>
+        <v>0.0002463552488623995</v>
       </c>
       <c r="C216" t="n">
-        <v>94066645989237.97</v>
+        <v>0.0001083915267220157</v>
       </c>
       <c r="D216" t="n">
-        <v>-38397141476433.69</v>
+        <v>-3.120493069756855e-05</v>
       </c>
       <c r="E216" t="n">
-        <v>4749400273335.204</v>
+        <v>5.3922986048813e-06</v>
       </c>
       <c r="F216" t="n">
-        <v>8014453385689.317</v>
+        <v>9.170852705197708e-06</v>
       </c>
       <c r="G216" t="n">
-        <v>11229441890599.44</v>
+        <v>1.285816886145636e-05</v>
       </c>
       <c r="H216" t="n">
-        <v>4.010227891482302</v>
+        <v>10.09653658398292</v>
       </c>
       <c r="I216" t="n">
-        <v>0.4046234247893263</v>
+        <v>0.03883255671305967</v>
       </c>
       <c r="J216" t="n">
-        <v>1.002556972870575</v>
+        <v>2.52413414599573</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.389858</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>213598711075939.9</v>
+        <v>0.0002605161955197903</v>
       </c>
       <c r="C217" t="n">
-        <v>91880771814229.95</v>
+        <v>0.0001051810152365029</v>
       </c>
       <c r="D217" t="n">
-        <v>-39127315859069.62</v>
+        <v>-3.865762808212466e-05</v>
       </c>
       <c r="E217" t="n">
-        <v>4659081235072.589</v>
+        <v>5.702558207519123e-06</v>
       </c>
       <c r="F217" t="n">
-        <v>7841580523526.862</v>
+        <v>9.602323197890756e-06</v>
       </c>
       <c r="G217" t="n">
-        <v>10943273480295.36</v>
+        <v>1.348940409063506e-05</v>
       </c>
       <c r="H217" t="n">
-        <v>2.067409242487711</v>
+        <v>7.895423890716662</v>
       </c>
       <c r="I217" t="n">
-        <v>0.7233619535415032</v>
+        <v>0.09548494299483791</v>
       </c>
       <c r="J217" t="n">
-        <v>0.5168523106219277</v>
+        <v>1.973855972679166</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.393084</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>215682443617454.4</v>
+        <v>0.0002595881149456854</v>
       </c>
       <c r="C218" t="n">
-        <v>94896088217627.77</v>
+        <v>0.0001085559443748628</v>
       </c>
       <c r="D218" t="n">
-        <v>-27319716975139.88</v>
+        <v>-2.793604929059997e-05</v>
       </c>
       <c r="E218" t="n">
-        <v>4720922928096.231</v>
+        <v>5.678951863525508e-06</v>
       </c>
       <c r="F218" t="n">
-        <v>8029022857566.65</v>
+        <v>9.771200035751494e-06</v>
       </c>
       <c r="G218" t="n">
-        <v>11257244560089.5</v>
+        <v>1.36159788278121e-05</v>
       </c>
       <c r="H218" t="n">
-        <v>10.09653659012487</v>
+        <v>8.411194780685605</v>
       </c>
       <c r="I218" t="n">
-        <v>0.03883255661352283</v>
+        <v>0.0776252186130283</v>
       </c>
       <c r="J218" t="n">
-        <v>2.524134147531218</v>
+        <v>2.102798695171401</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.403415</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>228080261795863.2</v>
+        <v>0.0002491444951862125</v>
       </c>
       <c r="C219" t="n">
-        <v>92085305695357.66</v>
+        <v>0.0001172869457037828</v>
       </c>
       <c r="D219" t="n">
-        <v>-33844505601430.56</v>
+        <v>-2.293883118619161e-05</v>
       </c>
       <c r="E219" t="n">
-        <v>4992553211654.409</v>
+        <v>5.453990043082321e-06</v>
       </c>
       <c r="F219" t="n">
-        <v>8406772503013.865</v>
+        <v>9.504345872526389e-06</v>
       </c>
       <c r="G219" t="n">
-        <v>11809886947997.81</v>
+        <v>1.323925386163525e-05</v>
       </c>
       <c r="H219" t="n">
-        <v>7.895423958552729</v>
+        <v>9.341530959002089</v>
       </c>
       <c r="I219" t="n">
-        <v>0.0954849404107541</v>
+        <v>0.05310727440510204</v>
       </c>
       <c r="J219" t="n">
-        <v>1.973855989638182</v>
+        <v>2.335382739750522</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.414078</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>227267733282424.8</v>
+        <v>0.0002612690013382199</v>
       </c>
       <c r="C220" t="n">
-        <v>95040034636068.86</v>
+        <v>0.0001347981181301228</v>
       </c>
       <c r="D220" t="n">
-        <v>-24457832262662</v>
+        <v>-3.945138456958237e-05</v>
       </c>
       <c r="E220" t="n">
-        <v>4971886007484.359</v>
+        <v>5.682645131257697e-06</v>
       </c>
       <c r="F220" t="n">
-        <v>8554623084234.924</v>
+        <v>9.697093701358481e-06</v>
       </c>
       <c r="G220" t="n">
-        <v>11920702318962.69</v>
+        <v>1.367032263916033e-05</v>
       </c>
       <c r="H220" t="n">
-        <v>8.411194816902672</v>
+        <v>5.020073833788503</v>
       </c>
       <c r="I220" t="n">
-        <v>0.07762521747738162</v>
+        <v>0.2852439893899559</v>
       </c>
       <c r="J220" t="n">
-        <v>2.102798704225668</v>
+        <v>1.255018458447126</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.424364</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>218124411103608.8</v>
+        <v>0.0002753340689050272</v>
       </c>
       <c r="C221" t="n">
-        <v>102683970359411.2</v>
+        <v>0.0001463534877041987</v>
       </c>
       <c r="D221" t="n">
-        <v>-20082799972136.06</v>
+        <v>-4.775263453216067e-05</v>
       </c>
       <c r="E221" t="n">
-        <v>4774933373760.942</v>
+        <v>6.035489393801279e-06</v>
       </c>
       <c r="F221" t="n">
-        <v>8320993977376.294</v>
+        <v>1.017223232054487e-05</v>
       </c>
       <c r="G221" t="n">
-        <v>11590882028218.27</v>
+        <v>1.451633445595004e-05</v>
       </c>
       <c r="H221" t="n">
-        <v>9.341531073326053</v>
+        <v>8.343101862324355</v>
       </c>
       <c r="I221" t="n">
-        <v>0.0531072719047126</v>
+        <v>0.07978830804850756</v>
       </c>
       <c r="J221" t="n">
-        <v>2.335382768331513</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="B222" t="n">
-        <v>228739338668577.5</v>
-      </c>
-      <c r="C222" t="n">
-        <v>118014889692450</v>
-      </c>
-      <c r="D222" t="n">
-        <v>-34539434845234.62</v>
-      </c>
-      <c r="E222" t="n">
-        <v>4975119449465.432</v>
-      </c>
-      <c r="F222" t="n">
-        <v>8489743477919.999</v>
-      </c>
-      <c r="G222" t="n">
-        <v>11968279996718.92</v>
-      </c>
-      <c r="H222" t="n">
-        <v>5.020073844199213</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0.2852439883281742</v>
-      </c>
-      <c r="J222" t="n">
-        <v>1.255018461049803</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="B223" t="n">
-        <v>241053215313155.8</v>
-      </c>
-      <c r="C223" t="n">
-        <v>128131541698875.1</v>
-      </c>
-      <c r="D223" t="n">
-        <v>-41807126065888.38</v>
-      </c>
-      <c r="E223" t="n">
-        <v>5284032334876.369</v>
-      </c>
-      <c r="F223" t="n">
-        <v>8905724290662.096</v>
-      </c>
-      <c r="G223" t="n">
-        <v>12708957912902.27</v>
-      </c>
-      <c r="H223" t="n">
-        <v>8.343101833876533</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0.0797883089639584</v>
-      </c>
-      <c r="J223" t="n">
-        <v>2.085775458469133</v>
+        <v>2.085775465581089</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/a1/a4/a1_a4Fit.xlsx
+++ b/legendre_out/DATA/a1/a4/a1_a4Fit.xlsx
@@ -418,31 +418,31 @@
         <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>3.000154242034687e-05</v>
+        <v>3.013596076468496e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>1.78127227448675e-05</v>
+        <v>1.885493578306275e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.047189720196451e-05</v>
+        <v>-1.075046962080824e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>7.285549416914637e-07</v>
+        <v>7.319838598251805e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>1.1772376731729e-06</v>
+        <v>1.192448967574799e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>1.704076324701968e-06</v>
+        <v>1.716416291088565e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>4.689193176609835</v>
+        <v>3.682055305900015</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3206995731106633</v>
+        <v>0.4507412556701852</v>
       </c>
       <c r="J2" t="n">
-        <v>1.172298294152459</v>
+        <v>0.9205138264750038</v>
       </c>
     </row>
     <row r="3">
@@ -450,31 +450,31 @@
         <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>2.763146714319384e-05</v>
+        <v>2.73444058798592e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>1.840162701977008e-05</v>
+        <v>1.866958203522558e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.676354217421298e-06</v>
+        <v>-1.014315381450592e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>7.271074985798868e-07</v>
+        <v>7.241026217054068e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>1.223850726972304e-06</v>
+        <v>1.21280989412334e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>1.722861846932252e-06</v>
+        <v>1.718220393300702e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>6.109067749713084</v>
+        <v>7.999706914737358</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1911497465791668</v>
+        <v>0.09158893112134389</v>
       </c>
       <c r="J3" t="n">
-        <v>1.527266937428271</v>
+        <v>1.999926728684339</v>
       </c>
     </row>
     <row r="4">
@@ -482,31 +482,31 @@
         <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>2.577226830385066e-05</v>
+        <v>2.597950719870545e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>1.600546197708002e-05</v>
+        <v>1.641493840836167e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.730066719472177e-06</v>
+        <v>-8.604311115956281e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>6.969490423322151e-07</v>
+        <v>6.991994517872213e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>1.199733865754499e-06</v>
+        <v>1.207768132367175e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>1.650939563403511e-06</v>
+        <v>1.661121937002963e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>5.944170000135323</v>
+        <v>3.552983485482984</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2033566684298083</v>
+        <v>0.4698679529006338</v>
       </c>
       <c r="J4" t="n">
-        <v>1.486042500033831</v>
+        <v>0.8882458713707461</v>
       </c>
     </row>
     <row r="5">
@@ -514,31 +514,31 @@
         <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>2.428952509867424e-05</v>
+        <v>2.3793767784357e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>1.480226525267417e-05</v>
+        <v>1.622996791990157e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.597186280157087e-06</v>
+        <v>-7.91606539109782e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>6.820523175158766e-07</v>
+        <v>6.761779426267915e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>1.169568092989712e-06</v>
+        <v>1.154850104647385e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>1.609852708888266e-06</v>
+        <v>1.598284346112558e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>14.1145528264936</v>
+        <v>15.77992406861179</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006938283788120915</v>
+        <v>0.003329146695594702</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5286382066234</v>
+        <v>3.944981017152947</v>
       </c>
     </row>
     <row r="6">
@@ -546,31 +546,31 @@
         <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>2.372002301597441e-05</v>
+        <v>2.37288659355884e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.519710286274038e-05</v>
+        <v>1.522303909204755e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.976455464429317e-06</v>
+        <v>-8.073510347043551e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>7.180593818945264e-07</v>
+        <v>7.177632821571541e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>1.269542772228561e-06</v>
+        <v>1.244519940286037e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>1.709473091844523e-06</v>
+        <v>1.678570650867132e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>7.374103835235544</v>
+        <v>8.082346465373321</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1173906376986253</v>
+        <v>0.08860788822669412</v>
       </c>
       <c r="J6" t="n">
-        <v>1.843525958808886</v>
+        <v>2.02058661634333</v>
       </c>
     </row>
     <row r="7">
@@ -578,31 +578,31 @@
         <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>2.312764710066394e-05</v>
+        <v>2.349457740532336e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>1.610281367335447e-05</v>
+        <v>1.49637072897826e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.106877224280631e-06</v>
+        <v>-5.831957021545527e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>7.111465593766218e-07</v>
+        <v>7.16445984493078e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>1.232417935998823e-06</v>
+        <v>1.279219961988821e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>1.667005044600267e-06</v>
+        <v>1.690093471204141e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>8.513596864988441</v>
+        <v>5.550663235685249</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07447615633044775</v>
+        <v>0.2353119041363705</v>
       </c>
       <c r="J7" t="n">
-        <v>2.12839921624711</v>
+        <v>1.387665808921312</v>
       </c>
     </row>
     <row r="8">
@@ -610,31 +610,31 @@
         <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>2.258641991980371e-05</v>
+        <v>2.219550996168652e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>1.367058501383109e-05</v>
+        <v>1.464330481861506e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.207066458210446e-06</v>
+        <v>-6.707789282450462e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>6.401652195156967e-07</v>
+        <v>6.349645290303457e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>1.126665508379437e-06</v>
+        <v>1.098181925887812e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>1.531747286500168e-06</v>
+        <v>1.513459027185559e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>7.1102413586974</v>
+        <v>8.08660635649084</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1301759014344223</v>
+        <v>0.0884567171522339</v>
       </c>
       <c r="J8" t="n">
-        <v>1.77756033967435</v>
+        <v>2.02165158912271</v>
       </c>
     </row>
     <row r="9">
@@ -642,31 +642,31 @@
         <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>1.939084151484123e-05</v>
+        <v>1.941334741245873e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.322721331789946e-05</v>
+        <v>1.303923148625646e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.851964464850711e-06</v>
+        <v>-4.890173315057763e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>5.586463879270433e-07</v>
+        <v>5.611781066647514e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>9.883931905317586e-07</v>
+        <v>9.912261199349568e-07</v>
       </c>
       <c r="G9" t="n">
-        <v>1.343947712743851e-06</v>
+        <v>1.345762555020595e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>6.383802982123075</v>
+        <v>5.15272075381904</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1722605636412457</v>
+        <v>0.2719832628728315</v>
       </c>
       <c r="J9" t="n">
-        <v>1.595950745530769</v>
+        <v>1.28818018845476</v>
       </c>
     </row>
     <row r="10">
@@ -674,31 +674,31 @@
         <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>1.652177173379054e-05</v>
+        <v>1.70130104723668e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>9.471137942255725e-06</v>
+        <v>9.361576575936813e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.642529140702493e-06</v>
+        <v>-3.414460007484075e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>5.657218331053732e-07</v>
+        <v>5.718543863573073e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>1.030309135787862e-06</v>
+        <v>1.03992216173645e-06</v>
       </c>
       <c r="G10" t="n">
-        <v>1.289606715098436e-06</v>
+        <v>1.300662954131703e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>9.317651388583711</v>
+        <v>5.978639823372412</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05363200407674028</v>
+        <v>0.2007491533675565</v>
       </c>
       <c r="J10" t="n">
-        <v>2.329412847145928</v>
+        <v>1.494659955843103</v>
       </c>
     </row>
     <row r="11">
@@ -706,31 +706,31 @@
         <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>1.147244456758692e-05</v>
+        <v>1.145537781833911e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>6.691171295618998e-06</v>
+        <v>6.840817991651631e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.348017567157525e-06</v>
+        <v>-2.352407560460556e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>4.501475137096457e-07</v>
+        <v>4.449614243999268e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>8.315495074644358e-07</v>
+        <v>8.32378583674373e-07</v>
       </c>
       <c r="G11" t="n">
-        <v>1.073452644870645e-06</v>
+        <v>1.061744842671389e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>15.2875492315408</v>
+        <v>10.71767799252916</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004140514383950021</v>
+        <v>0.0299270303066923</v>
       </c>
       <c r="J11" t="n">
-        <v>3.821887307885199</v>
+        <v>2.679419498132291</v>
       </c>
     </row>
     <row r="12">
@@ -738,31 +738,31 @@
         <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>6.977790626549638e-06</v>
+        <v>6.584141806881476e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>4.203871527543474e-06</v>
+        <v>5.005957023710982e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>6.190119368030275e-07</v>
+        <v>9.816205767469147e-09</v>
       </c>
       <c r="E12" t="n">
-        <v>3.084259809642814e-07</v>
+        <v>3.017256285471103e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>5.951023194591419e-07</v>
+        <v>5.71988840570006e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>7.34610524699497e-07</v>
+        <v>7.201574575548078e-07</v>
       </c>
       <c r="H12" t="n">
-        <v>16.38632848719294</v>
+        <v>12.71157605894535</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002542254348718668</v>
+        <v>0.0127745478208109</v>
       </c>
       <c r="J12" t="n">
-        <v>4.096582121798236</v>
+        <v>3.177894014736339</v>
       </c>
     </row>
     <row r="13">
@@ -770,31 +770,31 @@
         <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>5.307894078801236e-06</v>
+        <v>5.22677609549112e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>2.651714283588003e-06</v>
+        <v>2.990001786571394e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.424679822633889e-07</v>
+        <v>-6.01296932197966e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>2.748294569379141e-07</v>
+        <v>2.704413966645773e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>5.110462905575971e-07</v>
+        <v>4.912637586303471e-07</v>
       </c>
       <c r="G13" t="n">
-        <v>6.389538339755037e-07</v>
+        <v>6.27087691861796e-07</v>
       </c>
       <c r="H13" t="n">
-        <v>10.90955817410301</v>
+        <v>15.4816086090792</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02759948165977852</v>
+        <v>0.003799818055927244</v>
       </c>
       <c r="J13" t="n">
-        <v>2.727389543525752</v>
+        <v>3.870402152269799</v>
       </c>
     </row>
     <row r="14">
@@ -802,31 +802,31 @@
         <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>2.469326465206197e-05</v>
+        <v>2.509366992335066e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>9.846775181506025e-06</v>
+        <v>1.072549998288626e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.560060308383167e-05</v>
+        <v>-1.653367533867435e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>6.695362803015539e-07</v>
+        <v>6.811062780065028e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>9.983880865610605e-07</v>
+        <v>1.007920781322524e-06</v>
       </c>
       <c r="G14" t="n">
-        <v>1.452826386349682e-06</v>
+        <v>1.480000993378741e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>8.41479907156771</v>
+        <v>11.42738872697097</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07751227763811147</v>
+        <v>0.02215825893216282</v>
       </c>
       <c r="J14" t="n">
-        <v>2.103699767891928</v>
+        <v>2.856847181742742</v>
       </c>
     </row>
     <row r="15">
@@ -834,31 +834,31 @@
         <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>3.874241541531473e-05</v>
+        <v>3.837213333776005e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>1.778356817413681e-05</v>
+        <v>1.865797000193328e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.758940053932236e-05</v>
+        <v>-1.851245978072513e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>9.712309325528824e-07</v>
+        <v>9.674711879002637e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>1.499451535318876e-06</v>
+        <v>1.484810611291254e-06</v>
       </c>
       <c r="G15" t="n">
-        <v>2.176353891009622e-06</v>
+        <v>2.154616875102543e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>7.477846057638707</v>
+        <v>7.020728103227206</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1126901650886912</v>
+        <v>0.1347968861729194</v>
       </c>
       <c r="J15" t="n">
-        <v>1.869461514409677</v>
+        <v>1.755182025806802</v>
       </c>
     </row>
     <row r="16">
@@ -866,31 +866,31 @@
         <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>5.253121026628386e-05</v>
+        <v>5.259493742933859e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>2.611420301844196e-05</v>
+        <v>2.572830158158165e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.171925985858655e-05</v>
+        <v>-2.162942870021516e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>1.313359214801878e-06</v>
+        <v>1.316479725580333e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>2.048793132788536e-06</v>
+        <v>2.050579847497339e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>2.983525339756514e-06</v>
+        <v>2.994117992440897e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>8.279150399047822</v>
+        <v>8.815308124979609</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08187146434929413</v>
+        <v>0.06588538130756841</v>
       </c>
       <c r="J16" t="n">
-        <v>2.069787599761955</v>
+        <v>2.203827031244902</v>
       </c>
     </row>
     <row r="17">
@@ -898,31 +898,31 @@
         <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>4.957108371890544e-05</v>
+        <v>4.90735084620642e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>2.300972230755846e-05</v>
+        <v>2.351548132644871e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.050807879164091e-05</v>
+        <v>-2.067564357583176e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>1.252879194038493e-06</v>
+        <v>1.254728180310049e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>1.984368446278934e-06</v>
+        <v>2.0072780271173e-06</v>
       </c>
       <c r="G17" t="n">
-        <v>2.832578925950644e-06</v>
+        <v>2.842913943911707e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>9.04966318196991</v>
+        <v>13.52206730694632</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05987005440565888</v>
+        <v>0.008987521844625198</v>
       </c>
       <c r="J17" t="n">
-        <v>2.262415795492478</v>
+        <v>3.380516826736581</v>
       </c>
     </row>
     <row r="18">
@@ -930,31 +930,31 @@
         <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>5.027632850608362e-05</v>
+        <v>5.06268065992623e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>2.669311258064623e-05</v>
+        <v>2.590369134707176e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.550058193820018e-05</v>
+        <v>-2.495595310883897e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>1.309680956108659e-06</v>
+        <v>1.310078715338753e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>2.060694256928517e-06</v>
+        <v>2.030886715409736e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>2.954390509391063e-06</v>
+        <v>2.946802680608942e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>11.05360892951204</v>
+        <v>8.74947154093601</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02596808477925766</v>
+        <v>0.06767581798160044</v>
       </c>
       <c r="J18" t="n">
-        <v>2.76340223237801</v>
+        <v>2.187367885234003</v>
       </c>
     </row>
     <row r="19">
@@ -962,31 +962,31 @@
         <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>4.98579844617926e-05</v>
+        <v>5.009866678585708e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>2.645737110964416e-05</v>
+        <v>2.538683040786423e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.590797826026096e-05</v>
+        <v>-2.502567938931466e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>1.321657388487153e-06</v>
+        <v>1.323923439861345e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>2.051846442340508e-06</v>
+        <v>2.067060608547604e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>2.964215562855836e-06</v>
+        <v>2.977918712610506e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>9.014027393514276</v>
+        <v>10.42774633852969</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06074981759448679</v>
+        <v>0.03380695362898238</v>
       </c>
       <c r="J19" t="n">
-        <v>2.253506848378569</v>
+        <v>2.606936584632422</v>
       </c>
     </row>
     <row r="20">
@@ -994,31 +994,31 @@
         <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>5.020410439878777e-05</v>
+        <v>5.037189875441223e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>2.608880626670756e-05</v>
+        <v>2.578334882169163e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.602052676249217e-05</v>
+        <v>-2.599960312435086e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>1.373399540458392e-06</v>
+        <v>1.367906566966415e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>2.162099877276497e-06</v>
+        <v>2.135507877374659e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>3.09434938669874e-06</v>
+        <v>3.064142699822442e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>9.759389879536954</v>
+        <v>7.543765601749975</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04468175348249061</v>
+        <v>0.1097948277969637</v>
       </c>
       <c r="J20" t="n">
-        <v>2.439847469884239</v>
+        <v>1.885941400437494</v>
       </c>
     </row>
     <row r="21">
@@ -1026,31 +1026,31 @@
         <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>5.44431916291678e-05</v>
+        <v>5.432585144255742e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>2.891132518198322e-05</v>
+        <v>2.958580084434769e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.368250004313073e-05</v>
+        <v>-3.480325764166508e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>1.544646428130132e-06</v>
+        <v>1.538200313079434e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>2.440800305296366e-06</v>
+        <v>2.418663951586622e-06</v>
       </c>
       <c r="G21" t="n">
-        <v>3.421997357410354e-06</v>
+        <v>3.388452571923929e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>6.822894144579479</v>
+        <v>8.599538161029312</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1455487346580308</v>
+        <v>0.07192683691060396</v>
       </c>
       <c r="J21" t="n">
-        <v>1.70572353614487</v>
+        <v>2.149884540257328</v>
       </c>
     </row>
     <row r="22">
@@ -1058,31 +1058,31 @@
         <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>7.410724015313657e-05</v>
+        <v>7.400798245128042e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>5.341227584172557e-05</v>
+        <v>5.343339532558932e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.021204830749502e-05</v>
+        <v>-8.005654805844957e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>2.509090116165247e-06</v>
+        <v>2.549786374127327e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>3.419636475462134e-06</v>
+        <v>3.547681302313182e-06</v>
       </c>
       <c r="G22" t="n">
-        <v>5.269804548025242e-06</v>
+        <v>5.346245323847421e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>5.165254280866831</v>
+        <v>6.352290375614914</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2707577495343503</v>
+        <v>0.1743384819868222</v>
       </c>
       <c r="J22" t="n">
-        <v>1.291313570216708</v>
+        <v>1.588072593903729</v>
       </c>
     </row>
     <row r="23">
@@ -1090,31 +1090,31 @@
         <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>9.072100005241123e-05</v>
+        <v>9.002170020518823e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>6.451242047780966e-05</v>
+        <v>6.190231371168539e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0001101482165858535</v>
+        <v>-0.0001095007406144171</v>
       </c>
       <c r="E23" t="n">
-        <v>3.27742144954006e-06</v>
+        <v>3.286660534363732e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>4.798833543475506e-06</v>
+        <v>5.129627741433582e-06</v>
       </c>
       <c r="G23" t="n">
-        <v>6.964943565662214e-06</v>
+        <v>7.122041000753697e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>3.275383508128299</v>
+        <v>2.917539622633401</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5128419582092506</v>
+        <v>0.5717184305096701</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8188458770320748</v>
+        <v>0.7293849056583502</v>
       </c>
     </row>
     <row r="24">
@@ -1122,31 +1122,31 @@
         <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0001116529714359026</v>
+        <v>0.0001124568517637912</v>
       </c>
       <c r="C24" t="n">
-        <v>8.397300579944625e-05</v>
+        <v>8.252299736830896e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0001517119032965833</v>
+        <v>-0.0001495438617655731</v>
       </c>
       <c r="E24" t="n">
-        <v>4.20661995610511e-06</v>
+        <v>4.239601045437721e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>5.375956694781085e-06</v>
+        <v>5.748936872851788e-06</v>
       </c>
       <c r="G24" t="n">
-        <v>8.519161817909605e-06</v>
+        <v>8.696232843822056e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>5.409395577776905</v>
+        <v>5.49686334328165</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2478092202813828</v>
+        <v>0.2400053318049307</v>
       </c>
       <c r="J24" t="n">
-        <v>1.352348894444226</v>
+        <v>1.374215835820412</v>
       </c>
     </row>
     <row r="25">
@@ -1154,31 +1154,31 @@
         <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0001185090348680956</v>
+        <v>0.000118485441498581</v>
       </c>
       <c r="C25" t="n">
-        <v>8.124446642104332e-05</v>
+        <v>8.013562459546789e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0001615358975278831</v>
+        <v>-0.0001624091299121696</v>
       </c>
       <c r="E25" t="n">
-        <v>4.10807307660879e-06</v>
+        <v>4.14246291227134e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>5.253786811968713e-06</v>
+        <v>6.016703955964576e-06</v>
       </c>
       <c r="G25" t="n">
-        <v>8.221006306282778e-06</v>
+        <v>8.55334960061107e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7030075736178883</v>
+        <v>0.5543691405844323</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9509575086418054</v>
+        <v>0.9679968272039076</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1757518934044721</v>
+        <v>0.1385922851461081</v>
       </c>
     </row>
     <row r="26">
@@ -1186,31 +1186,31 @@
         <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0001083920689375963</v>
+        <v>0.0001074816500158078</v>
       </c>
       <c r="C26" t="n">
-        <v>7.232490097256979e-05</v>
+        <v>7.355762814667615e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0001443361874331376</v>
+        <v>-0.0001439366358163797</v>
       </c>
       <c r="E26" t="n">
-        <v>4.054890730576845e-06</v>
+        <v>4.00777960937043e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>5.886449235305297e-06</v>
+        <v>5.262962364196872e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>8.380641211534797e-06</v>
+        <v>8.036022600829646e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>5.108859716040768</v>
+        <v>5.302993109456425</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2763090799018289</v>
+        <v>0.2575968646610255</v>
       </c>
       <c r="J26" t="n">
-        <v>1.277214929010192</v>
+        <v>1.325748277364106</v>
       </c>
     </row>
     <row r="27">
@@ -1218,31 +1218,31 @@
         <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0001017944448485512</v>
+        <v>0.0001057185612135713</v>
       </c>
       <c r="C27" t="n">
-        <v>7.744012836766279e-05</v>
+        <v>7.533002398276618e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0001402042526700719</v>
+        <v>-0.0001443871218103874</v>
       </c>
       <c r="E27" t="n">
-        <v>3.944349957990391e-06</v>
+        <v>4.044329864761343e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>4.919099621782524e-06</v>
+        <v>5.665955252410674e-06</v>
       </c>
       <c r="G27" t="n">
-        <v>7.994790225486291e-06</v>
+        <v>8.335493074651805e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>6.430802415173222</v>
+        <v>4.199382347473427</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1692029435666012</v>
+        <v>0.3796943513062396</v>
       </c>
       <c r="J27" t="n">
-        <v>1.607700603793305</v>
+        <v>1.049845586868357</v>
       </c>
     </row>
     <row r="28">
@@ -1250,31 +1250,31 @@
         <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0001036963484720066</v>
+        <v>0.0001045508455610446</v>
       </c>
       <c r="C28" t="n">
-        <v>7.476410535063496e-05</v>
+        <v>7.289226696887213e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0001448516690045284</v>
+        <v>-0.0001424842976130992</v>
       </c>
       <c r="E28" t="n">
-        <v>4.011260185567302e-06</v>
+        <v>3.96471295651785e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>5.521302190246276e-06</v>
+        <v>5.411666856248045e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>8.200546646983089e-06</v>
+        <v>8.18483169014005e-06</v>
       </c>
       <c r="H28" t="n">
-        <v>2.275159315379479</v>
+        <v>3.565190203719883</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6852952787038942</v>
+        <v>0.4680355053964599</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5687898288448698</v>
+        <v>0.8912975509299707</v>
       </c>
     </row>
     <row r="29">
@@ -1282,31 +1282,31 @@
         <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0001049865874526784</v>
+        <v>0.0001063077447969009</v>
       </c>
       <c r="C29" t="n">
-        <v>7.638840399749407e-05</v>
+        <v>7.371619579227597e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0001388209406816949</v>
+        <v>-0.0001367697321625028</v>
       </c>
       <c r="E29" t="n">
-        <v>3.853961803306445e-06</v>
+        <v>3.900679435304871e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>5.230508445757743e-06</v>
+        <v>5.715791011505831e-06</v>
       </c>
       <c r="G29" t="n">
-        <v>7.966632668291647e-06</v>
+        <v>8.318414343149847e-06</v>
       </c>
       <c r="H29" t="n">
-        <v>4.955950205951513</v>
+        <v>5.740647777318447</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2918472162988566</v>
+        <v>0.2193721463452309</v>
       </c>
       <c r="J29" t="n">
-        <v>1.238987551487878</v>
+        <v>1.435161944329612</v>
       </c>
     </row>
     <row r="30">
@@ -1314,31 +1314,31 @@
         <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0001010574246729614</v>
+        <v>0.0001006728540447099</v>
       </c>
       <c r="C30" t="n">
-        <v>7.250719771413519e-05</v>
+        <v>6.853608658447121e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0001403278951806152</v>
+        <v>-0.000135932443695398</v>
       </c>
       <c r="E30" t="n">
-        <v>3.724859478181301e-06</v>
+        <v>3.734512602566003e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>4.729266215262623e-06</v>
+        <v>5.374951271659792e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>7.391768948029357e-06</v>
+        <v>7.701477515625809e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>2.369238068274734</v>
+        <v>0.9997440738432767</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6681934337525948</v>
+        <v>0.9098347938508846</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5923095170686836</v>
+        <v>0.2499360184608192</v>
       </c>
     </row>
     <row r="31">
@@ -1346,31 +1346,31 @@
         <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>9.583723437422295e-05</v>
+        <v>9.580687472645626e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>6.588448164533328e-05</v>
+        <v>6.748491335842563e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0001394128066311931</v>
+        <v>-0.0001417377009812603</v>
       </c>
       <c r="E31" t="n">
-        <v>3.683007574751136e-06</v>
+        <v>3.706047776594e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>4.697326595512357e-06</v>
+        <v>4.836195075704701e-06</v>
       </c>
       <c r="G31" t="n">
-        <v>7.180100997965232e-06</v>
+        <v>7.231385907430769e-06</v>
       </c>
       <c r="H31" t="n">
-        <v>2.16439463203139</v>
+        <v>2.11044222964306</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7055528648962955</v>
+        <v>0.7154542135987065</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5410986580078475</v>
+        <v>0.5276105574107651</v>
       </c>
     </row>
     <row r="32">
@@ -1378,31 +1378,31 @@
         <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>8.953769891951617e-05</v>
+        <v>8.945567150757317e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>6.698017703514789e-05</v>
+        <v>6.558339499530807e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0001342945323580813</v>
+        <v>-0.000131589535371214</v>
       </c>
       <c r="E32" t="n">
-        <v>3.602302612447361e-06</v>
+        <v>3.66012387774285e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>4.788659933248531e-06</v>
+        <v>5.123722149299429e-06</v>
       </c>
       <c r="G32" t="n">
-        <v>7.218003450872108e-06</v>
+        <v>7.318202551495463e-06</v>
       </c>
       <c r="H32" t="n">
-        <v>1.155970129488438</v>
+        <v>0.8126559677435037</v>
       </c>
       <c r="I32" t="n">
-        <v>0.885293272919178</v>
+        <v>0.9367433472881568</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2889925323721095</v>
+        <v>0.2031639919358759</v>
       </c>
     </row>
     <row r="33">
@@ -1410,31 +1410,31 @@
         <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>8.533961816792934e-05</v>
+        <v>8.642855696680949e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>6.076048229913105e-05</v>
+        <v>6.03680331843946e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0001262523778859053</v>
+        <v>-0.0001281321345479149</v>
       </c>
       <c r="E33" t="n">
-        <v>3.354315572364757e-06</v>
+        <v>3.396651365069421e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>4.05821212174415e-06</v>
+        <v>4.237953186830389e-06</v>
       </c>
       <c r="G33" t="n">
-        <v>6.669682521694345e-06</v>
+        <v>6.691925915354364e-06</v>
       </c>
       <c r="H33" t="n">
-        <v>3.108381513784303</v>
+        <v>2.134163696137772</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5398546660422341</v>
+        <v>0.7110987495012093</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7770953784460757</v>
+        <v>0.5335409240344431</v>
       </c>
     </row>
     <row r="34">
@@ -1442,31 +1442,31 @@
         <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>7.959102923424123e-05</v>
+        <v>7.998496971969311e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>5.70400615525231e-05</v>
+        <v>5.494208292427508e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0001179913843810736</v>
+        <v>-0.0001171212611489991</v>
       </c>
       <c r="E34" t="n">
-        <v>3.420750810179524e-06</v>
+        <v>3.420886997078538e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>4.32179778627774e-06</v>
+        <v>4.759089512002152e-06</v>
       </c>
       <c r="G34" t="n">
-        <v>6.690208524586081e-06</v>
+        <v>6.885240849457662e-06</v>
       </c>
       <c r="H34" t="n">
-        <v>3.942028253962383</v>
+        <v>5.480722854597659</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4139083214081158</v>
+        <v>0.2414291600065439</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9855070634905957</v>
+        <v>1.370180713649415</v>
       </c>
     </row>
     <row r="35">
@@ -1474,31 +1474,31 @@
         <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>7.796540098685737e-05</v>
+        <v>7.862316008179122e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>5.670471815851145e-05</v>
+        <v>5.321574377202479e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0001149761005864912</v>
+        <v>-0.0001141360257615668</v>
       </c>
       <c r="E35" t="n">
-        <v>3.103134779898495e-06</v>
+        <v>3.179152667056967e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>4.088059018250399e-06</v>
+        <v>4.473286302424882e-06</v>
       </c>
       <c r="G35" t="n">
-        <v>6.21754309487908e-06</v>
+        <v>6.388512459844603e-06</v>
       </c>
       <c r="H35" t="n">
-        <v>1.666355738378213</v>
+        <v>0.766753844834962</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7968196850861453</v>
+        <v>0.9428487824524737</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4165889345945532</v>
+        <v>0.1916884612087405</v>
       </c>
     </row>
     <row r="36">
@@ -1506,31 +1506,31 @@
         <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>6.993975397670115e-05</v>
+        <v>6.85006711179735e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>4.461173157526952e-05</v>
+        <v>4.758530101494998e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>-9.787010415568138e-05</v>
+        <v>-9.877803985476158e-05</v>
       </c>
       <c r="E36" t="n">
-        <v>2.823516031379127e-06</v>
+        <v>2.815104315860951e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>4.148440179234872e-06</v>
+        <v>3.645409979798193e-06</v>
       </c>
       <c r="G36" t="n">
-        <v>5.781690044625634e-06</v>
+        <v>5.531349787499398e-06</v>
       </c>
       <c r="H36" t="n">
-        <v>4.57114623108038</v>
+        <v>6.484803781265462</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3341945353385813</v>
+        <v>0.1657503898072986</v>
       </c>
       <c r="J36" t="n">
-        <v>1.142786557770095</v>
+        <v>1.621200945316366</v>
       </c>
     </row>
     <row r="37">
@@ -1538,31 +1538,31 @@
         <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>6.000380166294159e-05</v>
+        <v>6.090785093594187e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>4.452320058247687e-05</v>
+        <v>4.304350357012234e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.376672253026142e-05</v>
+        <v>-8.49152840941464e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>2.346593567094264e-06</v>
+        <v>2.321291098343437e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>2.980479836790409e-06</v>
+        <v>2.941648365581015e-06</v>
       </c>
       <c r="G37" t="n">
-        <v>4.674299945132738e-06</v>
+        <v>4.589218409141874e-06</v>
       </c>
       <c r="H37" t="n">
-        <v>7.8375321086152</v>
+        <v>4.302838160581594</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09771420296844117</v>
+        <v>0.3665698360576687</v>
       </c>
       <c r="J37" t="n">
-        <v>1.9593830271538</v>
+        <v>1.075709540145398</v>
       </c>
     </row>
     <row r="38">
@@ -1570,31 +1570,31 @@
         <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>5.092762941309818e-05</v>
+        <v>5.190626331316718e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>3.803851410095422e-05</v>
+        <v>3.42648988954492e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.644008569746241e-05</v>
+        <v>-6.744688664944008e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>1.912841166095105e-06</v>
+        <v>1.938044408519377e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>2.279230140792795e-06</v>
+        <v>2.700718482058041e-06</v>
       </c>
       <c r="G38" t="n">
-        <v>3.765694710098489e-06</v>
+        <v>3.926445376851212e-06</v>
       </c>
       <c r="H38" t="n">
-        <v>8.816143924134098</v>
+        <v>2.667414633227459</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06586294303396435</v>
+        <v>0.614928553852943</v>
       </c>
       <c r="J38" t="n">
-        <v>2.204035981033524</v>
+        <v>0.6668536583068647</v>
       </c>
     </row>
     <row r="39">
@@ -1602,31 +1602,31 @@
         <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>4.27190671864446e-05</v>
+        <v>4.278069200772593e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>2.989071872950149e-05</v>
+        <v>2.77895889855962e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.960143757867757e-05</v>
+        <v>-4.890111969029984e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>1.498310381255116e-06</v>
+        <v>1.524738452079965e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>2.030886089113228e-06</v>
+        <v>2.353728800855508e-06</v>
       </c>
       <c r="G39" t="n">
-        <v>3.094256154400252e-06</v>
+        <v>3.252450365021131e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>2.77985861165806</v>
+        <v>3.70095876621487</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5953144536717296</v>
+        <v>0.44798649219481</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6949646529145149</v>
+        <v>0.9252396915537174</v>
       </c>
     </row>
     <row r="40">
@@ -1634,31 +1634,31 @@
         <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>4.85784826572358e-05</v>
+        <v>4.922614444037793e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>3.618294685903901e-05</v>
+        <v>3.385528050324165e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>-6.950535078010568e-05</v>
+        <v>-6.59550417074607e-05</v>
       </c>
       <c r="E40" t="n">
-        <v>1.879519024396914e-06</v>
+        <v>1.91503210879908e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>2.206061206348202e-06</v>
+        <v>2.866161060731919e-06</v>
       </c>
       <c r="G40" t="n">
-        <v>3.659218759246458e-06</v>
+        <v>3.993067443051666e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>2.452398285346072</v>
+        <v>0.93689620473788</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6531794154983763</v>
+        <v>0.91920880647268</v>
       </c>
       <c r="J40" t="n">
-        <v>0.613099571336518</v>
+        <v>0.23422405118447</v>
       </c>
     </row>
     <row r="41">
@@ -1666,31 +1666,31 @@
         <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>3.618587641946012e-05</v>
+        <v>3.573212987980849e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>1.910929015216261e-05</v>
+        <v>1.984914450074317e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>-3.127581813473949e-05</v>
+        <v>-3.244607291664803e-05</v>
       </c>
       <c r="E41" t="n">
-        <v>1.297696596297212e-06</v>
+        <v>1.289592384570484e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>2.048911152386876e-06</v>
+        <v>1.929191290814482e-06</v>
       </c>
       <c r="G41" t="n">
-        <v>2.785539991665528e-06</v>
+        <v>2.710561087135104e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>3.586095569737085</v>
+        <v>5.056507924887081</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4649086291030278</v>
+        <v>0.2815484191606877</v>
       </c>
       <c r="J41" t="n">
-        <v>0.8965238924342713</v>
+        <v>1.26412698122177</v>
       </c>
     </row>
     <row r="42">
@@ -1698,31 +1698,31 @@
         <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>3.74078023162222e-05</v>
+        <v>3.752645477802149e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>1.734140460933441e-05</v>
+        <v>1.879622005326617e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.136741350460375e-05</v>
+        <v>-2.198935480090214e-05</v>
       </c>
       <c r="E42" t="n">
-        <v>1.14764780879032e-06</v>
+        <v>1.133887319258225e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>1.890378994229301e-06</v>
+        <v>1.786951190317696e-06</v>
       </c>
       <c r="G42" t="n">
-        <v>2.571161459553252e-06</v>
+        <v>2.509519288588542e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>9.747127275135419</v>
+        <v>6.193029256793981</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04490967203382437</v>
+        <v>0.1851890457285122</v>
       </c>
       <c r="J42" t="n">
-        <v>2.436781818783855</v>
+        <v>1.548257314198495</v>
       </c>
     </row>
     <row r="43">
@@ -1730,31 +1730,31 @@
         <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>3.575661664910162e-05</v>
+        <v>3.610326903559249e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>1.750671151666219e-05</v>
+        <v>1.750566177705456e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.969639882640699e-05</v>
+        <v>-1.970011169971216e-05</v>
       </c>
       <c r="E43" t="n">
-        <v>1.037175554157505e-06</v>
+        <v>1.042956650327401e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>1.625127992058587e-06</v>
+        <v>1.634565206208283e-06</v>
       </c>
       <c r="G43" t="n">
-        <v>2.305179300579028e-06</v>
+        <v>2.315942510248984e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>6.788266079905385</v>
+        <v>7.283942275346805</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1475094866782071</v>
+        <v>0.1216226515639054</v>
       </c>
       <c r="J43" t="n">
-        <v>1.697066519976346</v>
+        <v>1.820985568836701</v>
       </c>
     </row>
     <row r="44">
@@ -1762,31 +1762,31 @@
         <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>3.178049042586882e-05</v>
+        <v>3.172248334113728e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>1.505665765259322e-05</v>
+        <v>1.456048476870849e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.307370396177374e-05</v>
+        <v>-1.272870772077888e-05</v>
       </c>
       <c r="E44" t="n">
-        <v>9.023193006082339e-07</v>
+        <v>9.06706424504779e-07</v>
       </c>
       <c r="F44" t="n">
-        <v>1.475540770512849e-06</v>
+        <v>1.485007126808344e-06</v>
       </c>
       <c r="G44" t="n">
-        <v>2.037429590652424e-06</v>
+        <v>2.048070041953652e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>12.32246712537029</v>
+        <v>9.994982341083366</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01510769123901244</v>
+        <v>0.04051228866764667</v>
       </c>
       <c r="J44" t="n">
-        <v>3.080616781342573</v>
+        <v>2.498745585270842</v>
       </c>
     </row>
     <row r="45">
@@ -1794,31 +1794,31 @@
         <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>3.001232669975656e-05</v>
+        <v>3.014808373302171e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>1.108095993073402e-05</v>
+        <v>1.145709332121939e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.088293592315515e-05</v>
+        <v>-1.171730971498924e-05</v>
       </c>
       <c r="E45" t="n">
-        <v>8.581268239665896e-07</v>
+        <v>8.614276323283258e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>1.432367858239155e-06</v>
+        <v>1.428600188769484e-06</v>
       </c>
       <c r="G45" t="n">
-        <v>1.940785352806461e-06</v>
+        <v>1.937866070732371e-06</v>
       </c>
       <c r="H45" t="n">
-        <v>6.385112748660653</v>
+        <v>7.206613625454435</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1721746839415746</v>
+        <v>0.1253642354555829</v>
       </c>
       <c r="J45" t="n">
-        <v>1.596278187165163</v>
+        <v>1.801653406363609</v>
       </c>
     </row>
     <row r="46">
@@ -1826,31 +1826,31 @@
         <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>2.965765299718466e-05</v>
+        <v>2.901938112077972e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>1.060961320724015e-05</v>
+        <v>1.118329077358421e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.120373054926892e-05</v>
+        <v>-1.081281046369402e-05</v>
       </c>
       <c r="E46" t="n">
-        <v>8.150933225154343e-07</v>
+        <v>8.165753631151441e-07</v>
       </c>
       <c r="F46" t="n">
-        <v>1.351975577955251e-06</v>
+        <v>1.382638892364939e-06</v>
       </c>
       <c r="G46" t="n">
-        <v>1.848417179462124e-06</v>
+        <v>1.85942533733821e-06</v>
       </c>
       <c r="H46" t="n">
-        <v>6.616487312114147</v>
+        <v>9.234967022832656</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1575971257440999</v>
+        <v>0.05548737722079766</v>
       </c>
       <c r="J46" t="n">
-        <v>1.654121828028537</v>
+        <v>2.308741755708164</v>
       </c>
     </row>
     <row r="47">
@@ -1858,31 +1858,31 @@
         <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>2.437862676138678e-05</v>
+        <v>2.456630176573691e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>6.59710532576093e-06</v>
+        <v>6.872201573279713e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.033278186473523e-06</v>
+        <v>-6.980144910130219e-06</v>
       </c>
       <c r="E47" t="n">
-        <v>7.154019161658189e-07</v>
+        <v>7.18125463241125e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>1.196731469217325e-06</v>
+        <v>1.208910857897876e-06</v>
       </c>
       <c r="G47" t="n">
-        <v>1.580899880537381e-06</v>
+        <v>1.586489278146091e-06</v>
       </c>
       <c r="H47" t="n">
-        <v>16.66169466690484</v>
+        <v>17.27437886943374</v>
       </c>
       <c r="I47" t="n">
-        <v>0.00224843355150821</v>
+        <v>0.001709490474462731</v>
       </c>
       <c r="J47" t="n">
-        <v>4.165423666726211</v>
+        <v>4.318594717358436</v>
       </c>
     </row>
     <row r="48">
@@ -1890,31 +1890,31 @@
         <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>2.528370726576391e-05</v>
+        <v>2.537468316285049e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>7.260403226170068e-06</v>
+        <v>6.703101181377519e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>-8.329157281843041e-06</v>
+        <v>-8.063373357205985e-06</v>
       </c>
       <c r="E48" t="n">
-        <v>7.440412201218811e-07</v>
+        <v>7.46452433303673e-07</v>
       </c>
       <c r="F48" t="n">
-        <v>1.242005677154741e-06</v>
+        <v>1.24794199121918e-06</v>
       </c>
       <c r="G48" t="n">
-        <v>1.642143305829614e-06</v>
+        <v>1.639090225635271e-06</v>
       </c>
       <c r="H48" t="n">
-        <v>11.43787704620005</v>
+        <v>7.925181507584674</v>
       </c>
       <c r="I48" t="n">
-        <v>0.02205957923693635</v>
+        <v>0.09435766031753696</v>
       </c>
       <c r="J48" t="n">
-        <v>2.859469261550012</v>
+        <v>1.981295376896169</v>
       </c>
     </row>
     <row r="49">
@@ -1922,31 +1922,31 @@
         <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>2.74959835278975e-05</v>
+        <v>2.69043950187635e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>6.253721976686344e-06</v>
+        <v>6.693877194992447e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>-9.783624772133874e-06</v>
+        <v>-1.015872257484558e-05</v>
       </c>
       <c r="E49" t="n">
-        <v>8.195170429571394e-07</v>
+        <v>8.256412946144174e-07</v>
       </c>
       <c r="F49" t="n">
-        <v>1.396426491599757e-06</v>
+        <v>1.393864487990761e-06</v>
       </c>
       <c r="G49" t="n">
-        <v>1.803164895753692e-06</v>
+        <v>1.810763274131342e-06</v>
       </c>
       <c r="H49" t="n">
-        <v>13.46356085566675</v>
+        <v>7.996130291673687</v>
       </c>
       <c r="I49" t="n">
-        <v>0.009219437382104149</v>
+        <v>0.09172004969982769</v>
       </c>
       <c r="J49" t="n">
-        <v>3.365890213916687</v>
+        <v>1.999032572918422</v>
       </c>
     </row>
     <row r="50">
@@ -1954,31 +1954,31 @@
         <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>2.764272818320678e-05</v>
+        <v>2.810890332865178e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>8.668509550448093e-06</v>
+        <v>7.907153732607201e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.226524055092872e-06</v>
+        <v>-7.82229033006566e-06</v>
       </c>
       <c r="E50" t="n">
-        <v>9.209280857412723e-07</v>
+        <v>9.122620113258828e-07</v>
       </c>
       <c r="F50" t="n">
-        <v>1.659551191352295e-06</v>
+        <v>1.603225331520338e-06</v>
       </c>
       <c r="G50" t="n">
-        <v>2.073548797997874e-06</v>
+        <v>2.023161463018779e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>8.074423066414793</v>
+        <v>9.090564653315077</v>
       </c>
       <c r="I50" t="n">
-        <v>0.08888971175463276</v>
+        <v>0.05887523167546919</v>
       </c>
       <c r="J50" t="n">
-        <v>2.018605766603698</v>
+        <v>2.272641163328769</v>
       </c>
     </row>
     <row r="51">
@@ -1986,31 +1986,31 @@
         <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>2.793925924186295e-05</v>
+        <v>2.806261466794675e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>9.26417183752225e-06</v>
+        <v>9.761581106412894e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>-9.78979299625213e-06</v>
+        <v>-1.024226705278675e-05</v>
       </c>
       <c r="E51" t="n">
-        <v>9.016475562079493e-07</v>
+        <v>9.074968490342927e-07</v>
       </c>
       <c r="F51" t="n">
-        <v>1.535739467231729e-06</v>
+        <v>1.546406244550414e-06</v>
       </c>
       <c r="G51" t="n">
-        <v>2.002255396725181e-06</v>
+        <v>2.012618407085614e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>5.417937823773166</v>
+        <v>4.949075608819086</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2470375337939135</v>
+        <v>0.2925626813179114</v>
       </c>
       <c r="J51" t="n">
-        <v>1.354484455943292</v>
+        <v>1.237268902204772</v>
       </c>
     </row>
     <row r="52">
@@ -2018,31 +2018,31 @@
         <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>2.371831807989177e-05</v>
+        <v>2.380234654541697e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>1.065853091891562e-05</v>
+        <v>1.115206210994685e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.082917064819612e-05</v>
+        <v>-1.14329738965069e-05</v>
       </c>
       <c r="E52" t="n">
-        <v>1.253872353640091e-06</v>
+        <v>1.243682331207782e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>2.191421972815057e-06</v>
+        <v>2.204040996146081e-06</v>
       </c>
       <c r="G52" t="n">
-        <v>2.724576707847103e-06</v>
+        <v>2.699156801837562e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>7.903552564820004</v>
+        <v>6.114004833051542</v>
       </c>
       <c r="I52" t="n">
-        <v>0.09517576629946205</v>
+        <v>0.1907945590930952</v>
       </c>
       <c r="J52" t="n">
-        <v>1.975888141205001</v>
+        <v>1.528501208262885</v>
       </c>
     </row>
     <row r="53">
@@ -2050,31 +2050,31 @@
         <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>2.415201092280286e-05</v>
+        <v>2.558140549874469e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>1.415210618494234e-05</v>
+        <v>1.095105920890646e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.440443397469707e-05</v>
+        <v>-1.143876329082281e-05</v>
       </c>
       <c r="E53" t="n">
-        <v>1.398566143748921e-06</v>
+        <v>1.438758665878398e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>2.324695946148653e-06</v>
+        <v>2.530638544162657e-06</v>
       </c>
       <c r="G53" t="n">
-        <v>3.051466304958194e-06</v>
+        <v>3.206028382514272e-06</v>
       </c>
       <c r="H53" t="n">
-        <v>16.07305667233074</v>
+        <v>10.31599835676572</v>
       </c>
       <c r="I53" t="n">
-        <v>0.002922682941036195</v>
+        <v>0.03542819658100548</v>
       </c>
       <c r="J53" t="n">
-        <v>4.018264168082684</v>
+        <v>2.57899958919143</v>
       </c>
     </row>
     <row r="54">
@@ -2082,31 +2082,31 @@
         <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>1.518402191473265e-05</v>
+        <v>1.440853558987319e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>7.384216079699815e-06</v>
+        <v>9.10729937639791e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.497848267355446e-06</v>
+        <v>-9.104589166871512e-06</v>
       </c>
       <c r="E54" t="n">
-        <v>2.20189932052701e-06</v>
+        <v>2.041480857167888e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>4.258871541558747e-06</v>
+        <v>3.662255879125121e-06</v>
       </c>
       <c r="G54" t="n">
-        <v>4.86520953905749e-06</v>
+        <v>4.596080939623893e-06</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8628263272397417</v>
+        <v>1.223571952080784</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9298323471061805</v>
+        <v>0.874202610869201</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2157065818099354</v>
+        <v>0.3058929880201961</v>
       </c>
     </row>
     <row r="55">
@@ -2114,31 +2114,31 @@
         <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>1.463619777656303e-05</v>
+        <v>1.535168466567681e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>6.813896101269872e-06</v>
+        <v>6.210301119641303e-06</v>
       </c>
       <c r="D55" t="n">
-        <v>-6.24012816636639e-06</v>
+        <v>-1.064189778455619e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>3.006859912806283e-06</v>
+        <v>2.726550817171855e-06</v>
       </c>
       <c r="F55" t="n">
-        <v>5.658470933186011e-06</v>
+        <v>5.29007938347452e-06</v>
       </c>
       <c r="G55" t="n">
-        <v>6.191516249463536e-06</v>
+        <v>5.800528908432333e-06</v>
       </c>
       <c r="H55" t="n">
-        <v>1.002566061282605</v>
+        <v>0.06740180419423299</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9094066415656054</v>
+        <v>0.9994447234054927</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2506415153206513</v>
+        <v>0.01685045104855825</v>
       </c>
     </row>
     <row r="56">
@@ -2146,31 +2146,31 @@
         <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>1.506350723091026e-05</v>
+        <v>1.5816030343082e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>1.017103504098023e-05</v>
+        <v>8.854409150859638e-06</v>
       </c>
       <c r="D56" t="n">
-        <v>-5.849106093650295e-06</v>
+        <v>-6.989750116048263e-06</v>
       </c>
       <c r="E56" t="n">
-        <v>2.319346673634064e-06</v>
+        <v>2.455574610639571e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>3.859819984366731e-06</v>
+        <v>4.120630806350299e-06</v>
       </c>
       <c r="G56" t="n">
-        <v>5.150726303767389e-06</v>
+        <v>5.22342715157745e-06</v>
       </c>
       <c r="H56" t="n">
-        <v>2.648793638581961</v>
+        <v>3.46581219090022</v>
       </c>
       <c r="I56" t="n">
-        <v>0.6182043291529135</v>
+        <v>0.4830956805323444</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6621984096454903</v>
+        <v>0.8664530477250549</v>
       </c>
     </row>
     <row r="57">
@@ -2178,31 +2178,31 @@
         <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>2.071165454672651e-05</v>
+        <v>2.26952205560613e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>1.863975974882565e-05</v>
+        <v>1.521732603593295e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.808081891344023e-05</v>
+        <v>-2.059223776082572e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>2.31370656107185e-06</v>
+        <v>2.576604961632261e-06</v>
       </c>
       <c r="F57" t="n">
-        <v>3.708883431030961e-06</v>
+        <v>4.697259573881919e-06</v>
       </c>
       <c r="G57" t="n">
-        <v>5.007532476643321e-06</v>
+        <v>5.609944674330125e-06</v>
       </c>
       <c r="H57" t="n">
-        <v>1.758726396234441</v>
+        <v>0.9269768013626554</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7800243022437017</v>
+        <v>0.9206590568166758</v>
       </c>
       <c r="J57" t="n">
-        <v>0.4396815990586103</v>
+        <v>0.2317442003406638</v>
       </c>
     </row>
     <row r="58">
@@ -2210,31 +2210,31 @@
         <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>2.882747574461396e-05</v>
+        <v>2.788668569721386e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>1.946757155043576e-05</v>
+        <v>2.003987580939125e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.537042330495312e-05</v>
+        <v>-1.247952844521124e-05</v>
       </c>
       <c r="E58" t="n">
-        <v>1.769780168537662e-06</v>
+        <v>1.758774911724963e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>3.333917315189551e-06</v>
+        <v>3.338399887972284e-06</v>
       </c>
       <c r="G58" t="n">
-        <v>4.10270681388039e-06</v>
+        <v>4.085289486554087e-06</v>
       </c>
       <c r="H58" t="n">
-        <v>3.921887237402301</v>
+        <v>6.463897840958132</v>
       </c>
       <c r="I58" t="n">
-        <v>0.4166804695151552</v>
+        <v>0.1670793723696977</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9804718093505752</v>
+        <v>1.615974460239533</v>
       </c>
     </row>
     <row r="59">
@@ -2242,31 +2242,31 @@
         <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>3.280702793695272e-05</v>
+        <v>3.266381546919046e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>1.972152971539514e-05</v>
+        <v>2.032081917672094e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.797369107139642e-05</v>
+        <v>-1.890263858354476e-05</v>
       </c>
       <c r="E59" t="n">
-        <v>1.695076839217269e-06</v>
+        <v>1.664027909926812e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>3.024646873374228e-06</v>
+        <v>2.872484495506713e-06</v>
       </c>
       <c r="G59" t="n">
-        <v>3.862773708695494e-06</v>
+        <v>3.723925261646075e-06</v>
       </c>
       <c r="H59" t="n">
-        <v>9.51471401620037</v>
+        <v>10.12192742423563</v>
       </c>
       <c r="I59" t="n">
-        <v>0.04944578355134666</v>
+        <v>0.03842315922835746</v>
       </c>
       <c r="J59" t="n">
-        <v>2.378678504050093</v>
+        <v>2.530481856058906</v>
       </c>
     </row>
     <row r="60">
@@ -2274,31 +2274,31 @@
         <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>3.187809760233196e-05</v>
+        <v>3.179613499103068e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>2.088385836472324e-05</v>
+        <v>2.124138824032884e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.697412686394097e-05</v>
+        <v>-1.426389059514574e-05</v>
       </c>
       <c r="E60" t="n">
-        <v>1.708637434456233e-06</v>
+        <v>1.752190572581259e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>2.997579358126605e-06</v>
+        <v>3.26439570323532e-06</v>
       </c>
       <c r="G60" t="n">
-        <v>3.862268137659494e-06</v>
+        <v>4.050194081147877e-06</v>
       </c>
       <c r="H60" t="n">
-        <v>3.571088878133501</v>
+        <v>8.57190910303814</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4671517652420089</v>
+        <v>0.07273727274868647</v>
       </c>
       <c r="J60" t="n">
-        <v>0.8927722195333752</v>
+        <v>2.142977275759535</v>
       </c>
     </row>
     <row r="61">
@@ -2306,31 +2306,31 @@
         <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>3.46292716489193e-05</v>
+        <v>3.48541004007763e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>2.3209198805034e-05</v>
+        <v>2.194596842871128e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.894404115384802e-05</v>
+        <v>-1.864467925687664e-05</v>
       </c>
       <c r="E61" t="n">
-        <v>1.342209479291025e-06</v>
+        <v>1.334402097320643e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>2.1843234025972e-06</v>
+        <v>2.263384739861078e-06</v>
       </c>
       <c r="G61" t="n">
-        <v>2.977153794299617e-06</v>
+        <v>3.015428879842021e-06</v>
       </c>
       <c r="H61" t="n">
-        <v>10.32568697532788</v>
+        <v>9.502680135904823</v>
       </c>
       <c r="I61" t="n">
-        <v>0.03528472206270934</v>
+        <v>0.04969220570694254</v>
       </c>
       <c r="J61" t="n">
-        <v>2.581421743831971</v>
+        <v>2.375670033976206</v>
       </c>
     </row>
     <row r="62">
@@ -2338,31 +2338,31 @@
         <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>3.899216863487676e-05</v>
+        <v>3.904670264023619e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>2.387107812799489e-05</v>
+        <v>2.292949687501524e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.970657769418159e-05</v>
+        <v>-1.899199742733634e-05</v>
       </c>
       <c r="E62" t="n">
-        <v>1.199595329521268e-06</v>
+        <v>1.198279518353468e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>1.960967553622447e-06</v>
+        <v>1.970995928493962e-06</v>
       </c>
       <c r="G62" t="n">
-        <v>2.745593382297147e-06</v>
+        <v>2.740412439626983e-06</v>
       </c>
       <c r="H62" t="n">
-        <v>14.29972158316559</v>
+        <v>12.3857794854924</v>
       </c>
       <c r="I62" t="n">
-        <v>0.006397423516214584</v>
+        <v>0.01470163244932654</v>
       </c>
       <c r="J62" t="n">
-        <v>3.574930395791398</v>
+        <v>3.0964448713731</v>
       </c>
     </row>
     <row r="63">
@@ -2370,31 +2370,31 @@
         <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>4.201650827796277e-05</v>
+        <v>4.205521880880983e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>2.261775054059597e-05</v>
+        <v>2.382293163185669e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>-2.116360405329256e-05</v>
+        <v>-2.296977111367251e-05</v>
       </c>
       <c r="E63" t="n">
-        <v>1.18619236194368e-06</v>
+        <v>1.189056418833784e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>1.936301333075153e-06</v>
+        <v>1.920580650258972e-06</v>
       </c>
       <c r="G63" t="n">
-        <v>2.686064181081117e-06</v>
+        <v>2.672506601631308e-06</v>
       </c>
       <c r="H63" t="n">
-        <v>6.519760796404402</v>
+        <v>7.548130772843437</v>
       </c>
       <c r="I63" t="n">
-        <v>0.163549543883124</v>
+        <v>0.1096055614894153</v>
       </c>
       <c r="J63" t="n">
-        <v>1.6299401991011</v>
+        <v>1.887032693210859</v>
       </c>
     </row>
     <row r="64">
@@ -2402,31 +2402,31 @@
         <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>4.555223052345129e-05</v>
+        <v>4.568234453109253e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>2.489698652210448e-05</v>
+        <v>2.480847104540899e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>-2.234793466111683e-05</v>
+        <v>-2.295727573617658e-05</v>
       </c>
       <c r="E64" t="n">
-        <v>1.19031990999692e-06</v>
+        <v>1.193697547735999e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>1.848873896108612e-06</v>
+        <v>1.847097602724106e-06</v>
       </c>
       <c r="G64" t="n">
-        <v>2.721832025063311e-06</v>
+        <v>2.720012638230667e-06</v>
       </c>
       <c r="H64" t="n">
-        <v>10.64464124862144</v>
+        <v>8.823864758012512</v>
       </c>
       <c r="I64" t="n">
-        <v>0.03086185584934518</v>
+        <v>0.06565600822266421</v>
       </c>
       <c r="J64" t="n">
-        <v>2.66116031215536</v>
+        <v>2.205966189503128</v>
       </c>
     </row>
     <row r="65">
@@ -2434,31 +2434,31 @@
         <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>5.347372706062752e-05</v>
+        <v>5.371146845261227e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>3.409917752286543e-05</v>
+        <v>3.116049317114058e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>-3.742951589215049e-05</v>
+        <v>-3.61833582867707e-05</v>
       </c>
       <c r="E65" t="n">
-        <v>1.617221932236465e-06</v>
+        <v>1.623858253797215e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>2.385061916358301e-06</v>
+        <v>2.496068156581056e-06</v>
       </c>
       <c r="G65" t="n">
-        <v>3.531142860789397e-06</v>
+        <v>3.579941488194259e-06</v>
       </c>
       <c r="H65" t="n">
-        <v>14.63258594270019</v>
+        <v>10.25705069945563</v>
       </c>
       <c r="I65" t="n">
-        <v>0.005527186450941878</v>
+        <v>0.03631330080113556</v>
       </c>
       <c r="J65" t="n">
-        <v>3.658146485675047</v>
+        <v>2.564262674863906</v>
       </c>
     </row>
     <row r="66">
@@ -2466,31 +2466,31 @@
         <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>5.392785399208004e-05</v>
+        <v>5.337436655692541e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>3.789415875945753e-05</v>
+        <v>3.964882955289813e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>-4.502944117176925e-05</v>
+        <v>-4.637449963408283e-05</v>
       </c>
       <c r="E66" t="n">
-        <v>2.27965278641955e-06</v>
+        <v>2.262731444791173e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>3.737525793717815e-06</v>
+        <v>3.580275474285478e-06</v>
       </c>
       <c r="G66" t="n">
-        <v>5.008314237175772e-06</v>
+        <v>4.900154323563266e-06</v>
       </c>
       <c r="H66" t="n">
-        <v>4.804303102287475</v>
+        <v>3.322170212507946</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3079728927292671</v>
+        <v>0.5054272681101861</v>
       </c>
       <c r="J66" t="n">
-        <v>1.201075775571869</v>
+        <v>0.8305425531269864</v>
       </c>
     </row>
     <row r="67">
@@ -2498,31 +2498,31 @@
         <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>4.922010930009435e-05</v>
+        <v>4.764918705751016e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>2.950894292434044e-05</v>
+        <v>3.152551155886106e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>-4.469174569964782e-05</v>
+        <v>-4.440480307085467e-05</v>
       </c>
       <c r="E67" t="n">
-        <v>2.555166262808162e-06</v>
+        <v>2.497363974130219e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>4.210296613295181e-06</v>
+        <v>3.935328159359459e-06</v>
       </c>
       <c r="G67" t="n">
-        <v>5.471004553801808e-06</v>
+        <v>5.364830598646544e-06</v>
       </c>
       <c r="H67" t="n">
-        <v>3.987673457889779</v>
+        <v>4.30441402664701</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4076766361864472</v>
+        <v>0.3663726967110842</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9969183644724448</v>
+        <v>1.076103506661753</v>
       </c>
     </row>
     <row r="68">
@@ -2530,31 +2530,31 @@
         <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>4.380995414284909e-05</v>
+        <v>4.632525141475723e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>2.931044344799702e-05</v>
+        <v>2.965795266453006e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>-4.529046723329454e-05</v>
+        <v>-4.917828110436827e-05</v>
       </c>
       <c r="E68" t="n">
-        <v>3.261842490737283e-06</v>
+        <v>3.515744794594303e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>5.094356121355658e-06</v>
+        <v>5.746410491721441e-06</v>
       </c>
       <c r="G68" t="n">
-        <v>6.953059690359376e-06</v>
+        <v>7.265682250256024e-06</v>
       </c>
       <c r="H68" t="n">
-        <v>5.71347350935728</v>
+        <v>1.978488098586173</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2215924646228657</v>
+        <v>0.7397156987707592</v>
       </c>
       <c r="J68" t="n">
-        <v>1.42836837733932</v>
+        <v>0.4946220246465433</v>
       </c>
     </row>
     <row r="69">
@@ -2562,31 +2562,31 @@
         <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>4.918312165210555e-05</v>
+        <v>4.987285999719951e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>3.770414005640146e-05</v>
+        <v>3.467268779044934e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>-5.648843404150911e-05</v>
+        <v>-4.747645480580619e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>2.855637431718153e-06</v>
+        <v>3.063726277781622e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>4.186334904628064e-06</v>
+        <v>5.332275175079296e-06</v>
       </c>
       <c r="G69" t="n">
-        <v>5.943123013183674e-06</v>
+        <v>6.660931127869675e-06</v>
       </c>
       <c r="H69" t="n">
-        <v>3.160347577353776</v>
+        <v>4.197478050305749</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5313591972718883</v>
+        <v>0.3799393050797293</v>
       </c>
       <c r="J69" t="n">
-        <v>0.7900868943384439</v>
+        <v>1.049369512576437</v>
       </c>
     </row>
     <row r="70">
@@ -2594,31 +2594,31 @@
         <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>4.064243965274718e-05</v>
+        <v>4.143772273533956e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>2.217717332990862e-05</v>
+        <v>2.271686144174433e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>-5.543962645454901e-05</v>
+        <v>-5.095349184406615e-05</v>
       </c>
       <c r="E70" t="n">
-        <v>4.040774039925789e-06</v>
+        <v>4.153856488482394e-06</v>
       </c>
       <c r="F70" t="n">
-        <v>5.857150601790872e-06</v>
+        <v>6.697295540961359e-06</v>
       </c>
       <c r="G70" t="n">
-        <v>7.644023273603432e-06</v>
+        <v>9.101811171946404e-06</v>
       </c>
       <c r="H70" t="n">
-        <v>0.6640449216776416</v>
+        <v>0.6984803766841522</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9556877636193425</v>
+        <v>0.9515161893957591</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1660112304194104</v>
+        <v>0.174620094171038</v>
       </c>
     </row>
     <row r="71">
@@ -2626,31 +2626,31 @@
         <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>3.177593472196273e-05</v>
+        <v>3.182683750894819e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>1.989774061535426e-05</v>
+        <v>1.780948192737432e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>-3.568067191586322e-05</v>
+        <v>-3.374813856979137e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>4.951321733732732e-06</v>
+        <v>5.10366077836132e-06</v>
       </c>
       <c r="F71" t="n">
-        <v>9.059166060119527e-06</v>
+        <v>9.146580014300527e-06</v>
       </c>
       <c r="G71" t="n">
-        <v>1.153575348528383e-05</v>
+        <v>1.11364208685983e-05</v>
       </c>
       <c r="H71" t="n">
-        <v>1.304177104533155</v>
+        <v>0.48242121778602</v>
       </c>
       <c r="I71" t="n">
-        <v>0.8606664262878452</v>
+        <v>0.9751895583602664</v>
       </c>
       <c r="J71" t="n">
-        <v>0.3260442761332887</v>
+        <v>0.120605304446505</v>
       </c>
     </row>
     <row r="72">
@@ -2658,31 +2658,31 @@
         <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>4.141032848613948e-05</v>
+        <v>4.097811117335575e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>1.954135130395888e-05</v>
+        <v>1.756468171244481e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>-3.286508078567445e-05</v>
+        <v>-2.937608797271045e-05</v>
       </c>
       <c r="E72" t="n">
-        <v>2.688777370941651e-06</v>
+        <v>2.738179740620164e-06</v>
       </c>
       <c r="F72" t="n">
-        <v>4.650581528075464e-06</v>
+        <v>5.169994202423931e-06</v>
       </c>
       <c r="G72" t="n">
-        <v>5.812321324922104e-06</v>
+        <v>5.998087394964365e-06</v>
       </c>
       <c r="H72" t="n">
-        <v>3.223423513621692</v>
+        <v>3.215466921162726</v>
       </c>
       <c r="I72" t="n">
-        <v>0.5211559754720283</v>
+        <v>0.5224364013598284</v>
       </c>
       <c r="J72" t="n">
-        <v>0.8058558784054229</v>
+        <v>0.8038667302906815</v>
       </c>
     </row>
     <row r="73">
@@ -2690,31 +2690,31 @@
         <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>1.409859662756308e-05</v>
+        <v>1.329607947260183e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>3.510206600504989e-06</v>
+        <v>1.00694795699043e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.070666067643828e-06</v>
+        <v>-1.068810663336303e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>3.678833228451137e-06</v>
+        <v>3.083271456842721e-06</v>
       </c>
       <c r="F73" t="n">
-        <v>6.300606010957321e-06</v>
+        <v>3.941216166895707e-06</v>
       </c>
       <c r="G73" t="n">
-        <v>7.238340021101752e-06</v>
+        <v>6.722625836462139e-06</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2426632469926878</v>
+        <v>2.297615280588744</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9932084724972622</v>
+        <v>0.6812032645154722</v>
       </c>
       <c r="J73" t="n">
-        <v>0.06066581174817194</v>
+        <v>0.5744038201471859</v>
       </c>
     </row>
     <row r="74">
@@ -2722,31 +2722,31 @@
         <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>1.096635600062079e-05</v>
+        <v>1.272343562884678e-05</v>
       </c>
       <c r="C74" t="n">
-        <v>8.716324750471597e-06</v>
+        <v>1.100259144769958e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>-9.10686646251306e-06</v>
+        <v>-1.019260405397666e-05</v>
       </c>
       <c r="E74" t="n">
-        <v>3.436953949360833e-06</v>
+        <v>3.09254505818955e-06</v>
       </c>
       <c r="F74" t="n">
-        <v>4.130033682779625e-06</v>
+        <v>4.027069186414066e-06</v>
       </c>
       <c r="G74" t="n">
-        <v>6.991680662735681e-06</v>
+        <v>6.836340565592767e-06</v>
       </c>
       <c r="H74" t="n">
-        <v>0.4303026337520242</v>
+        <v>1.056707265795924</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9799216032517144</v>
+        <v>0.9010788297630954</v>
       </c>
       <c r="J74" t="n">
-        <v>0.1075756584380061</v>
+        <v>0.2641768164489809</v>
       </c>
     </row>
     <row r="75">
@@ -2754,31 +2754,31 @@
         <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>1.446313745654189e-05</v>
+        <v>1.443088436190789e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>1.390677747508524e-05</v>
+        <v>1.160302195748331e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.194900714673273e-05</v>
+        <v>-1.372978188909491e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>2.893658737716127e-06</v>
+        <v>3.031285064096941e-06</v>
       </c>
       <c r="F75" t="n">
-        <v>3.857656406154682e-06</v>
+        <v>4.255100237071741e-06</v>
       </c>
       <c r="G75" t="n">
-        <v>6.074240405685755e-06</v>
+        <v>6.309877450007145e-06</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7424451763452945</v>
+        <v>0.8868282695316434</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9459932491518417</v>
+        <v>0.9264428670887528</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1856112940863236</v>
+        <v>0.2217070673829108</v>
       </c>
     </row>
     <row r="76">
@@ -2786,31 +2786,31 @@
         <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>3.638240047843436e-05</v>
+        <v>3.667443075499037e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>2.925189873245097e-05</v>
+        <v>2.243539677797316e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>-4.415364834815778e-05</v>
+        <v>-3.908669587294177e-05</v>
       </c>
       <c r="E76" t="n">
-        <v>2.59856257691325e-06</v>
+        <v>2.728316366548129e-06</v>
       </c>
       <c r="F76" t="n">
-        <v>3.665078392113118e-06</v>
+        <v>4.99438668048364e-06</v>
       </c>
       <c r="G76" t="n">
-        <v>5.408931152145621e-06</v>
+        <v>6.091254474108453e-06</v>
       </c>
       <c r="H76" t="n">
-        <v>2.326799098994877</v>
+        <v>2.226311500354546</v>
       </c>
       <c r="I76" t="n">
-        <v>0.6758942165878485</v>
+        <v>0.6942151835299819</v>
       </c>
       <c r="J76" t="n">
-        <v>0.5816997747487194</v>
+        <v>0.5565778750886365</v>
       </c>
     </row>
     <row r="77">
@@ -2818,31 +2818,31 @@
         <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0001055291909995931</v>
+        <v>0.0001055186714757687</v>
       </c>
       <c r="C77" t="n">
-        <v>7.636938373653536e-05</v>
+        <v>7.783583572313688e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.0001516392015690235</v>
+        <v>-0.000154851305330752</v>
       </c>
       <c r="E77" t="n">
-        <v>4.394865612711465e-06</v>
+        <v>4.381106172644461e-06</v>
       </c>
       <c r="F77" t="n">
-        <v>5.880202718917386e-06</v>
+        <v>5.313957633044224e-06</v>
       </c>
       <c r="G77" t="n">
-        <v>8.929538386835053e-06</v>
+        <v>8.63195848938648e-06</v>
       </c>
       <c r="H77" t="n">
-        <v>4.138629040040159</v>
+        <v>2.197498656892601</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3875694320585614</v>
+        <v>0.6994872453367014</v>
       </c>
       <c r="J77" t="n">
-        <v>1.03465726001004</v>
+        <v>0.5493746642231503</v>
       </c>
     </row>
     <row r="78">
@@ -2850,31 +2850,31 @@
         <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0003074150082799202</v>
+        <v>0.0003065991239651622</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0002232363572277013</v>
+        <v>0.0002239518739444859</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.0005080895844431361</v>
+        <v>-0.0005051149147281277</v>
       </c>
       <c r="E78" t="n">
-        <v>1.018227780932772e-05</v>
+        <v>1.02897650621638e-05</v>
       </c>
       <c r="F78" t="n">
-        <v>8.789300507941939e-06</v>
+        <v>9.201211482137169e-06</v>
       </c>
       <c r="G78" t="n">
-        <v>1.83639905770201e-05</v>
+        <v>1.883711934485699e-05</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2723891123307349</v>
+        <v>0.4963597513741667</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9915261211358508</v>
+        <v>0.973854388509102</v>
       </c>
       <c r="J78" t="n">
-        <v>0.06809727808268372</v>
+        <v>0.1240899378435417</v>
       </c>
     </row>
     <row r="79">
@@ -2882,31 +2882,31 @@
         <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0003328395369877125</v>
+        <v>0.0003388314456516444</v>
       </c>
       <c r="C79" t="n">
-        <v>0.000244043239869812</v>
+        <v>0.0002382657000850417</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.0005573597417687919</v>
+        <v>-0.0005588010044155546</v>
       </c>
       <c r="E79" t="n">
-        <v>1.22441019425499e-05</v>
+        <v>1.24025614122311e-05</v>
       </c>
       <c r="F79" t="n">
-        <v>9.18862434786021e-06</v>
+        <v>1.279018549807033e-05</v>
       </c>
       <c r="G79" t="n">
-        <v>2.177475322965343e-05</v>
+        <v>2.312608786456687e-05</v>
       </c>
       <c r="H79" t="n">
-        <v>5.268067856337696</v>
+        <v>3.236218654412405</v>
       </c>
       <c r="I79" t="n">
-        <v>0.26088107628292</v>
+        <v>0.5191009527453688</v>
       </c>
       <c r="J79" t="n">
-        <v>1.317016964084424</v>
+        <v>0.8090546636031012</v>
       </c>
     </row>
     <row r="80">
@@ -2914,31 +2914,31 @@
         <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0002599080535354469</v>
+        <v>0.0002567900141278503</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0001836936050340845</v>
+        <v>0.0001822914470853607</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.0004235880859789653</v>
+        <v>-0.0004188719669639219</v>
       </c>
       <c r="E80" t="n">
-        <v>8.82021452928127e-06</v>
+        <v>8.671921019625913e-06</v>
       </c>
       <c r="F80" t="n">
-        <v>9.745769806799618e-06</v>
+        <v>9.313076784960201e-06</v>
       </c>
       <c r="G80" t="n">
-        <v>1.661107426315533e-05</v>
+        <v>1.634395014655726e-05</v>
       </c>
       <c r="H80" t="n">
-        <v>1.313036547718475</v>
+        <v>1.38078597342908</v>
       </c>
       <c r="I80" t="n">
-        <v>0.8591598382134482</v>
+        <v>0.8475275369368458</v>
       </c>
       <c r="J80" t="n">
-        <v>0.3282591369296187</v>
+        <v>0.34519649335727</v>
       </c>
     </row>
     <row r="81">
@@ -2946,31 +2946,31 @@
         <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0001359321265676764</v>
+        <v>0.000136776709277761</v>
       </c>
       <c r="C81" t="n">
-        <v>9.469865781647284e-05</v>
+        <v>9.530453404564842e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.000201846056333114</v>
+        <v>-0.0001991034324622944</v>
       </c>
       <c r="E81" t="n">
-        <v>5.154688838582071e-06</v>
+        <v>5.201256311339665e-06</v>
       </c>
       <c r="F81" t="n">
-        <v>6.48063450238754e-06</v>
+        <v>7.438265713067193e-06</v>
       </c>
       <c r="G81" t="n">
-        <v>1.022973904973025e-05</v>
+        <v>1.074366891863211e-05</v>
       </c>
       <c r="H81" t="n">
-        <v>3.019577652829612</v>
+        <v>3.910525427723194</v>
       </c>
       <c r="I81" t="n">
-        <v>0.5545544892215535</v>
+        <v>0.4182503249887271</v>
       </c>
       <c r="J81" t="n">
-        <v>0.7548944132074029</v>
+        <v>0.9776313569307984</v>
       </c>
     </row>
     <row r="82">
@@ -2978,31 +2978,31 @@
         <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0001220866831877324</v>
+        <v>0.0001224316161438904</v>
       </c>
       <c r="C82" t="n">
-        <v>7.864272583396907e-05</v>
+        <v>8.017682943024618e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.0001240368851071332</v>
+        <v>-0.0001255692546678162</v>
       </c>
       <c r="E82" t="n">
-        <v>4.140137044224441e-06</v>
+        <v>4.155675974621074e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>6.214100100988021e-06</v>
+        <v>6.044541153305393e-06</v>
       </c>
       <c r="G82" t="n">
-        <v>8.942040194270968e-06</v>
+        <v>8.881724969023448e-06</v>
       </c>
       <c r="H82" t="n">
-        <v>7.925295830379003</v>
+        <v>7.181550796978413</v>
       </c>
       <c r="I82" t="n">
-        <v>0.09435335364868938</v>
+        <v>0.1265995331912895</v>
       </c>
       <c r="J82" t="n">
-        <v>1.981323957594751</v>
+        <v>1.795387699244603</v>
       </c>
     </row>
     <row r="83">
@@ -3010,31 +3010,31 @@
         <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>0.000143906211749224</v>
+        <v>0.000143826421696326</v>
       </c>
       <c r="C83" t="n">
-        <v>9.51550371601005e-05</v>
+        <v>9.589434794336672e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.0001640642658073228</v>
+        <v>-0.0001622514332571794</v>
       </c>
       <c r="E83" t="n">
-        <v>4.427829134217341e-06</v>
+        <v>4.422836504297044e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>5.620400567583935e-06</v>
+        <v>5.607185854591823e-06</v>
       </c>
       <c r="G83" t="n">
-        <v>9.072340745565209e-06</v>
+        <v>9.085702326531925e-06</v>
       </c>
       <c r="H83" t="n">
-        <v>8.788562727647818</v>
+        <v>10.14839033457492</v>
       </c>
       <c r="I83" t="n">
-        <v>0.06660724136802561</v>
+        <v>0.03800089109780361</v>
       </c>
       <c r="J83" t="n">
-        <v>2.197140681911955</v>
+        <v>2.537097583643729</v>
       </c>
     </row>
     <row r="84">
@@ -3042,31 +3042,31 @@
         <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001535750290626236</v>
+        <v>0.0001536626037401231</v>
       </c>
       <c r="C84" t="n">
-        <v>7.604631099000005e-05</v>
+        <v>7.585112146534672e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.0001680958573460923</v>
+        <v>-0.0001682710445686869</v>
       </c>
       <c r="E84" t="n">
-        <v>4.094593804572978e-06</v>
+        <v>4.08791215353182e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>5.039453968365323e-06</v>
+        <v>5.032146807985888e-06</v>
       </c>
       <c r="G84" t="n">
-        <v>8.105632046332536e-06</v>
+        <v>8.092968613929332e-06</v>
       </c>
       <c r="H84" t="n">
-        <v>1.570142204406052</v>
+        <v>1.818768858085805</v>
       </c>
       <c r="I84" t="n">
-        <v>0.8141482090137346</v>
+        <v>0.7690467428453208</v>
       </c>
       <c r="J84" t="n">
-        <v>0.3925355511015129</v>
+        <v>0.4546922145214514</v>
       </c>
     </row>
     <row r="85">
@@ -3074,31 +3074,31 @@
         <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0001061320362073925</v>
+        <v>0.0001065872618959993</v>
       </c>
       <c r="C85" t="n">
-        <v>4.526221687679487e-05</v>
+        <v>4.433049090066244e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>-9.332013185081413e-05</v>
+        <v>-9.1774514151536e-05</v>
       </c>
       <c r="E85" t="n">
-        <v>2.805509060932127e-06</v>
+        <v>2.808829954626368e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>3.845422093460719e-06</v>
+        <v>3.879960469931295e-06</v>
       </c>
       <c r="G85" t="n">
-        <v>5.768072538190704e-06</v>
+        <v>5.786285101891075e-06</v>
       </c>
       <c r="H85" t="n">
-        <v>2.694883240679274</v>
+        <v>1.418164186187031</v>
       </c>
       <c r="I85" t="n">
-        <v>0.6101102762514936</v>
+        <v>0.8410319288713102</v>
       </c>
       <c r="J85" t="n">
-        <v>0.6737208101698186</v>
+        <v>0.3545410465467577</v>
       </c>
     </row>
     <row r="86">
@@ -3106,31 +3106,31 @@
         <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>7.460326717705928e-05</v>
+        <v>7.426092595719247e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>3.972130528081629e-05</v>
+        <v>3.935783481188276e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>-6.34022789994991e-05</v>
+        <v>-6.210275178030817e-05</v>
       </c>
       <c r="E86" t="n">
-        <v>2.018813479043713e-06</v>
+        <v>2.015144857341899e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>2.764528305145578e-06</v>
+        <v>2.767553857478774e-06</v>
       </c>
       <c r="G86" t="n">
-        <v>4.276155670075779e-06</v>
+        <v>4.280731377748195e-06</v>
       </c>
       <c r="H86" t="n">
-        <v>5.266334395369102</v>
+        <v>5.800848253205081</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2610450128321808</v>
+        <v>0.2145228908692212</v>
       </c>
       <c r="J86" t="n">
-        <v>1.316583598842276</v>
+        <v>1.45021206330127</v>
       </c>
     </row>
     <row r="87">
@@ -3138,31 +3138,31 @@
         <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>6.318973141465907e-05</v>
+        <v>6.264884285602418e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>3.152178657078912e-05</v>
+        <v>3.119936812370168e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>-4.079739349691525e-05</v>
+        <v>-3.982005305471719e-05</v>
       </c>
       <c r="E87" t="n">
-        <v>1.607686170246328e-06</v>
+        <v>1.599364979277097e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>2.309833335228881e-06</v>
+        <v>2.313783425626304e-06</v>
       </c>
       <c r="G87" t="n">
-        <v>3.523394177733604e-06</v>
+        <v>3.513230692026271e-06</v>
       </c>
       <c r="H87" t="n">
-        <v>6.726186481314826</v>
+        <v>5.957949545141167</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1510851073700234</v>
+        <v>0.2023107127806202</v>
       </c>
       <c r="J87" t="n">
-        <v>1.681546620328706</v>
+        <v>1.489487386285292</v>
       </c>
     </row>
     <row r="88">
@@ -3170,31 +3170,31 @@
         <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>6.935954500329951e-05</v>
+        <v>6.939741172385346e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>3.615524800057752e-05</v>
+        <v>3.598764094738049e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>-4.70910903008632e-05</v>
+        <v>-4.700893188039481e-05</v>
       </c>
       <c r="E88" t="n">
-        <v>1.820366902272281e-06</v>
+        <v>1.818958738337179e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>2.652458404357215e-06</v>
+        <v>2.639626142664529e-06</v>
       </c>
       <c r="G88" t="n">
-        <v>4.007683885998064e-06</v>
+        <v>3.986942925632859e-06</v>
       </c>
       <c r="H88" t="n">
-        <v>7.747416891841143</v>
+        <v>6.086300846231431</v>
       </c>
       <c r="I88" t="n">
-        <v>0.101281317645583</v>
+        <v>0.1927953091314398</v>
       </c>
       <c r="J88" t="n">
-        <v>1.936854222960286</v>
+        <v>1.521575211557858</v>
       </c>
     </row>
     <row r="89">
@@ -3202,31 +3202,31 @@
         <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0001120829744446205</v>
+        <v>0.0001121123993189927</v>
       </c>
       <c r="C89" t="n">
-        <v>5.967050011380181e-05</v>
+        <v>5.841755165430388e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>-9.62606356445485e-05</v>
+        <v>-9.389468040912002e-05</v>
       </c>
       <c r="E89" t="n">
-        <v>2.871707121414456e-06</v>
+        <v>2.872120007278975e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>3.714063774385527e-06</v>
+        <v>3.754220448866452e-06</v>
       </c>
       <c r="G89" t="n">
-        <v>5.983386781644465e-06</v>
+        <v>6.013010141560638e-06</v>
       </c>
       <c r="H89" t="n">
-        <v>5.528786636118771</v>
+        <v>5.658534580952914</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2372106753705733</v>
+        <v>0.226141625708176</v>
       </c>
       <c r="J89" t="n">
-        <v>1.382196659029693</v>
+        <v>1.414633645238228</v>
       </c>
     </row>
     <row r="90">
@@ -3234,31 +3234,31 @@
         <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0002313154277874164</v>
+        <v>0.0002316275241089844</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0001207462505928953</v>
+        <v>0.0001215774506521726</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.0002485723780130996</v>
+        <v>-0.0002467418882344595</v>
       </c>
       <c r="E90" t="n">
-        <v>5.876944877643168e-06</v>
+        <v>5.878816572139667e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>6.87070078865505e-06</v>
+        <v>6.900295036630178e-06</v>
       </c>
       <c r="G90" t="n">
-        <v>1.168548606158212e-05</v>
+        <v>1.170412240797067e-05</v>
       </c>
       <c r="H90" t="n">
-        <v>2.863922523380824</v>
+        <v>2.371987594551538</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5808497123213625</v>
+        <v>0.6676953682586788</v>
       </c>
       <c r="J90" t="n">
-        <v>0.715980630845206</v>
+        <v>0.5929968986378845</v>
       </c>
     </row>
     <row r="91">
@@ -3266,31 +3266,31 @@
         <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0002358727040221707</v>
+        <v>0.0002354420283000615</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0001230379789651499</v>
+        <v>0.0001224190307138514</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.0002428603855750514</v>
+        <v>-0.0002412335522669988</v>
       </c>
       <c r="E91" t="n">
-        <v>5.982552825977417e-06</v>
+        <v>5.974532424136399e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>7.148873578842411e-06</v>
+        <v>7.128519368821101e-06</v>
       </c>
       <c r="G91" t="n">
-        <v>1.200084846799941e-05</v>
+        <v>1.19845532104812e-05</v>
       </c>
       <c r="H91" t="n">
-        <v>2.916372299298958</v>
+        <v>3.120006581286967</v>
       </c>
       <c r="I91" t="n">
-        <v>0.5719164245448892</v>
+        <v>0.5379472635612814</v>
       </c>
       <c r="J91" t="n">
-        <v>0.7290930748247395</v>
+        <v>0.7800016453217417</v>
       </c>
     </row>
     <row r="92">
@@ -3298,31 +3298,31 @@
         <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0002221447839952602</v>
+        <v>0.0002235187203240925</v>
       </c>
       <c r="C92" t="n">
-        <v>0.000123679764484696</v>
+        <v>0.0001223139885672336</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.000210463461671089</v>
+        <v>-0.0002107093597086687</v>
       </c>
       <c r="E92" t="n">
-        <v>5.756765696507257e-06</v>
+        <v>5.772722425115563e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>7.110349351626086e-06</v>
+        <v>7.151659803000333e-06</v>
       </c>
       <c r="G92" t="n">
-        <v>1.186158490522376e-05</v>
+        <v>1.187461405185633e-05</v>
       </c>
       <c r="H92" t="n">
-        <v>6.603028575762181</v>
+        <v>5.724065419364192</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1584134063392696</v>
+        <v>0.2207246998374577</v>
       </c>
       <c r="J92" t="n">
-        <v>1.650757143940545</v>
+        <v>1.431016354841048</v>
       </c>
     </row>
     <row r="93">
@@ -3330,31 +3330,31 @@
         <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001789021431545884</v>
+        <v>0.0001792764235120635</v>
       </c>
       <c r="C93" t="n">
-        <v>9.502889677999354e-05</v>
+        <v>9.235761171434983e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.0001420338182063391</v>
+        <v>-0.0001431889712930036</v>
       </c>
       <c r="E93" t="n">
-        <v>4.954223369203144e-06</v>
+        <v>4.966626641287694e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>7.004949526785445e-06</v>
+        <v>7.092121086842177e-06</v>
       </c>
       <c r="G93" t="n">
-        <v>1.059138683998827e-05</v>
+        <v>1.060364961202473e-05</v>
       </c>
       <c r="H93" t="n">
-        <v>5.963579716586212</v>
+        <v>4.704767742334662</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2018847221418105</v>
+        <v>0.3189527918542084</v>
       </c>
       <c r="J93" t="n">
-        <v>1.490894929146553</v>
+        <v>1.176191935583665</v>
       </c>
     </row>
     <row r="94">
@@ -3362,31 +3362,31 @@
         <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001258304871842469</v>
+        <v>0.0001268143114399678</v>
       </c>
       <c r="C94" t="n">
-        <v>7.609086544606901e-05</v>
+        <v>7.791118643980827e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>-8.255723196550394e-05</v>
+        <v>-8.629463843126217e-05</v>
       </c>
       <c r="E94" t="n">
-        <v>4.73476255467662e-06</v>
+        <v>4.728145926202153e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>7.824490620748756e-06</v>
+        <v>7.764011820101213e-06</v>
       </c>
       <c r="G94" t="n">
-        <v>1.045406412390692e-05</v>
+        <v>1.046864460675858e-05</v>
       </c>
       <c r="H94" t="n">
-        <v>6.450315005214416</v>
+        <v>8.596293667655587</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1679479844700973</v>
+        <v>0.07202156230026009</v>
       </c>
       <c r="J94" t="n">
-        <v>1.612578751303604</v>
+        <v>2.149073416913897</v>
       </c>
     </row>
     <row r="95">
@@ -3394,31 +3394,31 @@
         <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001991498540119604</v>
+        <v>0.0001975523091187232</v>
       </c>
       <c r="C95" t="n">
-        <v>0.000106937740357909</v>
+        <v>0.0001071528935301136</v>
       </c>
       <c r="D95" t="n">
-        <v>-6.967221888795491e-05</v>
+        <v>-7.170984804937236e-05</v>
       </c>
       <c r="E95" t="n">
-        <v>6.040549803137015e-06</v>
+        <v>6.012293101036516e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>1.042805211403309e-05</v>
+        <v>1.024017743681734e-05</v>
       </c>
       <c r="G95" t="n">
-        <v>1.403088107997689e-05</v>
+        <v>1.385644330282742e-05</v>
       </c>
       <c r="H95" t="n">
-        <v>7.446023848338829</v>
+        <v>8.182912453092126</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1141131009790249</v>
+        <v>0.08510305532272666</v>
       </c>
       <c r="J95" t="n">
-        <v>1.861505962084707</v>
+        <v>2.045728113273031</v>
       </c>
     </row>
     <row r="96">
@@ -3426,31 +3426,31 @@
         <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0004147216682794244</v>
+        <v>0.0004165879019062633</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0002147593391240341</v>
+        <v>0.0002162209091318475</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.0001251428507814906</v>
+        <v>-0.000128396751211012</v>
       </c>
       <c r="E96" t="n">
-        <v>1.014105982860041e-05</v>
+        <v>1.01785313358658e-05</v>
       </c>
       <c r="F96" t="n">
-        <v>1.683746064371399e-05</v>
+        <v>1.689435448386769e-05</v>
       </c>
       <c r="G96" t="n">
-        <v>2.367657139254321e-05</v>
+        <v>2.376544195881086e-05</v>
       </c>
       <c r="H96" t="n">
-        <v>2.67383191988367</v>
+        <v>2.998210914541618</v>
       </c>
       <c r="I96" t="n">
-        <v>0.6138013940068189</v>
+        <v>0.5581248441889537</v>
       </c>
       <c r="J96" t="n">
-        <v>0.6684579799709176</v>
+        <v>0.7495527286354046</v>
       </c>
     </row>
     <row r="97">
@@ -3458,31 +3458,31 @@
         <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0003634290871641658</v>
+        <v>0.0003639063103444141</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0001975533166211927</v>
+        <v>0.0001986198921478735</v>
       </c>
       <c r="D97" t="n">
-        <v>-9.600160642033308e-05</v>
+        <v>-9.59873854009636e-05</v>
       </c>
       <c r="E97" t="n">
-        <v>8.755797193816334e-06</v>
+        <v>8.759894908642088e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>1.462835839785289e-05</v>
+        <v>1.459425374362575e-05</v>
       </c>
       <c r="G97" t="n">
-        <v>2.068118490201357e-05</v>
+        <v>2.067668156021071e-05</v>
       </c>
       <c r="H97" t="n">
-        <v>4.624122947191724</v>
+        <v>5.308845084105631</v>
       </c>
       <c r="I97" t="n">
-        <v>0.3280823364371093</v>
+        <v>0.257050053445122</v>
       </c>
       <c r="J97" t="n">
-        <v>1.156030736797931</v>
+        <v>1.327211271026408</v>
       </c>
     </row>
     <row r="98">
@@ -3490,31 +3490,31 @@
         <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002399901539528359</v>
+        <v>0.0002407015070768913</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0001347025268070479</v>
+        <v>0.0001334006182262725</v>
       </c>
       <c r="D98" t="n">
-        <v>-6.210809786660941e-05</v>
+        <v>-6.293163420260743e-05</v>
       </c>
       <c r="E98" t="n">
-        <v>5.716627233746923e-06</v>
+        <v>5.727569938186865e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>9.600269642401878e-06</v>
+        <v>9.59103409910207e-06</v>
       </c>
       <c r="G98" t="n">
-        <v>1.361613457407674e-05</v>
+        <v>1.360890882408297e-05</v>
       </c>
       <c r="H98" t="n">
-        <v>5.890828456068474</v>
+        <v>5.284772692990244</v>
       </c>
       <c r="I98" t="n">
-        <v>0.2074509654172489</v>
+        <v>0.2593057815423556</v>
       </c>
       <c r="J98" t="n">
-        <v>1.472707114017118</v>
+        <v>1.321193173247561</v>
       </c>
     </row>
     <row r="99">
@@ -3522,31 +3522,31 @@
         <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001528082967493449</v>
+        <v>0.0001531970326935972</v>
       </c>
       <c r="C99" t="n">
-        <v>7.530283190826723e-05</v>
+        <v>7.619656258414316e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>-2.792025562801259e-05</v>
+        <v>-2.964455833777955e-05</v>
       </c>
       <c r="E99" t="n">
-        <v>3.647298229944277e-06</v>
+        <v>3.657342733627688e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>6.245305650363016e-06</v>
+        <v>6.250361366107791e-06</v>
       </c>
       <c r="G99" t="n">
-        <v>8.694009289469017e-06</v>
+        <v>8.700097035490074e-06</v>
       </c>
       <c r="H99" t="n">
-        <v>8.60057034328654</v>
+        <v>7.835305162543174</v>
       </c>
       <c r="I99" t="n">
-        <v>0.07189672630164823</v>
+        <v>0.09780092124996587</v>
       </c>
       <c r="J99" t="n">
-        <v>2.150142585821635</v>
+        <v>1.958826290635794</v>
       </c>
     </row>
     <row r="100">
@@ -3554,31 +3554,31 @@
         <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>7.519577471931954e-05</v>
+        <v>7.476181792736192e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>3.356213297935427e-05</v>
+        <v>3.400156185295789e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.846049441917306e-06</v>
+        <v>-8.764895034729097e-06</v>
       </c>
       <c r="E100" t="n">
-        <v>1.862486597188414e-06</v>
+        <v>1.857506287545761e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>3.298271470812044e-06</v>
+        <v>3.278432476526974e-06</v>
       </c>
       <c r="G100" t="n">
-        <v>4.454494857829187e-06</v>
+        <v>4.430444507096632e-06</v>
       </c>
       <c r="H100" t="n">
-        <v>9.109237188351095</v>
+        <v>10.83448823231229</v>
       </c>
       <c r="I100" t="n">
-        <v>0.05842631838678226</v>
+        <v>0.0284884836447498</v>
       </c>
       <c r="J100" t="n">
-        <v>2.277309297087774</v>
+        <v>2.708622058078073</v>
       </c>
     </row>
     <row r="101">
@@ -3586,31 +3586,31 @@
         <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>5.437996558735128e-05</v>
+        <v>5.451444798097336e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1.95922122540777e-05</v>
+        <v>2.017289579410549e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>-6.865239149234144e-06</v>
+        <v>-5.985580318103228e-06</v>
       </c>
       <c r="E101" t="n">
-        <v>1.313062293717529e-06</v>
+        <v>1.314911409843443e-06</v>
       </c>
       <c r="F101" t="n">
-        <v>2.30937578476895e-06</v>
+        <v>2.321029665236297e-06</v>
       </c>
       <c r="G101" t="n">
-        <v>3.09248186670815e-06</v>
+        <v>3.116229442514722e-06</v>
       </c>
       <c r="H101" t="n">
-        <v>2.482959575173951</v>
+        <v>4.196683539561494</v>
       </c>
       <c r="I101" t="n">
-        <v>0.6476897226491498</v>
+        <v>0.3800415407852359</v>
       </c>
       <c r="J101" t="n">
-        <v>0.6207398937934878</v>
+        <v>1.049170884890374</v>
       </c>
     </row>
     <row r="102">
@@ -3618,31 +3618,31 @@
         <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>5.732044175378717e-05</v>
+        <v>5.722268948047766e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>1.909759660142078e-05</v>
+        <v>1.950009104546201e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.251365815937061e-05</v>
+        <v>-1.345515081515659e-05</v>
       </c>
       <c r="E102" t="n">
-        <v>1.373655142018551e-06</v>
+        <v>1.375511498892706e-06</v>
       </c>
       <c r="F102" t="n">
-        <v>2.292209781225028e-06</v>
+        <v>2.28305525572731e-06</v>
       </c>
       <c r="G102" t="n">
-        <v>3.130173251310483e-06</v>
+        <v>3.127297362915007e-06</v>
       </c>
       <c r="H102" t="n">
-        <v>8.845187620702331</v>
+        <v>7.995828293196567</v>
       </c>
       <c r="I102" t="n">
-        <v>0.06508770918598142</v>
+        <v>0.09173112898090774</v>
       </c>
       <c r="J102" t="n">
-        <v>2.211296905175583</v>
+        <v>1.998957073299142</v>
       </c>
     </row>
     <row r="103">
@@ -3650,31 +3650,31 @@
         <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>6.20625852228339e-05</v>
+        <v>6.18219555674588e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>2.228149447251564e-05</v>
+        <v>2.002002942750846e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.668437998916453e-05</v>
+        <v>-1.541739801388165e-05</v>
       </c>
       <c r="E103" t="n">
-        <v>1.507471724472597e-06</v>
+        <v>1.502501374136433e-06</v>
       </c>
       <c r="F103" t="n">
-        <v>2.471429369346183e-06</v>
+        <v>2.470832594666332e-06</v>
       </c>
       <c r="G103" t="n">
-        <v>3.429950636219261e-06</v>
+        <v>3.390318313512406e-06</v>
       </c>
       <c r="H103" t="n">
-        <v>9.687516338519213</v>
+        <v>10.4856910422714</v>
       </c>
       <c r="I103" t="n">
-        <v>0.04603358421464534</v>
+        <v>0.03299466392957414</v>
       </c>
       <c r="J103" t="n">
-        <v>2.421879084629803</v>
+        <v>2.621422760567851</v>
       </c>
     </row>
     <row r="104">
@@ -3682,31 +3682,31 @@
         <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>6.608722063740619e-05</v>
+        <v>6.57643642447686e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>2.707329046511022e-05</v>
+        <v>2.652564177888701e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>-1.883166132165705e-05</v>
+        <v>-1.824688682304896e-05</v>
       </c>
       <c r="E104" t="n">
-        <v>1.553993278016504e-06</v>
+        <v>1.549945753028263e-06</v>
       </c>
       <c r="F104" t="n">
-        <v>2.52266629847274e-06</v>
+        <v>2.525819067420819e-06</v>
       </c>
       <c r="G104" t="n">
-        <v>3.609415615396844e-06</v>
+        <v>3.590633744336787e-06</v>
       </c>
       <c r="H104" t="n">
-        <v>9.139531584470948</v>
+        <v>8.695704794719919</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0577049230710239</v>
+        <v>0.06917212343209368</v>
       </c>
       <c r="J104" t="n">
-        <v>2.284882896117737</v>
+        <v>2.17392619867998</v>
       </c>
     </row>
     <row r="105">
@@ -3714,31 +3714,31 @@
         <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>6.974090580952666e-05</v>
+        <v>7.003126995907139e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>2.96024641054358e-05</v>
+        <v>3.001994444254793e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.925325159712548e-05</v>
+        <v>-2.127075568783035e-05</v>
       </c>
       <c r="E105" t="n">
-        <v>1.795809221782491e-06</v>
+        <v>1.802944737895917e-06</v>
       </c>
       <c r="F105" t="n">
-        <v>3.017576560991101e-06</v>
+        <v>3.004746767233672e-06</v>
       </c>
       <c r="G105" t="n">
-        <v>4.155382338178262e-06</v>
+        <v>4.144577966108102e-06</v>
       </c>
       <c r="H105" t="n">
-        <v>5.482821977132676</v>
+        <v>4.251499547670655</v>
       </c>
       <c r="I105" t="n">
-        <v>0.241243573220581</v>
+        <v>0.3730377747052997</v>
       </c>
       <c r="J105" t="n">
-        <v>1.370705494283169</v>
+        <v>1.062874886917664</v>
       </c>
     </row>
     <row r="106">
@@ -3746,31 +3746,31 @@
         <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>7.01885064558694e-05</v>
+        <v>7.029603501948421e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>3.527420755105353e-05</v>
+        <v>3.626441194532599e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>-2.340948839944546e-05</v>
+        <v>-2.395175423095092e-05</v>
       </c>
       <c r="E106" t="n">
-        <v>1.785493164885028e-06</v>
+        <v>1.78587319912502e-06</v>
       </c>
       <c r="F106" t="n">
-        <v>2.980422996005753e-06</v>
+        <v>2.978386641941552e-06</v>
       </c>
       <c r="G106" t="n">
-        <v>4.148272431623178e-06</v>
+        <v>4.150734301458948e-06</v>
       </c>
       <c r="H106" t="n">
-        <v>5.741272018781061</v>
+        <v>4.700879717692604</v>
       </c>
       <c r="I106" t="n">
-        <v>0.2193213720935255</v>
+        <v>0.3193881257977523</v>
       </c>
       <c r="J106" t="n">
-        <v>1.435318004695265</v>
+        <v>1.175219929423151</v>
       </c>
     </row>
     <row r="107">
@@ -3778,31 +3778,31 @@
         <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>7.072313915325942e-05</v>
+        <v>7.105491756250939e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>3.068182135929651e-05</v>
+        <v>3.032070892395129e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>-2.140583644420333e-05</v>
+        <v>-2.239063936023925e-05</v>
       </c>
       <c r="E107" t="n">
-        <v>1.927132716331288e-06</v>
+        <v>1.924352036079504e-06</v>
       </c>
       <c r="F107" t="n">
-        <v>3.275332787544674e-06</v>
+        <v>3.256429214268387e-06</v>
       </c>
       <c r="G107" t="n">
-        <v>4.411849373939682e-06</v>
+        <v>4.394292570652721e-06</v>
       </c>
       <c r="H107" t="n">
-        <v>4.720039808647024</v>
+        <v>3.373342267574281</v>
       </c>
       <c r="I107" t="n">
-        <v>0.317247514650235</v>
+        <v>0.4973962915857829</v>
       </c>
       <c r="J107" t="n">
-        <v>1.180009952161756</v>
+        <v>0.8433355668935703</v>
       </c>
     </row>
     <row r="108">
@@ -3810,31 +3810,31 @@
         <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>7.418564326925211e-05</v>
+        <v>7.362119808797143e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>2.999918630011667e-05</v>
+        <v>2.966696779377818e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>-2.496591448656249e-05</v>
+        <v>-2.465572132769128e-05</v>
       </c>
       <c r="E108" t="n">
-        <v>1.82009902070515e-06</v>
+        <v>1.809457791593465e-06</v>
       </c>
       <c r="F108" t="n">
-        <v>2.953590045064638e-06</v>
+        <v>2.949297162523648e-06</v>
       </c>
       <c r="G108" t="n">
-        <v>4.154405295130658e-06</v>
+        <v>4.131958764699173e-06</v>
       </c>
       <c r="H108" t="n">
-        <v>5.599612194333452</v>
+        <v>4.36209300704625</v>
       </c>
       <c r="I108" t="n">
-        <v>0.2311112555152242</v>
+        <v>0.3592142500495701</v>
       </c>
       <c r="J108" t="n">
-        <v>1.399903048583363</v>
+        <v>1.090523251761563</v>
       </c>
     </row>
     <row r="109">
@@ -3842,31 +3842,31 @@
         <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>7.557160424454405e-05</v>
+        <v>7.56879732585637e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>3.752274213840487e-05</v>
+        <v>3.764809098441915e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>-2.947787603195564e-05</v>
+        <v>-2.895462359039751e-05</v>
       </c>
       <c r="E109" t="n">
-        <v>1.978146048270872e-06</v>
+        <v>1.982477332500259e-06</v>
       </c>
       <c r="F109" t="n">
-        <v>3.228959879198324e-06</v>
+        <v>3.235785601306145e-06</v>
       </c>
       <c r="G109" t="n">
-        <v>4.552623053538686e-06</v>
+        <v>4.563534836824807e-06</v>
       </c>
       <c r="H109" t="n">
-        <v>5.693692220692489</v>
+        <v>5.666390946240933</v>
       </c>
       <c r="I109" t="n">
-        <v>0.2232211064750261</v>
+        <v>0.2254861162660348</v>
       </c>
       <c r="J109" t="n">
-        <v>1.423423055173122</v>
+        <v>1.416597736560233</v>
       </c>
     </row>
     <row r="110">
@@ -3874,31 +3874,31 @@
         <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>7.614798335586908e-05</v>
+        <v>7.561160554599451e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>3.125700779526587e-05</v>
+        <v>3.179275638203825e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>-2.771094950896424e-05</v>
+        <v>-2.805027612799962e-05</v>
       </c>
       <c r="E110" t="n">
-        <v>1.891654773289404e-06</v>
+        <v>1.88368826315141e-06</v>
       </c>
       <c r="F110" t="n">
-        <v>3.029932057723897e-06</v>
+        <v>3.016485294866826e-06</v>
       </c>
       <c r="G110" t="n">
-        <v>4.294437508124062e-06</v>
+        <v>4.274950445834924e-06</v>
       </c>
       <c r="H110" t="n">
-        <v>11.48190990795632</v>
+        <v>10.95473638315373</v>
       </c>
       <c r="I110" t="n">
-        <v>0.02164992357584874</v>
+        <v>0.02707745254044104</v>
       </c>
       <c r="J110" t="n">
-        <v>2.870477476989079</v>
+        <v>2.738684095788433</v>
       </c>
     </row>
     <row r="111">
@@ -3906,31 +3906,31 @@
         <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>7.687898091953641e-05</v>
+        <v>7.68708596910019e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>3.360781585365099e-05</v>
+        <v>3.343438323734286e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>-3.566983946313036e-05</v>
+        <v>-3.561914448739137e-05</v>
       </c>
       <c r="E111" t="n">
-        <v>1.938517694948631e-06</v>
+        <v>1.936698920000792e-06</v>
       </c>
       <c r="F111" t="n">
-        <v>3.057635092366331e-06</v>
+        <v>3.044924716941239e-06</v>
       </c>
       <c r="G111" t="n">
-        <v>4.329220269702424e-06</v>
+        <v>4.315979613025874e-06</v>
       </c>
       <c r="H111" t="n">
-        <v>7.159227575633325</v>
+        <v>7.013615881219478</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1277092454179315</v>
+        <v>0.1351704355320225</v>
       </c>
       <c r="J111" t="n">
-        <v>1.789806893908331</v>
+        <v>1.75340397030487</v>
       </c>
     </row>
     <row r="112">
@@ -3938,31 +3938,31 @@
         <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>7.99801746524017e-05</v>
+        <v>7.971738916946329e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>4.020512911751501e-05</v>
+        <v>3.892319176742269e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>-4.057614843327914e-05</v>
+        <v>-3.906512408947019e-05</v>
       </c>
       <c r="E112" t="n">
-        <v>2.107132623862344e-06</v>
+        <v>2.107345135162438e-06</v>
       </c>
       <c r="F112" t="n">
-        <v>3.279777994148076e-06</v>
+        <v>3.285914048017209e-06</v>
       </c>
       <c r="G112" t="n">
-        <v>4.710459432742741e-06</v>
+        <v>4.713681205419182e-06</v>
       </c>
       <c r="H112" t="n">
-        <v>7.015941319598176</v>
+        <v>7.653900255479525</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1350481939380189</v>
+        <v>0.1051113196743221</v>
       </c>
       <c r="J112" t="n">
-        <v>1.753985329899544</v>
+        <v>1.913475063869881</v>
       </c>
     </row>
     <row r="113">
@@ -3970,31 +3970,31 @@
         <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>7.680125808677259e-05</v>
+        <v>7.669677015212725e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>3.499705911844715e-05</v>
+        <v>3.482447008558154e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>-3.679332023748461e-05</v>
+        <v>-3.670430491141039e-05</v>
       </c>
       <c r="E113" t="n">
-        <v>1.976047301479071e-06</v>
+        <v>1.979661654627823e-06</v>
       </c>
       <c r="F113" t="n">
-        <v>3.044548253552641e-06</v>
+        <v>3.098646506203951e-06</v>
       </c>
       <c r="G113" t="n">
-        <v>4.394180602945048e-06</v>
+        <v>4.417657319580238e-06</v>
       </c>
       <c r="H113" t="n">
-        <v>13.0439510563945</v>
+        <v>12.09308266735928</v>
       </c>
       <c r="I113" t="n">
-        <v>0.01106302600262891</v>
+        <v>0.01667233653120372</v>
       </c>
       <c r="J113" t="n">
-        <v>3.260987764098625</v>
+        <v>3.023270666839821</v>
       </c>
     </row>
     <row r="114">
@@ -4002,31 +4002,31 @@
         <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>8.007137742112398e-05</v>
+        <v>7.978368862840218e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>3.640551621488608e-05</v>
+        <v>3.772635107285594e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>-3.913913891167033e-05</v>
+        <v>-4.050477385967623e-05</v>
       </c>
       <c r="E114" t="n">
-        <v>2.028525032455187e-06</v>
+        <v>2.030118982119563e-06</v>
       </c>
       <c r="F114" t="n">
-        <v>3.148545896796822e-06</v>
+        <v>3.157917736195152e-06</v>
       </c>
       <c r="G114" t="n">
-        <v>4.492194501552017e-06</v>
+        <v>4.498002805349838e-06</v>
       </c>
       <c r="H114" t="n">
-        <v>4.090577322174751</v>
+        <v>4.987809706122414</v>
       </c>
       <c r="I114" t="n">
-        <v>0.3938863094451204</v>
+        <v>0.2885505841939496</v>
       </c>
       <c r="J114" t="n">
-        <v>1.022644330543688</v>
+        <v>1.246952426530604</v>
       </c>
     </row>
     <row r="115">
@@ -4034,31 +4034,31 @@
         <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>8.008397995429655e-05</v>
+        <v>7.981775796167136e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>3.690309416787734e-05</v>
+        <v>3.797694929970292e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>-4.100995328975963e-05</v>
+        <v>-4.247284761574335e-05</v>
       </c>
       <c r="E115" t="n">
-        <v>2.075897479548432e-06</v>
+        <v>2.074665219718204e-06</v>
       </c>
       <c r="F115" t="n">
-        <v>3.216145352815205e-06</v>
+        <v>3.198749680695234e-06</v>
       </c>
       <c r="G115" t="n">
-        <v>4.613578252636231e-06</v>
+        <v>4.59352363973615e-06</v>
       </c>
       <c r="H115" t="n">
-        <v>7.839688197636033</v>
+        <v>8.751161998949764</v>
       </c>
       <c r="I115" t="n">
-        <v>0.09763031238687842</v>
+        <v>0.06762927426758621</v>
       </c>
       <c r="J115" t="n">
-        <v>1.959922049409008</v>
+        <v>2.187790499737441</v>
       </c>
     </row>
     <row r="116">
@@ -4066,31 +4066,31 @@
         <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>8.21089261733579e-05</v>
+        <v>8.271312987636362e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>4.045080587170454e-05</v>
+        <v>3.959991914772092e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>-4.6389503757416e-05</v>
+        <v>-4.6029160059613e-05</v>
       </c>
       <c r="E116" t="n">
-        <v>2.134939629262983e-06</v>
+        <v>2.145372146409226e-06</v>
       </c>
       <c r="F116" t="n">
-        <v>3.215651296082818e-06</v>
+        <v>3.262132943387193e-06</v>
       </c>
       <c r="G116" t="n">
-        <v>4.678840332910869e-06</v>
+        <v>4.70674968352124e-06</v>
       </c>
       <c r="H116" t="n">
-        <v>6.911624822960139</v>
+        <v>6.147952556298329</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1406328046678125</v>
+        <v>0.1883681882819743</v>
       </c>
       <c r="J116" t="n">
-        <v>1.727906205740035</v>
+        <v>1.536988139074582</v>
       </c>
     </row>
     <row r="117">
@@ -4098,31 +4098,31 @@
         <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>8.720136042315918e-05</v>
+        <v>8.756376602148226e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>4.204166287723195e-05</v>
+        <v>4.134984328695752e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>-4.075711360535273e-05</v>
+        <v>-4.016234780037951e-05</v>
       </c>
       <c r="E117" t="n">
-        <v>2.312886352203438e-06</v>
+        <v>2.324954809053438e-06</v>
       </c>
       <c r="F117" t="n">
-        <v>3.641194083635964e-06</v>
+        <v>3.738192022174036e-06</v>
       </c>
       <c r="G117" t="n">
-        <v>5.204242532397427e-06</v>
+        <v>5.261491629729767e-06</v>
       </c>
       <c r="H117" t="n">
-        <v>7.012518286709338</v>
+        <v>6.57107547729612</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1352281682178952</v>
+        <v>0.1603667817682246</v>
       </c>
       <c r="J117" t="n">
-        <v>1.753129571677335</v>
+        <v>1.64276886932403</v>
       </c>
     </row>
     <row r="118">
@@ -4130,31 +4130,31 @@
         <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>8.228916027800296e-05</v>
+        <v>8.267239928669011e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>3.881497205676108e-05</v>
+        <v>3.810663020104955e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>-4.017006321101652e-05</v>
+        <v>-4.024607913844988e-05</v>
       </c>
       <c r="E118" t="n">
-        <v>2.05463922950975e-06</v>
+        <v>2.06262832128259e-06</v>
       </c>
       <c r="F118" t="n">
-        <v>3.151813268202087e-06</v>
+        <v>3.154929844144164e-06</v>
       </c>
       <c r="G118" t="n">
-        <v>4.59298411317303e-06</v>
+        <v>4.603929639943428e-06</v>
       </c>
       <c r="H118" t="n">
-        <v>9.125871345206836</v>
+        <v>10.82549413381731</v>
       </c>
       <c r="I118" t="n">
-        <v>0.05802915600424567</v>
+        <v>0.02859683223795686</v>
       </c>
       <c r="J118" t="n">
-        <v>2.281467836301709</v>
+        <v>2.706373533454328</v>
       </c>
     </row>
     <row r="119">
@@ -4162,31 +4162,31 @@
         <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>8.377660771846928e-05</v>
+        <v>8.403615116951823e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>4.10244474756957e-05</v>
+        <v>4.128542409864824e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>-4.56459468194491e-05</v>
+        <v>-4.682605446258779e-05</v>
       </c>
       <c r="E119" t="n">
-        <v>2.173398065632232e-06</v>
+        <v>2.180037804146396e-06</v>
       </c>
       <c r="F119" t="n">
-        <v>3.358408908531724e-06</v>
+        <v>3.342351912418843e-06</v>
       </c>
       <c r="G119" t="n">
-        <v>4.846079900134129e-06</v>
+        <v>4.841557655315886e-06</v>
       </c>
       <c r="H119" t="n">
-        <v>4.47011352636156</v>
+        <v>4.448668139716324</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3461059666552824</v>
+        <v>0.3486775773588157</v>
       </c>
       <c r="J119" t="n">
-        <v>1.11752838159039</v>
+        <v>1.112167034929081</v>
       </c>
     </row>
     <row r="120">
@@ -4194,31 +4194,31 @@
         <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>8.468355078247249e-05</v>
+        <v>8.497456250029359e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>4.058430890828584e-05</v>
+        <v>4.047780329310512e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>-4.380645579095036e-05</v>
+        <v>-4.423116123190203e-05</v>
       </c>
       <c r="E120" t="n">
-        <v>2.134297917434311e-06</v>
+        <v>2.140401461141363e-06</v>
       </c>
       <c r="F120" t="n">
-        <v>3.240348554177617e-06</v>
+        <v>3.250543698057152e-06</v>
       </c>
       <c r="G120" t="n">
-        <v>4.729775094777543e-06</v>
+        <v>4.74342905656573e-06</v>
       </c>
       <c r="H120" t="n">
-        <v>9.273333225906429</v>
+        <v>8.270019230151505</v>
       </c>
       <c r="I120" t="n">
-        <v>0.05461898488015323</v>
+        <v>0.08217304920456771</v>
       </c>
       <c r="J120" t="n">
-        <v>2.318333306476607</v>
+        <v>2.067504807537876</v>
       </c>
     </row>
     <row r="121">
@@ -4226,31 +4226,31 @@
         <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>9.047316852704549e-05</v>
+        <v>9.029052253667089e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>4.624727987930047e-05</v>
+        <v>4.484627487507418e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>-4.051747203987673e-05</v>
+        <v>-3.931246837546811e-05</v>
       </c>
       <c r="E121" t="n">
-        <v>2.331041715872939e-06</v>
+        <v>2.327463259469266e-06</v>
       </c>
       <c r="F121" t="n">
-        <v>3.655459891064915e-06</v>
+        <v>3.682118238670655e-06</v>
       </c>
       <c r="G121" t="n">
-        <v>5.310054886670857e-06</v>
+        <v>5.318846192894724e-06</v>
       </c>
       <c r="H121" t="n">
-        <v>10.29437287331706</v>
+        <v>9.748674827404324</v>
       </c>
       <c r="I121" t="n">
-        <v>0.035750466910466</v>
+        <v>0.04488084721175528</v>
       </c>
       <c r="J121" t="n">
-        <v>2.573593218329265</v>
+        <v>2.437168706851081</v>
       </c>
     </row>
     <row r="122">
@@ -4258,31 +4258,31 @@
         <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>8.721209487429061e-05</v>
+        <v>8.706312147354364e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>4.43066818463212e-05</v>
+        <v>4.467268203303709e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>-4.293807540200892e-05</v>
+        <v>-4.331959125399669e-05</v>
       </c>
       <c r="E122" t="n">
-        <v>2.145514584855104e-06</v>
+        <v>2.14455670904449e-06</v>
       </c>
       <c r="F122" t="n">
-        <v>3.278789562245644e-06</v>
+        <v>3.262810382976826e-06</v>
       </c>
       <c r="G122" t="n">
-        <v>4.830111875355824e-06</v>
+        <v>4.824072810028371e-06</v>
       </c>
       <c r="H122" t="n">
-        <v>7.234913877741287</v>
+        <v>8.824061909265911</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1239827505576054</v>
+        <v>0.06565073223278374</v>
       </c>
       <c r="J122" t="n">
-        <v>1.808728469435322</v>
+        <v>2.206015477316478</v>
       </c>
     </row>
     <row r="123">
@@ -4290,31 +4290,31 @@
         <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>8.963393756427206e-05</v>
+        <v>8.986309183400918e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>4.624931413247582e-05</v>
+        <v>4.644581916731428e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>-4.738471028476862e-05</v>
+        <v>-4.761421295222456e-05</v>
       </c>
       <c r="E123" t="n">
-        <v>2.149392526655107e-06</v>
+        <v>2.153896373710777e-06</v>
       </c>
       <c r="F123" t="n">
-        <v>3.150286354206905e-06</v>
+        <v>3.159156244346583e-06</v>
       </c>
       <c r="G123" t="n">
-        <v>4.756916153846033e-06</v>
+        <v>4.767325418640607e-06</v>
       </c>
       <c r="H123" t="n">
-        <v>12.30428420088095</v>
+        <v>12.29083240563196</v>
       </c>
       <c r="I123" t="n">
-        <v>0.01522631353643083</v>
+        <v>0.01531465383109071</v>
       </c>
       <c r="J123" t="n">
-        <v>3.076071050220238</v>
+        <v>3.07270810140799</v>
       </c>
     </row>
     <row r="124">
@@ -4322,31 +4322,31 @@
         <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>9.737664514887169e-05</v>
+        <v>9.769801660649701e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>4.614061786445397e-05</v>
+        <v>4.619695821780818e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>-4.087582840052564e-05</v>
+        <v>-4.150340613882388e-05</v>
       </c>
       <c r="E124" t="n">
-        <v>2.431766309278849e-06</v>
+        <v>2.440173321518327e-06</v>
       </c>
       <c r="F124" t="n">
-        <v>3.840312561117844e-06</v>
+        <v>3.854518130000611e-06</v>
       </c>
       <c r="G124" t="n">
-        <v>5.514115957486883e-06</v>
+        <v>5.527625614901336e-06</v>
       </c>
       <c r="H124" t="n">
-        <v>5.61373367691425</v>
+        <v>4.867376166674409</v>
       </c>
       <c r="I124" t="n">
-        <v>0.229911611959793</v>
+        <v>0.3011782017981009</v>
       </c>
       <c r="J124" t="n">
-        <v>1.403433419228562</v>
+        <v>1.216844041668602</v>
       </c>
     </row>
     <row r="125">
@@ -4354,31 +4354,31 @@
         <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0001038598302544735</v>
+        <v>0.0001040330233559185</v>
       </c>
       <c r="C125" t="n">
-        <v>5.490146952537407e-05</v>
+        <v>5.563998019031506e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>-5.375408833491405e-05</v>
+        <v>-5.522604869703096e-05</v>
       </c>
       <c r="E125" t="n">
-        <v>2.522153113072709e-06</v>
+        <v>2.528238360203416e-06</v>
       </c>
       <c r="F125" t="n">
-        <v>3.774609468673468e-06</v>
+        <v>3.760611807958828e-06</v>
       </c>
       <c r="G125" t="n">
-        <v>5.627639176600156e-06</v>
+        <v>5.623538076298049e-06</v>
       </c>
       <c r="H125" t="n">
-        <v>7.525842658400649</v>
+        <v>7.581343953045697</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1105751250206696</v>
+        <v>0.10817540082223</v>
       </c>
       <c r="J125" t="n">
-        <v>1.881460664600162</v>
+        <v>1.895335988261424</v>
       </c>
     </row>
     <row r="126">
@@ -4386,31 +4386,31 @@
         <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0001175814580627266</v>
+        <v>0.0001181399197516867</v>
       </c>
       <c r="C126" t="n">
-        <v>5.498814938368871e-05</v>
+        <v>5.476934378881346e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>-6.11945282990436e-05</v>
+        <v>-6.084023081749743e-05</v>
       </c>
       <c r="E126" t="n">
-        <v>2.873917788094132e-06</v>
+        <v>2.884651432279728e-06</v>
       </c>
       <c r="F126" t="n">
-        <v>4.325707134955935e-06</v>
+        <v>4.359183330692277e-06</v>
       </c>
       <c r="G126" t="n">
-        <v>6.318723340384998e-06</v>
+        <v>6.351187082457813e-06</v>
       </c>
       <c r="H126" t="n">
-        <v>6.199808139540457</v>
+        <v>5.290410535186295</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1847151271479366</v>
+        <v>0.2587759657072865</v>
       </c>
       <c r="J126" t="n">
-        <v>1.549952034885114</v>
+        <v>1.322602633796574</v>
       </c>
     </row>
     <row r="127">
@@ -4418,31 +4418,31 @@
         <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0001166824111796317</v>
+        <v>0.0001165909827619145</v>
       </c>
       <c r="C127" t="n">
-        <v>5.206189536226134e-05</v>
+        <v>5.303922916720517e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>-6.14607041771385e-05</v>
+        <v>-6.27620690949788e-05</v>
       </c>
       <c r="E127" t="n">
-        <v>2.84019040604755e-06</v>
+        <v>2.843183035657797e-06</v>
       </c>
       <c r="F127" t="n">
-        <v>4.260491700901453e-06</v>
+        <v>4.237007185536504e-06</v>
       </c>
       <c r="G127" t="n">
-        <v>6.244213403659279e-06</v>
+        <v>6.2341533341647e-06</v>
       </c>
       <c r="H127" t="n">
-        <v>5.047056928498453</v>
+        <v>5.997487194836329</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2825031516725175</v>
+        <v>0.1993360098828807</v>
       </c>
       <c r="J127" t="n">
-        <v>1.261764232124613</v>
+        <v>1.499371798709082</v>
       </c>
     </row>
     <row r="128">
@@ -4450,31 +4450,31 @@
         <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001440335284033769</v>
+        <v>0.0001442872345379762</v>
       </c>
       <c r="C128" t="n">
-        <v>6.295373011016931e-05</v>
+        <v>6.352985368394902e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>-8.138929244876401e-05</v>
+        <v>-8.279618615883504e-05</v>
       </c>
       <c r="E128" t="n">
-        <v>3.594810580187028e-06</v>
+        <v>3.603395842432988e-06</v>
       </c>
       <c r="F128" t="n">
-        <v>5.440092412995102e-06</v>
+        <v>5.436997162922735e-06</v>
       </c>
       <c r="G128" t="n">
-        <v>7.857533828552009e-06</v>
+        <v>7.857560639321674e-06</v>
       </c>
       <c r="H128" t="n">
-        <v>1.241328706805453</v>
+        <v>1.080511741288912</v>
       </c>
       <c r="I128" t="n">
-        <v>0.8712483649930175</v>
+        <v>0.8973517814709855</v>
       </c>
       <c r="J128" t="n">
-        <v>0.3103321767013633</v>
+        <v>0.270127935322228</v>
       </c>
     </row>
     <row r="129">
@@ -4482,31 +4482,31 @@
         <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0002286287624292498</v>
+        <v>0.0002303308951589703</v>
       </c>
       <c r="C129" t="n">
-        <v>9.201937924198622e-05</v>
+        <v>8.835158334256698e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.0001047835854487682</v>
+        <v>-0.0001045762501865524</v>
       </c>
       <c r="E129" t="n">
-        <v>5.781938100958142e-06</v>
+        <v>5.810227454911932e-06</v>
       </c>
       <c r="F129" t="n">
-        <v>9.063184234026263e-06</v>
+        <v>9.185266163525193e-06</v>
       </c>
       <c r="G129" t="n">
-        <v>1.273286983062644e-05</v>
+        <v>1.280191716403496e-05</v>
       </c>
       <c r="H129" t="n">
-        <v>3.414669020305363</v>
+        <v>2.317032015326441</v>
       </c>
       <c r="I129" t="n">
-        <v>0.4909711380561544</v>
+        <v>0.6776698506569904</v>
       </c>
       <c r="J129" t="n">
-        <v>0.8536672550763407</v>
+        <v>0.5792580038316103</v>
       </c>
     </row>
     <row r="130">
@@ -4514,31 +4514,31 @@
         <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0003122173600061873</v>
+        <v>0.0003120957759071577</v>
       </c>
       <c r="C130" t="n">
-        <v>0.000127923084226788</v>
+        <v>0.0001241722996846971</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.0001213231051572753</v>
+        <v>-0.0001201024326718573</v>
       </c>
       <c r="E130" t="n">
-        <v>7.66512718550302e-06</v>
+        <v>7.659264577552593e-06</v>
       </c>
       <c r="F130" t="n">
-        <v>1.235929587438576e-05</v>
+        <v>1.23734584517684e-05</v>
       </c>
       <c r="G130" t="n">
-        <v>1.723334453860494e-05</v>
+        <v>1.720046991215141e-05</v>
       </c>
       <c r="H130" t="n">
-        <v>0.9713979346182124</v>
+        <v>0.6256742204375723</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9141015389682577</v>
+        <v>0.9601684109496377</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2428494836545531</v>
+        <v>0.1564185551093931</v>
       </c>
     </row>
     <row r="131">
@@ -4546,31 +4546,31 @@
         <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>0.000310422944790086</v>
+        <v>0.0003101824037394941</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0001257673278206566</v>
+        <v>0.0001254213356905259</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.0001147687521013878</v>
+        <v>-0.0001153095849704494</v>
       </c>
       <c r="E131" t="n">
-        <v>7.85299986459225e-06</v>
+        <v>7.888110355038668e-06</v>
       </c>
       <c r="F131" t="n">
-        <v>1.270474958194452e-05</v>
+        <v>1.292023578016529e-05</v>
       </c>
       <c r="G131" t="n">
-        <v>1.771693949411587e-05</v>
+        <v>1.784154514431295e-05</v>
       </c>
       <c r="H131" t="n">
-        <v>4.846359897130214</v>
+        <v>6.154263388331509</v>
       </c>
       <c r="I131" t="n">
-        <v>0.3034282757988295</v>
+        <v>0.1879201821912022</v>
       </c>
       <c r="J131" t="n">
-        <v>1.211589974282554</v>
+        <v>1.538565847082877</v>
       </c>
     </row>
     <row r="132">
@@ -4578,31 +4578,31 @@
         <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002932881889689139</v>
+        <v>0.0002945446052321776</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0001243210405633068</v>
+        <v>0.0001206453203351155</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.0001245868385268305</v>
+        <v>-0.0001215261857193516</v>
       </c>
       <c r="E132" t="n">
-        <v>7.312747378355064e-06</v>
+        <v>7.328288057638073e-06</v>
       </c>
       <c r="F132" t="n">
-        <v>1.160629666907268e-05</v>
+        <v>1.170085604174048e-05</v>
       </c>
       <c r="G132" t="n">
-        <v>1.631291653015003e-05</v>
+        <v>1.637431829766285e-05</v>
       </c>
       <c r="H132" t="n">
-        <v>3.180776103875569</v>
+        <v>3.010559899582492</v>
       </c>
       <c r="I132" t="n">
-        <v>0.5280415208224981</v>
+        <v>0.5560597841318464</v>
       </c>
       <c r="J132" t="n">
-        <v>0.7951940259688923</v>
+        <v>0.752639974895623</v>
       </c>
     </row>
     <row r="133">
@@ -4610,31 +4610,31 @@
         <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002862879592234184</v>
+        <v>0.0002888722626258691</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0001103277627268133</v>
+        <v>0.0001119301516031989</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.0001060765901390748</v>
+        <v>-0.0001118517011091307</v>
       </c>
       <c r="E133" t="n">
-        <v>7.143868417275234e-06</v>
+        <v>7.194865909676968e-06</v>
       </c>
       <c r="F133" t="n">
-        <v>1.157638733175281e-05</v>
+        <v>1.16157289493657e-05</v>
       </c>
       <c r="G133" t="n">
-        <v>1.612538057878154e-05</v>
+        <v>1.61918873489712e-05</v>
       </c>
       <c r="H133" t="n">
-        <v>3.045091324607966</v>
+        <v>2.869768843842316</v>
       </c>
       <c r="I133" t="n">
-        <v>0.5503080386748069</v>
+        <v>0.5798504045824685</v>
       </c>
       <c r="J133" t="n">
-        <v>0.7612728311519915</v>
+        <v>0.717442210960579</v>
       </c>
     </row>
     <row r="134">
@@ -4642,31 +4642,31 @@
         <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0002835253625906371</v>
+        <v>0.0002827513798648593</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0001127275101020404</v>
+        <v>0.0001123084152866866</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.0001127665029561772</v>
+        <v>-0.0001126001488317835</v>
       </c>
       <c r="E134" t="n">
-        <v>7.130552029279033e-06</v>
+        <v>7.123120393845569e-06</v>
       </c>
       <c r="F134" t="n">
-        <v>1.151053155526624e-05</v>
+        <v>1.147593368582993e-05</v>
       </c>
       <c r="G134" t="n">
-        <v>1.596046528532032e-05</v>
+        <v>1.591391381129414e-05</v>
       </c>
       <c r="H134" t="n">
-        <v>1.492461926789381</v>
+        <v>1.925683435898938</v>
       </c>
       <c r="I134" t="n">
-        <v>0.8279758983566553</v>
+        <v>0.7494254455488152</v>
       </c>
       <c r="J134" t="n">
-        <v>0.3731154816973452</v>
+        <v>0.4814208589747345</v>
       </c>
     </row>
     <row r="135">
@@ -4674,31 +4674,31 @@
         <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002669537795698326</v>
+        <v>0.0002678476444624495</v>
       </c>
       <c r="C135" t="n">
-        <v>0.00010386687342228</v>
+        <v>0.0001051637771752429</v>
       </c>
       <c r="D135" t="n">
-        <v>-9.800547530040642e-05</v>
+        <v>-9.853412740869639e-05</v>
       </c>
       <c r="E135" t="n">
-        <v>6.935199383973108e-06</v>
+        <v>6.945402241219045e-06</v>
       </c>
       <c r="F135" t="n">
-        <v>1.158670241965166e-05</v>
+        <v>1.160494277692145e-05</v>
       </c>
       <c r="G135" t="n">
-        <v>1.565556509131373e-05</v>
+        <v>1.567215904812613e-05</v>
       </c>
       <c r="H135" t="n">
-        <v>0.7272322690943941</v>
+        <v>1.035447743458729</v>
       </c>
       <c r="I135" t="n">
-        <v>0.9479286521365077</v>
+        <v>0.904374158581273</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1818080672735985</v>
+        <v>0.2588619358646821</v>
       </c>
     </row>
     <row r="136">
@@ -4706,31 +4706,31 @@
         <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>0.000240483051049968</v>
+        <v>0.0002406546829831124</v>
       </c>
       <c r="C136" t="n">
-        <v>9.676429833327556e-05</v>
+        <v>9.987235610430773e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>-8.430991264170377e-05</v>
+        <v>-9.030391417527115e-05</v>
       </c>
       <c r="E136" t="n">
-        <v>6.193966074999816e-06</v>
+        <v>6.207601777426446e-06</v>
       </c>
       <c r="F136" t="n">
-        <v>1.031179972965826e-05</v>
+        <v>1.023859380523925e-05</v>
       </c>
       <c r="G136" t="n">
-        <v>1.396241560960709e-05</v>
+        <v>1.394388549597985e-05</v>
       </c>
       <c r="H136" t="n">
-        <v>0.3437057243270669</v>
+        <v>0.910990919614947</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9868208919690296</v>
+        <v>0.9229787246661835</v>
       </c>
       <c r="J136" t="n">
-        <v>0.08592643108176673</v>
+        <v>0.2277477299037368</v>
       </c>
     </row>
     <row r="137">
@@ -4738,31 +4738,31 @@
         <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0001797189086259691</v>
+        <v>0.0001809711136166806</v>
       </c>
       <c r="C137" t="n">
-        <v>8.806000641749179e-05</v>
+        <v>8.857944046685542e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>-5.88276164218212e-05</v>
+        <v>-5.716265782855376e-05</v>
       </c>
       <c r="E137" t="n">
-        <v>4.919734102515735e-06</v>
+        <v>4.948019446289163e-06</v>
       </c>
       <c r="F137" t="n">
-        <v>8.244295513278444e-06</v>
+        <v>8.377297467661407e-06</v>
       </c>
       <c r="G137" t="n">
-        <v>1.133238796092627e-05</v>
+        <v>1.145709849446389e-05</v>
       </c>
       <c r="H137" t="n">
-        <v>4.355829649505646</v>
+        <v>4.470293855704559</v>
       </c>
       <c r="I137" t="n">
-        <v>0.3599862083075316</v>
+        <v>0.3460844070242615</v>
       </c>
       <c r="J137" t="n">
-        <v>1.088957412376411</v>
+        <v>1.11757346392614</v>
       </c>
     </row>
     <row r="138">
@@ -4770,31 +4770,31 @@
         <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001293848613067862</v>
+        <v>0.0001295849671605673</v>
       </c>
       <c r="C138" t="n">
-        <v>6.202319188089785e-05</v>
+        <v>6.352171404773055e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>-6.356388592942451e-05</v>
+        <v>-6.556918281984343e-05</v>
       </c>
       <c r="E138" t="n">
-        <v>3.57080686085567e-06</v>
+        <v>3.578905433599782e-06</v>
       </c>
       <c r="F138" t="n">
-        <v>5.705319317974223e-06</v>
+        <v>5.661743484218278e-06</v>
       </c>
       <c r="G138" t="n">
-        <v>7.986024552466291e-06</v>
+        <v>7.970065232615887e-06</v>
       </c>
       <c r="H138" t="n">
-        <v>4.308097887099051</v>
+        <v>4.411010762265109</v>
       </c>
       <c r="I138" t="n">
-        <v>0.3659121736067225</v>
+        <v>0.3532300911958127</v>
       </c>
       <c r="J138" t="n">
-        <v>1.077024471774763</v>
+        <v>1.102752690566277</v>
       </c>
     </row>
     <row r="139">
@@ -4802,31 +4802,31 @@
         <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002542656138601661</v>
+        <v>0.0002546154071016827</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0001202661351035373</v>
+        <v>0.0001211106790546937</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.0001282223164382377</v>
+        <v>-0.0001285933389378203</v>
       </c>
       <c r="E139" t="n">
-        <v>6.057891300810975e-06</v>
+        <v>6.061912743028196e-06</v>
       </c>
       <c r="F139" t="n">
-        <v>9.084630502133096e-06</v>
+        <v>9.091381553753253e-06</v>
       </c>
       <c r="G139" t="n">
-        <v>1.337312391433704e-05</v>
+        <v>1.337077287474597e-05</v>
       </c>
       <c r="H139" t="n">
-        <v>1.514357865887735</v>
+        <v>1.512536380477361</v>
       </c>
       <c r="I139" t="n">
-        <v>0.8240951446848512</v>
+        <v>0.8244185089809372</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3785894664719337</v>
+        <v>0.3781340951193403</v>
       </c>
     </row>
     <row r="140">
@@ -4834,31 +4834,31 @@
         <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002474477667020884</v>
+        <v>0.0002489315036726651</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0001224011359220137</v>
+        <v>0.0001227583595429672</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.0001087920919591654</v>
+        <v>-0.0001089343780165229</v>
       </c>
       <c r="E140" t="n">
-        <v>5.961647234885174e-06</v>
+        <v>5.987310007011273e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>9.123714298270688e-06</v>
+        <v>9.171511991861543e-06</v>
       </c>
       <c r="G140" t="n">
-        <v>1.349857611397129e-05</v>
+        <v>1.354558758662365e-05</v>
       </c>
       <c r="H140" t="n">
-        <v>9.586017956925451</v>
+        <v>9.413149928622632</v>
       </c>
       <c r="I140" t="n">
-        <v>0.04800946324981823</v>
+        <v>0.05156274044445544</v>
       </c>
       <c r="J140" t="n">
-        <v>2.396504489231363</v>
+        <v>2.353287482155658</v>
       </c>
     </row>
     <row r="141">
@@ -4866,31 +4866,31 @@
         <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0002544573691264853</v>
+        <v>0.000254249327819536</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0001211194398616165</v>
+        <v>0.0001217358675110581</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.0001389863570627473</v>
+        <v>-0.0001394664947880695</v>
       </c>
       <c r="E141" t="n">
-        <v>5.91451158670739e-06</v>
+        <v>5.913967021099217e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>8.571061023698696e-06</v>
+        <v>8.566542663073757e-06</v>
       </c>
       <c r="G141" t="n">
-        <v>1.288672069155067e-05</v>
+        <v>1.289290944865435e-05</v>
       </c>
       <c r="H141" t="n">
-        <v>1.328003112365663</v>
+        <v>1.141870184270893</v>
       </c>
       <c r="I141" t="n">
-        <v>0.8566067973386853</v>
+        <v>0.8875734060698718</v>
       </c>
       <c r="J141" t="n">
-        <v>0.3320007780914156</v>
+        <v>0.2854675460677233</v>
       </c>
     </row>
     <row r="142">
@@ -4898,31 +4898,31 @@
         <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0002292796781555733</v>
+        <v>0.0002297358076253804</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0001255707112968629</v>
+        <v>0.0001247238011975898</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.0001462791373266975</v>
+        <v>-0.0001454026676738359</v>
       </c>
       <c r="E142" t="n">
-        <v>5.491144133002071e-06</v>
+        <v>5.495479300646044e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>7.539788017793924e-06</v>
+        <v>7.569681688101925e-06</v>
       </c>
       <c r="G142" t="n">
-        <v>1.198295541521414e-05</v>
+        <v>1.197782232912109e-05</v>
       </c>
       <c r="H142" t="n">
-        <v>6.991859615544828</v>
+        <v>5.999743851096642</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1363190332830554</v>
+        <v>0.1991674036425795</v>
       </c>
       <c r="J142" t="n">
-        <v>1.747964903886207</v>
+        <v>1.49993596277416</v>
       </c>
     </row>
     <row r="143">
@@ -4930,31 +4930,31 @@
         <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0002309771980809863</v>
+        <v>0.0002308665122453486</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0001293502147442447</v>
+        <v>0.0001280796529361731</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.0001529327625156402</v>
+        <v>-0.0001526715119370499</v>
       </c>
       <c r="E143" t="n">
-        <v>5.602139770481062e-06</v>
+        <v>5.593505931917347e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>7.692712360207298e-06</v>
+        <v>7.710137174985821e-06</v>
       </c>
       <c r="G143" t="n">
-        <v>1.227294006710024e-05</v>
+        <v>1.223958329056899e-05</v>
       </c>
       <c r="H143" t="n">
-        <v>8.772124929812344</v>
+        <v>6.714349719883173</v>
       </c>
       <c r="I143" t="n">
-        <v>0.06705461295150296</v>
+        <v>0.1517757797399578</v>
       </c>
       <c r="J143" t="n">
-        <v>2.193031232453086</v>
+        <v>1.678587429970793</v>
       </c>
     </row>
     <row r="144">
@@ -4962,31 +4962,31 @@
         <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0004109890449836846</v>
+        <v>0.0004113871199255009</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0002594788707299674</v>
+        <v>0.0002565592946841098</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.0003369490861586453</v>
+        <v>-0.0003345624886235102</v>
       </c>
       <c r="E144" t="n">
-        <v>1.041660133438674e-05</v>
+        <v>1.042681993448878e-05</v>
       </c>
       <c r="F144" t="n">
-        <v>1.378735701661112e-05</v>
+        <v>1.38804270887786e-05</v>
       </c>
       <c r="G144" t="n">
-        <v>2.225913773047528e-05</v>
+        <v>2.233405796612452e-05</v>
       </c>
       <c r="H144" t="n">
-        <v>1.512947955508364</v>
+        <v>1.824180307253373</v>
       </c>
       <c r="I144" t="n">
-        <v>0.8243454512546275</v>
+        <v>0.768055572343012</v>
       </c>
       <c r="J144" t="n">
-        <v>0.3782369888770909</v>
+        <v>0.4560450768133432</v>
       </c>
     </row>
     <row r="145">
@@ -4994,31 +4994,31 @@
         <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0005375147401555683</v>
+        <v>0.0005387898378421704</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0003315856058344696</v>
+        <v>0.000332088706146915</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.0004149286972978405</v>
+        <v>-0.0004194829743883136</v>
       </c>
       <c r="E145" t="n">
-        <v>1.308658399049362e-05</v>
+        <v>1.310864042041476e-05</v>
       </c>
       <c r="F145" t="n">
-        <v>1.690477738012014e-05</v>
+        <v>1.691406321025105e-05</v>
       </c>
       <c r="G145" t="n">
-        <v>2.792538567499818e-05</v>
+        <v>2.789981465834236e-05</v>
       </c>
       <c r="H145" t="n">
-        <v>3.654721815299741</v>
+        <v>3.144897968113203</v>
       </c>
       <c r="I145" t="n">
-        <v>0.4547455839602899</v>
+        <v>0.5338765605310865</v>
       </c>
       <c r="J145" t="n">
-        <v>0.9136804538249352</v>
+        <v>0.7862244920283007</v>
       </c>
     </row>
     <row r="146">
@@ -5026,31 +5026,31 @@
         <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0005204051395067142</v>
+        <v>0.0005210817303274999</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0003260769442882015</v>
+        <v>0.0003260249214365063</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.0004190462612489211</v>
+        <v>-0.0004193578228684814</v>
       </c>
       <c r="E146" t="n">
-        <v>1.313061773133015e-05</v>
+        <v>1.313042179250628e-05</v>
       </c>
       <c r="F146" t="n">
-        <v>1.71396437701977e-05</v>
+        <v>1.707691134365364e-05</v>
       </c>
       <c r="G146" t="n">
-        <v>2.805000036232349e-05</v>
+        <v>2.79802270482912e-05</v>
       </c>
       <c r="H146" t="n">
-        <v>5.877471827318682</v>
+        <v>4.893727265299086</v>
       </c>
       <c r="I146" t="n">
-        <v>0.2084875241125113</v>
+        <v>0.2983765775893285</v>
       </c>
       <c r="J146" t="n">
-        <v>1.46936795682967</v>
+        <v>1.223431816324771</v>
       </c>
     </row>
     <row r="147">
@@ -5058,31 +5058,31 @@
         <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0005263484230223983</v>
+        <v>0.0005257382209663986</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0003403111252407762</v>
+        <v>0.0003396577587120457</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.000415249055252644</v>
+        <v>-0.0004119362792151357</v>
       </c>
       <c r="E147" t="n">
-        <v>1.344717435392931e-05</v>
+        <v>1.34440892432943e-05</v>
       </c>
       <c r="F147" t="n">
-        <v>1.806469962188489e-05</v>
+        <v>1.823918209480957e-05</v>
       </c>
       <c r="G147" t="n">
-        <v>2.905835826832108e-05</v>
+        <v>2.918253449136086e-05</v>
       </c>
       <c r="H147" t="n">
-        <v>2.543025566459728</v>
+        <v>2.682518744550306</v>
       </c>
       <c r="I147" t="n">
-        <v>0.6369483248606711</v>
+        <v>0.6122770551600942</v>
       </c>
       <c r="J147" t="n">
-        <v>0.635756391614932</v>
+        <v>0.6706296861375766</v>
       </c>
     </row>
     <row r="148">
@@ -5090,31 +5090,31 @@
         <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0005141359176291859</v>
+        <v>0.0005154300173035274</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0003332809474450419</v>
+        <v>0.000327694448582116</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.0004035346307095155</v>
+        <v>-0.0003968300561141321</v>
       </c>
       <c r="E148" t="n">
-        <v>1.313602405717051e-05</v>
+        <v>1.314307205842148e-05</v>
       </c>
       <c r="F148" t="n">
-        <v>1.76371642551239e-05</v>
+        <v>1.776280810232951e-05</v>
       </c>
       <c r="G148" t="n">
-        <v>2.830883730718943e-05</v>
+        <v>2.840391796081422e-05</v>
       </c>
       <c r="H148" t="n">
-        <v>4.240565129576872</v>
+        <v>3.599134199996092</v>
       </c>
       <c r="I148" t="n">
-        <v>0.3744267828937071</v>
+        <v>0.4629657036112206</v>
       </c>
       <c r="J148" t="n">
-        <v>1.060141282394218</v>
+        <v>0.8997835499990231</v>
       </c>
     </row>
     <row r="149">
@@ -5122,31 +5122,31 @@
         <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0005176465125329521</v>
+        <v>0.0005183782470443226</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0003203561216362442</v>
+        <v>0.0003239644758302037</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.0004047708094095089</v>
+        <v>-0.0004086729394643636</v>
       </c>
       <c r="E149" t="n">
-        <v>1.316005046113863e-05</v>
+        <v>1.317543143996505e-05</v>
       </c>
       <c r="F149" t="n">
-        <v>1.761189773173392e-05</v>
+        <v>1.753727715508663e-05</v>
       </c>
       <c r="G149" t="n">
-        <v>2.8214320886405e-05</v>
+        <v>2.818480418205747e-05</v>
       </c>
       <c r="H149" t="n">
-        <v>3.693617869948127</v>
+        <v>4.011080755756169</v>
       </c>
       <c r="I149" t="n">
-        <v>0.4490548492865228</v>
+        <v>0.4045083095973158</v>
       </c>
       <c r="J149" t="n">
-        <v>0.9234044674870319</v>
+        <v>1.002770188939042</v>
       </c>
     </row>
     <row r="150">
@@ -5154,31 +5154,31 @@
         <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0008652887683119142</v>
+        <v>0.000866247132209302</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0005065094028544997</v>
+        <v>0.0005068707526038378</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.0004783023052507079</v>
+        <v>-0.0004815574863907721</v>
       </c>
       <c r="E150" t="n">
-        <v>2.067250321924399e-05</v>
+        <v>2.068856738129562e-05</v>
       </c>
       <c r="F150" t="n">
-        <v>3.00050272149254e-05</v>
+        <v>2.994131842649858e-05</v>
       </c>
       <c r="G150" t="n">
-        <v>4.617895937602272e-05</v>
+        <v>4.616294046346701e-05</v>
       </c>
       <c r="H150" t="n">
-        <v>2.997334172123295</v>
+        <v>3.17839931198423</v>
       </c>
       <c r="I150" t="n">
-        <v>0.5582716193843738</v>
+        <v>0.5284268778385734</v>
       </c>
       <c r="J150" t="n">
-        <v>0.7493335430308238</v>
+        <v>0.7945998279960576</v>
       </c>
     </row>
     <row r="151">
@@ -5186,31 +5186,31 @@
         <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0009191625837005913</v>
+        <v>0.0009204079697693852</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0005097026180318986</v>
+        <v>0.000509209283221949</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.0004412816825695002</v>
+        <v>-0.000447471470668491</v>
       </c>
       <c r="E151" t="n">
-        <v>2.161464235799663e-05</v>
+        <v>2.164689298358547e-05</v>
       </c>
       <c r="F151" t="n">
-        <v>3.237666160338972e-05</v>
+        <v>3.231085350615302e-05</v>
       </c>
       <c r="G151" t="n">
-        <v>4.879240531945368e-05</v>
+        <v>4.8739077623506e-05</v>
       </c>
       <c r="H151" t="n">
-        <v>2.513141122790458</v>
+        <v>2.498502386894025</v>
       </c>
       <c r="I151" t="n">
-        <v>0.6422842274913443</v>
+        <v>0.6449039838378816</v>
       </c>
       <c r="J151" t="n">
-        <v>0.6282852806976145</v>
+        <v>0.6246255967235063</v>
       </c>
     </row>
     <row r="152">
@@ -5218,31 +5218,31 @@
         <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0008627351361211296</v>
+        <v>0.0008637774304598896</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0004874787344689226</v>
+        <v>0.0004873158613640459</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.0004215875627571449</v>
+        <v>-0.0004224596834997579</v>
       </c>
       <c r="E152" t="n">
-        <v>2.051362357759167e-05</v>
+        <v>2.053574851231933e-05</v>
       </c>
       <c r="F152" t="n">
-        <v>3.076054299941317e-05</v>
+        <v>3.072464933080864e-05</v>
       </c>
       <c r="G152" t="n">
-        <v>4.637157529295483e-05</v>
+        <v>4.63567605442401e-05</v>
       </c>
       <c r="H152" t="n">
-        <v>3.249506325801777</v>
+        <v>3.627615704890296</v>
       </c>
       <c r="I152" t="n">
-        <v>0.5169721344584255</v>
+        <v>0.4587411465847117</v>
       </c>
       <c r="J152" t="n">
-        <v>0.8123765814504443</v>
+        <v>0.9069039262225739</v>
       </c>
     </row>
     <row r="153">
@@ -5250,31 +5250,31 @@
         <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0008308091009129575</v>
+        <v>0.0008327347106023742</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0004738737842785188</v>
+        <v>0.0004775822927746801</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.0004078473394769479</v>
+        <v>-0.0004138187168091368</v>
       </c>
       <c r="E153" t="n">
-        <v>1.969456947334699e-05</v>
+        <v>1.974299693661913e-05</v>
       </c>
       <c r="F153" t="n">
-        <v>2.938058481870427e-05</v>
+        <v>2.938771402159832e-05</v>
       </c>
       <c r="G153" t="n">
-        <v>4.43180115560429e-05</v>
+        <v>4.437313961260357e-05</v>
       </c>
       <c r="H153" t="n">
-        <v>3.660627326477693</v>
+        <v>3.801073167354306</v>
       </c>
       <c r="I153" t="n">
-        <v>0.4538783253677257</v>
+        <v>0.4335965285734625</v>
       </c>
       <c r="J153" t="n">
-        <v>0.9151568316194233</v>
+        <v>0.9502682918385764</v>
       </c>
     </row>
     <row r="154">
@@ -5282,31 +5282,31 @@
         <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0008320909510795256</v>
+        <v>0.0008318772598618878</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0004796232276016133</v>
+        <v>0.0004790201837779594</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.0003952828280926097</v>
+        <v>-0.0003929097816104685</v>
       </c>
       <c r="E154" t="n">
-        <v>1.984375989458474e-05</v>
+        <v>1.984439370558073e-05</v>
       </c>
       <c r="F154" t="n">
-        <v>2.992372400882878e-05</v>
+        <v>2.993841465727546e-05</v>
       </c>
       <c r="G154" t="n">
-        <v>4.51310649389487e-05</v>
+        <v>4.516601786123816e-05</v>
       </c>
       <c r="H154" t="n">
-        <v>6.754736367166887</v>
+        <v>7.07096378336988</v>
       </c>
       <c r="I154" t="n">
-        <v>0.1494310029939997</v>
+        <v>0.1321852999620555</v>
       </c>
       <c r="J154" t="n">
-        <v>1.688684091791722</v>
+        <v>1.76774094584247</v>
       </c>
     </row>
     <row r="155">
@@ -5314,31 +5314,31 @@
         <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0007867133152502938</v>
+        <v>0.0007881367250747407</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0004496295470173767</v>
+        <v>0.0004460116112650532</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.0003660170378591446</v>
+        <v>-0.0003620233996210536</v>
       </c>
       <c r="E155" t="n">
-        <v>1.877237223675691e-05</v>
+        <v>1.878599105309382e-05</v>
       </c>
       <c r="F155" t="n">
-        <v>2.841796126202954e-05</v>
+        <v>2.854051126670553e-05</v>
       </c>
       <c r="G155" t="n">
-        <v>4.246190062004955e-05</v>
+        <v>4.250213887305031e-05</v>
       </c>
       <c r="H155" t="n">
-        <v>3.98503401211468</v>
+        <v>3.666947267160357</v>
       </c>
       <c r="I155" t="n">
-        <v>0.4080350649644943</v>
+        <v>0.4529514913960617</v>
       </c>
       <c r="J155" t="n">
-        <v>0.9962585030286699</v>
+        <v>0.9167368167900893</v>
       </c>
     </row>
     <row r="156">
@@ -5346,31 +5346,31 @@
         <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0007395542226564705</v>
+        <v>0.0007405524255902495</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0004092988636667813</v>
+        <v>0.0004034530723000697</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.0003272280953905472</v>
+        <v>-0.0003247268735273336</v>
       </c>
       <c r="E156" t="n">
-        <v>1.755512938822839e-05</v>
+        <v>1.756510148731882e-05</v>
       </c>
       <c r="F156" t="n">
-        <v>2.672556143388768e-05</v>
+        <v>2.681679686615196e-05</v>
       </c>
       <c r="G156" t="n">
-        <v>3.995621446512081e-05</v>
+        <v>3.996456100211983e-05</v>
       </c>
       <c r="H156" t="n">
-        <v>6.030021711410243</v>
+        <v>5.65464359933335</v>
       </c>
       <c r="I156" t="n">
-        <v>0.196917424218406</v>
+        <v>0.226466893547993</v>
       </c>
       <c r="J156" t="n">
-        <v>1.507505427852561</v>
+        <v>1.413660899833338</v>
       </c>
     </row>
     <row r="157">
@@ -5378,31 +5378,31 @@
         <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0006049928057316262</v>
+        <v>0.0006058575481610369</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0003144608483876142</v>
+        <v>0.0003138417699807587</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.0002100348121808666</v>
+        <v>-0.0002105347173508187</v>
       </c>
       <c r="E157" t="n">
-        <v>1.412985030367019e-05</v>
+        <v>1.414834704525962e-05</v>
       </c>
       <c r="F157" t="n">
-        <v>2.260837003503588e-05</v>
+        <v>2.265400856373853e-05</v>
       </c>
       <c r="G157" t="n">
-        <v>3.267579536332563e-05</v>
+        <v>3.27159277096152e-05</v>
       </c>
       <c r="H157" t="n">
-        <v>2.944454799204696</v>
+        <v>2.745247263716118</v>
       </c>
       <c r="I157" t="n">
-        <v>0.5671633768837803</v>
+        <v>0.6013204623436395</v>
       </c>
       <c r="J157" t="n">
-        <v>0.736113699801174</v>
+        <v>0.6863118159290296</v>
       </c>
     </row>
     <row r="158">
@@ -5410,31 +5410,31 @@
         <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0004292624386658923</v>
+        <v>0.0004291162520820955</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0002117172477121068</v>
+        <v>0.0002127534085381144</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.0001144250315902905</v>
+        <v>-0.0001170356140610193</v>
       </c>
       <c r="E158" t="n">
-        <v>1.044505555156056e-05</v>
+        <v>1.045181466753319e-05</v>
       </c>
       <c r="F158" t="n">
-        <v>1.750273499239178e-05</v>
+        <v>1.745356465641173e-05</v>
       </c>
       <c r="G158" t="n">
-        <v>2.44583909615563e-05</v>
+        <v>2.440266390862732e-05</v>
       </c>
       <c r="H158" t="n">
-        <v>3.068135919503739</v>
+        <v>3.429318208816532</v>
       </c>
       <c r="I158" t="n">
-        <v>0.546488475700655</v>
+        <v>0.4887067224713477</v>
       </c>
       <c r="J158" t="n">
-        <v>0.7670339798759347</v>
+        <v>0.8573295522041331</v>
       </c>
     </row>
     <row r="159">
@@ -5442,31 +5442,31 @@
         <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002437767172252931</v>
+        <v>0.0002438676082922127</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0001146562757477877</v>
+        <v>0.0001140006703848682</v>
       </c>
       <c r="D159" t="n">
-        <v>-4.721772681203336e-05</v>
+        <v>-4.684301024820861e-05</v>
       </c>
       <c r="E159" t="n">
-        <v>6.035773541686369e-06</v>
+        <v>6.032308365824655e-06</v>
       </c>
       <c r="F159" t="n">
-        <v>1.044828343956574e-05</v>
+        <v>1.042132713355428e-05</v>
       </c>
       <c r="G159" t="n">
-        <v>1.423091996135315e-05</v>
+        <v>1.420677184279398e-05</v>
       </c>
       <c r="H159" t="n">
-        <v>3.622839820983761</v>
+        <v>4.723287762446127</v>
       </c>
       <c r="I159" t="n">
-        <v>0.4594476607115416</v>
+        <v>0.3168858145290173</v>
       </c>
       <c r="J159" t="n">
-        <v>0.9057099552459402</v>
+        <v>1.180821940611532</v>
       </c>
     </row>
     <row r="160">
@@ -5474,31 +5474,31 @@
         <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0002572442083367581</v>
+        <v>0.0002572071933076541</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0001337341399335642</v>
+        <v>0.0001342400884406256</v>
       </c>
       <c r="D160" t="n">
-        <v>-5.320802546851457e-05</v>
+        <v>-5.157967850654734e-05</v>
       </c>
       <c r="E160" t="n">
-        <v>6.652953510346989e-06</v>
+        <v>6.654174119108758e-06</v>
       </c>
       <c r="F160" t="n">
-        <v>1.150956389669666e-05</v>
+        <v>1.152776433163618e-05</v>
       </c>
       <c r="G160" t="n">
-        <v>1.580263606920661e-05</v>
+        <v>1.58110491000283e-05</v>
       </c>
       <c r="H160" t="n">
-        <v>7.461496967728396</v>
+        <v>7.494894436204175</v>
       </c>
       <c r="I160" t="n">
-        <v>0.1134191475780368</v>
+        <v>0.1119346374445446</v>
       </c>
       <c r="J160" t="n">
-        <v>1.865374241932099</v>
+        <v>1.873723609051044</v>
       </c>
     </row>
     <row r="161">
@@ -5506,31 +5506,31 @@
         <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001402082913643601</v>
+        <v>0.0001406280427895519</v>
       </c>
       <c r="C161" t="n">
-        <v>6.048926947604279e-05</v>
+        <v>6.004820388534623e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>-3.796186406756388e-05</v>
+        <v>-3.808802744898043e-05</v>
       </c>
       <c r="E161" t="n">
-        <v>3.830989229129094e-06</v>
+        <v>3.835537057080321e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>6.644944954686959e-06</v>
+        <v>6.67063729418858e-06</v>
       </c>
       <c r="G161" t="n">
-        <v>8.856532321095858e-06</v>
+        <v>8.858614202483429e-06</v>
       </c>
       <c r="H161" t="n">
-        <v>1.332991681884378</v>
+        <v>1.540407616308295</v>
       </c>
       <c r="I161" t="n">
-        <v>0.8557536657909224</v>
+        <v>0.8194604670040616</v>
       </c>
       <c r="J161" t="n">
-        <v>0.3332479204710945</v>
+        <v>0.3851019040770737</v>
       </c>
     </row>
     <row r="162">
@@ -5538,31 +5538,31 @@
         <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001259012282784311</v>
+        <v>0.0001256643687850916</v>
       </c>
       <c r="C162" t="n">
-        <v>4.816561169174105e-05</v>
+        <v>4.847601027994481e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>-4.760757156042954e-05</v>
+        <v>-4.771253043162356e-05</v>
       </c>
       <c r="E162" t="n">
-        <v>3.629409633252933e-06</v>
+        <v>3.639983041959804e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>6.091635993186411e-06</v>
+        <v>6.136333728893342e-06</v>
       </c>
       <c r="G162" t="n">
-        <v>8.078867956011604e-06</v>
+        <v>8.123887930394694e-06</v>
       </c>
       <c r="H162" t="n">
-        <v>4.336940475462036</v>
+        <v>4.436261386537779</v>
       </c>
       <c r="I162" t="n">
-        <v>0.3623222241325574</v>
+        <v>0.3501722746444283</v>
       </c>
       <c r="J162" t="n">
-        <v>1.084235118865509</v>
+        <v>1.109065346634445</v>
       </c>
     </row>
     <row r="163">
@@ -5570,31 +5570,31 @@
         <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0001321208963886041</v>
+        <v>0.0001319932092884267</v>
       </c>
       <c r="C163" t="n">
-        <v>5.684901302186105e-05</v>
+        <v>5.517641411391761e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>-6.425193889038488e-05</v>
+        <v>-6.256180692951993e-05</v>
       </c>
       <c r="E163" t="n">
-        <v>3.695184306183956e-06</v>
+        <v>3.68650572838597e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>6.046417081754865e-06</v>
+        <v>6.02090943214091e-06</v>
       </c>
       <c r="G163" t="n">
-        <v>8.269545946323795e-06</v>
+        <v>8.224266404940716e-06</v>
       </c>
       <c r="H163" t="n">
-        <v>2.062208565625578</v>
+        <v>1.35266417009972</v>
       </c>
       <c r="I163" t="n">
-        <v>0.7243180728131574</v>
+        <v>0.8523790462011622</v>
       </c>
       <c r="J163" t="n">
-        <v>0.5155521414063944</v>
+        <v>0.33816604252493</v>
       </c>
     </row>
     <row r="164">
@@ -5602,31 +5602,31 @@
         <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001311448581505286</v>
+        <v>0.0001314731136259668</v>
       </c>
       <c r="C164" t="n">
-        <v>5.621561452452738e-05</v>
+        <v>5.563788518641521e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>-6.75314193148899e-05</v>
+        <v>-6.903303101210573e-05</v>
       </c>
       <c r="E164" t="n">
-        <v>3.673985109593758e-06</v>
+        <v>3.68423913876126e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>5.852722982521514e-06</v>
+        <v>5.895763572800701e-06</v>
       </c>
       <c r="G164" t="n">
-        <v>8.157922287639213e-06</v>
+        <v>8.169630663426748e-06</v>
       </c>
       <c r="H164" t="n">
-        <v>6.417763834355426</v>
+        <v>6.42262015126217</v>
       </c>
       <c r="I164" t="n">
-        <v>0.170046239369838</v>
+        <v>0.1697317050015731</v>
       </c>
       <c r="J164" t="n">
-        <v>1.604440958588856</v>
+        <v>1.605655037815543</v>
       </c>
     </row>
     <row r="165">
@@ -5634,31 +5634,31 @@
         <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001354277245494635</v>
+        <v>0.0001363418794540511</v>
       </c>
       <c r="C165" t="n">
-        <v>6.10426973310278e-05</v>
+        <v>6.018271490824156e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>-8.522853412183632e-05</v>
+        <v>-8.636385856642279e-05</v>
       </c>
       <c r="E165" t="n">
-        <v>3.863995202083171e-06</v>
+        <v>3.877760446112316e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>6.063538904178132e-06</v>
+        <v>6.006337257617866e-06</v>
       </c>
       <c r="G165" t="n">
-        <v>8.386784108987586e-06</v>
+        <v>8.380671399437214e-06</v>
       </c>
       <c r="H165" t="n">
-        <v>2.86819455927286</v>
+        <v>3.100228089961863</v>
       </c>
       <c r="I165" t="n">
-        <v>0.5801194090919577</v>
+        <v>0.5411948150023722</v>
       </c>
       <c r="J165" t="n">
-        <v>0.717048639818215</v>
+        <v>0.7750570224904657</v>
       </c>
     </row>
     <row r="166">
@@ -5666,31 +5666,31 @@
         <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>0.000140810847792884</v>
+        <v>0.0001407519780143623</v>
       </c>
       <c r="C166" t="n">
-        <v>6.472003836320514e-05</v>
+        <v>6.345880943830755e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>-8.813216995446867e-05</v>
+        <v>-8.371741623397093e-05</v>
       </c>
       <c r="E166" t="n">
-        <v>4.156031337048521e-06</v>
+        <v>4.172277380175182e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>6.666504420573151e-06</v>
+        <v>6.772114286996532e-06</v>
       </c>
       <c r="G166" t="n">
-        <v>9.222679336329273e-06</v>
+        <v>9.29788559661454e-06</v>
       </c>
       <c r="H166" t="n">
-        <v>1.373955390789699</v>
+        <v>2.72353007538783</v>
       </c>
       <c r="I166" t="n">
-        <v>0.8487088253604682</v>
+        <v>0.6051034760006144</v>
       </c>
       <c r="J166" t="n">
-        <v>0.3434888476974247</v>
+        <v>0.6808825188469574</v>
       </c>
     </row>
     <row r="167">
@@ -5698,31 +5698,31 @@
         <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001419055325131608</v>
+        <v>0.0001412948813485497</v>
       </c>
       <c r="C167" t="n">
-        <v>6.29501988757431e-05</v>
+        <v>6.191759879922911e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>-9.318426600952431e-05</v>
+        <v>-9.016597374238036e-05</v>
       </c>
       <c r="E167" t="n">
-        <v>3.82907348875365e-06</v>
+        <v>3.812591379201056e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>5.871465763044014e-06</v>
+        <v>5.788198035262668e-06</v>
       </c>
       <c r="G167" t="n">
-        <v>8.364187634622849e-06</v>
+        <v>8.323797472445769e-06</v>
       </c>
       <c r="H167" t="n">
-        <v>1.739503156224073</v>
+        <v>3.064991616633167</v>
       </c>
       <c r="I167" t="n">
-        <v>0.7835299421706055</v>
+        <v>0.5470087357836897</v>
       </c>
       <c r="J167" t="n">
-        <v>0.4348757890560183</v>
+        <v>0.7662479041582917</v>
       </c>
     </row>
     <row r="168">
@@ -5730,31 +5730,31 @@
         <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001506049870321878</v>
+        <v>0.0001505234873261286</v>
       </c>
       <c r="C168" t="n">
-        <v>6.658601120324291e-05</v>
+        <v>6.680921288714208e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.000103135186753282</v>
+        <v>-0.0001056706020584213</v>
       </c>
       <c r="E168" t="n">
-        <v>3.942945309455007e-06</v>
+        <v>3.945594013579681e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>5.69945644900631e-06</v>
+        <v>5.665478141403762e-06</v>
       </c>
       <c r="G168" t="n">
-        <v>8.396061242929597e-06</v>
+        <v>8.377068494157098e-06</v>
       </c>
       <c r="H168" t="n">
-        <v>1.603045984771024</v>
+        <v>2.291801430229742</v>
       </c>
       <c r="I168" t="n">
-        <v>0.8082445718333698</v>
+        <v>0.6822621320998743</v>
       </c>
       <c r="J168" t="n">
-        <v>0.4007614961927559</v>
+        <v>0.5729503575574355</v>
       </c>
     </row>
     <row r="169">
@@ -5762,31 +5762,31 @@
         <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001586033755668486</v>
+        <v>0.0001593975520931324</v>
       </c>
       <c r="C169" t="n">
-        <v>7.427742980565669e-05</v>
+        <v>7.399863489322036e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.0001071430474254458</v>
+        <v>-0.0001074874424842058</v>
       </c>
       <c r="E169" t="n">
-        <v>4.004269129846757e-06</v>
+        <v>4.011342997249948e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>5.721952317248854e-06</v>
+        <v>5.695275626486564e-06</v>
       </c>
       <c r="G169" t="n">
-        <v>8.622340103125158e-06</v>
+        <v>8.602817099030081e-06</v>
       </c>
       <c r="H169" t="n">
-        <v>4.02770462165668</v>
+        <v>2.731951384074456</v>
       </c>
       <c r="I169" t="n">
-        <v>0.4022694211924328</v>
+        <v>0.6036352221079517</v>
       </c>
       <c r="J169" t="n">
-        <v>1.00692615541417</v>
+        <v>0.682987846018614</v>
       </c>
     </row>
     <row r="170">
@@ -5794,31 +5794,31 @@
         <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.000157131225044153</v>
+        <v>0.0001582308970306473</v>
       </c>
       <c r="C170" t="n">
-        <v>8.507075108149501e-05</v>
+        <v>8.391846324044171e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.0001047534433070595</v>
+        <v>-0.0001044820718120161</v>
       </c>
       <c r="E170" t="n">
-        <v>4.109241359174105e-06</v>
+        <v>4.130254117377276e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>5.913136864872076e-06</v>
+        <v>5.955812314571051e-06</v>
       </c>
       <c r="G170" t="n">
-        <v>8.998933997499397e-06</v>
+        <v>9.043770268592578e-06</v>
       </c>
       <c r="H170" t="n">
-        <v>7.709845113160485</v>
+        <v>7.541818838587802</v>
       </c>
       <c r="I170" t="n">
-        <v>0.1028041655122342</v>
+        <v>0.1098793340335436</v>
       </c>
       <c r="J170" t="n">
-        <v>1.927461278290121</v>
+        <v>1.88545470964695</v>
       </c>
     </row>
     <row r="171">
@@ -5826,31 +5826,31 @@
         <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>0.000181988373410047</v>
+        <v>0.000182559434067743</v>
       </c>
       <c r="C171" t="n">
-        <v>9.525526840255666e-05</v>
+        <v>9.464865111788027e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.0001306731757804262</v>
+        <v>-0.0001312259677771698</v>
       </c>
       <c r="E171" t="n">
-        <v>4.411823150330201e-06</v>
+        <v>4.424511721550045e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>5.874493636635456e-06</v>
+        <v>5.883534318395138e-06</v>
       </c>
       <c r="G171" t="n">
-        <v>9.453457226076379e-06</v>
+        <v>9.468059284111596e-06</v>
       </c>
       <c r="H171" t="n">
-        <v>8.54877422302463</v>
+        <v>9.344071538491971</v>
       </c>
       <c r="I171" t="n">
-        <v>0.07342251648586956</v>
+        <v>0.05305173689448618</v>
       </c>
       <c r="J171" t="n">
-        <v>2.137193555756157</v>
+        <v>2.336017884622993</v>
       </c>
     </row>
     <row r="172">
@@ -5858,31 +5858,31 @@
         <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0002359053181334132</v>
+        <v>0.0002361957764899615</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0001314962576951422</v>
+        <v>0.0001312742846039384</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.0001938217707094038</v>
+        <v>-0.0001933342310872954</v>
       </c>
       <c r="E172" t="n">
-        <v>5.736589736562904e-06</v>
+        <v>5.738640144188821e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>7.243545680700624e-06</v>
+        <v>7.261549697615429e-06</v>
       </c>
       <c r="G172" t="n">
-        <v>1.204170756424049e-05</v>
+        <v>1.203720107672851e-05</v>
       </c>
       <c r="H172" t="n">
-        <v>4.525961214895123</v>
+        <v>4.560133458780986</v>
       </c>
       <c r="I172" t="n">
-        <v>0.3394802413228645</v>
+        <v>0.3354766364913325</v>
       </c>
       <c r="J172" t="n">
-        <v>1.131490303723781</v>
+        <v>1.140033364695247</v>
       </c>
     </row>
     <row r="173">
@@ -5890,31 +5890,31 @@
         <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0003387263703939848</v>
+        <v>0.0003393602000859807</v>
       </c>
       <c r="C173" t="n">
-        <v>0.0002053544038824769</v>
+        <v>0.0002029624447261239</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.0003378153932858758</v>
+        <v>-0.0003343788068327829</v>
       </c>
       <c r="E173" t="n">
-        <v>8.510701663795464e-06</v>
+        <v>8.517119158754304e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>9.880947007774571e-06</v>
+        <v>9.970952238852688e-06</v>
       </c>
       <c r="G173" t="n">
-        <v>1.729205640669323e-05</v>
+        <v>1.734765324189535e-05</v>
       </c>
       <c r="H173" t="n">
-        <v>5.57584737604672</v>
+        <v>5.670166756486553</v>
       </c>
       <c r="I173" t="n">
-        <v>0.2331424453881687</v>
+        <v>0.2251716672196729</v>
       </c>
       <c r="J173" t="n">
-        <v>1.39396184401168</v>
+        <v>1.417541689121638</v>
       </c>
     </row>
     <row r="174">
@@ -5922,31 +5922,31 @@
         <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>0.000489530079652768</v>
+        <v>0.0004908135252147827</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0002822661371232548</v>
+        <v>0.0002802506277167635</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.0005428623450301588</v>
+        <v>-0.0005430823854706349</v>
       </c>
       <c r="E174" t="n">
-        <v>1.17936604801454e-05</v>
+        <v>1.180878042244137e-05</v>
       </c>
       <c r="F174" t="n">
-        <v>1.238612425154116e-05</v>
+        <v>1.241360124549337e-05</v>
       </c>
       <c r="G174" t="n">
-        <v>2.30029280814075e-05</v>
+        <v>2.300443426032925e-05</v>
       </c>
       <c r="H174" t="n">
-        <v>1.357665908848045</v>
+        <v>1.011269144474736</v>
       </c>
       <c r="I174" t="n">
-        <v>0.851518483276705</v>
+        <v>0.9080824321274185</v>
       </c>
       <c r="J174" t="n">
-        <v>0.3394164772120112</v>
+        <v>0.2528172861186841</v>
       </c>
     </row>
     <row r="175">
@@ -5954,31 +5954,31 @@
         <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0005296301628213759</v>
+        <v>0.0005306838388268861</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0003260820643398201</v>
+        <v>0.0003291011906887312</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.0005971816093989549</v>
+        <v>-0.0006024001244247423</v>
       </c>
       <c r="E175" t="n">
-        <v>1.326379664956468e-05</v>
+        <v>1.329113467779829e-05</v>
       </c>
       <c r="F175" t="n">
-        <v>1.41677746790382e-05</v>
+        <v>1.412741007024833e-05</v>
       </c>
       <c r="G175" t="n">
-        <v>2.610556369786127e-05</v>
+        <v>2.611596503950204e-05</v>
       </c>
       <c r="H175" t="n">
-        <v>4.348279651520691</v>
+        <v>4.449704213028792</v>
       </c>
       <c r="I175" t="n">
-        <v>0.3609184843968983</v>
+        <v>0.3485529875346747</v>
       </c>
       <c r="J175" t="n">
-        <v>1.087069912880173</v>
+        <v>1.112426053257198</v>
       </c>
     </row>
     <row r="176">
@@ -5986,31 +5986,31 @@
         <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0007375707192471187</v>
+        <v>0.000737816896619144</v>
       </c>
       <c r="C176" t="n">
-        <v>0.0004484036486898219</v>
+        <v>0.0004503533594423652</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.0008990042053902605</v>
+        <v>-0.0009018610443494936</v>
       </c>
       <c r="E176" t="n">
-        <v>1.863120659469711e-05</v>
+        <v>1.863473588639428e-05</v>
       </c>
       <c r="F176" t="n">
-        <v>1.925884971064078e-05</v>
+        <v>1.929742933026995e-05</v>
       </c>
       <c r="G176" t="n">
-        <v>3.587775810151802e-05</v>
+        <v>3.587701156591284e-05</v>
       </c>
       <c r="H176" t="n">
-        <v>3.400413135134272</v>
+        <v>3.204052630808848</v>
       </c>
       <c r="I176" t="n">
-        <v>0.4931813656358585</v>
+        <v>0.5242766259520231</v>
       </c>
       <c r="J176" t="n">
-        <v>0.8501032837835679</v>
+        <v>0.8010131577022119</v>
       </c>
     </row>
     <row r="177">
@@ -6018,31 +6018,31 @@
         <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0009654216895387854</v>
+        <v>0.0009659379279900462</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0005955876654505877</v>
+        <v>0.0005943644738366761</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.00118357444845346</v>
+        <v>-0.00118531375282153</v>
       </c>
       <c r="E177" t="n">
-        <v>2.406288749163089e-05</v>
+        <v>2.40780783294956e-05</v>
       </c>
       <c r="F177" t="n">
-        <v>2.421115825562106e-05</v>
+        <v>2.424610630532553e-05</v>
       </c>
       <c r="G177" t="n">
-        <v>4.610927917667282e-05</v>
+        <v>4.613769141011846e-05</v>
       </c>
       <c r="H177" t="n">
-        <v>2.892213213290368</v>
+        <v>2.82006790460665</v>
       </c>
       <c r="I177" t="n">
-        <v>0.5760222524793126</v>
+        <v>0.5883736246476849</v>
       </c>
       <c r="J177" t="n">
-        <v>0.723053303322592</v>
+        <v>0.7050169761516626</v>
       </c>
     </row>
     <row r="178">
@@ -6050,31 +6050,31 @@
         <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>0.00101030206237973</v>
+        <v>0.001010272061608644</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0006375872378915155</v>
+        <v>0.0006358832586461005</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.001224314316667318</v>
+        <v>-0.001220933809632367</v>
       </c>
       <c r="E178" t="n">
-        <v>2.58145300884427e-05</v>
+        <v>2.584244768330116e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>2.669806105375109e-05</v>
+        <v>2.711057507430507e-05</v>
       </c>
       <c r="G178" t="n">
-        <v>4.997472253936094e-05</v>
+        <v>5.021443377554175e-05</v>
       </c>
       <c r="H178" t="n">
-        <v>4.550057020643179</v>
+        <v>5.64952185384062</v>
       </c>
       <c r="I178" t="n">
-        <v>0.3366532076704422</v>
+        <v>0.2268956714325996</v>
       </c>
       <c r="J178" t="n">
-        <v>1.137514255160795</v>
+        <v>1.412380463460155</v>
       </c>
     </row>
     <row r="179">
@@ -6082,31 +6082,31 @@
         <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>0.00107851258176764</v>
+        <v>0.001076738637953464</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0006992464578884534</v>
+        <v>0.0006877645372041906</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.001260860247003446</v>
+        <v>-0.001249082356095256</v>
       </c>
       <c r="E179" t="n">
-        <v>2.745805432350921e-05</v>
+        <v>2.741730902976918e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>2.902301285545405e-05</v>
+        <v>2.907411255049484e-05</v>
       </c>
       <c r="G179" t="n">
-        <v>5.386009844668594e-05</v>
+        <v>5.382383776980804e-05</v>
       </c>
       <c r="H179" t="n">
-        <v>4.223421459460713</v>
+        <v>4.272899210074421</v>
       </c>
       <c r="I179" t="n">
-        <v>0.3766126471381885</v>
+        <v>0.3703309758500961</v>
       </c>
       <c r="J179" t="n">
-        <v>1.055855364865178</v>
+        <v>1.068224802518605</v>
       </c>
     </row>
     <row r="180">
@@ -6114,31 +6114,31 @@
         <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>0.001239254667015087</v>
+        <v>0.001240563409521094</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0008159709009699033</v>
+        <v>0.000812152908929788</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.001330914124966955</v>
+        <v>-0.001332104975779942</v>
       </c>
       <c r="E180" t="n">
-        <v>2.168065459750456e-05</v>
+        <v>2.169520969381035e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>2.349082414636378e-05</v>
+        <v>2.371943444825786e-05</v>
       </c>
       <c r="G180" t="n">
-        <v>4.313666054914784e-05</v>
+        <v>4.323115056963272e-05</v>
       </c>
       <c r="H180" t="n">
-        <v>5.350660594849519</v>
+        <v>5.025760454092813</v>
       </c>
       <c r="I180" t="n">
-        <v>0.9130027607897095</v>
+        <v>0.9299126282286136</v>
       </c>
       <c r="J180" t="n">
-        <v>0.4864236904408654</v>
+        <v>0.4568873140084376</v>
       </c>
     </row>
     <row r="181">
@@ -6146,31 +6146,31 @@
         <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>0.001674368276272529</v>
+        <v>0.001672274799099406</v>
       </c>
       <c r="C181" t="n">
-        <v>0.001079655286952378</v>
+        <v>0.001072387681428423</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.001529514045611742</v>
+        <v>-0.001517916167569444</v>
       </c>
       <c r="E181" t="n">
-        <v>4.165314566662297e-05</v>
+        <v>4.15916427041606e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>5.00028624000916e-05</v>
+        <v>5.013611968339993e-05</v>
       </c>
       <c r="G181" t="n">
-        <v>8.620923719046581e-05</v>
+        <v>8.622404735983322e-05</v>
       </c>
       <c r="H181" t="n">
-        <v>4.983757195751307</v>
+        <v>5.308700989403627</v>
       </c>
       <c r="I181" t="n">
-        <v>0.2889681726166507</v>
+        <v>0.2570635057518972</v>
       </c>
       <c r="J181" t="n">
-        <v>1.245939298937827</v>
+        <v>1.327175247350907</v>
       </c>
     </row>
     <row r="182">
@@ -6178,31 +6178,31 @@
         <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>0.001989520656920035</v>
+        <v>0.001995578208954948</v>
       </c>
       <c r="C182" t="n">
-        <v>0.001271235729910539</v>
+        <v>0.001277231767964256</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.001666186456044817</v>
+        <v>-0.001657891829908512</v>
       </c>
       <c r="E182" t="n">
-        <v>4.936096424128925e-05</v>
+        <v>4.945545332120517e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>6.181351478683526e-05</v>
+        <v>6.237949920175541e-05</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0001043386543946905</v>
+        <v>0.0001047932713164498</v>
       </c>
       <c r="H182" t="n">
-        <v>5.608330727558008</v>
+        <v>5.253618965404533</v>
       </c>
       <c r="I182" t="n">
-        <v>0.2303699580624935</v>
+        <v>0.2622502308874622</v>
       </c>
       <c r="J182" t="n">
-        <v>1.402082681889502</v>
+        <v>1.313404741351133</v>
       </c>
     </row>
     <row r="183">
@@ -6210,31 +6210,31 @@
         <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>0.002551724524152538</v>
+        <v>0.002551446131743957</v>
       </c>
       <c r="C183" t="n">
-        <v>0.001609978000152431</v>
+        <v>0.00161659130062601</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.002009659005879699</v>
+        <v>-0.00200827003791254</v>
       </c>
       <c r="E183" t="n">
-        <v>6.079037983669346e-05</v>
+        <v>6.080335961794458e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>7.527117866416451e-05</v>
+        <v>7.529461423027954e-05</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0001293323785722563</v>
+        <v>0.0001294154538563901</v>
       </c>
       <c r="H183" t="n">
-        <v>7.931381422802038</v>
+        <v>8.522035610398888</v>
       </c>
       <c r="I183" t="n">
-        <v>0.09412436798807236</v>
+        <v>0.07422210233121532</v>
       </c>
       <c r="J183" t="n">
-        <v>1.982845355700509</v>
+        <v>2.130508902599722</v>
       </c>
     </row>
     <row r="184">
@@ -6242,31 +6242,31 @@
         <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>0.002939094816715013</v>
+        <v>0.002945339286251207</v>
       </c>
       <c r="C184" t="n">
-        <v>0.001965432864693939</v>
+        <v>0.001972066942007434</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.002309758469490107</v>
+        <v>-0.002320009414743353</v>
       </c>
       <c r="E184" t="n">
-        <v>6.963091684359225e-05</v>
+        <v>6.977814011527912e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>8.666399683370681e-05</v>
+        <v>8.683670707469421e-05</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0001478427190510128</v>
+        <v>0.0001481167646773849</v>
       </c>
       <c r="H184" t="n">
-        <v>3.339419677041383</v>
+        <v>3.557390657539678</v>
       </c>
       <c r="I184" t="n">
-        <v>0.5027108893832466</v>
+        <v>0.4692057922060601</v>
       </c>
       <c r="J184" t="n">
-        <v>0.8348549192603457</v>
+        <v>0.8893476643849195</v>
       </c>
     </row>
     <row r="185">
@@ -6274,31 +6274,31 @@
         <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>0.002853840274752063</v>
+        <v>0.00285278747289644</v>
       </c>
       <c r="C185" t="n">
-        <v>0.001811979365575225</v>
+        <v>0.001818545204664062</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.00215576564781923</v>
+        <v>-0.002157863014057352</v>
       </c>
       <c r="E185" t="n">
-        <v>6.670542348747326e-05</v>
+        <v>6.666993027652673e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>8.28740442760376e-05</v>
+        <v>8.28631706735076e-05</v>
       </c>
       <c r="G185" t="n">
-        <v>0.000142604558649331</v>
+        <v>0.0001424406816056886</v>
       </c>
       <c r="H185" t="n">
-        <v>7.708873766631375</v>
+        <v>7.244769359753571</v>
       </c>
       <c r="I185" t="n">
-        <v>0.102843817628062</v>
+        <v>0.1235049622604558</v>
       </c>
       <c r="J185" t="n">
-        <v>1.927218441657844</v>
+        <v>1.811192339938393</v>
       </c>
     </row>
     <row r="186">
@@ -6306,31 +6306,31 @@
         <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>0.002809658588883497</v>
+        <v>0.002812961938019532</v>
       </c>
       <c r="C186" t="n">
-        <v>0.00176043431394959</v>
+        <v>0.001760342277858463</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.002173208930853444</v>
+        <v>-0.002166227748415276</v>
       </c>
       <c r="E186" t="n">
-        <v>6.580657196388144e-05</v>
+        <v>6.585227125307573e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>8.253164727449304e-05</v>
+        <v>8.27296204542204e-05</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0001393634921170608</v>
+        <v>0.0001395351746437416</v>
       </c>
       <c r="H186" t="n">
-        <v>1.557977796170795</v>
+        <v>1.473592687501781</v>
       </c>
       <c r="I186" t="n">
-        <v>0.8163241747290514</v>
+        <v>0.8313086697641652</v>
       </c>
       <c r="J186" t="n">
-        <v>0.3894944490426988</v>
+        <v>0.3683981718754453</v>
       </c>
     </row>
     <row r="187">
@@ -6338,31 +6338,31 @@
         <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>0.002751707466284682</v>
+        <v>0.002754260775593216</v>
       </c>
       <c r="C187" t="n">
-        <v>0.001695321177700741</v>
+        <v>0.001694848210016699</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.00192506402066257</v>
+        <v>-0.00192424780466568</v>
       </c>
       <c r="E187" t="n">
-        <v>6.448556036818976e-05</v>
+        <v>6.453958616899384e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>8.334911329526059e-05</v>
+        <v>8.350851408102463e-05</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0001399578929898289</v>
+        <v>0.0001401232711613184</v>
       </c>
       <c r="H187" t="n">
-        <v>9.192102502699534</v>
+        <v>8.979732035500033</v>
       </c>
       <c r="I187" t="n">
-        <v>0.05647314655526144</v>
+        <v>0.06160808498443746</v>
       </c>
       <c r="J187" t="n">
-        <v>2.298025625674883</v>
+        <v>2.244933008875008</v>
       </c>
     </row>
     <row r="188">
@@ -6370,31 +6370,31 @@
         <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>0.002179801067622252</v>
+        <v>0.002182298396150906</v>
       </c>
       <c r="C188" t="n">
-        <v>0.001349865862442792</v>
+        <v>0.001355463004479206</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.001472189575184638</v>
+        <v>-0.001472864992505107</v>
       </c>
       <c r="E188" t="n">
-        <v>5.041783279341505e-05</v>
+        <v>5.04722561439181e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>6.553283434616393e-05</v>
+        <v>6.559363009747593e-05</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0001095945434653795</v>
+        <v>0.0001097169703176649</v>
       </c>
       <c r="H188" t="n">
-        <v>8.457019493680372</v>
+        <v>8.634618060613347</v>
       </c>
       <c r="I188" t="n">
-        <v>0.07620078971645852</v>
+        <v>0.07091015141934763</v>
       </c>
       <c r="J188" t="n">
-        <v>2.114254873420093</v>
+        <v>2.158654515153337</v>
       </c>
     </row>
     <row r="189">
@@ -6402,31 +6402,31 @@
         <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001625156705784719</v>
+        <v>0.001626497762513444</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0009981470422638617</v>
+        <v>0.00100086053499821</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.001027247499126487</v>
+        <v>-0.0010279642614928</v>
       </c>
       <c r="E189" t="n">
-        <v>3.787086703954652e-05</v>
+        <v>3.790384407724967e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>5.102711989902273e-05</v>
+        <v>5.106329026434012e-05</v>
       </c>
       <c r="G189" t="n">
-        <v>8.341354853633606e-05</v>
+        <v>8.349193391259451e-05</v>
       </c>
       <c r="H189" t="n">
-        <v>8.4151841033012</v>
+        <v>8.521610170705383</v>
       </c>
       <c r="I189" t="n">
-        <v>0.07750022178316694</v>
+        <v>0.0742348908484074</v>
       </c>
       <c r="J189" t="n">
-        <v>2.1037960258253</v>
+        <v>2.130402542676346</v>
       </c>
     </row>
     <row r="190">
@@ -6434,31 +6434,31 @@
         <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>0.00114638927242524</v>
+        <v>0.001146662552521903</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0006719315317377418</v>
+        <v>0.0006704299269001771</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.000632804636492069</v>
+        <v>-0.0006244712452494494</v>
       </c>
       <c r="E190" t="n">
-        <v>2.672978648320969e-05</v>
+        <v>2.671342633428247e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>3.806851064600874e-05</v>
+        <v>3.821167795468363e-05</v>
       </c>
       <c r="G190" t="n">
-        <v>5.975744127572853e-05</v>
+        <v>5.980363767292561e-05</v>
       </c>
       <c r="H190" t="n">
-        <v>6.407928968533769</v>
+        <v>6.291743859193625</v>
       </c>
       <c r="I190" t="n">
-        <v>0.1706848373604941</v>
+        <v>0.178394336365192</v>
       </c>
       <c r="J190" t="n">
-        <v>1.601982242133442</v>
+        <v>1.572935964798406</v>
       </c>
     </row>
     <row r="191">
@@ -6466,31 +6466,31 @@
         <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0007783870873183319</v>
+        <v>0.0007780877286129429</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0004464128446354978</v>
+        <v>0.000446131869920435</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.0003320943912805069</v>
+        <v>-0.0003301316373676096</v>
       </c>
       <c r="E191" t="n">
-        <v>1.817793394077567e-05</v>
+        <v>1.817058309873467e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>2.774594791434595e-05</v>
+        <v>2.776530729671038e-05</v>
       </c>
       <c r="G191" t="n">
-        <v>4.17291340947691e-05</v>
+        <v>4.17246455232005e-05</v>
       </c>
       <c r="H191" t="n">
-        <v>6.794406855756947</v>
+        <v>7.309692224026242</v>
       </c>
       <c r="I191" t="n">
-        <v>0.1471600257748894</v>
+        <v>0.1203998176703607</v>
       </c>
       <c r="J191" t="n">
-        <v>1.698601713939237</v>
+        <v>1.827423056006561</v>
       </c>
     </row>
     <row r="192">
@@ -6498,31 +6498,31 @@
         <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0005427347121975533</v>
+        <v>0.000543629058160837</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0003094132154433994</v>
+        <v>0.0003102801134325917</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.0001742683377582611</v>
+        <v>-0.0001713693738301634</v>
       </c>
       <c r="E192" t="n">
-        <v>1.2934227651113e-05</v>
+        <v>1.294254682022382e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>2.09218947132396e-05</v>
+        <v>2.098034401545092e-05</v>
       </c>
       <c r="G192" t="n">
-        <v>3.024263167042389e-05</v>
+        <v>3.030900240858667e-05</v>
       </c>
       <c r="H192" t="n">
-        <v>9.565227169428979</v>
+        <v>10.03302205033728</v>
       </c>
       <c r="I192" t="n">
-        <v>0.04842409168838611</v>
+        <v>0.03987508852625287</v>
       </c>
       <c r="J192" t="n">
-        <v>2.391306792357245</v>
+        <v>2.50825551258432</v>
       </c>
     </row>
     <row r="193">
@@ -6530,31 +6530,31 @@
         <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004103987674781566</v>
+        <v>0.0004115216471807054</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0002275657269775034</v>
+        <v>0.0002283759177067578</v>
       </c>
       <c r="D193" t="n">
-        <v>-7.234456197126771e-05</v>
+        <v>-7.470248696711361e-05</v>
       </c>
       <c r="E193" t="n">
-        <v>6.993700654583055e-06</v>
+        <v>7.01168435372223e-06</v>
       </c>
       <c r="F193" t="n">
-        <v>1.217288872065685e-05</v>
+        <v>1.218813805654552e-05</v>
       </c>
       <c r="G193" t="n">
-        <v>1.684791806977968e-05</v>
+        <v>1.688253317369755e-05</v>
       </c>
       <c r="H193" t="n">
-        <v>12.68366490076732</v>
+        <v>12.95655012874222</v>
       </c>
       <c r="I193" t="n">
-        <v>0.3145026683028072</v>
+        <v>0.2961747633820777</v>
       </c>
       <c r="J193" t="n">
-        <v>1.153060445524302</v>
+        <v>1.17786819352202</v>
       </c>
     </row>
     <row r="194">
@@ -6562,31 +6562,31 @@
         <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003697364686038057</v>
+        <v>0.0003705115890853591</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0001819227131836704</v>
+        <v>0.0001830258506149873</v>
       </c>
       <c r="D194" t="n">
-        <v>-1.281497610546457e-05</v>
+        <v>-1.57991808523924e-05</v>
       </c>
       <c r="E194" t="n">
-        <v>8.544078322445754e-06</v>
+        <v>8.567535946351904e-06</v>
       </c>
       <c r="F194" t="n">
-        <v>1.54802594776149e-05</v>
+        <v>1.546297751360069e-05</v>
       </c>
       <c r="G194" t="n">
-        <v>2.095399322587829e-05</v>
+        <v>2.09797273505001e-05</v>
       </c>
       <c r="H194" t="n">
-        <v>8.55282991603209</v>
+        <v>9.60532704256989</v>
       </c>
       <c r="I194" t="n">
-        <v>0.07330194936264313</v>
+        <v>0.04762742723176264</v>
       </c>
       <c r="J194" t="n">
-        <v>2.138207479008023</v>
+        <v>2.401331760642472</v>
       </c>
     </row>
     <row r="195">
@@ -6594,31 +6594,31 @@
         <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003375864942135216</v>
+        <v>0.0003388593394651468</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0001772885308067682</v>
+        <v>0.0001745046526445659</v>
       </c>
       <c r="D195" t="n">
-        <v>-2.410286376746209e-06</v>
+        <v>-4.532633061542007e-08</v>
       </c>
       <c r="E195" t="n">
-        <v>7.828691278713388e-06</v>
+        <v>7.848543315835032e-06</v>
       </c>
       <c r="F195" t="n">
-        <v>1.439160650664957e-05</v>
+        <v>1.449039041610251e-05</v>
       </c>
       <c r="G195" t="n">
-        <v>1.928423793075861e-05</v>
+        <v>1.934049465857528e-05</v>
       </c>
       <c r="H195" t="n">
-        <v>3.071925774375127</v>
+        <v>2.737488115445432</v>
       </c>
       <c r="I195" t="n">
-        <v>0.5458617801958927</v>
+        <v>0.6026707950726837</v>
       </c>
       <c r="J195" t="n">
-        <v>0.7679814435937817</v>
+        <v>0.6843720288613581</v>
       </c>
     </row>
     <row r="196">
@@ -6626,31 +6626,31 @@
         <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003362389831665302</v>
+        <v>0.0003365502205195772</v>
       </c>
       <c r="C196" t="n">
-        <v>0.0001633722226289562</v>
+        <v>0.0001616258160636029</v>
       </c>
       <c r="D196" t="n">
-        <v>1.577772295409993e-05</v>
+        <v>1.515849868771637e-05</v>
       </c>
       <c r="E196" t="n">
-        <v>7.62297758056451e-06</v>
+        <v>7.630962826118309e-06</v>
       </c>
       <c r="F196" t="n">
-        <v>1.420104477204916e-05</v>
+        <v>1.420601337763121e-05</v>
       </c>
       <c r="G196" t="n">
-        <v>1.889880161465489e-05</v>
+        <v>1.890046347733593e-05</v>
       </c>
       <c r="H196" t="n">
-        <v>8.620724024350908</v>
+        <v>7.911528451583655</v>
       </c>
       <c r="I196" t="n">
-        <v>0.07131119126114246</v>
+        <v>0.09487331186822659</v>
       </c>
       <c r="J196" t="n">
-        <v>2.155181006087727</v>
+        <v>1.977882112895914</v>
       </c>
     </row>
     <row r="197">
@@ -6658,31 +6658,31 @@
         <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0002999041358998337</v>
+        <v>0.0003001417657050828</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0001433040247237294</v>
+        <v>0.000145371243511315</v>
       </c>
       <c r="D197" t="n">
-        <v>1.669122756557711e-05</v>
+        <v>1.325040283748144e-05</v>
       </c>
       <c r="E197" t="n">
-        <v>6.818454906740466e-06</v>
+        <v>6.829065736534305e-06</v>
       </c>
       <c r="F197" t="n">
-        <v>1.286773284345777e-05</v>
+        <v>1.283117260086115e-05</v>
       </c>
       <c r="G197" t="n">
-        <v>1.684299764867384e-05</v>
+        <v>1.685271482012671e-05</v>
       </c>
       <c r="H197" t="n">
-        <v>1.033313022806697</v>
+        <v>1.028722514063896</v>
       </c>
       <c r="I197" t="n">
-        <v>0.9047032741526911</v>
+        <v>0.9054098910836056</v>
       </c>
       <c r="J197" t="n">
-        <v>0.2583282557016742</v>
+        <v>0.2571806285159741</v>
       </c>
     </row>
     <row r="198">
@@ -6690,31 +6690,31 @@
         <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0002944360689054706</v>
+        <v>0.0002948389327094008</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0001381649160241291</v>
+        <v>0.0001390620761272851</v>
       </c>
       <c r="D198" t="n">
-        <v>3.531529088182878e-05</v>
+        <v>3.44734820685611e-05</v>
       </c>
       <c r="E198" t="n">
-        <v>6.556295379891172e-06</v>
+        <v>6.566639577700213e-06</v>
       </c>
       <c r="F198" t="n">
-        <v>1.252271641433512e-05</v>
+        <v>1.253277126212284e-05</v>
       </c>
       <c r="G198" t="n">
-        <v>1.649561739046176e-05</v>
+        <v>1.652559577148173e-05</v>
       </c>
       <c r="H198" t="n">
-        <v>7.85141997086086</v>
+        <v>7.820864699530358</v>
       </c>
       <c r="I198" t="n">
-        <v>0.09717502337309289</v>
+        <v>0.09836498744474541</v>
       </c>
       <c r="J198" t="n">
-        <v>1.962854992715215</v>
+        <v>1.95521617488259</v>
       </c>
     </row>
     <row r="199">
@@ -6722,31 +6722,31 @@
         <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002909504225544872</v>
+        <v>0.0002906960165969283</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0001346715552821516</v>
+        <v>0.0001330819094968443</v>
       </c>
       <c r="D199" t="n">
-        <v>2.236810037368244e-05</v>
+        <v>2.170907675904011e-05</v>
       </c>
       <c r="E199" t="n">
-        <v>6.469394243005098e-06</v>
+        <v>6.467304475249373e-06</v>
       </c>
       <c r="F199" t="n">
-        <v>1.224976355797075e-05</v>
+        <v>1.224074325918493e-05</v>
       </c>
       <c r="G199" t="n">
-        <v>1.597698345241754e-05</v>
+        <v>1.593446521654722e-05</v>
       </c>
       <c r="H199" t="n">
-        <v>1.474027131196442</v>
+        <v>1.601371332522937</v>
       </c>
       <c r="I199" t="n">
-        <v>0.8312320605120969</v>
+        <v>0.8085456425464901</v>
       </c>
       <c r="J199" t="n">
-        <v>0.3685067827991104</v>
+        <v>0.4003428331307343</v>
       </c>
     </row>
     <row r="200">
@@ -6754,31 +6754,31 @@
         <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0003068144083216727</v>
+        <v>0.0003082944001622771</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0001501925462288306</v>
+        <v>0.0001498733837010516</v>
       </c>
       <c r="D200" t="n">
-        <v>-1.93862804831496e-05</v>
+        <v>-1.961423721041396e-05</v>
       </c>
       <c r="E200" t="n">
-        <v>7.400651657131738e-06</v>
+        <v>7.428030564737353e-06</v>
       </c>
       <c r="F200" t="n">
-        <v>1.33773339020448e-05</v>
+        <v>1.338611111303443e-05</v>
       </c>
       <c r="G200" t="n">
-        <v>1.777769789371947e-05</v>
+        <v>1.78334796398626e-05</v>
       </c>
       <c r="H200" t="n">
-        <v>3.561684291409094</v>
+        <v>4.027220620294821</v>
       </c>
       <c r="I200" t="n">
-        <v>0.4685613042076956</v>
+        <v>0.4023344739505462</v>
       </c>
       <c r="J200" t="n">
-        <v>0.8904210728522736</v>
+        <v>1.006805155073705</v>
       </c>
     </row>
     <row r="201">
@@ -6786,31 +6786,31 @@
         <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002867692000445767</v>
+        <v>0.000286128456726704</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0001412700817669089</v>
+        <v>0.0001406732802909331</v>
       </c>
       <c r="D201" t="n">
-        <v>1.138961523699985e-05</v>
+        <v>1.291082284132083e-05</v>
       </c>
       <c r="E201" t="n">
-        <v>6.346998596198177e-06</v>
+        <v>6.334799810349891e-06</v>
       </c>
       <c r="F201" t="n">
-        <v>1.178220083644377e-05</v>
+        <v>1.178643188596692e-05</v>
       </c>
       <c r="G201" t="n">
-        <v>1.582516060208586e-05</v>
+        <v>1.578352279922787e-05</v>
       </c>
       <c r="H201" t="n">
-        <v>8.248122366623846</v>
+        <v>7.684542859666038</v>
       </c>
       <c r="I201" t="n">
-        <v>0.08290052708229875</v>
+        <v>0.1038417144663273</v>
       </c>
       <c r="J201" t="n">
-        <v>2.062030591655962</v>
+        <v>1.92113571491651</v>
       </c>
     </row>
     <row r="202">
@@ -6818,31 +6818,31 @@
         <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0003724910035479419</v>
+        <v>0.0003720487422311309</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0001896505777494874</v>
+        <v>0.0001911298136498196</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.000101355353191598</v>
+        <v>-9.97365930747227e-05</v>
       </c>
       <c r="E202" t="n">
-        <v>9.076959258578284e-06</v>
+        <v>9.068011852044823e-06</v>
       </c>
       <c r="F202" t="n">
-        <v>1.518758353344824e-05</v>
+        <v>1.516294901991709e-05</v>
       </c>
       <c r="G202" t="n">
-        <v>2.123923019213554e-05</v>
+        <v>2.12219728741635e-05</v>
       </c>
       <c r="H202" t="n">
-        <v>4.977934032914293</v>
+        <v>5.307227656902092</v>
       </c>
       <c r="I202" t="n">
-        <v>0.2895691043958039</v>
+        <v>0.2572010869122141</v>
       </c>
       <c r="J202" t="n">
-        <v>1.244483508228573</v>
+        <v>1.326806914225523</v>
       </c>
     </row>
     <row r="203">
@@ -6850,31 +6850,31 @@
         <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003608276458816227</v>
+        <v>0.0003630461663592065</v>
       </c>
       <c r="C203" t="n">
-        <v>0.000187420123703515</v>
+        <v>0.0001866728528683365</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.0001150695151064177</v>
+        <v>-0.0001150665536351487</v>
       </c>
       <c r="E203" t="n">
-        <v>8.808498927134815e-06</v>
+        <v>8.846271753553633e-06</v>
       </c>
       <c r="F203" t="n">
-        <v>1.447048888778821e-05</v>
+        <v>1.456612524076823e-05</v>
       </c>
       <c r="G203" t="n">
-        <v>2.041420094863525e-05</v>
+        <v>2.047824942709144e-05</v>
       </c>
       <c r="H203" t="n">
-        <v>3.069344607894933</v>
+        <v>2.519070091038869</v>
       </c>
       <c r="I203" t="n">
-        <v>0.5462885604122816</v>
+        <v>0.6412242844829996</v>
       </c>
       <c r="J203" t="n">
-        <v>0.7673361519737332</v>
+        <v>0.6297675227597171</v>
       </c>
     </row>
     <row r="204">
@@ -6882,31 +6882,31 @@
         <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003573681251934594</v>
+        <v>0.0003568658936019444</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0001846761005231591</v>
+        <v>0.0001876334622927585</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.0001051410868925487</v>
+        <v>-0.0001052746303921031</v>
       </c>
       <c r="E204" t="n">
-        <v>8.731137337339506e-06</v>
+        <v>8.714313348143795e-06</v>
       </c>
       <c r="F204" t="n">
-        <v>1.456002329482672e-05</v>
+        <v>1.449231315352873e-05</v>
       </c>
       <c r="G204" t="n">
-        <v>2.051118635133049e-05</v>
+        <v>2.044009451138797e-05</v>
       </c>
       <c r="H204" t="n">
-        <v>3.263987007221933</v>
+        <v>3.281439188289195</v>
       </c>
       <c r="I204" t="n">
-        <v>0.5146583696283784</v>
+        <v>0.5118784212747163</v>
       </c>
       <c r="J204" t="n">
-        <v>0.8159967518054831</v>
+        <v>0.8203597970722987</v>
       </c>
     </row>
     <row r="205">
@@ -6914,31 +6914,31 @@
         <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0003557360137351089</v>
+        <v>0.0003555428260082378</v>
       </c>
       <c r="C205" t="n">
-        <v>0.0001942292818119615</v>
+        <v>0.0001929970730559578</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.0001225146565702563</v>
+        <v>-0.0001199268141184675</v>
       </c>
       <c r="E205" t="n">
-        <v>8.710590625234788e-06</v>
+        <v>8.702317796591618e-06</v>
       </c>
       <c r="F205" t="n">
-        <v>1.414395863028299e-05</v>
+        <v>1.421562447542038e-05</v>
       </c>
       <c r="G205" t="n">
-        <v>2.016668337749259e-05</v>
+        <v>2.018457034473695e-05</v>
       </c>
       <c r="H205" t="n">
-        <v>4.52505326183049</v>
+        <v>3.916302983006039</v>
       </c>
       <c r="I205" t="n">
-        <v>0.3395871392444004</v>
+        <v>0.4174514978059036</v>
       </c>
       <c r="J205" t="n">
-        <v>1.131263315457623</v>
+        <v>0.9790757457515097</v>
       </c>
     </row>
     <row r="206">
@@ -6946,31 +6946,31 @@
         <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0003517233545562289</v>
+        <v>0.0003517767104592872</v>
       </c>
       <c r="C206" t="n">
-        <v>0.0001863562832350471</v>
+        <v>0.0001862984361748701</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.0001230429228101976</v>
+        <v>-0.0001239590735973916</v>
       </c>
       <c r="E206" t="n">
-        <v>8.689871450905831e-06</v>
+        <v>8.693259357951112e-06</v>
       </c>
       <c r="F206" t="n">
-        <v>1.423119263174702e-05</v>
+        <v>1.426416703336543e-05</v>
       </c>
       <c r="G206" t="n">
-        <v>2.015286310859046e-05</v>
+        <v>2.016605792039289e-05</v>
       </c>
       <c r="H206" t="n">
-        <v>2.95539134596143</v>
+        <v>2.545127810178469</v>
       </c>
       <c r="I206" t="n">
-        <v>0.5653180935277243</v>
+        <v>0.6365735986895052</v>
       </c>
       <c r="J206" t="n">
-        <v>0.7388478364903575</v>
+        <v>0.6362819525446173</v>
       </c>
     </row>
     <row r="207">
@@ -6978,31 +6978,31 @@
         <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0003539434859674832</v>
+        <v>0.0003542894268960327</v>
       </c>
       <c r="C207" t="n">
-        <v>0.0001733785880479361</v>
+        <v>0.0001755547900401945</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.000116427871479893</v>
+        <v>-0.0001187596889763164</v>
       </c>
       <c r="E207" t="n">
-        <v>8.236665631308368e-06</v>
+        <v>8.251934912849177e-06</v>
       </c>
       <c r="F207" t="n">
-        <v>1.325941888770928e-05</v>
+        <v>1.327679994767901e-05</v>
       </c>
       <c r="G207" t="n">
-        <v>1.908011690809141e-05</v>
+        <v>1.91195546556274e-05</v>
       </c>
       <c r="H207" t="n">
-        <v>3.161036777435219</v>
+        <v>3.167830886406312</v>
       </c>
       <c r="I207" t="n">
-        <v>0.531247064658521</v>
+        <v>0.5301424255749616</v>
       </c>
       <c r="J207" t="n">
-        <v>0.7902591943588047</v>
+        <v>0.791957721601578</v>
       </c>
     </row>
     <row r="208">
@@ -7010,31 +7010,31 @@
         <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0003524804379592516</v>
+        <v>0.0003517981353409048</v>
       </c>
       <c r="C208" t="n">
-        <v>0.0001773917978035646</v>
+        <v>0.0001752160687883648</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.000127413473963038</v>
+        <v>-0.000126169335899529</v>
       </c>
       <c r="E208" t="n">
-        <v>8.552992703816807e-06</v>
+        <v>8.544740427227966e-06</v>
       </c>
       <c r="F208" t="n">
-        <v>1.378621912636431e-05</v>
+        <v>1.378489921614313e-05</v>
       </c>
       <c r="G208" t="n">
-        <v>1.966463984131315e-05</v>
+        <v>1.960086905818237e-05</v>
       </c>
       <c r="H208" t="n">
-        <v>2.778355946260114</v>
+        <v>2.828694462157718</v>
       </c>
       <c r="I208" t="n">
-        <v>0.5955746086398523</v>
+        <v>0.5868897605721496</v>
       </c>
       <c r="J208" t="n">
-        <v>0.6945889865650285</v>
+        <v>0.7071736155394295</v>
       </c>
     </row>
     <row r="209">
@@ -7042,31 +7042,31 @@
         <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003117426225159579</v>
+        <v>0.0003121238357798939</v>
       </c>
       <c r="C209" t="n">
-        <v>0.0001560342023134701</v>
+        <v>0.0001554940885247566</v>
       </c>
       <c r="D209" t="n">
-        <v>-9.137305740651445e-05</v>
+        <v>-9.228698617435205e-05</v>
       </c>
       <c r="E209" t="n">
-        <v>7.094330869748853e-06</v>
+        <v>7.102054967597292e-06</v>
       </c>
       <c r="F209" t="n">
-        <v>1.146851339627201e-05</v>
+        <v>1.148446362233434e-05</v>
       </c>
       <c r="G209" t="n">
-        <v>1.655091705797997e-05</v>
+        <v>1.65434196585609e-05</v>
       </c>
       <c r="H209" t="n">
-        <v>3.746146695935918</v>
+        <v>3.527785997679834</v>
       </c>
       <c r="I209" t="n">
-        <v>0.4414497693135647</v>
+        <v>0.4736660193722502</v>
       </c>
       <c r="J209" t="n">
-        <v>0.9365366739839796</v>
+        <v>0.8819464994199584</v>
       </c>
     </row>
     <row r="210">
@@ -7074,31 +7074,31 @@
         <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002633181571860833</v>
+        <v>0.000264688502621765</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0001231613677685504</v>
+        <v>0.0001208793623637938</v>
       </c>
       <c r="D210" t="n">
-        <v>-5.594795516483382e-05</v>
+        <v>-5.386933024430094e-05</v>
       </c>
       <c r="E210" t="n">
-        <v>5.962766157114592e-06</v>
+        <v>5.978215547566958e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>9.974693275798787e-06</v>
+        <v>1.002640576459059e-05</v>
       </c>
       <c r="G210" t="n">
-        <v>1.403625187720007e-05</v>
+        <v>1.406386551983865e-05</v>
       </c>
       <c r="H210" t="n">
-        <v>4.023584739395512</v>
+        <v>3.412634217150992</v>
       </c>
       <c r="I210" t="n">
-        <v>0.4028234120762519</v>
+        <v>0.4912862149635655</v>
       </c>
       <c r="J210" t="n">
-        <v>1.005896184848878</v>
+        <v>0.853158554287748</v>
       </c>
     </row>
     <row r="211">
@@ -7106,31 +7106,31 @@
         <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0002508010144019103</v>
+        <v>0.0002515395385049402</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0001141096797461949</v>
+        <v>0.0001149079406575033</v>
       </c>
       <c r="D211" t="n">
-        <v>-4.295118486096953e-05</v>
+        <v>-4.326290959089156e-05</v>
       </c>
       <c r="E211" t="n">
-        <v>5.596607994624076e-06</v>
+        <v>5.610625501409225e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>9.500183853989073e-06</v>
+        <v>9.525869028263804e-06</v>
       </c>
       <c r="G211" t="n">
-        <v>1.325961598146076e-05</v>
+        <v>1.328749155428386e-05</v>
       </c>
       <c r="H211" t="n">
-        <v>4.645021830985128</v>
+        <v>4.215573008903214</v>
       </c>
       <c r="I211" t="n">
-        <v>0.3256962375784307</v>
+        <v>0.3776166442739116</v>
       </c>
       <c r="J211" t="n">
-        <v>1.161255457746282</v>
+        <v>1.053893252225804</v>
       </c>
     </row>
     <row r="212">
@@ -7138,31 +7138,31 @@
         <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0002608521569917321</v>
+        <v>0.0002604158898218147</v>
       </c>
       <c r="C212" t="n">
-        <v>0.0001227386962656531</v>
+        <v>0.0001216178128210428</v>
       </c>
       <c r="D212" t="n">
-        <v>-5.195094030709471e-05</v>
+        <v>-4.978074797585565e-05</v>
       </c>
       <c r="E212" t="n">
-        <v>5.796019916742422e-06</v>
+        <v>5.782687067254916e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>9.698050396665015e-06</v>
+        <v>9.715980404107944e-06</v>
       </c>
       <c r="G212" t="n">
-        <v>1.371058500118992e-05</v>
+        <v>1.370511870265471e-05</v>
       </c>
       <c r="H212" t="n">
-        <v>6.603094976277449</v>
+        <v>6.190339912297218</v>
       </c>
       <c r="I212" t="n">
-        <v>0.1584093696978506</v>
+        <v>0.1853773620915166</v>
       </c>
       <c r="J212" t="n">
-        <v>1.650773744069362</v>
+        <v>1.547584978074305</v>
       </c>
     </row>
     <row r="213">
@@ -7170,31 +7170,31 @@
         <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0002503246773637742</v>
+        <v>0.0002509008854204443</v>
       </c>
       <c r="C213" t="n">
-        <v>0.0001128075715187754</v>
+        <v>0.0001139415462766665</v>
       </c>
       <c r="D213" t="n">
-        <v>-4.117181130950889e-05</v>
+        <v>-4.166146412234285e-05</v>
       </c>
       <c r="E213" t="n">
-        <v>5.525297548135172e-06</v>
+        <v>5.537119670320981e-06</v>
       </c>
       <c r="F213" t="n">
-        <v>9.38474888992472e-06</v>
+        <v>9.406527593794239e-06</v>
       </c>
       <c r="G213" t="n">
-        <v>1.313288425777454e-05</v>
+        <v>1.317268363481519e-05</v>
       </c>
       <c r="H213" t="n">
-        <v>4.557470008948023</v>
+        <v>4.286930962697625</v>
       </c>
       <c r="I213" t="n">
-        <v>0.3357873098552666</v>
+        <v>0.3685644687526892</v>
       </c>
       <c r="J213" t="n">
-        <v>1.139367502237006</v>
+        <v>1.071732740674406</v>
       </c>
     </row>
     <row r="214">
@@ -7202,31 +7202,31 @@
         <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>0.000246309374097866</v>
+        <v>0.0002458661420057188</v>
       </c>
       <c r="C214" t="n">
-        <v>0.0001074441276555078</v>
+        <v>0.0001068803623637844</v>
       </c>
       <c r="D214" t="n">
-        <v>-4.385770699528871e-05</v>
+        <v>-4.20334429541931e-05</v>
       </c>
       <c r="E214" t="n">
-        <v>5.424825803141501e-06</v>
+        <v>5.4109823440839e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>9.154211267399011e-06</v>
+        <v>9.166398117001109e-06</v>
       </c>
       <c r="G214" t="n">
-        <v>1.282641231852618e-05</v>
+        <v>1.280387939450987e-05</v>
       </c>
       <c r="H214" t="n">
-        <v>4.01022804568286</v>
+        <v>3.704020312059987</v>
       </c>
       <c r="I214" t="n">
-        <v>0.4046234039739113</v>
+        <v>0.4475414622601511</v>
       </c>
       <c r="J214" t="n">
-        <v>1.002557011420715</v>
+        <v>0.9260050780149968</v>
       </c>
     </row>
     <row r="215">
@@ -7234,31 +7234,31 @@
         <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002439751825949623</v>
+        <v>0.0002446413976294841</v>
       </c>
       <c r="C215" t="n">
-        <v>0.0001049473939287853</v>
+        <v>0.000103243779988129</v>
       </c>
       <c r="D215" t="n">
-        <v>-4.46917208675303e-05</v>
+        <v>-4.374907385738336e-05</v>
       </c>
       <c r="E215" t="n">
-        <v>5.321662244893902e-06</v>
+        <v>5.332983387228941e-06</v>
       </c>
       <c r="F215" t="n">
-        <v>8.956753683356261e-06</v>
+        <v>9.001019526933836e-06</v>
       </c>
       <c r="G215" t="n">
-        <v>1.249954708399126e-05</v>
+        <v>1.252743539682218e-05</v>
       </c>
       <c r="H215" t="n">
-        <v>2.067409228957426</v>
+        <v>1.723636663588522</v>
       </c>
       <c r="I215" t="n">
-        <v>0.7233619560288779</v>
+        <v>0.7864196494571837</v>
       </c>
       <c r="J215" t="n">
-        <v>0.5168523072393564</v>
+        <v>0.4309091658971306</v>
       </c>
     </row>
     <row r="216">
@@ -7266,31 +7266,31 @@
         <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002463552488623995</v>
+        <v>0.000247418720575359</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0001083915267220157</v>
+        <v>0.0001061054842064208</v>
       </c>
       <c r="D216" t="n">
-        <v>-3.120493069756855e-05</v>
+        <v>-2.790536568769052e-05</v>
       </c>
       <c r="E216" t="n">
-        <v>5.3922986048813e-06</v>
+        <v>5.403928005433676e-06</v>
       </c>
       <c r="F216" t="n">
-        <v>9.170852705197708e-06</v>
+        <v>9.268810142780093e-06</v>
       </c>
       <c r="G216" t="n">
-        <v>1.285816886145636e-05</v>
+        <v>1.292756408105884e-05</v>
       </c>
       <c r="H216" t="n">
-        <v>10.09653658398292</v>
+        <v>8.225364495111341</v>
       </c>
       <c r="I216" t="n">
-        <v>0.03883255671305967</v>
+        <v>0.08366303135702668</v>
       </c>
       <c r="J216" t="n">
-        <v>2.52413414599573</v>
+        <v>2.056341123777835</v>
       </c>
     </row>
     <row r="217">
@@ -7298,31 +7298,31 @@
         <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0002605161955197903</v>
+        <v>0.0002608241787104761</v>
       </c>
       <c r="C217" t="n">
-        <v>0.0001051810152365029</v>
+        <v>0.0001051409163188177</v>
       </c>
       <c r="D217" t="n">
-        <v>-3.865762808212466e-05</v>
+        <v>-3.744101280553732e-05</v>
       </c>
       <c r="E217" t="n">
-        <v>5.702558207519123e-06</v>
+        <v>5.702355346043344e-06</v>
       </c>
       <c r="F217" t="n">
-        <v>9.602323197890756e-06</v>
+        <v>9.635874110828363e-06</v>
       </c>
       <c r="G217" t="n">
-        <v>1.348940409063506e-05</v>
+        <v>1.348469718353223e-05</v>
       </c>
       <c r="H217" t="n">
-        <v>7.895423890716662</v>
+        <v>6.733493638063413</v>
       </c>
       <c r="I217" t="n">
-        <v>0.09548494299483791</v>
+        <v>0.1506601678996446</v>
       </c>
       <c r="J217" t="n">
-        <v>1.973855972679166</v>
+        <v>1.683373409515853</v>
       </c>
     </row>
     <row r="218">
@@ -7330,31 +7330,31 @@
         <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0002595881149456854</v>
+        <v>0.0002595348103149842</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0001085559443748628</v>
+        <v>0.0001091090585233446</v>
       </c>
       <c r="D218" t="n">
-        <v>-2.793604929059997e-05</v>
+        <v>-2.992967948282742e-05</v>
       </c>
       <c r="E218" t="n">
-        <v>5.678951863525508e-06</v>
+        <v>5.682332822193082e-06</v>
       </c>
       <c r="F218" t="n">
-        <v>9.771200035751494e-06</v>
+        <v>9.752995296953242e-06</v>
       </c>
       <c r="G218" t="n">
-        <v>1.36159788278121e-05</v>
+        <v>1.361968844847954e-05</v>
       </c>
       <c r="H218" t="n">
-        <v>8.411194780685605</v>
+        <v>8.629328308525885</v>
       </c>
       <c r="I218" t="n">
-        <v>0.0776252186130283</v>
+        <v>0.07106258347862157</v>
       </c>
       <c r="J218" t="n">
-        <v>2.102798695171401</v>
+        <v>2.157332077131471</v>
       </c>
     </row>
     <row r="219">
@@ -7362,31 +7362,31 @@
         <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0002491444951862125</v>
+        <v>0.0002488814776075776</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0001172869457037828</v>
+        <v>0.0001178084402958362</v>
       </c>
       <c r="D219" t="n">
-        <v>-2.293883118619161e-05</v>
+        <v>-2.217896904286866e-05</v>
       </c>
       <c r="E219" t="n">
-        <v>5.453990043082321e-06</v>
+        <v>5.450253706864239e-06</v>
       </c>
       <c r="F219" t="n">
-        <v>9.504345872526389e-06</v>
+        <v>9.51324515644748e-06</v>
       </c>
       <c r="G219" t="n">
-        <v>1.323925386163525e-05</v>
+        <v>1.324878362897602e-05</v>
       </c>
       <c r="H219" t="n">
-        <v>9.341530959002089</v>
+        <v>10.09829604880126</v>
       </c>
       <c r="I219" t="n">
-        <v>0.05310727440510204</v>
+        <v>0.03880405278106962</v>
       </c>
       <c r="J219" t="n">
-        <v>2.335382739750522</v>
+        <v>2.524574012200315</v>
       </c>
     </row>
     <row r="220">
@@ -7394,31 +7394,31 @@
         <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0002612690013382199</v>
+        <v>0.0002616597174103275</v>
       </c>
       <c r="C220" t="n">
-        <v>0.0001347981181301228</v>
+        <v>0.000134796274152947</v>
       </c>
       <c r="D220" t="n">
-        <v>-3.945138456958237e-05</v>
+        <v>-3.991346411662353e-05</v>
       </c>
       <c r="E220" t="n">
-        <v>5.682645131257697e-06</v>
+        <v>5.692080856629374e-06</v>
       </c>
       <c r="F220" t="n">
-        <v>9.697093701358481e-06</v>
+        <v>9.708692763381739e-06</v>
       </c>
       <c r="G220" t="n">
-        <v>1.367032263916033e-05</v>
+        <v>1.369026028474085e-05</v>
       </c>
       <c r="H220" t="n">
-        <v>5.020073833788503</v>
+        <v>5.072211363688452</v>
       </c>
       <c r="I220" t="n">
-        <v>0.2852439893899559</v>
+        <v>0.2799680890136614</v>
       </c>
       <c r="J220" t="n">
-        <v>1.255018458447126</v>
+        <v>1.268052840922113</v>
       </c>
     </row>
     <row r="221">
@@ -7426,31 +7426,31 @@
         <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0002753340689050272</v>
+        <v>0.0002754245518971282</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0001463534877041987</v>
+        <v>0.0001451074966274231</v>
       </c>
       <c r="D221" t="n">
-        <v>-4.775263453216067e-05</v>
+        <v>-4.572269438629363e-05</v>
       </c>
       <c r="E221" t="n">
-        <v>6.035489393801279e-06</v>
+        <v>6.031360795342176e-06</v>
       </c>
       <c r="F221" t="n">
-        <v>1.017223232054487e-05</v>
+        <v>1.02046416949477e-05</v>
       </c>
       <c r="G221" t="n">
-        <v>1.451633445595004e-05</v>
+        <v>1.451490930914055e-05</v>
       </c>
       <c r="H221" t="n">
-        <v>8.343101862324355</v>
+        <v>7.785062496453905</v>
       </c>
       <c r="I221" t="n">
-        <v>0.07978830804850756</v>
+        <v>0.09977661507630721</v>
       </c>
       <c r="J221" t="n">
-        <v>2.085775465581089</v>
+        <v>1.946265624113476</v>
       </c>
     </row>
   </sheetData>
